--- a/beritadetikjatim.xlsx
+++ b/beritadetikjatim.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t xml:space="preserve">judul</t>
   </si>
@@ -294,6 +294,156 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186534/puncak-arus-balik-libur-panjang-imlek-di-jatim-diprediksi-terjadi-besok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bubaran Haul Akbar di Surabaya Sempat Macetkan Suramadu hingga 2 Km</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimMinggu, 11 Feb 2024 19:28 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jembatan Suramadu arah Madura macet hingga kurang lebih 2 kilo meter. Hal ini dikarenakan adanya haul akbar di pondok pesantren (Ponpes) di Jalan Kedinding Lor. Dari video yang beredar di beberapa akun media sosial, tampak kemacetan panjang di ruas roda 4 Jembatan Suramadu arah Madura. Kemacetan terjadi pukul 13.41 WIB sepanjang kurang lebih 2 km, bahkan sebelum Jembatan Suramadu. Dalam video tersebut juga dijelaskan ada banyak bus yang parkir di pinggir jalan menjemput jemaah haul akbar di Jalan Kedinding. Sedangkan untuk ruas roda dua terlihat lancar. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Kanit PJR 8 Jatim Suramadu AKP Agus Wibowo menyebut, kemacetan itu disebabkan oleh bubaran haul akbar di Jalan Kedinding Lor. Pihak kepolisian juga telah dikerahkan. "Ada haul akbar di Ponpes Al-Fithrah Kedinding," kata AKP Agus saat dihubungi detikJatim, Minggu (11/2/2024) Agus menjelaskan acara haul akbar di Ponpes Al-Fithrah Kedinding sudah berlangsung sejak kemarin Sabtu (10/2). Hari ini kegiatan sudah selesai dan pihak kepolisian mengatur lalu lintas. "Acaranya sudah dari kemarin dan sore ini tinggal bubaran. Personil dari Polres Tanjung Perak selaku pemangku wilyah sudah di lokasi dari kemarin," jelasnya. Sementara Kasat Lantas Polres Tanjung Perak AKP Moch Suud menjelaskan kegiatan haul akbar di Ponpes Al-Fithrah sudah selesai dan bubaran pukul 12.00 WIB. Karena jemaah ada 10 ribu lebih, maka otomatis ketika selesai acara cukup macet. Pada pukul 16.30 WIB, jalan sudah normal dan lancar kembali. Baik dari arah Surabaya ke Madura maupun sebaliknya. "Kegiatan Sabtu dan Minggu. Minggu jam 12.00 WIB selesai acara, efeknya bubaran, macetnya siang hari. Pukul 16.30 WIB anggota melaporkan sudah clear, arah balik lancar, normal. Kenapa padat? Karena imbas bubaran jemaah, kantung parkir di jalur lambat di Lapangan Tembak Surabaya mereka harus nyebrang ke busnya, lebih dari 10 ribu jemaah nyebrang itu yang jadi hambatan" jelasnya. Sedangkan untuk parkir bus, Suud menyebut sedang diparkir di jalur lambat. Bus sedang menunggu jemaah yang sudah selesai mengikuti haul akbar. "Jalan ada jalur lambat dan cepat, bus itu parkir di jalur lambat. Volume menyebrang. Bisa dilaporkan jemaah itu 10 ribu lebih. Kalau bubaran otomatis padat," pungkasnya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187947/bubaran-haul-akbar-di-surabaya-sempat-macetkan-suramadu-hingga-2-km</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMKN Maritim di Brondong Lamongan Diresmikan Gubernur Khofifah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimMinggu, 11 Feb 2024 01:01 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gubernur Jatim Khofifah Indar Parawansa meresmikan Sekolah Menengah Kejuruan (SMK) Negeri Maritim Jawa Timur di Brondong Lamongan. Hadirnya sekolah ini menjadi bentuk ketanggapan pemerintah daerah dalam menghadirkan pendidikan terbaik di bidang vokasi atau keahlian berbasis maritim. "Vokasi-vokasi yang memang dibutuhkan oleh berbagai sektor itu akan terus kita siapkan. Karena pada dasarnya technical skill yang dibutuhkan oleh berbagai sektor kita harus difasilitasi bersama," ujar Khofifah saat meresmikan SMKN Maritim Jawa Timur di Brondong, Sabtu (10/2/2024). Khofifah berharap dengan berdirinya SMKN Maritim, Disdik Jatim mampu bersinergi dengan Koarmada II (Komando Armada II) atau Mabes AL. Khofifah menyebut mentoring dari TNI angkatan laut akan menjadi bagian dari penguatan. Tidak sekadar di sektor maritim, sektor perikanan, tapi juga membangun penguatan ke-Nusantara-an. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Tidak sekedar di sektor maritim, sektor perikanan, tapi kalau bersama TNI AL ini adalah bagian dari penguatan Nusantara seluruh hal-hal yang membangun penguatan ke nusantaraan kita akan mensinergikan," ujarnya. Hadirnya SMKN Maritim di Lamongan disambut baik oleh Bupati Lamongan Yuhronur Efendi. Menurut, Bupati Yes, SMKN maritim dapat mendorong kualitas generasi masa depan, khususnya dalam rangka peningkatan kualitas sumber daya manusia. "Terlebih Lamongan dengan potensi pantai sepanjang 47 km, produksi perikanan hampir 87.000 ton di tahun 2023, dan tercatat sekitar 60.000 warga bekerja di sektor perikanan, dengan jumlah perahu sekitar 3.423, menjadi penguat keterampilan dan keahlian," jelasnya. Kepala Dinas Pendidikan Provinsi Jawa Timur Aries Agung Paewai mengatakan secara historis SMKN Maritim telah diajukan izin pendirian dan operasional sejak 30 April 2019. SMKN Maritim Dibangun secara bertahap selama 4 tahun di lahan seluas 38.950 meter persegi. SMKN Maritim ini juga telah dilengkapi 2 ruang praktik siswa, 4 ruang kelas, asrama dua lantai dengan kapasitas 32 ruang dengan fasilitas kamar mandi dan pendukung lainnya, gedung kantor, fasilitas-fasilitas alat praktek, hingga lainnya. Usai diresmikan, SMKN Maritim akan mulai membuka Penerima Peserta Didik Baru (PPDB) pada Februari - Maret 2024 untuk gelombang 1 dan April - Mei 2024 untuk gelombang 2. Kuota untuk sekolah maritim tingkat atas ini sebanyak 108 siswa untuk konsentrasi keahlian yakni nautikal kapal penangkapan ikan, technica kapal penangkapan ikan, dan agrobisnis pengelolaan hasil perikanan. Saat peresmian, Khofifah didampingi Bupati Lamongan Yuhronur Efendi, Kepala Dinas Pendidikan Provinsi Jawa Timur Aries Agung Paewai, Wakil Bupati Lamongan Abdul Rouf. Selain itu, hadir pula Asops Koarmada II Kolonel Laut (P) Heri Prihartono.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187051/smkn-maritim-di-brondong-lamongan-diresmikan-gubernur-khofifah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Said Abdullah Harap Pemilu 2024 Tak Dikotori dan Dinodai Teror: Biarlah Alami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 15:55 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kampanye hari terakhir dimanfaatkan para relawan Ganjar Pranowo-Mahfud Md di Sumenep untuk mengoptimalkan dukungan pada paslon nomor urut 03. Salah satunya dengan menggelar kegiatan jalan-jalan sehat hingga pasar rakyat. Ketua DPD PDI Perjuangan Jatim Said Abdullah mengaku yakin Ganjar-Mahfud akan menang Pilpres 2024. Said optimistis Ganjar-Mahfud akan meraup suara 37 sampai 39 persen saat Pemilu nanti.Dalam kesempatan ini, Said Abdullah ditemani Bupati Sumenep Achmad Fauzi yang juga Ketua DPC PDI Perjuangan Sumenep. Keduanya berbaur dengan ribuan relawan dalam acara yang digelar di depan Museum Keraton Sumenep. Said Abdullah berharap, Pemilu berjalan tanpa ada paksaan kepada rakyat untuk memilih calon tertentu. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Nanti hasilnya akan ditentukan oleh rakyat dan semoga pemilihan ini tidak kotor, tidak dinodai oleh yang aneh-aneh, pemaksaan dan sebagainya apalagi teror, biarlah alami, kalau ada kata-kata klise yang selalu diteriakkan jujur adil terbuka dan sebagainya," kata Said Abdullah, Sabtu (10/02/2024). Said yang juga Ketua Banggar DPR RI itu yakin rakyat bisa datang ke TPS untuk menggunakan hak pilihnya tanpa ada paksaan apalagi teror dari siapapun. "Ketika rakyat-rakyat sudah menentukan pilihannya dengan cara yang legal, yang disediakan oleh undang-undang, saya haqqul yakin Ganjar Pranowo akan menang, insyaallah Ganjar Pranowo sekitar 37 sampai 39 persen," kata Said yang juga putra Sumenep asli itu. Sementara itu, Said berharap, masyarakat Sumenep akan menyambut dengan riang gembira kegiatan penutup kampanye tersebut. "Terima kasih kepada seluruh masyarakat Sumenep dan saya berharap sampai acara nanti malam akan penuh kedamaian, riang gembira kita bersatu padu layaknya masyarakat Sumenep," kata Said. Menurut Said, berbeda pilihan itu soal lumrah. Namun yang terpenting, para pemilih tetap bersama-sama menjaga situasi kondusif dan tidak boleh ada pemaksaan kepada siapapun untuk memilih paslon sesuai keinginannya. "Pilihan itu adalah pilihan hati nurani, tidak bisa siapapun memaksa-maksa dan kondisi ini saya berharap sampai tanggal 14 Februari dan seterusnya," harap Said.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186417/said-abdullah-harap-pemilu-2024-tak-dikotori-dan-dinodai-teror-biarlah-alami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Warga RI! Fotokopi KTP Tak Lagi Berlaku Mulai Tahun Ini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikInetSabtu, 10 Feb 2024 13:45 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pemerintah tengah berupaya untuk menggantikan penggunaan identitas kependudukan masyarakat, dari semula Kartu Tanda Penduduk (KTP) dengan Identitas Kependudukan Digital (IKD). Ditargetkan pada tahun 2024 ini proses peralihan tersebut akan rampung. Itu tandanya, era fotokopi KTP sudah tidak lagi berlaku ke depannya. Sebab, di masa mendatang, penggunannya berubah yang dilakukan secara digital. Di awal 2024, Presiden Joko Widodo (Jokowi) telah menginstruksikan untuk mempercepat transformasi digital dan keterpaduan melalui Digital ID atau IKD, pembayaran digital, dan pertukaran data untuk interoperabilitas layanan publik yang berorientasi kepada pengguna. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+   Terkait instruksi tersebut, Kementerian Dalam Negeri (Kemendagri) pun gencar melakukan percepatan pengembangan Sistem Pemerintahan Berbasis Elektronik (SPBE). "Secara spesifik, Ditjen Dukcapil memiliki peran penting dalam penyediaan IKD dan menjadi basis dalam proses pertukaran data (data exchange), terutama dalam memastikan keamanan dan keandalan data kependudukan," ujar Kemendagri beberapa waktu lalu. Sebagai informasi, IKD adalah identitas digital nasional, yaitu berupa alat untuk membuktikan identitas pengguna secara online ketika mengakses layanan pemerintah dan swasta. Kemendagri juga telah merilis aplikasi IKD yang bisa diakses lewat HP, baik pengguna smartphone berbasis Android dan iOS. Hal yang mencolok dari perubahan e-KTP menjadi IKD ini nantinya pelayanan publik tak lagi memerlukan fotokopi KTP. Persoalan tersebut yang sering dihadapi masyarakat ketika mengurus suatu dokumen. "IKD diharapkan dapat meningkatkan aksesibilitas dan efisiensi masyarakat terhadap layanan pemerintah maupun swasta. Pertama, IKD dapat memvisualisasikan KTP secara digital (menjadi KTP Digital) agar tidak diperlukan lagi fotokopi KTP," kata Kemendagri. Kemendagri menyebutkan sejak IKD diluncurkan pada tahun 2022 hingga saat ini (10 Januari 2024), lebih dari 7.316.449 jiwa telah memiliki Identitas Digital. Saat ini bank, seperti BNI, Bank Jatim, BPR Urban Bali dan BPR Danagung Ramulti sudah menggunakan IKD untuk proses pembukaan rekening secara lebih cepat dan aman.   Selain itu, di dalam aplikasi IKD, masyarakat dapat melakukan pelayanan adminduk seperti melaporkan kelahiran anak, melaporkan kematian, permohonan surat keterangan pindah, pisah atau pecah Kartu Keluarga, dan lainnya. "Ke depan, pengayaan fitur akan terus dilakukan untuk meningkatkan user experience dan kemudahan pengguna dalam melakukan aktivasi IKD tanpa harus datang ke kantor Dinas Dukcapil," pungkas Kemendagri.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://inet.detik.com/law-and-policy/d-7186066/dear-warga-ri-fotokopi-ktp-tak-lagi-berlaku-mulai-tahun-ini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kakorlantas Polri Sebut Jatim Sumbang Laka Lantas Tertinggi Setelah Jakarta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 13:29 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indeks keselamatan berlalu lintas di Indonesia dinilai masih jauh dari harapan. Bahkan, diklaim masih di bawah beberapa negara lain di Asia Tenggara. Kakorlantas Polri Irjen Aan Suhanan mengatakan, pihaknya menargetkan indeks keselamatan di 1,37 persen atau jumlah korban fatalitas sampai tahun 2025, diharapkan hanya berkisar pada 27 ribu. Menurutnya, jumlah fatalitas laka lantas di Indonesia, termasuk Jatim setiap tahun selalu naik. "Nanti kita lihat sudah sampai mana korban laka lantas ini, sudah tercapai atau tidak, lalu kita bandingkan dengan negara Asia Tenggara, kita ingin indeks keselamatan teratas di Asia Tenggara, tapi faktanya keselamatan berlalu lintas di Indonesia hanya di rangking 4 terburuk, bukan di atas, bisa kita lihat negara-negara lain di Singapura, Filipina, dan lain-lain jauh lebih baik," kata Aan saat pemaparan materi Gebyar Keselamatan 2024 di Gedung Mahameru Polda Jatim, Sabtu (10/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Artinya, kita perlu effort yang lebih keras lagi, komunitas lalin menjadi duta kita, duta Polri, duta pemerintah untuk menjaga keselamatan berlalu lintas. Jatim sendiri memang menyumbang angka laka lantas cukup tinggi, ada di rangking kedua setelah Jakarta, tahun lalu 2023 tertinggi, alhamdulillah tahun ini ada di rangking kedua," imbuhnya. Aan mengaku prihatin lantaran data kecelakaan lalu lintas di Indonesia dari tahun ke tahun terus meningkat. Menurutnya, ada kenaikan 10 persen pada tingkat fatalitas korban atau sekitar 27.596 orang. Apabila dibandingkan jumlah penduduk atau kendaraan bermotor di Indonesia, Aan memprediksi masih jauh dari target keselamatan di tahun 2025. Ia menyebut, target yang sudah ditentukan di tahun 2025 masih cukup jauh, yakni di 9,9 persen. "Artinya, perlu kerja keras untuk realisasikan target, masih 9,9 indeks keselamatan Indonesia. Di tahun 2024 ini jumlah laka lantas harus turun, itu perintah Pak Kapolda Jatim (Irjen Imam Sugianto) juga, bukan angkanya yang diturunkan tapi diubah," bebernya. "Sekarang yang dinilai adalah upayanya dari para Kasat Lantas bagaimana mengajak teman-teman untuk bersama-sama memberikan edukasi dan sosialisasi bersama para stakeholder untuk menurunkan angka laka lantas, mulai dari pendataan, blackspot, sampai penanganan laka lantas," imbuh Aan. Aan menyatakan, ada data yang sangat memprihatinkan. Sebab, dari data dan hasil rekapitulasi korban laka lantas, angka terbesar adalah usia-usia produktif. Mulai usia 15 sampai 59 tahun, yakni para pelajar, mahasiswa, hingga karyawan. "Angkanya tetap, 3 tahun berturut-turut dan menjadi korban laka lantas," sambungnya. Untuk jenis kelamin para korban, Aan memastikan adalah tulang punggung keluarga. Mulai dari suami, orangtua, atau bapak. "Artinya, kalau ortu yang jadi korban laka lantas bisa dipastikan akan ada 1 orang janda, kalau punya anak akan ada anak yatim, akibatnya luar biasa terhadap perekonomian keluarga, negara, dan seterusnya," papar Aan. "Karena 84 persen korban meninggal dunia akibat laka lantas adalah pria sebagai tulang punggung keluarga, ini menjadi referensi kita untuk sosialisasi dan edukasi betapa laka lantas ini mengakibatkan kemiskinan, terutama untuk keluarga," tambahnya. Lalu, untuk jenis kendaraan yang terlibat laka lantas di tahun 2021 sampai 2023, masih didominasi roda 2. Bahkan, masih menjadi rangking pertama selama 3 tahun berturut-turut. "Untuk faktor penyebab laka lantas angka secara nasional ini perilaku jaga jarak sering jadi penyebab laka lantas, bisa over speed, lalu tidak bisa mengerem, lalu terjadi tabrakan, dan seterusnya," jelasnya. Dari data ini, ia ingin masyarakat dan komunitas serta para produsen kendaraan untuk bersama-sama meningkatkan keselamatan berlalu lintas. Menurutnya, Jatim menjadi sasaran penekanan dan pencegahan laka lantas karena dinilai masih cukup tinggi setelah Jakarta. Berdasarkan data yang dihimpun Mabes Polri, Aan mengaku tengah berupaya dan mengkoordinasikan serta mengembangkan TI untuk mengelola keselamatan berlalu lintas. Supaya, bisa sejajar dengan negara-negara lain di Asia Tenggara. "Kita lihat sudah mulai banyak pengembangan melalui riset, dan lain-lain terhadap keselamatan berlalu lintas terutama pada roda 2 karena sangat rentan laka lantas. Data dari PBB memang roda 2 ini adalah yang paling fatal, karena tidak ada rumah luar, begitu jatuh langsung ke aspal," ungkap Aan. "Ini tanggung jawab kita, mulai dari Bapenda, Dishub, PUPR, Binamarga, polisi, sehingga bisa menekan jumlah fatalitas laka lantas, untuk para Kasatlantas di Jatim manfaatkan informasi dari kita untuk mengelola keselamatan berlalu lintas, tidak hanya patroli, tidak hanya jalan-jalan, tapi tentukan pada data yang ada, sehingga tepat sasaran," tutupnya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186225/kakorlantas-polri-sebut-jatim-sumbang-laka-lantas-tertinggi-setelah-jakarta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peringati HPN 2024, TKD Jatim Prabowo-Gibran Perhatikan Kesehatan Wartawan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 10:15 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKD Jatim 02 Prabowo Subianto-Gibran Rakabuming Raka memberi perhatian khusus kepada para jurnalis di Hari Pers Nasional (HPN) yang jatuh pada Jumat (9/2/2024). Pemeriksaan kesehatan hingga suplemen diberikan pada para jurnalis. Selain itu, TKD Jatim Prabowo-Gibran juga mengucapkan selamat Hari Pers Nasional. TKD Jatim berharap, di HPN 2024 kali ini, pers dapat tumbuh bersama dan berkembang baik, khususnya di Jawa Timur dan Indonesia. Ketua TKD Jatim Prabowo-Gibran, Boedi Prijo Soeprajitno menghargai kinerja semua jurnalis yang bekerja di Jawa Timur dan Indonesia, karena di masa Pemilu, kerja para jurnalis tentu sangat berat. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Kami mengulik sedikit, kami apresiasi kinerja jurnalis. Selamat Hari Pers Nasional ya, semoga pers tumbuh sehat dan baik di bumi tercinta," ujar Boedi di Jatim Expo Surabaya, Jumat (9/2/2024). Boedi Prijo juga mengirimkan tim untuk mengecek kesehatan dan memberikan vitamin gratis bagi para rekan media di HPN 2024 ini. "Di hari yang spesial, Hari Pers Nasional ini kita melakukan tes kesehatan dan pemberian vitamin untuk teman-teman media, sesuai tema Hari Pers Nasional 2024 ini yakni Mengawal Transisi Kepemimpinan Nasional dan Menjaga Keutuhan Bangsa, maka rekan media harus tetap sehat untuk mengawal tugas besar itu dengan baik," ujar Boedi. "Saya harapkan pemeriksaan kesehatan dan pemberian vitamin ini bisa dilakukan secara rutin ke depan, sehingga seluruh teman-teman terjaga kesehatannya. Sehat lahirnya, sehat batinnya dan sehat dompetnya," ungkap mantan Kepala Bapenda Jatim ini berkelakar. Tim kesehatan di lokasi, Dr Makhyan Jibril Al Farabi berpesan agar jurnalis tidak melupakan kesehatannya. Terlebih selama Pemilu. "Terutama kinerja awak media di lapangan, yang setiap hari tak kenal waktu, siang malam, panas dan hujan bertugas di lapangan selama Pemilu ini. Yang paling penting dari cek kesehatan dan berbagi vitamin gratis ini, teman-teman media bisa memastikan bahwa mereka sehat selalu dalam menjalankan pekerjaannya," pesan dr Jibril. Menurut Jibril, vitamin yang diberikan juga akan membantu menjaga daya tahan dan mencegah terjadinya penyakit. Apalagi ketika jurnalis harus kerja maraton ke sana ke mari dalam minggu-minggu krusial menjelang Pemilu. "Jika memang ada gejala atau apa, lanjut Jibril, bisa nantinya dilanjutkan ke pemeriksaan selanjutnya. Harapannya teman-teman di sini semuanya tetap fit, ketika bertugas di lapangan," pungkas Jibril.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7185907/peringati-hpn-2024-tkd-jatim-prabowo-gibran-perhatikan-kesehatan-wartawan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upaya Wagub Emil Dardak Cegah Banjir Susulan di Waru Sidoarjo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 09:22 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wagub Jatim Emil Elestianto Dardak memaparkan sejumlah upaya untuk mencegah banjir susulan di kawasan Waru, Sidoarjo. Salah satunya dengan mempercepat pembersihan enceng gondok di sungai. Sebelumnya, Emil telah meninjau langsung posko bencana banjir di Kantor BPBD Jatim. Kunjungan ini untuk memastikan kesiapsiagaan Pemprov Jatim dalam penanganan bencana banjir. Sebagaimana diketahui sebelumnya, hujan lebat mengakibatkan banjir menggenangi jalan desa di Kecamatan Waru, Sidoarjo. Ditambah hujan lebat pada keesokan harinya, Selasa (6/2) sore, menambah tingginya genangan yang ada di jalan desa hingga memasuki rumah warga. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Emil menjelaskan, pihaknya telah melakukan pemetaan melalui drone guna memantau titik-titik penyebab banjir. Pemetaan tersebut menggunakan drone di sepanjang aliran Kali Buntung Waru hingga arah Juanda sebagai area hilir. Harapannya, melalui pemetaan ini bisa menentukan langkah guna mengurangi risiko atau intensitas banjir di wilayah tersebut. "Kita tadi menggunakan drone untuk meninjau titik-titik tersebut. Ditemukan titik yang bisa dibersihkan yaitu karena ada banyak hambatan seperti enceng gondok sepanjang 7 kilometer," ungkap Emil, Sabtu (10/2/2024). Emil menuturkan, bencana banjir di Waru, Sidoarjo ini merupakan yang pertama kalinya terjadi. Curah hujan yang tinggi dan pasangnya air laut menjadi penyebab utama. Walaupun banjir sudah semakin surut, namun di beberapa wilayah masih terpantau genangan hingga betis orang dewasa. Oleh sebab itu, Wagub Emil menegaskan, tetap perlu ada upaya percepatan, seperti pembersihan enceng gondok guna mencegah banjir kembali terjadi. "Identifikasi bottle neck atau sumbatan botolnya ada di situ. Kalau air laut pasang kita tidak bisa mengantisipasi, tapi kalau sungainya kita bisa mengurangi potensi luapan atau tinggi muka air," tuturnya. Tidak hanya di kawasan Sidoarjo, kesiapsiagaan bencana juga harus ada di seluruh penjuru Jawa Timur, utamanya daerah rawan bencana. BPBD Jatim telah melakukan pemetaan di seluruh Jawa Timur, khususnya tempat-tempat yang di tahun sebelumnya titik rawan banjir. "Ada langkah antisipasi, jika banjir menyebabkan tanggul jebol, kita pastikan bahwa bronjong tersedia. Bahkan sand bag, karena saat ini adalah musim bencana hidrometeorologi," tegasnya. Tidak hanya itu, kesiapan posko pengungsian hingga dapur umum juga menjadi perhatian Wagub Emil. Ia memuji kesiapan seluruh elemen terkait seperti BPBD, Dinas Sosial hingga Dinas Kesehatan yang gercep dalam menangani para korban. "Hari ini kita juga pastikan bahwa tempat ini stand by untuk bisa men-support kebutuhan masyarakat. Ada tempat bermain, ada dapur umum bahkan ada tempat istirahat," pungkasnya. Pernyataan Emil Elestianto Dardak, Wakil Gubernur Jawa Timur bila penyebab banjir yang merendam ratusan rumah 5 desa di Kecamatan Waru Sidoarjo akibat enceng gondok di Sungai Buntung ternyata benar. Tumpukan enceng gondok terlihat memenuhi Sungai Buntung di depan Terminal Purabaya Bungurasih, tepatnya di samping depan Ramayana, Jumat (9/2/2024) pagi. Tidak hanya enceng gondok, sampah juga memenuhi Sungai yang membentang mulai dari Terminal Purabaya hingga Pasar Waru ini. Kepala Dinas PU SDA Jatim, Baju Trihaksoro mengatakan, sungai di depan Terminal Purabaya merupakan wilayah Balai Besar Wilayah Sungai Brantas. "Sungai di depan Terminal Purabaya merupakan wilayah Balai Besar Wilayah Sungai Brantas. Tapi kita tetap tanggung jawab untuk melakukan pembersihan," ujarnya Saat ini, lanjut Baju Trihaksono, pihaknya melakukan pembersihan enceng gondok di Sungai Desa Waru belakang Hotel Neo. "Dinas PU SDA Prov Jatim bergerak cepat dengan mengerahkan 1 unit excavator, 2 unit dump truk, 1 unit crane, 2 perahu pencacah enceng gondok dan puluhan tenaga untuk membersihkan sungai," tandasnya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7185830/upaya-wagub-emil-dardak-cegah-banjir-susulan-di-waru-sidoarjo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hasto Sebut Bupati Sidoarjo Tersandera hingga Terpaksa Dukung 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikSumutSabtu, 10 Feb 2024 03:00 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekjen PDIP Hasto Kristianto menyebut Bupati Sidoarjo tersandera hingga dipaksa menjadi pendukung pasangan calon (Paslon) 02 di Pemilu 2024. Hasto juga menyebut sejumlah oknum aparat, kepala dinas, hingga perangkat desa juga menurutnya diduga diminta untuk memenangkan partai tertentu. "Ya, tadi saya juga bertemu dan mendengarkan laporan dari seluruh pimpinan dari PDIP di Jatim. Mereka mengatakan justru di Jatim masif. Itu kan (ada) suatu operasi khusus yang kemudian menyandera Bupati Sidoarjo dan kemudian dipaksa mendukung paslon 02," kata Hasto mendampingi Megawati di Blitar, Jumat (9/2/2024), melansir detikJatim. Hasto menilai, aksi penyanderaan atau pemaksaan seperti itu juga dilakukan terhadap sejumlah oknum aparat TNI dan Polri. Bahkah terjadi di lingkup PDI Perjuangan. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Bagaimana oknum-oknum TNI/Polri, kemudian para kepala dinas, ditekan, dicari kelemahannya, kemudian Bupatinya juga dicari kelemahannya. Bahkan ada opsus-opsus juga untuk memenangkan partai tertentu," terangnya. Namun, Hasto mengaku pihaknya tetap akan percaya pada pengalaman tentang suara rakyat. Hasto mengatakan, kekuasaan dan kekuatan rakyat tidak bisa dibungkam. Sehingga hal itu dapat menjadi kekuatan arus balik. "Kami yakin kekuatan rakyat tidak bisa dibungkam. Kekuatan kebenaran yang mulai menyuarakan," jelasnya. Lanjut Hasto, termasuk kekuatan kebenaran dari aparat TNI/Polri yang harus menempatkan sebagai lembaga netral. Nantinya akan ada kekuatan kebenaran bagi para anggota TNI/Polri yang tidak setuju dengan perintah untuk berpihak ke pasangan 02. "Seiring dengan keberanian dari perguruan tinggi untuk bersuara, maka ini juga memunculkan keberanian dari para prajurit TNI/Polri yang sebelumnya ada perintah-perintah khusus. Kemudian mereka berani menegakkan bahwa mereka harus netral," pungkasnya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/sumut/berita/d-7185570/hasto-sebut-bupati-sidoarjo-tersandera-hingga-terpaksa-dukung-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caleg PDIP Asal Banyuwangi Ini Copot APK-nya Sendiri Jelang Masa Tenang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 00:01 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jelang masa tenang Pemilu 2024, sejumlah alat peraga kampanye (APK) mulai dicopoti. Hal ini sesuai dengan Pasal 1 angka 36 Undang-Undang Pemilu. Karena hal ini, Chandra Astan Caleg PDI Perjuangan Dapil 3 Jatim Banyuwangi, Situbondo dan Bondowoso satu ini langsung menginstruksikan pada pendukungnya membereskan APK lebih awal. Meski masa tenang masih dua hari lagi, tepatnya dimulai pada tanggal 11 hingga 13 Februari 2024 mendatang, caleg nomor urut 7 ini mengaku sengaja berinisiatif membersihkan APK dirinya sendiri secara mandiri. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Kami hari ini mulai membersihkan alat peraga kampanye berupa baliho yang sudah terpasang, supaya bisa membantu para teman kita Satpol PP supaya tidak terlalu banyak yang dibersihkan ya pak," ungkap Chandra, Jumat (9/2/2024). Chandra mengaku ingin memberikan contoh perilaku berpolitik yang edukatif dan sportif. Menurutnya, menghormati aturan masa tenang adalah wujud dari implementasi Pemilu bermartabat. "Kita taat aturan, bahwa setelah ini adalah masa tenang. Jadi, kita betul-betul masuk ke pemilu yang sesuai dengan aturan. Dan semoga ini bisa jadi gerakan supaya tidak banyak sampah Baliho di mana mana nantinya," jelas Chandra. Bersih-bersih pencopotan APK Chandra ini dimulai dari sekitar jalan utama menuju Bangsring, Chandra beserta pendukungnya mencopot semua APK. Yang kemudian akan serempak diikuti dengan gerakan pembersihan APK yang dipasang oleh pendukungnya di seluruh wilayah pencalonannya Dapil 3 Jatim.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7185576/caleg-pdip-asal-banyuwangi-ini-copot-apk-nya-sendiri-jelang-masa-tenang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fans Rhoma Irama Jatim Deklarasi Dukung AMIN, Ajak Penggemar Coblos 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimJumat, 09 Feb 2024 23:30 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kampanye akbar pasangan calon presiden dan calon wakil presiden nomor 01 Anies Baswedan dan Muhaimin Iskandar (AMIN) di Stadion Untung Suropati Kota Pasuruan dimeriahkan penampilan Raja Dangdut Rhoma Irama dan Soneta Grup. Bukan hanya itu, kelompok penggemarnya, Rhomais, juga deklarasi mendukung AMIN. Deklarasi dilakukan di atas panggung utama. Deklarasi disaksikan Anies Baswedan, Muhaimin Iskandar, Rhoma Irama dan ribuan pendukung. Deklarasi dibacakan Suryanto Aka yang terdiri 4 poin. "Kami fans Raja Dangdut Rhoma Irama Jawa Timur, rakyat lndonesia yang ingin melihat Indonesia adil makmur untuk semua," kata Ketua Umum Rhomais Jawa Timur, Suryanto Aka, Jumat (9/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Dalam kesempatan itu, Rhoma Irama juga melakukan simulasi pencoblosan Anies-Muhaimin saat di panggung. Simulasi dilakukan usai Anies dan Cak Imin menyampaikan pidato. Rhoma Irama mengenakan baju berwana putih dan memakai kaca mata hitam. Rhoma melakukan pencoblosan menggunakan sebuah tongkat. Dia mencoblos gambar Anies dan Muhaimin. Anies dan Muhaimin menemani Rhoma Irama dalam simulasi pencoblosan tersebut. Pendukung bersorak saat gambar Anies dan Muhaimin dicoblos sang Raja Dangdut. Setelah itu, Rhoma kemudian bernyanyi menghibur pendukung Anies-Muhaimin. Berikut 4 poin deklarasi Rhomais: 1. Mendukung penuh perjuangan Anies-Muhaimin dalam mewujudkan kesejahteraan dan persatuan bangsa 2. Mendukung penuh perjuangan Anies-Muhaimin untuk memenangkan Pilpres 2024 3. Mengajak para penggemar Rhoma lrama dan Soneta yang berada di bawah organisasi-organisasi yang dipimpin Raja Dangdut Rhoma Irama, yang sejalan dengan sikap Rhoma Irama, mari bergabung dan bersatu padu didalam wadah RHOMAIS untuk memperjuangkan perubahan. 4. Mengajak seluruh rakyat untuk mencoblos di TPS dan ikut mengawasi penghitungan suara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7185563/fans-rhoma-irama-jatim-deklarasi-dukung-amin-ajak-penggemar-coblos-01</t>
   </si>
 </sst>
 </file>
@@ -891,6 +1041,146 @@
         <v>75</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/beritadetikjatim.xlsx
+++ b/beritadetikjatim.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t xml:space="preserve">judul</t>
   </si>
@@ -110,340 +110,586 @@
     <t xml:space="preserve">Seorang pemandu wisata bernama Faisal Akbar Ramadhan (29), asal Surabaya, Jawa Timur (Jatim) ditangkap polisi. Dia diciduk diduga karena memperkosa turis asal China inisial HJT di Bali. Kasi Humas Polresta Denpasar AKP I Ketut Sukadi mengatakan pelaku diringkus di sebuah hotel di kawasan Nusa Dua, Kuta Selatan, Badung, Bali. Dia diamankan oleh sekuriti hotel dan teman korban usai melancarkan aksi bejatnya itu.  "Saat ini pelaku sudah diamankan di Sat Reskrim Polresta Denpasar, sedang menjalani pemeriksaan dan penyidikan secara intensif," kata Sukadi dalam keterangannya, Sabtu (10/2/2024), melansir detikBali. 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
+ Saat diinterogasi, Faisal mengaku awalnya menawarkan diri sebagai pemandu sekaligus sopir pribadi HJT selama berwisata di Bali. HJT dan temannya lalu menggunakan jasa Faisal untuk mengantar dan menemani mereka ke tempat hiburan malam pada Rabu (7/2/2024). "Mereka sempat menikmati hiburan dan minum alkohol hingga pukul 01.00 Wita. Setelah itu, korban dan temannya meminta tersangka untuk mengantar mereka kembali ke hotel di kawasan Nusa Dua," ungkap Sukadi. Bukannya mengantarkan turis China itu ke hotel tempat mereka menginap, pelaku malah membawa mereka ke hotel lain di kawasan Benoa. Pelaku lantas mengajak HJT masuk ke kamar hotel tersebut dengan alasan mengambil hadiah untuk diberikan kepada temannya. Saat itulah Faisal melancarkan aksi bejatnya dan memerkosa perempuan China berusia 26 tahun tersebut. Sukadi menyebut HJT yang dalam kondisi mabuk sempat berusaha menyelamatkan diri. Tapi, upaya tersebut gagal. "Korban berusaha melakukan perlawanan dengan pelaku, tetapi pelaku menutup wajah korban dengan bantal dan menyetubuhi korban," imbuh Sukadi. Akibat perbuatannya, Faisal dijerat Pasal 285 KUHP tentang pemerkosaan. Ia terancam hukuman penjara maksimal 12 tahun.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/sumut/hukum-dan-kriminal/d-7187081/perkosa-turis-di-bali-pemandu-wisata-ini-ditangkap-polisi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masa Tenang Pemilu, Polda Jatim Sebar 1.013 Personel di Daerah Rawan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimMinggu, 11 Feb 2024 04:01 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapolda Jatim Irjen Imam Sugianto mengungkapkan pihaknya menerjunkan ribuan personel saat memasuki masa tenang Pemilu 2024. Ribuan personel itu akan disebar di sejumlah titik rawan. "Kami upayakan mitigasi dan sudah tambah daerah rawan di mitigasi Sumenep dan 5 hari lalu sudah berangkat ke kepulauan di Kabupaten Sumenep," kata Imam saat ditemui awak media di Halaman Gedung Mahameru Polda Jatim, Sabtu (10/2/2024). Imam mengimbau masyarakat tetap beraktivitas seperti biasa saat masa tenang pemilu. Masa tenang Pemilu sendiri akan berlaku Minggu (11/2) hingga 13 Februari mendatang. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Minggu tenang besok dan para paslon tidak ada agenda, untuk minggu tenang ini kami imbau pada masyarakat beraktivitas seperti biasa dan (diharapkan) tidak terjadi kasus-kasus yang terhubung dengan pelaksanaan hari puncak (Pemilu 2024)," ujarnya. Sementara itu, Karo Ops Polda Jatim Kombes Puji Santosa mengatakan ribuan personel telah dipersiapkan pada apel terakhir pagi ini. Seluruhnya, akan diberangkatkan pada Minggu (11/2) nanti ke sejumlah titik. "Hari ini apel dan pengecekan terakhir, total 1.013 personel, besok akan laksanakan pemberangkatan ke lokasi masing-masing," tutur Puji. Ia menyebut ribuan personel itu bakal dikirim ke 6 titik. Diantaranya Banyuwangi Kota, Bangkalan, Sampang, Pamekasan, dan Sumenep. "Untuk Madura, seluruh kabupaten kita BKO sesuai permintaan dari kapolres masing-masing. Untuk pulau Madura kita berikan penambahan sekitar 750 personel terbagi menjadi 4 kabupaten," jelasnya. "Kita bekali mereka dengan anggaran atau uang saku dan uang makan, obat-obatan atau kesehatan, mereka wajib bawa jas hujan, senter, dan lain sebagainya, kami juga berikan buku panduan untuk melaksanakan tugas pam (pengamanan) di sana," imbuh dia. Ia memastikan seluruh personel yang diberangkatkan harus netral. Terutama saat pelaksanaan pemilu di hari H nanti atau Rabu, 14 Februari 2024 mendatang. "Polri harus netral dan tidak ikut menghitung hasil pungut (pemungutan suara) pada saat pencoblosan itu, jadi mereka tidak diperbolehkan, yang penting hanya mengamankan bagaimana pelaksanaan pencoblosan aman damai sesuai aturan yang berlaku," tandas Puji.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187054/masa-tenang-pemilu-polda-jatim-sebar-1-013-personel-di-daerah-rawan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eceng Gondok Sungai Buntung Penyebab Banjir Sidoarjo Ternyata Masih Banyak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimMinggu, 11 Feb 2024 02:01 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guna mengantisipasi terjadinya banjir kembali di Waru, Sidoarjo, Pemprov Jatim melalui Dinas PU Sumber Daya Air (SDA) dan BPBD melakukan pengecekan sungai-sungai di sekitaran Waru. Kadis PU SDA Jatim Baju Trihaksoro mengatakan pihaknya telah mengecek langsung sungai-sungai di wilayah Waru yang menjadi daerah aliran sungai (DAS) Sungai Brantas. Sungai yang dicek di antaranya di Sungai Buntung, Desa Tambak Oso, Kecamatan Waru, Sidoarjo. "Pagi sampai siang ini kami telah melakukan pengecekan sungai yang jadi aliran Brantas di wilayah Waru," kata Baju, dalam keterangannya, Sabtu (10/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Kami ingin pastikan keadaan sungai bersih dan tidak ada penumpukan enceng gondok, yang bisa menyebabkan penyumbatan air sehingga tidak lancar menuju muara," tambahnya Baju. Menurut Baju, salah satu sungai yang terhambat alirannya karena enceng gondok yakni Sungai Buntung. Dirinya bersama personel PU SDA Jatim, BPBD Jatim, serta Perum Jasa Tirta 1, dqn BBWS Brantas mengecek langsung kondisi terkini sungai tersebut. "Hasilnya masih terdapat koloni enceng gondok yang menyumbat aliran air Sungai Buntung dan ditengarai sebagai penyebab banjir di Kecamatan Waru beberapa hari kemarin," ujar Baju. Baju memastikan enceng gondok di Sungai Buntung akan segera dibersihkan agar aliran sungai lancar kembali dan tidak menyebabkan banjir. "Perum Jasa Tirta 1 rencananya akan membantu mengirimkan 1 unit excavator amphibi. Untuk mempercepat penanganan diperlukan koordinasi lebih lanjut terkait untuk penambahan alat guna mempercepat pekerjaan," ujarnya. "Kita juga akan mencari tempat pembuangan enceng gondok, serta memikirkan akses untuk excavator amphibi masuk. Secepatnya akan segera dibersihkan, dan akan dilakukan rapat koordinasi dengan mengundang instansi terkait untuk percepatan pelaksanaan kegiatan," tandas Mantan Kepala Dinas PU Cipta Karya ini.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187052/eceng-gondok-sungai-buntung-penyebab-banjir-sidoarjo-ternyata-masih-banyak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puluhan Ribu Buruh SKT Titip Pesan ke Ketua Projo Jatim: Matur Nuwun Jokowi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimMinggu, 11 Feb 2024 01:45 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ketua DPD Pro Joko Widodo (Projo) Jawa Timur Bayu Airlangga bertemu dengan puluhan ribu buruh sigaret kretek tangan (SKT) di 4 wilayah berbeda yakni Mojokerto, Jombang, Nganjuk, dan Madiun. Dalam perjumpaannya dengan buruh SKT ini, Bayu mengaku mendapat banyak titipan aspirasi agar program-program Presiden Jokowi terus dilanjutkan. "Saya bertemu di 4 kabupaten berbeda, dan mereka semua ingin agar program Presiden Jokowi bisa diteruskan ke depan. Dan harapan buruh penerus Pak Jokowi ya Prabowo-Gibran," kata Bayu dalam keterangannya, Sabtu (10/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Bayu menyebut para buruh SKT juga menyampaikan terima kasihnya kepada Presiden Jokowi yang sudah menurunkan cukai rokok SKT hingga di angka 4,7%. "Keberpihakan Pak Jokowi kepada rakyat, kepada buruh SKT diharapkan bisa diteruskan oleh penerus beliau yang akan memimpin 5 tahun ke depan," kata Bayu. Mantan Gubernur Jatim 2009-2019 yang turut hadir yakni Soekarwo (Pakde Karwo) menceritakan saat cukai SKT melambung tinggi 5 tahun silam. Kala itu cukai rokok SKT naik 16,44% berdasar Peraturan Menteri Keuangan (PMK) 152/2019 tentang Perubahan Kedua atas PMK 146/2017 tentang Tarif Cukai Hasil Tembakau. "Saya menerima masukan dari pabrik dan owner rokok SKT karena banyak PHK ketika cukai di angka 16 persen sekitar 4-5 tahun lalu. Kala itu, Hampir setengah pekerja buruh SKT di pabrik-pabrik di-PHK," ujar Pakde Karwo. "Kala itu masukan dari buruh yang saya tampung kemudian saya sampaikan langsung dan diterima Presiden Jokowi. Saat itu, Presiden yang langsung turun mengecek lapangan akhirnya ambil keputusan tidak ada kenaikan cukai untuk tahun 2021 sebagai komitmen pemerintah juga dalam recovery ekonomi saat pandemi COVID-19," tambah Pakde Karwo. Sukmini, salah satu buruh SKT asal Madiun menyampaikan terima kasihnya ke Presiden Jokowi karena telah menurunkan cukai rokok SKT dari awalnya hampir 16%, kini menjadi 4,7%. "Terima kasih Pak Jokowi yang peduli kepada buruh SKT. Ketika cukai itu di angka 16 persen, banyak PHK massal. Sekarang cukai sudah 4,7 persen, pabrik baru pakai pekerja lagi. Kami bisa bekerja lagi, saya harap penerus Pak Jokowi bisa melanjutkan program-program pro rakyat cilik," ujar Sukmini.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187078/puluhan-ribu-buruh-skt-titip-pesan-ke-ketua-projo-jatim-matur-nuwun-jokowi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Nyalla-Keponakan Khofifah Diprediksi Lolos Jadi Anggota DPD RI Versi ARCI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimMinggu, 11 Feb 2024 00:01 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accurate Research and Consulting Indonesia (ARCI) merilis hasil terbaru elektabilitas calon Anggota DPD RI dari Jawa Timur. "Hasilnya, La Nyalla masih menjadi calon anggota DPD RI dengan elektabilitas tertinggi di Jawa Timur," kata Direktur ARCI Baihaki Sirajt saat paparan di Surabaya, Sabtu (10/2/2024). Baihaki kemudian menyebut peluang Keponakan Gubernur Jatim Khofifah Indar Parawansa, Lia Istifhama untuk lolos ke DPD RI sangat besar. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Elektabililtas Lia Istifhama menempel La Nyalla. Ini cukup mengejutkan mengingat Lia adalah pendatang baru," jelasnya. Dari jawaban responden, Baihaki menyebut gambar-gambar keponakan Khofifah ini cukup masif di daerah-daerah. Sehingga, banyak responden yang mengetahuinya. "Dan responden juga tertarik, karena Lia menjadi representasi wakil DPD RI perempuan. Jika pada Pileg 2019 lalu representasi perempuan itu ada di Eva Zainal Abidin, yang sekarang nyaleg di Gerindra, di Pileg 2024 ini beralih ke Lia," bebernya. Selain itu, Baihaki menyebut nama DPD RI inkumben seperti Ahmad Nawardi berpeluang lolos kembali ke Senayan untuk periode 2024-2029. "Sementara Mantan Ketua KPK Agus Raharjo elektabilitasnya masih rendah. Namun, undecided voters masih tinggi di angka 28 persen," tandas Baihaki. Survei ARCI dilakukan pada 27 Januari-5 Februari 2024. Survei menggunakan metode multistage random sampling dengan jumlah sampel sebanyak 1.800 responden yang tersebar proporsional di 38 kabupaten/kota Jatim. Survei ARCI memiliki margin of error sebesar 2,8% dan tingkat kepercayaan sebesar 95%. Berikut elektabilitas Calon DPD RI dari Jatim Periode 2024-2029: 1. La Nyalla Mattalitti 20,7%2. Lia Istifhama 15,6%3. Ahmad Nawardi 7,9%4. Abdul Qodir Amir 6,9%5. Adilla Azis 6,5%6. Ayub Khan 3,9%7. Agus Raharjo 3,6%8. Kuncung Wahyudi 2,8%9. Kondang Kusumaning Ayu 1,7%10. Bambang Haryanto 0,7%11. Catur Budi Utomo 0,5%12. Doddy Dwi Nugroho 0,2%13. Muhammad Tianto 0,1%Tidak tahu/tidak menjawab 28,8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187050/la-nyalla-keponakan-khofifah-diprediksi-lolos-jadi-anggota-dpd-ri-versi-arci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hitung-hitungan TKD Jatim dengan Gabungnya Kiai Khos ke Prabowo-Gibran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 22:33 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tim Kampanye Daerah (TKD) melakukan kalkulasi dukungan masyarakat Jatim terhadap Prabowo-Gibran. Dukungan ini diketahui dari hasil data survei yang ada. Ketua TKD Jatim Prabowo Gibran, Boedi Prijo Suprayitno menyebut dukungan didominasi dua masyarakat dari organisasi NU dan Muhammadiyah. Hal ini didasarkan pada survei Poltracking. "Taruhlah warga NU Jatim dari 41 juta total penduduk Jatim, 60 persennya adalah warga NU atau sekitar 24 jutaan. Sementara itu, warga Muhammadiyah adalah 10 jutaan, atau 24 persen dari total penduduk Jatim dalam survei Poltracking arah dukungan warga Muhammadiyah ke Paslon 02 adalah 42 persen, sedangkan warga NU sekitar sesuai riset Poltracking per Februari adalah 60,9 persen mendukung Prabowo Gibran," papar Boedi, Sabtu (10/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Maka suara dukungan Muhammadiyah ke Prabowo Gibran, berdasar total hak pilih Jatim 31 juta, maka pemilih Muhammadiyah yang mendukung paslon 02 adalah 4,3 juta. Ditambah warga NU Jatim 60,9 persen atau berjumlah sekitar 14,616 juta maka potensi dukungan Prabowo Gibran dari NU dan Muhammadiyah di Jatim sebanyak 18,916 juta total perolehan suaranya," tambah Boedi. Boedi tidak memungkiri bahwa survei yang pernah dilakukan lembaga di Jatim turut mengaitkan kepuasan kepemimpinan Khofifah sebagai Gubernur Jatim dengan elektabilitas paslon 02. "Tercatat beberapa kiai dan pondok pesantren yang selama ini mendukung Khofifah Indar Parawansa, dipastikan mendukung Prabowo Gibran. Khofifah Effect tentu tidak hanya kiai dan pondok pesantren saja. Swing vote, pemilih milenial, hingga profesi warga Jatim juga tinggi mendukung Prabowo Gibran sebagai impact dari Khofifah Effect tersebut," jelasnya. "Taruhlah, para pelaku usaha, petani, pedagang, dan jutaan UMKM di Jatim yang telah menikmati kinerja Khofifah memimpin Jatim 5 tahun terakhir," tandas Boedi. Sementara itu, dukungan terhadap Prabowo-Gibran juga terus mengalir. Sejumlah kiai khos dan nyai di Jawa Timur. Mereka tampak turut hadir dalam acara Sholawatan Bersama Prabowo-Gibran Menang Sekali Putaran' yang digelar TKD Jatim 02 di Jatim Expo Surabaya. Dianantaranya hadir KH M Anwar Manshur, yang merupakan cucu pendiri Ponpes Lirboyo KH Abd Karim. Deretan kiai khos dan alim lainnya juga muncul di barisan paslon 02 antara lain, KH Fuad Noerhasan, Pengasuh Ponpes Sidogiri, Pasuruan. Mereka berdua secara bergiliran memanjatkan doa diamini puluhan ribu massa jemaah solawatan yang hadur. Kiai Anwar Manshur, kemudian KH Fuad Noerhasan, dan KH Anwar Iskandar, Rois Syuriah PBNU, yang juga pendiri Ponpes As Saidiyaj, Kota Kediri ini, membacakan doa khusus. "Kabulkan Prabowo Gibran menjadi Presiden dan Wakil Presiden RI, di Pemilu 2024, dan Bu Khofifah Indar Parawansa, jadi Gubernur dua periode," ujarnya. Dengan kehadiran tokoh kiai khos dan alim di Jawa Timur, ini tentu akan diikuti oleh masyarakat NU yang berprinsip nderek kiai (ikut kiai,red). Sedikitnya 31 juta lebih pemilih yang masuk di daftar pemilih tetap (DPT) akan menggunakan suaranya di Pemilu dan Pilpres 2024, besok. Berikut daftar Kiai yang mendukung Prabowo Gibran di Jatim: KH. Anwar Mansur Pp Lirboyo KediriKH. Fuad Nur Hasan Pp SidogiriKH. Anwar Iskandar Pp Al Amin KediriKH. Abdul Ghofur Pp. Sunan Drajat LamonganKH Agus Ubaidillah Faqih Langitan Tuban Kh. M. Hasan Mutawakkil Alallah Pp Genggong ProbolinggoKH. Asep Saifuddin Chalim Pp Ammanatul Ummah MojokertoKH. Muchlis Alawy Pp Attaroqqi Tsani SampangKH. Syafiuddin Wahid SampangKH. Abdul Hamid Mannan Pamekasan Ibu Nyai Mahfudhoh Wahab Hasbullah Pp Tambakberas Ibu Nyai MasrurohKH. Hasib Wahab Hasbullah Pp TambakberasKH. Fahrur Rozi Pp An-nur I MalangKH. Abdul Qodir Pp Al Qodariyah Sumenep Kh. Nurullah Pp Al IstifadahKH. Ghozali Pp Lanbulan Sampang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187010/hitung-hitungan-tkd-jatim-dengan-gabungnya-kiai-khos-ke-prabowo-gibran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Amalan Bulan Syaban yang Disunnahkan, Yuk Amalkan!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikSulselSabtu, 10 Feb 2024 22:21 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulan Syaban 1445 H jatuh pada tanggal 11 Februari 2024 dalam penanggalan Masehi. Terdapat sejumlah amalan yang dianjurkan untuk dikerjakan umat Islam. Lantas, apa saja amalan bulan Syaban yang dapat dikerjakan? Melansir NU Online Jatim, Syaban menjadi salah satu bulan yang biasa dilupakan karena diapit dua bulan mulia yaitu Rajab dan Ramadhan. Padahal, Syaban merupakan bulan diangkatnya amal-amal manusia sebagaimana sabda Rasulullah SAW berikut: 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ ذاكَ شهر تغفل الناس فِيه عنه ، بين رجب ورمضان ، وهو شهر ترفع فيه الأعمال إلى رب العالمين، وأحب أن يرفع عملي وأنا صائم -- حديث صحيح رواه أبو داود النسائي Artinya: Bulan Syaban adalah bulan yang biasa dilupakan orang, karena letaknya berada di antara Rajab dengan Ramadan. Bulan Syaban adalah bulan diangkatnya amal-amal. Karenanya, aku menginginkan pada saat diangkatnya amalku, aku dalam keadaan sedang berpuasa. (HR Abu Dawud dan Nasa'i) Untuk itu, umat muslim dianjurkan memperbanyak amalan di bulan Syaban. Nah, berikut 8 amalan bulan Syaban lengkap dengan keistimewaannya yang dilansir dari buku Kalender Ibadah Sepanjang Tahun oleh Ustaz Abdullah Faqih Ahmad Abdul Wahid. Yuk, disimak! 1. Berdoa di Bulan Syaban Memasuki bulan Syaban, terdapat doa yang dibaca Rasulullah SAW. Berikut bacaan doanya lengkap Arab, Latin, dan artinya: اللَّهُمَّ بَارِكْ لَنَا فِي رَجَبَ وَشَعْبَانَ وَبَلِّغْنَا رَمَضَانَ Arab Latin: Allaahumma baarik lanaa fii rajaba wa sya'baana wa ballighnaa ramadhaana Artinya: "Ya Allah, berkahilah kami di bulan Rajab dan Syaban, dan sampaikanlah kami kepada bulan Ramadhan." Doa tersebut dianjurkan untuk dibaca berulang kali ketika memasuki bulan Syaban. Pasalnya, semakin sering dibaca maka semakin besar pahalanya. Selain itu, ada pula doa lainnya yang biasa dibaca oleh para sahabat Nabi SAW di bulan Rajab dan Syaban. Bacaan doanya sebagai berikut: اللَّهُمَّ سَلَّمْنِي لِرَمَضَانَ وَسَلَّمْ لِي رَمَضَانَ وَتَسَلَّمْهُ مِنِّي مُتَقَبَّلا Arab Latin: Allaahumma sallimnii liramadhaana wasallim lii ramadhaana wa tasallam-hu minni mutaqabbalan Artinya: "Ya Allah, antarkanlah aku hingga sampai Ramadhan, dan antarkanlah Ramadhan kepadaku, dan terimalah amal-amalku di bulan Ramadhan." 2. Berdoa di Malam Nifsu Syaban Malam Nifsu Syaban menjadi salah satu waktu istimewa dalam ajaran Islam. Di waktu ini, umat muslim juga dianjurkan memanjatkan doa kepada Allah. Doa yang dilafalkan dikutip oleh para ulama dari doa Nabi Adam ketika turun ke Bumi, thawaf tujuh kali di Ka'bah, dan salat dua rakaat di belakang maqam. Berikut bacaan doanya: اللَّهُمَّ إِنَّكَ تَعْلَمُ سِرِّي وَعَلَانِيَتِي فَاقْبَلْ مَعْذِرَتِي، وَتَعْلَمُ حَاجَتِي فَأَعْطِنِي سُؤَلِي، وَتَعْلَمُ مَا فِي نَفْسِي فَاغْفِرْ لِي ذَنْبِي اللَّهُمَّ إِنِّي أَسْأَلُكَ إِيْمَانًا يُبَاشِرُ قَلْبِيْ وَيَقِيْنَا صَادِقًا حَتَّى أَعْلَمَ أَنَّهُ لَا يُصِيبُنِي إِلَّا مَا كَتَبْتَ لِي وَرَضِنِي بِقَضَائِكَ Arab Latin: Allaahumma innaka ta'lamu sirrii wa 'alaaniyati faqbal ma'dzirati, wata'lamu haajatii fa'thinii suaa-li, wata'lamu maa fii nafsii faghfir lii dzambii. Allaahumma innii as-aluka imaanan yubasyiru qalbii wa yaqiinan shaadiqan hattaa a'lamu annahu laa yushiibunii illaa maa katabta lii waraddani biqadhaa-ik. Artinya: "Ya Allah, sungguh Engkau tahu apa yang tersembunyi dan tampak dariku, karena itu terimalah penyesalanku. Engkau tahu kebutuhanku, maka kabulkanlah permintaanku. Engkau tahu apa yang ada dalam diriku, maka ampunilah dosaku. Ya Allah sungguh aku memohon kepada-Mu iman yang menyentuh kalbuku dan keyakinan yang benar sehingga aku tahu bahwa tidak akan menimpaku kecuali telah Engkau tetapkan atasku. Ya Allah berikanlah rasa rela terhadap apa yang Engkau bagi untuk diriku." 3. Berpuasa di Bulan Syaban Amalan sunah selanjutnya yaitu dengan melaksanakan puasa. Umat muslim yang mengerjakannya tidak terikat pada ketentuan khusus sehingga tidak ada tanggal atau hari tertentu untuk mengerjakannya. Apabila dikerjakan, pahala yang didapatkan sangat besar karena bulan Syaban termasuk ke dalam bulan mulia. Untuk itu, berikut beberapa puasa yang bisa dikerjakan selama bulan Syaban. Sebagian ulama berpendapat bahwa puasa di pertengahan bulan Syaban hukumnya sunnah. Sebagaimana sabda Rasulullah SAW berikut ini: "Jika tiba waktu malam nisfu Syaban, maka beribadahlah di malamnya dan puasalah di siangnya, karena sesungguhnya Allah Ta'ala menurunkan rahmat-Nya mulai tenggelamnya matahari (Maghrib) di langit dunia dan berfirman, 'Siapa yang meminta ampun akan Aku ampuni. Siapa yang minta rezeki akan Aku beri rezeki. Siapa yang terkena musibah akan Aku sembuhkan. Siapa yang minta ini dan itu seterusnya, sampai waktu terbitnya fajar (matahari)." (HR. Ibnu Majah). Rasulullah SAW memperbanyak puasa sebagai salah satu amalan pada bulan Syaban. Bahkan, dalam sebuah hadis disebutkan bahwa Rasulullah SAW berpuasa sunah di bulan ini hampir satu bulan penuh. Sebagaimana pernah dikatakan Aisyah RA dalam hadis riwayat Bukhari dan Muslim berikut: "Saya tidak pernah melihat Rasulullah SWT melakukan puasa satu bulan penuh kecuali pada bulan Ramadhan. Dan, saya juga tidak pernah melihatnya sangat banyak melakukan puasa selain pada bulan Syaban." (HR. Bukhari dan Muslim). Dalam hadis riwayat Tirmidzi dan Nasa'i juga disebutkan bahwa Ummu Salamah sebagai berikut: "Saya tidak pernah melihat Rasulullah SAW berpuasa dua bulan berturut-turut, kecuali pada bulan Syaban dan bulan Ramadhan." Beberapa hadits meriwayatkan bahwa hari Kamis dan Senin di bulan Syaban memiliki keistimewaan yang luar biasa apabila diisi dengan berpuasa. Berpuasa pada hari Kamis di bulan Syaban sendiri termasuk salah satu amalan yang memiliki keutamaan. Dalam sebuah hadis dijelaskan bahwa pada hari Kamis bulan Syaban para malaikat sibuk menghiasi langit. Kemudian mereka berseru, "Wahai Tuhan kami, ampunilah orang- orang yang berpuasa pada hari ini dan kabulkanlah doa mereka." Selain itu, Rasulullah SAW bersabda sebagai berikut: "Barang siapa berpuasa pada hari Senin dan Kamis di bulan Syaban, maka Allah SWT akan mengabulkan kepentingan dunia dan akhiratnya masing-masing dua puluh kepentingan." 4. Membaca Surah Yasin di Malam Nifsu Syaban Amalan berikutnya yang bisa dikerjakan adalah membaca surah Yasin di malam Nifsu Syaban. Waktu pengerjaannya yaitu setelah salat magrib dan lebih utama jika dikerjakan bersama-sama. Adapun amalan yang sangat dianjurkan ini dikerjakan secara berturut-turut sebanyak tiga kali. Bacaan pertama diniatkan untuk meminta umur panjang yang diisi dengan ketaatan kepada Allah SWT. Bacaan Yasin kedua diniatkan agar dijaga dari semua bahaya dan diberi keluasan rezeki yang baik serta halal. Bacaan yang ketiga diniatkan agar hati merasa cukup dan dianugerahi husnul khatimah. Apabila telah selesai membaca surah Yasin, umat muslim disunahkan membaca doa berikut: بِسْمِ اللهِ الرَّحْمَنِ الرَّحِيمِ. اللَّهُمَّ يَا ذَا الْمَنِّ وَلَا يُمَنُ عَلَيْهِ، يَا ذَا الْجَلَالِ وَالْإِكْرَامِ، يَا ذَا الطَّوْلِ وَالْإِنْعَامِ، لَا إِلَهَ إِلَّا أَنْتَ ظَهْرَ اللَّاجِيْنَ، وَجَارَ الْمُسْتَجِيْرِينَ، وَمَأْمَنَ الْخَائِفِينَ اللَّهُمَّ إِنْ كُنْتَ كَتَبْتَنِيْ عِنْدَكَ فِي أُمَ الْكِتَابِ شَقِيًّا أَوْ مَحْرُوْمًا أَوْ مَطْرُوْدًا أَوْ مُقَتَّرًا عَلَيَّ فِي الرِّزْقِ فَامْحُ مِنْ أُمَ الْكِتَابِ شَقَاوَتِي وَحِرْمَانِي وَتَقْتِيرَ رِزْقِي، وَأَثْبِتْنِي عِنْدَكَ سَعِيدًا مَرْزُوْقًا مُوَفَقًا لِلْخَيْرَاتِ، فَإِنَّكَ قُلْتَ وَقَوْلُكَ الْحَقُّ فِي كِتَابِكَ الْمُنْزَلِ عَلَى لِسَانِ نَبِيِّكَ الْمُرْسَلِ يَمْحُو اللَّهُ مَا يَشَاءُ وَيُثْبِتُ وَعِنْدَهُ أُمُّ الْكِتَابِ). إِلهِي بِالتَّجَلِي الْأَعْظَمِ فِي لَيْلَةِ النِصْفِ مِنْ شَعْبَانَ الْمُكَرَمِ الَّتِي يُفْرَقُ فِيْهَا كُلُّ أَمْرٍ حَكِيمٍ وَيُبْرَمُ، إِكْشِفْ عَنِّي مِنَ الْبَلَاءِ مَا أَعْلَمُ وَمَا لَا أَعْلَمُ وَاغْفِرْ لِي مَا أَنْتَ بِهِ أَعْلَمُ إِنَّكَ أَنْتَ الْأَعَزُ الْأَكْرَمُ. وَصَلَّى اللَّهُ تَعَالَى عَلَىسَيِّدِنَا مُحَمَّدٍ وَعَلَى آلِهِ وَصَحْبِهِ وَسَلَّمَ Arab Latin: Bismillaahir rahmaanir rahim. Allaahumma yaa dzal manni wa laa yumannu 'alaika yaa dzal jalaali wal ikraam, yaa dzath thauli wal in'aam. Laa ilaaha illaa anta zhahral laajiina wajaaral mustajiiriina wa ma' manal khaa-ifiin. Allaahumma in kunta katabtanaa indaka fii ummil kitaabi asyiqiyaa'a au mahruumiina au muqtarran 'alaina fir rizqi fahumllaahumma bifadhlika syaqaawatanaa wa hirmaananaa wa iqtaara arzaaqinaa wa atsbitnaa 'indaka fii ummil kitaabi su'adaa'a marzuuqina muwaffaqiin lil khairaat. Fa- innaka qulta waqaulukal haqqu fii kitaabikal munzali 'alaa lisaani nabiyyikal mursal, yamhullaahu maa yasyaa-u wa yutsbitu wa 'indahu ummul kitaab. Ilaahii bit tajallil a'zhami fii lailatin nishfi min syahri sya'baanal mukarram allatii yufraqu fiiha kullu amrin hakiimin wa yubram nas-aluka an taksyifa 'annaa minal balaa-i maa na'lamu wa maa laa na'lam, wa maa anta bihi a'larna. Innaka antal a'azzul akram. Wa shallallaahu 'alaa sayyidinaa muhammadin wa 'alaa aalihi wa shahbihi wa sallam. Artinya: "Dengan menyebut nama Allah yang Maha pemurah lagi Maha Penyayang. Ya Allah, wahai Dzat yang mempunyai anugerah, dan Engkau tidak diberi anugerah, wahai Dzat yang mempunyai kebesaran dan kemuliaan, wahai Dzat yang mempunyai kekuasaan dan memberikan kenikmatan, tiada Tuhan melainkan Engkau. Engkau- lah Penolong orang-orang yang memohon pertolongan, Pelindung orang-orang yang mencari perlindungan, dan Pemberi Keamanan kepada orang-orang yang ketakutan. Ya Allah, jika Engkau mencatat kami di sisi-Mu dalam induk catatan sebagai orang-orang yang celaka, terhalang dari rahmat-Mu dijauhkan dari-Mu, atau disempitkan dalam mendapat rezeki, dengan karunia-Mu, ya Allah, hapuskanlah kecelakaan kami, keterhalangan kami, kejauhan kami dari rahmat-Mu, dan kesempitan rezeki kami. Dan tetapkanlah kami di sisi-Mu dalam catatan sebagai orang-orang yang berbahagia, diberi rezeki yang luas, serta diberi petunjuk menuju kebajikan. Karena sesungguhnya Engkau telah berfirman dalam kitab-Mu yang telah diturunkan kepada rasul-Mu, sedangkan firman-Mu itu benar, Allah menghapus dan menetapkan apa yang dikehendaki-Nya dan di sisi-Nya terdapat induk kitab. Tuhan kami, dengan tajalli-Mu (penampakan sifat-Mu) Yang Maha Besar pada malam Nishfu Sya'ban yang mulia ini, saat setiap urusan dibedakan dan ditetapkan di dalamnya, kami memohon kepada-Mu agar Engkau palingkan kami dari segala bencana, baik yang kami ketahui maupun yang tidak kami ketahui. Sesungguhnya, Engkau Dzat Yang Paling Mulia dan Paling Pemurah. Dan, semoga Allah senantiasa memberi rahmat serta kesejahteraan kepada junjungan kami Nabi Muhammad, keluarganya, dan sahabatnya." Doa lainnya yang bisa dibaca setelah membaca surah Yasin diambil dari Syekh Abdul Qadir Jailani. Berikut rincian bacaan doa dan terjemahannya: اللَّهُمَّ إِذْ أَطْلَعْتَ لَيْلَةَ النِّصْفِ مِنْ شَعْبَانَ عَلَى خَلْقِكَ، فَعُدْ عَلَيْنَا بِمَنِكَ وَعِتْقِكَ، وَقَدِرْ لَنَا مِنْ فَضْلِكَ، وَوَسِعْ رِزْقَكَ، وَاجْعَلْنَا مِمَّنْ يَقُوْمُ لَكَ فِيْهَا بِبَعْضِ حَقِكَ. اللَّهُمَّ مَنْ قَضَيْتَ فِيْهَا بِوَفَاتِهِ فَاقْضِ مَعَ ذَلِكَ رَحْمَتَكَ، وَمَنْ قَدَّرْتَ طُولَ حَيَاتِهِ فَاجْعَلْ مَعَ ذَلِكَ نِعْمَتَكَ، وَبَلَغْنَا مَا لَا تَبْلُغُ الْآمَالُ إِلَيْهِ يَا خَيْرَ مَنْ وَقَفَتِ الْأَقْدَامُ بَيْنَ يَدَيْهِ يَارَبَّ الْعَالَمِينَ، بِرَحْمَتِكَ يَا أَرْحَمَ الرَّاحِمِينَ. وَصَلَّى اللهُ تَعَالَى عَلَى سَيِّدِنَا مُحَمَّدٍ خَيْرِ خَلْقِهِ وَعَلَى آلِهِوَصَحْبِهِ أَجْمَعِينَ Arab Latin: Allahumma idz ath-la'ta lailatan nishfi min sya'baana 'alaa khalqika, fa'ud 'alainaa bimannika wa 'itqika, wa qaddir lanaa min fadhlika, wa wassi' rizqaka, waj'alnaa mimman yaquumu laka fiihaa biba'dhi haqqika. Allahumma man qadhaita fiihaa biwafaatihi faqdhi ma'a dzaalika rahmataka, wa man qaddarta thuula hayaatihi faj'al ma'a dzaalika ni'mataka, wa ballighnaa maa laa tablughul aamaalu ilaihi yaa khaira man waqafatil aqdaamu baina yadaihi yaa rabbal 'aalamiina, birahmatika yaa arhamar raahimiina. Wa shallallahu ta'aalaa 'alaa sayyidinaa muhammadin khairi khalqihi wa 'alaa aalihi wa shahbihi ajma'iina. Artinya: "Ya Allah, jika Engkau telah memunculkan malam Nisfu Sya'ban pada makhluk-Mu maka curahkan atas kami anugerah dan pembebasan-Mu (dari neraka), takdirkanlah untuk kami kebaikan dari keutamaan-Mu, perluaslah curahan rezeki-Mu untuk kami, jadikanlah kami di malam itu termasuk orang yang bangkit melaksanakan hak-Mu. Ya Allah, orang yang Engkau tentukan takdirnya di malam itu dengan kematiannya, maka bersamakanlah dengan rahmat-Mu, dan orang yang Engkau takdirkan berumur panjang maka jadikanlah rahmat-Mu bersamanya, dan sampaikanlah kami pada tujuan mulia yang tidak tercapai oleh angan-angan, wahai sebaik-baik Dzat yang bersimpuh di hadapan-Nya semua telapak kaki, wahai Tuhan sekalian alam, dengan rahmat-Mu, wahai Dzat Yang Paling Pengasih. Semoga shalawat Allah tercurah pada junjungan kami Nabi Muhammad, sebaik-baik makhluk, dan atas keluarga serta sahabat kesemuanya." 5. Berdzikir Pada bulan Syaban ini, umat muslim juga dianjurkan untuk memperbanyak dzikir sebagai bentuk penghambaan kepada Allah SWT. Bentuk dzikir yang biasa dilakukan oleh para ulama yaitu sebagai berikut: Dzikir yang pertama yaitu dengan membaca istighfar. Bacaan istighfar ini dibaca sebanyak 70 kali setiap harinya. Berikut bacaan dan terjemahannya: أَسْتَغْفِرُ اللهَ وَأَسْأَلُهُ التَّوْبَةَ Arab Latin: Astaghfirullaaha wa as-aluhut taubah Artinya: "Aku memohon ampun kepada Allah dan aku meminta kepada-Nya agar diterima tobatku." Selain itu, bacaan istighfar berikut ini juga bisa dibaca sepanjang bulan Syaban: أَسْتَغْفِرُ اللهَ الَّذِي لَا إِلَهَ إِلَّا هُوَ الرَّحْمَنُ الرَّحِيمُ الْحَيُّ الْقَيُّومُ وَأَتُوْبُ إِلَيْهِ Arab Latin: Astaghfirullaahaladzii laa ilaaha illaa huwar rahmaanur rahiimul hayyul qayyuumu wa atuubu ilaih Artinya: "Aku memohon ampun kepada Allah, tiada Tuhan selain Dia, Yang Maha Pengasih, Maha Penyayang, Yang Maha Hidup, Yang Maha Berdiri Sendiri, dan aku bertobat kepada-Nya." Selanjutnya yaitu membaca bacaan dzikir sebanyak 70 kali setiap harinya. Berikut rincian bacaannya: لَا إِلَهَ إِلَّا اللهُ وَلَا نَعْبُدُ إِلَّا إِيَّاهُ مُخْلِصِينَ لَهُ الدِّينَ وَلَوْ كَرِهَ الْمُشْرِكُونَ Arab Latin: Laa ilaaha illallaahu wa laa na'budu illaa iyyahu mukhlishiina lahud diina wa lau karihal musyrikuuna Artinya: "Tiada Tuhan selain Allah dan kami tidak menyembah selain kepada-Nya dengan memurnikan ketaatan kepada-Nya meskipun orang-orang musyrik membencinya." 6. Bersedekah Amalan yang dianjurkan pada bulan Syaban selanjutnya yaitu bersedekah. Sebagaimana diriwayatkan Imam Shadiq ketika ditanya tentang amalan terbaik di bulan Syaban. Imam Shadiq mengatakan bersedekah dan beristighfar merupakan amalan terbaik. Sebagaimana yang dijelaskannya sebagai berikut: "Bershadaqah dan membaca istighfar. Barang siapa bershadaqah di bulan Sya'ban, maka Allah Swt. akan memelihara shadaqah tersebut sebagaimana salah seorang dari kalian memelihara anak untanya, sehingga pada hari kiamat, shadaqah tersebut sampai di tangan pemiliknya sebesar Gunung Uhud." 7. Melakukan Salat Sunah Salat sunnah dianjurkan untuk dilakukan setiap hari Kamis pada bulan Syaban. Salat sunah bulan Syaban ini dikerjakan sebanyak dua rakaat. Pada masing-masing rakaat membaca al-Fatihah kemudian diikuti surah pendek al-Ikhlas yang dibaca sebanyak 100 kali. Kemudian, setelah salam dianjurkan untuk membaca shalawat sebanyak 100 kali. 8. Berpuasa Ayyamul Bidh Amalan terakhir yang dianjurkan untuk dilakukan pada bulan Syaban yaitu berpuasa Ayyamul Bidh. Puasa Ayyamul Bidh merupakan puasa pertengahan bulan pada tanggal 13, 14, dan 15 dalam penanggalan Hijriah. Dinukil dari laman NU Online, puasa Ayyamul Bidh dimulai dengan membaca niat puasa mutlak, seperti "Saya niat puasa". Namun, lebih baik membaca niat khususnya sebagai berikut: نَوَيْتُ صَوْمَ أَيَّامِ الْبِيْضِ لِلّٰهِ تَعَالَى Arab Latin: Nawaitu shauma ayyâmil bîdl lilâhi ta'âlâ Artinya: "Saya niat puasa Ayyamul Bidl (hari-hari yang malamnya cerah), karena Allah ta'âlâ." Keistimewaan Bulan Syaban Keistimewaan bulan Syaban ditafsirkan oleh beberapa ulama sebagai yang penuh dengan kemuliaan. Masih melansir buku Kalender Ibadah Sepanjang Tahun, berikut daftar keistimewaan bulan Syaban: Demikianlah amalan yang dapat dikerjakan pada bulan Syaban lengkap dengan keistimewaannya. Diamalkan ya, detikers!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/sulsel/berita/d-7187007/8-amalan-bulan-syaban-yang-disunnahkan-yuk-amalkan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahok Sindir Kinerja Jokowi dan Gibran, Emil Dardak Pasang Badan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 22:05 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emil Dardak, juru Bicara Gibran Rakabuming Raka buka suara terkait kritikan Ahok yang bertanya kinerja Presiden Jokowi dan Wali Kota Solo Gibran Rakabuming Raka. Pernyataan Ahok viral di media sosial dan belakangan Ahok sendiri merasa bahwa kalimatnya itu dipotong di video viral. Emil menyebut kritik dari Ahok senantiasa diterima sebagai masukan oleh Gibran. Emil menyebut Gibran lapang dada mendapat kritik dari Ahok. "Semua kritik diterima oleh Gibran dengan lapang dada," kata Emil di Surabaya, Sabtu (10/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Menurut Emil, Gibran justru mengapresiasi kinerja Ahok selama ini mulai memimpin DKI Jakarta hingga memimpin dewan komisaris di Pertamina. "Gibran mengatakan Bang Ahok relatif baik kinerjanya dan menjadi rujukan," tambahnya. Meski begitu, Wagub Jatim ini menegaskan Gibran sosok pekerja keras dan bisa bekerja. Hal itu dibuktikan dengan capaian di Kota Surakarta. "Saya berpendapat Gibran bisa kerja. Saya sudah melakukan penelaahan empiris apa yang dilakukan Gibran dalam memimpin Solo," ujarnya. "Jadi saya rasa semua pandangan-pandangan itu kita hormati bahwa ada pihak-pihak yang punya pandangan lain itu jadi sarana untuk introspeksi diri semakin berbenah ke depannya. Kita ikuti keteladanan Gibran yang senantiasa lapang dada menerima masukan dan saran," tandasnya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186998/ahok-sindir-kinerja-jokowi-dan-gibran-emil-dardak-pasang-badan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUI Jatim Sebut Golput Haram Jika Bawa Mudarat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 20:59 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUI Jatim meminta agar semua warga menggunakan hak pilihnya pada 14 Februari 2024 mendatang. MUI lalu mengimbau masyarakat agar tak golput. Ketua Umum MUI Jatim KH Mutawakkil Alallah mengatakan tidak ada capres-cawapres yang sempurna. Sebab menurutnya setiap calon pasti punya kelebihan dan kekurangan. "Yang jelas semua capres dan cawapres ada tiga ini adalah kader-kader dan tokoh-tokoh terbaik bangsa. Dan tentu kita tidak akan menemukan manusia yang sempurna, pasti di samping kelebihan ada kekurangan. Oleh karena itu pilih salah satu dari tiga ini yang diyakini untuk menjadi pemimpin nasional untuk memberi kesejahteraan ke rakyat," kata Mutawakkil di Surabaya, Sabtu (10/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Jangan sia-siakan hak pilih, kalau sampai golput dan mengakibatkan kegagalan pemilu itu dosa hukumnya haram karena itu membawa mudarat kepada umat bangsa dan negara. Akan menjadikan tatanan pemerintahan Indonesia semrawut," tambahnya. Menurut Mutawakkil, menggunakan hak pilih dalam demokrasi sesuai dengan ajaran Islam. Sebab, hal itu merupakan bagian dari menjaga kedaulatan negara. "Pemilu ini pemenuhan negara terhadap kedaulatan rakyat. Seluruh masyarakat, seluruh umat yang memiliki hak pilih gunakan hak pilihnya pada 14 Februari nanti, pilih pilpres sampai DPR, karena ini untuk keberlanjutan estafet nasional ini bagian menjaga kedaulatan negara," ujarnya. "Menjaga kedaulatan negara sama wajibnya menjaga martabat dan nilai agama. Golput bukan pilihan, tapi menyia-nyiakan hak yang diberi Allah itu lebih tidak baik," tambahnya. Pengasuh Ponpes Genggong Probolinggo ini berharap Pemilu 2024 bisa berjalan dengan baik, lancar, jujur, adil, dan bisa melahirkan pemimpin terbaik. "Kita berharap pemilu berjalan dengan damai, jurdil, dan Allah menganugerahkan bangsa kita pemimpin yang bisa membawa negara ini menjadi negara maju, adil, makmur, adil, sejahtera, gemah ripah, menjadi bangsa bermartabat dan dihagai oleh bangsa-bangsa lain di dunia," ujarnya. "Ingat golput kalau sampai mengakibatkan gagalnya pemilu sehingga rusaknya tatanan pemerintah, tentu itu haram, karena membawa mudarat," tandasnya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186956/mui-jatim-sebut-golput-haram-jika-bawa-mudarat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisah Cordo Tuban, Nama Lahirnya Panjang 19 Kata hingga Sulit Bikin Akta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 19:09 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pada 6 Januari 2019, lahir seorang anak bernama Rangga Madhipa Sutra Jiwa Cordosega Akre Askhala Mughal Ilkhanat Akbar Sahara Pi-Thariq Ziyad Syaifudin Quthuz Khoshala Sura Talenta. Namanya panjang hingga 19 kata. Ia akrab dipanggil Cordo. Ia merupakan buah hati atau putra kedua dari pasangan Arif Akbar (29) dan Suci Nur Aisyiah (26), yang tinggal di Desa Ngujuran, Kecamatan Bancar, Tuban. Karena namanya terlalu panjang, Cordo kesulitan mendapatkan akta lahir. Itu seperti yang disampaikan sang ayah. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Iya sudah beberapa kali ke kantor Dukcapil Tuban. Informasi yang kita dapat katanya di SIAK namanya melebihi 50 karakter. Ini lho sudah tiga tahun," jelas Arif saat dihubungi detikJatim, Senin ( 4/10/2021). Nama untuk Data Dukcapil Maksimal 55 Karakter Nama Cordo lebih dari 55 karakter bahkan mencapai 132 karakter. Sehingga tidak bisa masuk data Dukcapil. Itu seperti yang disampaikan Kepala Dinas Kependudukan dan Catatan Sipil (Dukcapil) Tuban, Ubait Rohman. Menurutnya, semua dokumen kependudukan itu terintegrasi dengan pusat, yang terkoneksi dengan Sistem Informasi Administrasi Kependudukan (SIAK). "Dukcapil itu sistemnya sudah diatur oleh pusat dan nasional. Melalui SIAK yang ada di Dirjen Dukcapil. Terkait aturan juga sudah digariskan di sana. Mulai dari sistemnya, aplikasinya juga," kata Ubait. "Jadi di dalam pengisian database itu ada aplikasinya. Dalam penulisan nama warga atau penduduk, baik itu yang baru lahir maupun yang belum terdata, itu semua sudah ada aplikasinya yang telah ditetapkan oleh Direktorat Jenderal itu sebanyak 55 karakter (nama). Jadi kalau melebihi 55 karakter ya tidak bisa dimasukkan," imbuhnya. Nama Cordo yang Capai 19 Kata Pemberian Paman Sang Ayah Arif menuturkan, nama yang terdiri dari 19 kata atau 115 huruf itu merupakan hasil diskusi bersama pamannya Mujoko Zahid. Yang merupakan budayawan asal Bumi Ronggolawe Tuban. Menurutnya, nama tersebut mempunyai makna yang sangat luas. "Harapan kami semoga anak itu kelak berpenalaran landung selandung namanya. Dan Menjadi inspirasi peradaban umat manusia," kata Arif kepada detikcom, Selasa (12/2/2019). Sang ayah menambahkan, nama putra keduanya itu memiliki hubungan dengan sejarah nama Kota Teladan Islam. Dengan harapan, kelak anak tersebut bisa menjadi tokoh yang mendunia. "Maknanya anak itu kelak menjadi tokoh dunia yang mendunia. Menjadi diri yang tidak berpikir lokal, sempit atau primordial. Tetapi mempunyai wawasan global sekaligus memiliki karsa dan power untuk merealisasikan wawasan besarnya. Kuat namun berjiwa lembut yang welas asih," terang Arif. Nama Cordo yang Capai 19 Kata Disarankan Diganti Dukcapil Tuban menyarankan agar nama Cordo diganti. Menanggapi hal itu, Arif pada dasarnya menyayangkan jika harus sampai mengganti nama anak. Sebab nama itu berisi doa dan harapan. "Saya disuruh mengubah nama anak, padahal nama tersemat doa untuk kebaikannya. Kalau harapan tentu bisa diproses aktanya, karena saat masuk TK akta dibutuhkan," kata Arif. Arif akan bersedia mengubah nama Cordo jika ada surat keterangan resmi dari Dukcapil Tuban. Namun selama ada celah untuk memperjuangkan nama anak sepanjang 19 kata itu, ia akan terus memperjuangkannya. "Kalau untuk mengganti nama kami siap kok. Asalkan saya minta satu lembar kertas surat dari Dinas Catatan Sipil Tuban bahwa nama tersebut dilarang, atau tidak boleh. Itu saja. (Jika) surat ditandatangani dan distempel pihak terkait dan sudah kami terima, insyaallah kami ganti namanya. Saya taat hukum," tutur Arif. Nama Cordo Diganti dan Dapat Akta Lahir Nama Cordo jadi lebih pendek yakni R - Akbar Zudan Cordosega Sura Talenta. Pergantian nama bocah tersebut terjadi setelah adanya komunikasi yang intens dari Dirjen Dukcapil Kemendagri, Zudan Arif Fakrulloh dengan Arif dan tokoh adat Desa Ngujuran, Mujoko Sahid. Mujoko yang juga merupakan paman dari Arif menceritakan alasan mengapa pihaknya mau mengganti nama Cordo. Menurutnya, pihaknya luluh dengan sikap humanis yang ditunjukkan Zudan. Yang santun, terbuka, informatif dan berorientasi pada solusi. "Itulah mengapa kami bersedia mengganti nama lengkap Cordosega karena terkena apa yang kami sebut istilahnya sebagai 'pasal sungkan'. Saya sungkan dengan Pak Prof Zudan yang memberikan nasihat dan saran yang bisa membuat kami legowo," ungkap Mujoko, Rabu (10/11/2021). "Melalui kejadian ini, kami menjadi percaya bahwa cara-cara seperti yang dilakukan Prof Zudan ini, bahwa dengan ketulusan silaturahmi, itu kunci solusi untuk segala problem di NKRI," imbuhnya. Zudan mendatangi rumah Arif untuk memberikan secara langsung dokumen kependudukan milik Cordo. Seperti Akta Kelahiran, KK dan Kartu Identitas Anak (KIA). "Meski demikian, nama Cordosega yang sebelumnya (19 kata), silahkan tetap menjadi nama adat baginya sehingga ketentuan adat tetap berlaku," terang Zudan, Rabu (10/11/2021). Ia juga menjelaskan, nama R - Akbar Zudan Cordosega Sura Talenta dapat diakomodir dalam Sistem Informasi Administrasi Kependudukan (SIAK). Sehingga proses pengurusan berbagai dokumen kependudukan dapat dilakukan. "Yang penting untuk kepentingan negara, nama lengkap terbaru dari ananda Cordosega kami resmikan di dokumen kependudukan, agar mendapatkan berbagai pelayanan publik dengan mudah ke depannya," imbuh Zudan.  Jatim Flashback adalah rubrik spesial detikJatim yang mengulas peristiwa-peristiwa di Jawa Timur serta menjadi perhatian besar pada masa lalu. Jatim Flashback diharapkan bisa memutar kembali memori pembaca setia detikJatim. Jatim Flashback tayang setiap hari Sabtu. Ingin mencari artikel-artikel lain di rubrik Jatim Flashback? Klik di sini.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186817/kisah-cordo-tuban-nama-lahirnya-panjang-19-kata-hingga-sulit-bikin-akta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kejayaan PDIP dan PKB di Jatim Terancam Dua Partai Ini Versi ARCI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 18:49 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominasi PKB dan PDIP di Jawa Timur terancam diusik oleh dua partai ini. Hal itu tergambar dalam survei Accurate Research and Consulting Indonesia (ARCI). Direktur ARCI Baihaki Sirajt menyebut Gerindra dan Golkar berpotensi menyalip PDIP bahkan PKB di Jawa Timur jika lengah di menit akhir. "Selisih antara 4 partai teratas di Jatim ini sangat tipis. Dan jika lengah di hari-hari akhir Pemilu, bisa jadi ada kejutan besar dua kekuatan partai tradisional di Jatim bisa dikalahkan oleh Gerindra atau bahkan Golkar," kata Baihaki saat paparan survei di Surabaya, Sabtu (10/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Dalam survei ARCI di Jatim, elektabilitas PKB di angka 17,7% dan berada di peringkat teratas. Menguntit di peringkat kedua ada PDI Perjuangan (PDIP) di angka 16,1%. Sementara Gerindra di posisi ketiga di angka 15,8%, dan Golkar 14,7% melengkapi 4 besar. Baihaki membeberkan tren PKB di Jatim cenderung naik namun angkanya sangat kecil. Sementara PDIP trennya justru terus menurun. "PKB stagnan agak naik sedikit. Berbanding terbalik dengan PDIP yang justru perlahan turun sedikit demi sedikit," ungkapnya. Baihaki juga membeberkan Gerindra meraih coattail effect dari majunya Prabowo Subianto. Sementara, kerja keras kader Golkar Jatim dan efek elektoral Gibran berpengaruh ke elektabilitas Partai Berlambang Beringin. "Gerindra mengalami kenaikan perlahan berkat coattail effect Prabowo. Sementara Golkar trennya cukup mengejutkan, dan temuan kami ada limpahan suara PDIP ke Golkar di Jawa Timur karena faktor Gibran Rakabuming Raka yang notabene putra Jokowi," jelas Baihaki. "Beberapa responden memilih Golkar, karena mereka menilai Gibran sudah menjadi kader Golkar. Kita ingat kala itu Gibran diusulkan Golkar jadi cawapres Prabowo. Jadi Golkar dapat limpahan elektoral Gibran dari pemilih Jokowi dulu yang ada di PDIP," tambahnya. Namun, Baihaki menyebut apapun masih bisa terjadi di Pileg 2024 ini mengingat 3 hari jelang coblosan sangat krusial. "Karena Pileg ini, 3 hari menjelang coblosan menjadi penentu, terutama untuk menjaga suara," tandasnya. Survei ARCI dilakukan pada 27 Januari-5 Februari 2024. Survei menggunakan metode multistage random sampling dengan jumlah sampel sebanyak 1.800 responden yang tersebar proporsional di 38 kabupaten/kota Jatim. Survei ARCI memiliki margin of error sebesar 2,8% dan tingkat kepercayaan sebesar 95%. Berikut elektabilitas partai politik di Jawa Timur versi ARCI: 1. PKB 17,7%2. PDIP 16,1%3. Gerindra 15,8%4. Golkar 14,7%5. Demokrat 8,2%6. NasDem 6,7%7. PKS 5,8%8. PAN 5,1%9. PPP 4,1%10. PSI 1,5%11. Perindo 1,2%12. PBB 1,2%13. Gelora 0,5%14. Hanura 0,1%15. PKN 0,1%16. Ummat 0%17. Garuda 0%18. Buruh 0%Tidak tahu/tidak menjawab 1,2%.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186779/kejayaan-pdip-dan-pkb-di-jatim-terancam-dua-partai-ini-versi-arci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMNI Jatim Gelar Aksi Serukan Pemilu Damai Tanpa Provokasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 17:22 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massa yang terdiri dari mahasiswa sejumlah kampus di Jatim menggelar aksi menyerukan pemilu damai. Mereka menyampaikan seruan damai di Taman Makam Pahlawan (TMP) Mayjend Sungkono Surabaya. Ketua DPD GMNI Jatim Hendra Prayogi mengatakan seruan damai kebangsaan bertajuk 'Pemilu Damai Tanpa Provokasi' itu merupakan bukti dan tekad untuk menjunjung tinggi nilai-nilai demokrasi. Begitu juga dengan kedamaian dan keadilan dalam pelaksanaan Pemilu 2024 pada 14 Februari 2024. "Aksi kami hari ini mencerminkan semangat persatuan, hingga menyoroti peran vital pemuda dan mahasiswa sebagai garda terdepan dalam mewujudkan pemilu yang damai, jujur, dan adil," kata Hendra saat ditemui di TMP Mayjend Sungkono Surabaya, Sabtu (10/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Hendra meyakini masa depan negara Indonesia ada pada partisipasi para pemuda secara aktif. Begitu juga dari seluruh elemen masyarakat. Hendra mengajak masyarakat untuk bersama-sama menggunakan hak pilih pada Pemilu 2024. Karena mencoblos secara bermartabat akan memberikan harapan baru bagi tanah air. "Secara esensi, pemilu adalah momentum dan ujian bagi seluruh elemen bangsa, seberapa jauh nilai nilai demokrasi telah menjadi bagian dari jati diri bangsa Indonesia, sekaligus menjadi proses pembelajaran dalam rangka pendewasaan bangsa," ujarnya. Nilai demokrasi, sambung dia, yang dimaksud yakni merampungkan perselisihan secara damai dan sukarela. Lalu, menjamin terjadinya perubahan secara damai, pergantian penguasa dengan teratur, hingga adanya pengakuan terhadap nilai keberagaman, pengakuan, dan jaminan atas tegaknya keadilan. Berikut beberapa poin yang diserukan dalam aksi tersebut: 1. Pemilu damai tanpa provokasi, ini menjadi penting untuk diketahui oleh seluruh anak bangsa, seluruh elemen masyarakat agar tidak menjadikan pemilu sebagai sebab atau pun menjadikan pemilu pemecah bela bangsa. 2. Kami sadar bahwa bangsa kita ini didirikan tidak mudah, banyak pengorbanan pahlawan kita hari ini. Kami mendesak dan menyerukan generasi bangsa, mahasiswa dan elemen seluruh masyarakat untuk mengutamakan persatuan dan kesatuan. 3. Mendesak pada seluruh pejabat negara untuk berpedoman selalu berada di jalur jalur Pancasila dan UU dasar 1945.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186612/gmni-jatim-gelar-aksi-serukan-pemilu-damai-tanpa-provokasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puncak Arus Balik Libur Panjang Imlek di Jatim Diprediksi Terjadi Besok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 17:05 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puncak arus balik masyarakat usai libur panjang Isra Miraj dan tahun baru Imlek diprediksi terjadi besok (11/2/2024). Diprediksi, kepadatan kendaraan akan terjadi, baik di jalan raya maupun di jalan tol. Kakorlantas Polri Irjen Aan Suhanan memastikan pihaknya telah melakukan sejumlah antisipasi. Baik di kawasan kabupaten atau kota, terutama di jalanan yang dinilai bakal menjadi penumpukan arus lalin saat arus balik nanti. "Kita siapkan untuk antisipasi dan lakukan survei dan rapat-rapat arus balik diperkirakan besok tanggal 11 Februari dari timur ke barat, maupun sebaliknya dan seterusnya, mungkin dari kabupaten ke kota, sudah kami antisipasi," kata Aan saat sesi doorstop di Halaman Gedung Mahameru Polda Jatim, Sabtu (10/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Ia memastikan, telah menyebar sejumlah personel lalu lintas di jalan raya. Terutama, di 3 titik rawan kemacetan atau kepadatan volume lalin. Aan juga menegaskan, sudah ada cara yang kerap dilakukan pihaknya saat libur panjang serupa. Diantaranya melakukan contra flow maupun oneway. "Kalau kita kluster ada 3 ruas jalan ya kalau bicara kemacetan, ada tol, arteri, wisata, dan pelabuhan penyeberangan, sudah diantisipasi semua, sudah kita siapkan rekayasa contra flow dan one way, termasuk yang ke pelabuhan, Insyaallah bisa kita kelola dengan baik," ujarnya. Selain itu, Aan mengimbau para pengendara yang akan melakukan arus balik tetap ekstra hati-hati dan waspada. Kurangi kecepatan kendaraan dan saling menjunjung toleransi di jalan. "Meredam emosi di jalan, harus toleransi sesama pengguna jalan yang lain," tuturnya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186534/puncak-arus-balik-libur-panjang-imlek-di-jatim-diprediksi-terjadi-besok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bubaran Haul Akbar di Surabaya Sempat Macetkan Suramadu hingga 2 Km</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimMinggu, 11 Feb 2024 19:28 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jembatan Suramadu arah Madura macet hingga kurang lebih 2 kilo meter. Hal ini dikarenakan adanya haul akbar di pondok pesantren (Ponpes) di Jalan Kedinding Lor. Dari video yang beredar di beberapa akun media sosial, tampak kemacetan panjang di ruas roda 4 Jembatan Suramadu arah Madura. Kemacetan terjadi pukul 13.41 WIB sepanjang kurang lebih 2 km, bahkan sebelum Jembatan Suramadu. Dalam video tersebut juga dijelaskan ada banyak bus yang parkir di pinggir jalan menjemput jemaah haul akbar di Jalan Kedinding. Sedangkan untuk ruas roda dua terlihat lancar. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Kanit PJR 8 Jatim Suramadu AKP Agus Wibowo menyebut, kemacetan itu disebabkan oleh bubaran haul akbar di Jalan Kedinding Lor. Pihak kepolisian juga telah dikerahkan. "Ada haul akbar di Ponpes Al-Fithrah Kedinding," kata AKP Agus saat dihubungi detikJatim, Minggu (11/2/2024) Agus menjelaskan acara haul akbar di Ponpes Al-Fithrah Kedinding sudah berlangsung sejak kemarin Sabtu (10/2). Hari ini kegiatan sudah selesai dan pihak kepolisian mengatur lalu lintas. "Acaranya sudah dari kemarin dan sore ini tinggal bubaran. Personil dari Polres Tanjung Perak selaku pemangku wilyah sudah di lokasi dari kemarin," jelasnya. Sementara Kasat Lantas Polres Tanjung Perak AKP Moch Suud menjelaskan kegiatan haul akbar di Ponpes Al-Fithrah sudah selesai dan bubaran pukul 12.00 WIB. Karena jemaah ada 10 ribu lebih, maka otomatis ketika selesai acara cukup macet. Pada pukul 16.30 WIB, jalan sudah normal dan lancar kembali. Baik dari arah Surabaya ke Madura maupun sebaliknya. "Kegiatan Sabtu dan Minggu. Minggu jam 12.00 WIB selesai acara, efeknya bubaran, macetnya siang hari. Pukul 16.30 WIB anggota melaporkan sudah clear, arah balik lancar, normal. Kenapa padat? Karena imbas bubaran jemaah, kantung parkir di jalur lambat di Lapangan Tembak Surabaya mereka harus nyebrang ke busnya, lebih dari 10 ribu jemaah nyebrang itu yang jadi hambatan" jelasnya. Sedangkan untuk parkir bus, Suud menyebut sedang diparkir di jalur lambat. Bus sedang menunggu jemaah yang sudah selesai mengikuti haul akbar. "Jalan ada jalur lambat dan cepat, bus itu parkir di jalur lambat. Volume menyebrang. Bisa dilaporkan jemaah itu 10 ribu lebih. Kalau bubaran otomatis padat," pungkasnya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187947/bubaran-haul-akbar-di-surabaya-sempat-macetkan-suramadu-hingga-2-km</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMKN Maritim di Brondong Lamongan Diresmikan Gubernur Khofifah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimMinggu, 11 Feb 2024 01:01 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gubernur Jatim Khofifah Indar Parawansa meresmikan Sekolah Menengah Kejuruan (SMK) Negeri Maritim Jawa Timur di Brondong Lamongan. Hadirnya sekolah ini menjadi bentuk ketanggapan pemerintah daerah dalam menghadirkan pendidikan terbaik di bidang vokasi atau keahlian berbasis maritim. "Vokasi-vokasi yang memang dibutuhkan oleh berbagai sektor itu akan terus kita siapkan. Karena pada dasarnya technical skill yang dibutuhkan oleh berbagai sektor kita harus difasilitasi bersama," ujar Khofifah saat meresmikan SMKN Maritim Jawa Timur di Brondong, Sabtu (10/2/2024). Khofifah berharap dengan berdirinya SMKN Maritim, Disdik Jatim mampu bersinergi dengan Koarmada II (Komando Armada II) atau Mabes AL. Khofifah menyebut mentoring dari TNI angkatan laut akan menjadi bagian dari penguatan. Tidak sekadar di sektor maritim, sektor perikanan, tapi juga membangun penguatan ke-Nusantara-an. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Tidak sekedar di sektor maritim, sektor perikanan, tapi kalau bersama TNI AL ini adalah bagian dari penguatan Nusantara seluruh hal-hal yang membangun penguatan ke nusantaraan kita akan mensinergikan," ujarnya. Hadirnya SMKN Maritim di Lamongan disambut baik oleh Bupati Lamongan Yuhronur Efendi. Menurut, Bupati Yes, SMKN maritim dapat mendorong kualitas generasi masa depan, khususnya dalam rangka peningkatan kualitas sumber daya manusia. "Terlebih Lamongan dengan potensi pantai sepanjang 47 km, produksi perikanan hampir 87.000 ton di tahun 2023, dan tercatat sekitar 60.000 warga bekerja di sektor perikanan, dengan jumlah perahu sekitar 3.423, menjadi penguat keterampilan dan keahlian," jelasnya. Kepala Dinas Pendidikan Provinsi Jawa Timur Aries Agung Paewai mengatakan secara historis SMKN Maritim telah diajukan izin pendirian dan operasional sejak 30 April 2019. SMKN Maritim Dibangun secara bertahap selama 4 tahun di lahan seluas 38.950 meter persegi. SMKN Maritim ini juga telah dilengkapi 2 ruang praktik siswa, 4 ruang kelas, asrama dua lantai dengan kapasitas 32 ruang dengan fasilitas kamar mandi dan pendukung lainnya, gedung kantor, fasilitas-fasilitas alat praktek, hingga lainnya. Usai diresmikan, SMKN Maritim akan mulai membuka Penerima Peserta Didik Baru (PPDB) pada Februari - Maret 2024 untuk gelombang 1 dan April - Mei 2024 untuk gelombang 2. Kuota untuk sekolah maritim tingkat atas ini sebanyak 108 siswa untuk konsentrasi keahlian yakni nautikal kapal penangkapan ikan, technica kapal penangkapan ikan, dan agrobisnis pengelolaan hasil perikanan. Saat peresmian, Khofifah didampingi Bupati Lamongan Yuhronur Efendi, Kepala Dinas Pendidikan Provinsi Jawa Timur Aries Agung Paewai, Wakil Bupati Lamongan Abdul Rouf. Selain itu, hadir pula Asops Koarmada II Kolonel Laut (P) Heri Prihartono.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187051/smkn-maritim-di-brondong-lamongan-diresmikan-gubernur-khofifah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Said Abdullah Harap Pemilu 2024 Tak Dikotori dan Dinodai Teror: Biarlah Alami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 15:55 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kampanye hari terakhir dimanfaatkan para relawan Ganjar Pranowo-Mahfud Md di Sumenep untuk mengoptimalkan dukungan pada paslon nomor urut 03. Salah satunya dengan menggelar kegiatan jalan-jalan sehat hingga pasar rakyat. Ketua DPD PDI Perjuangan Jatim Said Abdullah mengaku yakin Ganjar-Mahfud akan menang Pilpres 2024. Said optimistis Ganjar-Mahfud akan meraup suara 37 sampai 39 persen saat Pemilu nanti.Dalam kesempatan ini, Said Abdullah ditemani Bupati Sumenep Achmad Fauzi yang juga Ketua DPC PDI Perjuangan Sumenep. Keduanya berbaur dengan ribuan relawan dalam acara yang digelar di depan Museum Keraton Sumenep. Said Abdullah berharap, Pemilu berjalan tanpa ada paksaan kepada rakyat untuk memilih calon tertentu. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Nanti hasilnya akan ditentukan oleh rakyat dan semoga pemilihan ini tidak kotor, tidak dinodai oleh yang aneh-aneh, pemaksaan dan sebagainya apalagi teror, biarlah alami, kalau ada kata-kata klise yang selalu diteriakkan jujur adil terbuka dan sebagainya," kata Said Abdullah, Sabtu (10/02/2024). Said yang juga Ketua Banggar DPR RI itu yakin rakyat bisa datang ke TPS untuk menggunakan hak pilihnya tanpa ada paksaan apalagi teror dari siapapun. "Ketika rakyat-rakyat sudah menentukan pilihannya dengan cara yang legal, yang disediakan oleh undang-undang, saya haqqul yakin Ganjar Pranowo akan menang, insyaallah Ganjar Pranowo sekitar 37 sampai 39 persen," kata Said yang juga putra Sumenep asli itu. Sementara itu, Said berharap, masyarakat Sumenep akan menyambut dengan riang gembira kegiatan penutup kampanye tersebut. "Terima kasih kepada seluruh masyarakat Sumenep dan saya berharap sampai acara nanti malam akan penuh kedamaian, riang gembira kita bersatu padu layaknya masyarakat Sumenep," kata Said. Menurut Said, berbeda pilihan itu soal lumrah. Namun yang terpenting, para pemilih tetap bersama-sama menjaga situasi kondusif dan tidak boleh ada pemaksaan kepada siapapun untuk memilih paslon sesuai keinginannya. "Pilihan itu adalah pilihan hati nurani, tidak bisa siapapun memaksa-maksa dan kondisi ini saya berharap sampai tanggal 14 Februari dan seterusnya," harap Said.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186417/said-abdullah-harap-pemilu-2024-tak-dikotori-dan-dinodai-teror-biarlah-alami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Warga RI! Fotokopi KTP Tak Lagi Berlaku Mulai Tahun Ini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikInetSabtu, 10 Feb 2024 13:45 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pemerintah tengah berupaya untuk menggantikan penggunaan identitas kependudukan masyarakat, dari semula Kartu Tanda Penduduk (KTP) dengan Identitas Kependudukan Digital (IKD). Ditargetkan pada tahun 2024 ini proses peralihan tersebut akan rampung. Itu tandanya, era fotokopi KTP sudah tidak lagi berlaku ke depannya. Sebab, di masa mendatang, penggunannya berubah yang dilakukan secara digital. Di awal 2024, Presiden Joko Widodo (Jokowi) telah menginstruksikan untuk mempercepat transformasi digital dan keterpaduan melalui Digital ID atau IKD, pembayaran digital, dan pertukaran data untuk interoperabilitas layanan publik yang berorientasi kepada pengguna. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+   Terkait instruksi tersebut, Kementerian Dalam Negeri (Kemendagri) pun gencar melakukan percepatan pengembangan Sistem Pemerintahan Berbasis Elektronik (SPBE). "Secara spesifik, Ditjen Dukcapil memiliki peran penting dalam penyediaan IKD dan menjadi basis dalam proses pertukaran data (data exchange), terutama dalam memastikan keamanan dan keandalan data kependudukan," ujar Kemendagri beberapa waktu lalu. Sebagai informasi, IKD adalah identitas digital nasional, yaitu berupa alat untuk membuktikan identitas pengguna secara online ketika mengakses layanan pemerintah dan swasta. Kemendagri juga telah merilis aplikasi IKD yang bisa diakses lewat HP, baik pengguna smartphone berbasis Android dan iOS. Hal yang mencolok dari perubahan e-KTP menjadi IKD ini nantinya pelayanan publik tak lagi memerlukan fotokopi KTP. Persoalan tersebut yang sering dihadapi masyarakat ketika mengurus suatu dokumen. "IKD diharapkan dapat meningkatkan aksesibilitas dan efisiensi masyarakat terhadap layanan pemerintah maupun swasta. Pertama, IKD dapat memvisualisasikan KTP secara digital (menjadi KTP Digital) agar tidak diperlukan lagi fotokopi KTP," kata Kemendagri. Kemendagri menyebutkan sejak IKD diluncurkan pada tahun 2022 hingga saat ini (10 Januari 2024), lebih dari 7.316.449 jiwa telah memiliki Identitas Digital. Saat ini bank, seperti BNI, Bank Jatim, BPR Urban Bali dan BPR Danagung Ramulti sudah menggunakan IKD untuk proses pembukaan rekening secara lebih cepat dan aman.   Selain itu, di dalam aplikasi IKD, masyarakat dapat melakukan pelayanan adminduk seperti melaporkan kelahiran anak, melaporkan kematian, permohonan surat keterangan pindah, pisah atau pecah Kartu Keluarga, dan lainnya. "Ke depan, pengayaan fitur akan terus dilakukan untuk meningkatkan user experience dan kemudahan pengguna dalam melakukan aktivasi IKD tanpa harus datang ke kantor Dinas Dukcapil," pungkas Kemendagri.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://inet.detik.com/law-and-policy/d-7186066/dear-warga-ri-fotokopi-ktp-tak-lagi-berlaku-mulai-tahun-ini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kakorlantas Polri Sebut Jatim Sumbang Laka Lantas Tertinggi Setelah Jakarta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 13:29 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indeks keselamatan berlalu lintas di Indonesia dinilai masih jauh dari harapan. Bahkan, diklaim masih di bawah beberapa negara lain di Asia Tenggara. Kakorlantas Polri Irjen Aan Suhanan mengatakan, pihaknya menargetkan indeks keselamatan di 1,37 persen atau jumlah korban fatalitas sampai tahun 2025, diharapkan hanya berkisar pada 27 ribu. Menurutnya, jumlah fatalitas laka lantas di Indonesia, termasuk Jatim setiap tahun selalu naik. "Nanti kita lihat sudah sampai mana korban laka lantas ini, sudah tercapai atau tidak, lalu kita bandingkan dengan negara Asia Tenggara, kita ingin indeks keselamatan teratas di Asia Tenggara, tapi faktanya keselamatan berlalu lintas di Indonesia hanya di rangking 4 terburuk, bukan di atas, bisa kita lihat negara-negara lain di Singapura, Filipina, dan lain-lain jauh lebih baik," kata Aan saat pemaparan materi Gebyar Keselamatan 2024 di Gedung Mahameru Polda Jatim, Sabtu (10/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Artinya, kita perlu effort yang lebih keras lagi, komunitas lalin menjadi duta kita, duta Polri, duta pemerintah untuk menjaga keselamatan berlalu lintas. Jatim sendiri memang menyumbang angka laka lantas cukup tinggi, ada di rangking kedua setelah Jakarta, tahun lalu 2023 tertinggi, alhamdulillah tahun ini ada di rangking kedua," imbuhnya. Aan mengaku prihatin lantaran data kecelakaan lalu lintas di Indonesia dari tahun ke tahun terus meningkat. Menurutnya, ada kenaikan 10 persen pada tingkat fatalitas korban atau sekitar 27.596 orang. Apabila dibandingkan jumlah penduduk atau kendaraan bermotor di Indonesia, Aan memprediksi masih jauh dari target keselamatan di tahun 2025. Ia menyebut, target yang sudah ditentukan di tahun 2025 masih cukup jauh, yakni di 9,9 persen. "Artinya, perlu kerja keras untuk realisasikan target, masih 9,9 indeks keselamatan Indonesia. Di tahun 2024 ini jumlah laka lantas harus turun, itu perintah Pak Kapolda Jatim (Irjen Imam Sugianto) juga, bukan angkanya yang diturunkan tapi diubah," bebernya. "Sekarang yang dinilai adalah upayanya dari para Kasat Lantas bagaimana mengajak teman-teman untuk bersama-sama memberikan edukasi dan sosialisasi bersama para stakeholder untuk menurunkan angka laka lantas, mulai dari pendataan, blackspot, sampai penanganan laka lantas," imbuh Aan. Aan menyatakan, ada data yang sangat memprihatinkan. Sebab, dari data dan hasil rekapitulasi korban laka lantas, angka terbesar adalah usia-usia produktif. Mulai usia 15 sampai 59 tahun, yakni para pelajar, mahasiswa, hingga karyawan. "Angkanya tetap, 3 tahun berturut-turut dan menjadi korban laka lantas," sambungnya. Untuk jenis kelamin para korban, Aan memastikan adalah tulang punggung keluarga. Mulai dari suami, orangtua, atau bapak. "Artinya, kalau ortu yang jadi korban laka lantas bisa dipastikan akan ada 1 orang janda, kalau punya anak akan ada anak yatim, akibatnya luar biasa terhadap perekonomian keluarga, negara, dan seterusnya," papar Aan. "Karena 84 persen korban meninggal dunia akibat laka lantas adalah pria sebagai tulang punggung keluarga, ini menjadi referensi kita untuk sosialisasi dan edukasi betapa laka lantas ini mengakibatkan kemiskinan, terutama untuk keluarga," tambahnya. Lalu, untuk jenis kendaraan yang terlibat laka lantas di tahun 2021 sampai 2023, masih didominasi roda 2. Bahkan, masih menjadi rangking pertama selama 3 tahun berturut-turut. "Untuk faktor penyebab laka lantas angka secara nasional ini perilaku jaga jarak sering jadi penyebab laka lantas, bisa over speed, lalu tidak bisa mengerem, lalu terjadi tabrakan, dan seterusnya," jelasnya. Dari data ini, ia ingin masyarakat dan komunitas serta para produsen kendaraan untuk bersama-sama meningkatkan keselamatan berlalu lintas. Menurutnya, Jatim menjadi sasaran penekanan dan pencegahan laka lantas karena dinilai masih cukup tinggi setelah Jakarta. Berdasarkan data yang dihimpun Mabes Polri, Aan mengaku tengah berupaya dan mengkoordinasikan serta mengembangkan TI untuk mengelola keselamatan berlalu lintas. Supaya, bisa sejajar dengan negara-negara lain di Asia Tenggara. "Kita lihat sudah mulai banyak pengembangan melalui riset, dan lain-lain terhadap keselamatan berlalu lintas terutama pada roda 2 karena sangat rentan laka lantas. Data dari PBB memang roda 2 ini adalah yang paling fatal, karena tidak ada rumah luar, begitu jatuh langsung ke aspal," ungkap Aan. "Ini tanggung jawab kita, mulai dari Bapenda, Dishub, PUPR, Binamarga, polisi, sehingga bisa menekan jumlah fatalitas laka lantas, untuk para Kasatlantas di Jatim manfaatkan informasi dari kita untuk mengelola keselamatan berlalu lintas, tidak hanya patroli, tidak hanya jalan-jalan, tapi tentukan pada data yang ada, sehingga tepat sasaran," tutupnya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186225/kakorlantas-polri-sebut-jatim-sumbang-laka-lantas-tertinggi-setelah-jakarta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peringati HPN 2024, TKD Jatim Prabowo-Gibran Perhatikan Kesehatan Wartawan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 10:15 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKD Jatim 02 Prabowo Subianto-Gibran Rakabuming Raka memberi perhatian khusus kepada para jurnalis di Hari Pers Nasional (HPN) yang jatuh pada Jumat (9/2/2024). Pemeriksaan kesehatan hingga suplemen diberikan pada para jurnalis. Selain itu, TKD Jatim Prabowo-Gibran juga mengucapkan selamat Hari Pers Nasional. TKD Jatim berharap, di HPN 2024 kali ini, pers dapat tumbuh bersama dan berkembang baik, khususnya di Jawa Timur dan Indonesia. Ketua TKD Jatim Prabowo-Gibran, Boedi Prijo Soeprajitno menghargai kinerja semua jurnalis yang bekerja di Jawa Timur dan Indonesia, karena di masa Pemilu, kerja para jurnalis tentu sangat berat. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Kami mengulik sedikit, kami apresiasi kinerja jurnalis. Selamat Hari Pers Nasional ya, semoga pers tumbuh sehat dan baik di bumi tercinta," ujar Boedi di Jatim Expo Surabaya, Jumat (9/2/2024). Boedi Prijo juga mengirimkan tim untuk mengecek kesehatan dan memberikan vitamin gratis bagi para rekan media di HPN 2024 ini. "Di hari yang spesial, Hari Pers Nasional ini kita melakukan tes kesehatan dan pemberian vitamin untuk teman-teman media, sesuai tema Hari Pers Nasional 2024 ini yakni Mengawal Transisi Kepemimpinan Nasional dan Menjaga Keutuhan Bangsa, maka rekan media harus tetap sehat untuk mengawal tugas besar itu dengan baik," ujar Boedi. "Saya harapkan pemeriksaan kesehatan dan pemberian vitamin ini bisa dilakukan secara rutin ke depan, sehingga seluruh teman-teman terjaga kesehatannya. Sehat lahirnya, sehat batinnya dan sehat dompetnya," ungkap mantan Kepala Bapenda Jatim ini berkelakar. Tim kesehatan di lokasi, Dr Makhyan Jibril Al Farabi berpesan agar jurnalis tidak melupakan kesehatannya. Terlebih selama Pemilu. "Terutama kinerja awak media di lapangan, yang setiap hari tak kenal waktu, siang malam, panas dan hujan bertugas di lapangan selama Pemilu ini. Yang paling penting dari cek kesehatan dan berbagi vitamin gratis ini, teman-teman media bisa memastikan bahwa mereka sehat selalu dalam menjalankan pekerjaannya," pesan dr Jibril. Menurut Jibril, vitamin yang diberikan juga akan membantu menjaga daya tahan dan mencegah terjadinya penyakit. Apalagi ketika jurnalis harus kerja maraton ke sana ke mari dalam minggu-minggu krusial menjelang Pemilu. "Jika memang ada gejala atau apa, lanjut Jibril, bisa nantinya dilanjutkan ke pemeriksaan selanjutnya. Harapannya teman-teman di sini semuanya tetap fit, ketika bertugas di lapangan," pungkas Jibril.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7185907/peringati-hpn-2024-tkd-jatim-prabowo-gibran-perhatikan-kesehatan-wartawan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upaya Wagub Emil Dardak Cegah Banjir Susulan di Waru Sidoarjo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 09:22 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wagub Jatim Emil Elestianto Dardak memaparkan sejumlah upaya untuk mencegah banjir susulan di kawasan Waru, Sidoarjo. Salah satunya dengan mempercepat pembersihan enceng gondok di sungai. Sebelumnya, Emil telah meninjau langsung posko bencana banjir di Kantor BPBD Jatim. Kunjungan ini untuk memastikan kesiapsiagaan Pemprov Jatim dalam penanganan bencana banjir. Sebagaimana diketahui sebelumnya, hujan lebat mengakibatkan banjir menggenangi jalan desa di Kecamatan Waru, Sidoarjo. Ditambah hujan lebat pada keesokan harinya, Selasa (6/2) sore, menambah tingginya genangan yang ada di jalan desa hingga memasuki rumah warga. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Emil menjelaskan, pihaknya telah melakukan pemetaan melalui drone guna memantau titik-titik penyebab banjir. Pemetaan tersebut menggunakan drone di sepanjang aliran Kali Buntung Waru hingga arah Juanda sebagai area hilir. Harapannya, melalui pemetaan ini bisa menentukan langkah guna mengurangi risiko atau intensitas banjir di wilayah tersebut. "Kita tadi menggunakan drone untuk meninjau titik-titik tersebut. Ditemukan titik yang bisa dibersihkan yaitu karena ada banyak hambatan seperti enceng gondok sepanjang 7 kilometer," ungkap Emil, Sabtu (10/2/2024). Emil menuturkan, bencana banjir di Waru, Sidoarjo ini merupakan yang pertama kalinya terjadi. Curah hujan yang tinggi dan pasangnya air laut menjadi penyebab utama. Walaupun banjir sudah semakin surut, namun di beberapa wilayah masih terpantau genangan hingga betis orang dewasa. Oleh sebab itu, Wagub Emil menegaskan, tetap perlu ada upaya percepatan, seperti pembersihan enceng gondok guna mencegah banjir kembali terjadi. "Identifikasi bottle neck atau sumbatan botolnya ada di situ. Kalau air laut pasang kita tidak bisa mengantisipasi, tapi kalau sungainya kita bisa mengurangi potensi luapan atau tinggi muka air," tuturnya. Tidak hanya di kawasan Sidoarjo, kesiapsiagaan bencana juga harus ada di seluruh penjuru Jawa Timur, utamanya daerah rawan bencana. BPBD Jatim telah melakukan pemetaan di seluruh Jawa Timur, khususnya tempat-tempat yang di tahun sebelumnya titik rawan banjir. "Ada langkah antisipasi, jika banjir menyebabkan tanggul jebol, kita pastikan bahwa bronjong tersedia. Bahkan sand bag, karena saat ini adalah musim bencana hidrometeorologi," tegasnya. Tidak hanya itu, kesiapan posko pengungsian hingga dapur umum juga menjadi perhatian Wagub Emil. Ia memuji kesiapan seluruh elemen terkait seperti BPBD, Dinas Sosial hingga Dinas Kesehatan yang gercep dalam menangani para korban. "Hari ini kita juga pastikan bahwa tempat ini stand by untuk bisa men-support kebutuhan masyarakat. Ada tempat bermain, ada dapur umum bahkan ada tempat istirahat," pungkasnya. Pernyataan Emil Elestianto Dardak, Wakil Gubernur Jawa Timur bila penyebab banjir yang merendam ratusan rumah 5 desa di Kecamatan Waru Sidoarjo akibat enceng gondok di Sungai Buntung ternyata benar. Tumpukan enceng gondok terlihat memenuhi Sungai Buntung di depan Terminal Purabaya Bungurasih, tepatnya di samping depan Ramayana, Jumat (9/2/2024) pagi. Tidak hanya enceng gondok, sampah juga memenuhi Sungai yang membentang mulai dari Terminal Purabaya hingga Pasar Waru ini. Kepala Dinas PU SDA Jatim, Baju Trihaksoro mengatakan, sungai di depan Terminal Purabaya merupakan wilayah Balai Besar Wilayah Sungai Brantas. "Sungai di depan Terminal Purabaya merupakan wilayah Balai Besar Wilayah Sungai Brantas. Tapi kita tetap tanggung jawab untuk melakukan pembersihan," ujarnya Saat ini, lanjut Baju Trihaksono, pihaknya melakukan pembersihan enceng gondok di Sungai Desa Waru belakang Hotel Neo. "Dinas PU SDA Prov Jatim bergerak cepat dengan mengerahkan 1 unit excavator, 2 unit dump truk, 1 unit crane, 2 perahu pencacah enceng gondok dan puluhan tenaga untuk membersihkan sungai," tandasnya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7185830/upaya-wagub-emil-dardak-cegah-banjir-susulan-di-waru-sidoarjo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hasto Sebut Bupati Sidoarjo Tersandera hingga Terpaksa Dukung 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikSumutSabtu, 10 Feb 2024 03:00 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekjen PDIP Hasto Kristianto menyebut Bupati Sidoarjo tersandera hingga dipaksa menjadi pendukung pasangan calon (Paslon) 02 di Pemilu 2024. Hasto juga menyebut sejumlah oknum aparat, kepala dinas, hingga perangkat desa juga menurutnya diduga diminta untuk memenangkan partai tertentu. "Ya, tadi saya juga bertemu dan mendengarkan laporan dari seluruh pimpinan dari PDIP di Jatim. Mereka mengatakan justru di Jatim masif. Itu kan (ada) suatu operasi khusus yang kemudian menyandera Bupati Sidoarjo dan kemudian dipaksa mendukung paslon 02," kata Hasto mendampingi Megawati di Blitar, Jumat (9/2/2024), melansir detikJatim. Hasto menilai, aksi penyanderaan atau pemaksaan seperti itu juga dilakukan terhadap sejumlah oknum aparat TNI dan Polri. Bahkah terjadi di lingkup PDI Perjuangan. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Bagaimana oknum-oknum TNI/Polri, kemudian para kepala dinas, ditekan, dicari kelemahannya, kemudian Bupatinya juga dicari kelemahannya. Bahkan ada opsus-opsus juga untuk memenangkan partai tertentu," terangnya. Namun, Hasto mengaku pihaknya tetap akan percaya pada pengalaman tentang suara rakyat. Hasto mengatakan, kekuasaan dan kekuatan rakyat tidak bisa dibungkam. Sehingga hal itu dapat menjadi kekuatan arus balik. "Kami yakin kekuatan rakyat tidak bisa dibungkam. Kekuatan kebenaran yang mulai menyuarakan," jelasnya. Lanjut Hasto, termasuk kekuatan kebenaran dari aparat TNI/Polri yang harus menempatkan sebagai lembaga netral. Nantinya akan ada kekuatan kebenaran bagi para anggota TNI/Polri yang tidak setuju dengan perintah untuk berpihak ke pasangan 02. "Seiring dengan keberanian dari perguruan tinggi untuk bersuara, maka ini juga memunculkan keberanian dari para prajurit TNI/Polri yang sebelumnya ada perintah-perintah khusus. Kemudian mereka berani menegakkan bahwa mereka harus netral," pungkasnya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/sumut/berita/d-7185570/hasto-sebut-bupati-sidoarjo-tersandera-hingga-terpaksa-dukung-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caleg PDIP Asal Banyuwangi Ini Copot APK-nya Sendiri Jelang Masa Tenang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 00:01 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jelang masa tenang Pemilu 2024, sejumlah alat peraga kampanye (APK) mulai dicopoti. Hal ini sesuai dengan Pasal 1 angka 36 Undang-Undang Pemilu. Karena hal ini, Chandra Astan Caleg PDI Perjuangan Dapil 3 Jatim Banyuwangi, Situbondo dan Bondowoso satu ini langsung menginstruksikan pada pendukungnya membereskan APK lebih awal. Meski masa tenang masih dua hari lagi, tepatnya dimulai pada tanggal 11 hingga 13 Februari 2024 mendatang, caleg nomor urut 7 ini mengaku sengaja berinisiatif membersihkan APK dirinya sendiri secara mandiri. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Kami hari ini mulai membersihkan alat peraga kampanye berupa baliho yang sudah terpasang, supaya bisa membantu para teman kita Satpol PP supaya tidak terlalu banyak yang dibersihkan ya pak," ungkap Chandra, Jumat (9/2/2024). Chandra mengaku ingin memberikan contoh perilaku berpolitik yang edukatif dan sportif. Menurutnya, menghormati aturan masa tenang adalah wujud dari implementasi Pemilu bermartabat. "Kita taat aturan, bahwa setelah ini adalah masa tenang. Jadi, kita betul-betul masuk ke pemilu yang sesuai dengan aturan. Dan semoga ini bisa jadi gerakan supaya tidak banyak sampah Baliho di mana mana nantinya," jelas Chandra. Bersih-bersih pencopotan APK Chandra ini dimulai dari sekitar jalan utama menuju Bangsring, Chandra beserta pendukungnya mencopot semua APK. Yang kemudian akan serempak diikuti dengan gerakan pembersihan APK yang dipasang oleh pendukungnya di seluruh wilayah pencalonannya Dapil 3 Jatim.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7185576/caleg-pdip-asal-banyuwangi-ini-copot-apk-nya-sendiri-jelang-masa-tenang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fans Rhoma Irama Jatim Deklarasi Dukung AMIN, Ajak Penggemar Coblos 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimJumat, 09 Feb 2024 23:30 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kampanye akbar pasangan calon presiden dan calon wakil presiden nomor 01 Anies Baswedan dan Muhaimin Iskandar (AMIN) di Stadion Untung Suropati Kota Pasuruan dimeriahkan penampilan Raja Dangdut Rhoma Irama dan Soneta Grup. Bukan hanya itu, kelompok penggemarnya, Rhomais, juga deklarasi mendukung AMIN. Deklarasi dilakukan di atas panggung utama. Deklarasi disaksikan Anies Baswedan, Muhaimin Iskandar, Rhoma Irama dan ribuan pendukung. Deklarasi dibacakan Suryanto Aka yang terdiri 4 poin. "Kami fans Raja Dangdut Rhoma Irama Jawa Timur, rakyat lndonesia yang ingin melihat Indonesia adil makmur untuk semua," kata Ketua Umum Rhomais Jawa Timur, Suryanto Aka, Jumat (9/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Dalam kesempatan itu, Rhoma Irama juga melakukan simulasi pencoblosan Anies-Muhaimin saat di panggung. Simulasi dilakukan usai Anies dan Cak Imin menyampaikan pidato. Rhoma Irama mengenakan baju berwana putih dan memakai kaca mata hitam. Rhoma melakukan pencoblosan menggunakan sebuah tongkat. Dia mencoblos gambar Anies dan Muhaimin. Anies dan Muhaimin menemani Rhoma Irama dalam simulasi pencoblosan tersebut. Pendukung bersorak saat gambar Anies dan Muhaimin dicoblos sang Raja Dangdut. Setelah itu, Rhoma kemudian bernyanyi menghibur pendukung Anies-Muhaimin. Berikut 4 poin deklarasi Rhomais: 1. Mendukung penuh perjuangan Anies-Muhaimin dalam mewujudkan kesejahteraan dan persatuan bangsa 2. Mendukung penuh perjuangan Anies-Muhaimin untuk memenangkan Pilpres 2024 3. Mengajak para penggemar Rhoma lrama dan Soneta yang berada di bawah organisasi-organisasi yang dipimpin Raja Dangdut Rhoma Irama, yang sejalan dengan sikap Rhoma Irama, mari bergabung dan bersatu padu didalam wadah RHOMAIS untuk memperjuangkan perubahan. 4. Mengajak seluruh rakyat untuk mencoblos di TPS dan ikut mengawasi penghitungan suara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7185563/fans-rhoma-irama-jatim-deklarasi-dukung-amin-ajak-penggemar-coblos-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.942 Personel Gabungan Diterjunkan Amankan Pemilu di Banyuwangi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimSenin, 12 Feb 2024 18:23 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.942 Pasukan gabungan TNI, Polri, Pol PP dan Linmas Banyuwangi menggelar apel bersama di lapangan Taman Blambangan Banyuwangi. Para petugas gabungan bersiap mengemban tugas penting mengamankan jalannya pemungutan dan penghitungan suara pemilu 2024 yang akan digelar pada 14 - 15 Februari mendatang. Bupati Banyuwangi Ipuk Fiestiandani mengatakan kegiatan apel gelar pasukan pemungutan dan penghitungan suara tersebut merupakan kesiapan akhir dalam rangka mengamankan tahapan pemilu. Ipuk berharap para personel bisa menjalankan tugas dengan tulus dan sebaik-baiknya. "Saya berharap para personel bekerja dengan tulus karena akan bernilai ibadah. Tugas ini tidak dapat dinilai dengan apapun," kata Ipuk saat memimpin apel gelar pasukan Senin (12/02) sore. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Ipuk menyebut tahap pemungutan dan perhitungan adalah tahap paling krusial sehingga seluruh personel harus memahami tugas pokok, peta kerawanan wilayah dan mengedepankan sinergi. "Sehingga jalannya pemilu dapat berjalan aman, nyaman, lancar tanpa adanya gangguan. Mudah-mudahan semuanya sukses," tegas Ipuk. Sementara itu, Kapolresta Banyuwangi Kombes Pol Nanang Hariyono mengatakan total 11.942 personel gabungan dikerahkan untuk melakukan pengamanan di Banyuwangi. Mereka terdiri dari 900 personel Polresta Banyuwangi, 367 personel Kodim 0825 Banyuwangi, 100 personel BKO Polda Jatim, 1 SST Brimob Polda Jatim, 200 personel Satpol PP, 30 petugas Dishub Banyuwangi, dan 10.000 personel Linmas. "Para personel langsung geser ke masing-masing TPS," kata Nanang. Berkaca pada pemilu sebelumnya di mana banyak petugas Pemilu yang sakit dan meninggal, Nanang mengimbau kepada seluruh personel yang terlibat untuk menjaga kesehatan dan memastikan kondusifitas. "Kami imbau personel untuk menjaga kesehatan. Kami juga mengimbau masyarakat untuk berpartisipasi dengan menggunakan hak pilihnya di TPS," imbaunya. Apel ini turut dihadiri sejumlah Forkopimda Banyuwangi, pejabat Kodim 0825 Banyuwangi, Lanal Banyuwangi, Kejaksaan Negeri Banyuwangi, Komisioner KPU dan Bawaslu Banyuwangi. Apel ditutup dengan doa bersama tokoh lintas agama. Diharapkan jalannya Pemilu di Banyuwangi aman lancar tanpa ada gangguan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7189540/11-942-personel-gabungan-diterjunkan-amankan-pemilu-di-banyuwangi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiket Masuk Diskon 10 Persen Bagi Pengunjung yang Ikut Nyoblos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimSenin, 12 Feb 2024 15:28 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wisatawan yang ingin berkunjung ke seluruh destinasi wisata milik Jatim Park Group, Kota Batu dapat diskon 10% saat 14 Februari 2024. Namun, untuk memperoleh diskon ada beberapa persyaratan khusus yang harus dipenuhi. Manager Marketing and Public Relations, Titik S Ariyanto mengatakan, persyaratan untuk mendapat diskon 10% dengan mudah. Pengunjung cukup menunjukkan tanda tinta atau bukti jika sudah mencoblos pada saat pemilu. "Caranya mudah, cukup dengan menunjukkan tanda tinta pada jari serta bukti coblos pada pemilu. Nanti untuk 100 pengunjung pertama di setiap theme park naungan Jawa Timur Park Group juga akan mendapat eksklusif merchandise," ujarnya saat dikonfirmasi, Senin (12/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Ia menyampaikan, diskon ini disediakan untuk 100 pengunjung pertama di setiap destinasi wisata milik Jatim Park Group. Selain itu, diskon 10% ini berlaku bagi seluruh pengunjung reguler non rombongan serta hanya dapat dibeli pada loket yang tersedia di setiap theme park. Pemberian diskon pada 14 Februari 2024 ini program kampanye bertajuk 'Coblos Dulu, Liburan Kemudian'. Tujuannya untuk mendukung program pemerintah bahwa masyarakat Indonesia masih wajib berperan serta dalam pemilu 2024. "Tujuannya saat libur pemilu itu dikhawatirkan masyarakat lebih memilih untuk liburan daripada nyoblos. Nah kampanye ini tujuannya untuk mendukung program pemerintah bahwa masyarakat Indonesia itu masih wajib berperan serta dalam pemilu," ungkap Titik. Bagi wisatawan yang ingin mengetahui tentang pemilu dan demokrasi bisa mengunjungi Rumah Pintar Pemilu (RPP) Wisata Demokrasi dan Pemilu di Jatim Park 1. Wahana yang diresmikan sejak tahun 2020 ini mengkolaborasikan konsep pendidikan dan wisata demokrasi serta pemilu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/wisata/d-7189082/tiket-masuk-diskon-10-persen-bagi-pengunjung-yang-ikut-nyoblos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dituding Selingkuh, Emak-emak di Malang Tewas Dibunuh Suami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJogjaSenin, 12 Feb 2024 15:25 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seorang ibu rumah tangga (IRT) di Malang, Jawa Timur, Dayang Santi (40) tewas dibunuh suaminya, Ditya Mukhsan Muhammad (40). Dayang Santi dan suaminya kerap cekcok gegara tudingan selingkuh. Dilansir detikJatim, Senin (12/2/2024), Kasat Reskrim Polres Malang AKP Gandha Syah Hidayat menyebut kedua suami istri ini sering cekcok. Keduanya saling menuduh selingkuh. "Ini sama-sama mencurigai masing-masing memiliki pria idaman lain maupun wanita idaman lain karena memang riwayat dari diari korban ini melambangkan bahwa kurang akur ya," kata Gandha kepada wartawan, Senin (12/2). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Gandha menyebut korban sempat menulis di diarinya jika suaminya hanya bermain handphone saat di rumah. Ditya juga disebut tak pernah mengajak istrinya ngobrol hingga kerap ketahuan membonceng perempuan lain. "Cekcok-cekcok ini karena sering berantem karena cemburu," imbuhnya. Atas perbuatannya, Ditya kini telah ditetapkan sebagai tersangka usai pemeriksaan 12 saksi. Tiga di antaranya merupakan saksi ahli. "Kami memeriksa total sejumlah 12 orang saksi, yang mana dari 12 orang saksi tersebut 3 diantaranya merupakan saksi ahli. Untuk barang bukti yang kita amankan diantaranya video milik korban serta buku diary, berisi curahan isi hati korban," sambungnya. Selain itu, penyidik juga telah memiliki alat bukti yang cukup untuk menetapkan Ditya sebagai tersangka. Alat bukti itu antara lain hasil rekam medis, sejumlah temuan di TKP, dan dilengkapi dengan hasil gelar perkara. "Ada surat lebih dari satu, ahli pun kita pakai lebih dari 2, kemudian keterangan saksi kita ada 9 kemudian petunjuk pola TKP juga sudah dilakukan. Petunjuk itu bersesuaian antara keterangan saksi, keterangan ahli, barang bukti dan surat itu sendiri yaitu sesuai. Makanya kami tetapkan yang bersangkutan inisial DMM sebagai tersangka pelaku KDRT yang menyebabkan korban meninggal dunia," jelas dia. Atas perbuatannya, tersangka dijerat Pasal 44 ayat 1 dan ayat 3 Undang-Undang Nomor 23 Tahun 2004 tentang penghapusan dalam lingkup rumah tangga, dengan ancaman hukuman paling lama 12 tahun penjara. Diberitakan detikJatim sebelumnya, jasad Dayang Santi ditemukan di rumahnya di Perumahan Bumi Mondoroko Raya (BMR) Blok G01, Kecamatan Singosari, Kabupaten Malang, pada Rabu (24/) sekitar pukul 09.00 WIB. Jasad Dayang Santi ditemukan terkapar dengan mulut mengeluarkan busa di lantai kamar. Keterangan tetangga menyebutkan sempat mendengar cekcok. Anak korban Y (6) juga memberikan pengakuan kedua orang tuanya bertengkar dan sempat melihat ayahnya menuangkan cairan pembersih lantai ke dalam gelas. "Saksi melihat ayahnya meminumkan cairan tersebut kepada korban dengan cara memegang pipi korban," ujar Gandha beberapa waktu lalu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jogja/berita/d-7189095/dituding-selingkuh-emak-emak-di-malang-tewas-dibunuh-suami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personel di Polres Blitar Kota Dipertebal demi Antisipasi Kerawanan Pemilu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimSenin, 12 Feb 2024 14:58 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilayah hukum Polres Blitar Kota masuk daerah rawan Pemilu 2024 berdasarkan hasil pemetaan yang dilakukan Polda Jatim. Personel tambahan diterjunkan ke wilayah hukum Polres Blitar untuk membantu pengamanan Pemilu. "Ada 420 personel akan dilibatkan untuk mengamankan Pemilu di Wilayah Kota Blitar. Sudah termasuk BKO dari Polda Jatim 60 personel. Kemudian juga ada perbantuan dari TNI (Kodim 0808 dan Batalyon 511)," kata Kapolres Blitar Kota AKBP Danang Setiyo PS, Senin (12/2/2024). Danang menyebutkan jumlah personel Polres Blitar Kota cukup terbatas untuk mengamankan 1.577 TPS yang masuk wilayah hukum Polres Blitar Kota. Untuk itulah perlu dilakukan penebalan atau penambahan personel dari Polda Jatim. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Sebanyak 1.577 TPS yang ada di Wilkum Polres Blitar. Tiga kecamatan di Kota Blitar, dan 6 kecamatan Kabupaten Blitar. Jadi membutuhkan banyak personel," terangnya. Berdasarkan data yang dihimpun detikJatim, risiko kerawanan di wilayah hukum Polres Blitar Kota cukup beragam. Di antaranya ada sejumlah kecamatan dengan jumlah DPT yang sangat banyak, kemudian ada TPSyang berdekatan dengan rumah caleg sehingga rawan intervensi caleg tertentu. Danang enggan memberikan penjelasan lebih gamblang tentang potensi kerawanan itu, dia hanya memastikan bahwa masing-masing TPS punya karakteristik kerawanan berbeda. Menurutnya, diperlukan adanya antisipasi dan analisis dalam pola pengamanan di masing-masing TPS. Termasuk tindakan apa yang perlu dilakukan dan rekayasa sosial yang perlu disiapkan bila terjadi hal yang tidak diinginkan. "Potensi kerawanan masing-masing wilayah pasti ada karakteristiknya. Yang jelas kami mengantisipasi itu," tegasnya. Selain itu, Kata Danang, saat ini juga telah masuk musim hujan sehingga diperlukan pengawasan dan pengamanan ekstra logistik pemilu serta lokasi TPS yang telah tersedia. "Makanya mulai hari ini kami harapkan personel bisa langsung menuju TPS untuk pengecekan, membantu persiapan, dan memastikan TPS aman dari resiko lainnya," terangnya. Terpisah, Kapolres Blitar AKBP Wiwit Adisatria menyebutkan pihaknya juga sudah menyiapkan pola pengaman untuk Pemilu 2024. Meskipun wilayah Kabupaten Blitar dinyatakan daerah kurang rawan. "Dari pola pengamanan Polri dan Polda Jatim, wilkum Blitar (Kabupaten) tidak ada wilayah rawan. Adanya TPS kurang rawan. Tapi kami tetap lakukan pengamanan," katanya saat dikonfirmasi detikJatim, Senin (12/2/2024). Berdasarkan data Polres Blitar jumlah personel pengamanan Pemilu mencapai 520 orang. Terdiri dari 300 personel PAM di TPS, 120 personel Dalmas dengan masing-masing rayon 1 pleton, dan 1 kompi lainnya sekitar 100 personel. Wiwit menjelaskan bahwa di wilayah hukum Polres Blitar ada sebanyak 2.396 TPS. Di antaranya terdapat sejumlah TPS yang harus mendapatkan treatment khusus. Misalnya sejumlah TPS yang rawan bencana. "Ada beberpa TPS yang secara demografi masuk rawan bencana. Seperti di wilayah Kecamatan Doko. Tetap diantisipasi dengan pengamanan di masing-masing rayon (Polsek) 1 pleton," katanya. Lebih lanjut, Wiwit memastikan Polres Blitar sudah siap untuk melakukan pengaman Pemilu 2024. Pihaknya berharap Pemilu bisa berjalan lancar dan kondusif.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7189024/personel-di-polres-blitar-kota-dipertebal-demi-antisipasi-kerawanan-pemilu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ini Instruksi Gerindra Jatim ke Seluruh Kader-Simpatisan Jelang Pemilu 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimSenin, 12 Feb 2024 14:20 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memasuki masa tenang Pemilu 2024, DPD Gerindra Jawa Timur menginstruksikan kepada semua jajaran kader dan simpatisan partai untuk mengawal serta menjaga suara kemenangan. Ketua DPD Gerindra Jatim Anwar Sadad mengatakan, tiga hari masa tenang merupakan momen yang krusial dalam Pemilu. Ia meminta semua kader tidak lengah. "Jangan lengah, meski di survei capres-cawapres kita unggul, partai Gerindra juga unggul. Tiga sampai lima hari ke depan sangat krusial, jaga suara kita, jaga kemenangan kita," kata Anwar Sadad saat dikonfirmasi awak media, Senin (12/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Politikus yang akrab disapa Gus Sadad ini meminta kepada kader untuk menjaga masing-masing TPS. Selain menempatkan masing-masing minimal satu saksi per TPS, ia meminta ada kader Gerindra di setiap TPS. "Agar suara kemenangan Gerindra, suara kemenangan Prabowo-Gibran aman. Awasi sekitar, jaga TPS dari segala potensi kecurangan," tegas Gus Sadad. Gus Sadad menyebut, kemenangan untuk Gerindra dan Prabowo-Gibran sudah di depan mata. Ia meminta semua kader untuk menuntaskan misi kemenangan. "Kemenangan sudah di depan mata, semua kader tuntaskan kerja keras kita selama 4 tahun terakhir ini dengan hasil semaksimal mungkin di Pemilu 2024," tandas Gus Sadad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7188941/ini-instruksi-gerindra-jatim-ke-seluruh-kader-simpatisan-jelang-pemilu-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabrak Jembatan, Pelajar SMA Tewas Terpental ke Sungai Gianyar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikBaliSenin, 12 Feb 2024 13:34 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kecelakaan maut terjadi di jembatan gantung Jalan Bypass Ida Bagus Mantra, Ketewel, Kecamatan Sukawati, Gianyar, Bali, malam tadi. Seorang pelajar tewas setelah menabrak jembatan dan terpental ke sungai. "Korban mengendarai motor besar, kemungkinan tidak mampu mengendalikan kecepatan motornya, oleng dan menabrak jembatan dan tewas di tempat, semalam," kata Kanit Laka Satlantas Polres Gianyar Ipda I Made Suarjana kepada detikBali, Senin (12/2/2024). Korban bernama Andre Reduli (17) asal Banyuwangi, Jawa Timur (Jatim). Dia adalah seorang pelajar SMA di sana. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Suarjana mengatakan, korban meluncur dari arah barat ke timur. Setiba di lokasi, Andre diduga tak bisa mengendalikan motornya hingga menabrak pembatas jembatan. Andre lantas terpental ke sungai dari ketinggian 15 meter. Korban meninggal dunia di tempat dengan tubuh penuh luka, tangan dan kakinya patah. "Sudah dievakuasi ke RSU Sanjiwani, Gianyar," pungkasnya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/bali/berita/d-7188844/tabrak-jembatan-pelajar-sma-tewas-terpental-ke-sungai-gianyar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratusan Ribu Kendaraan Melintasi 3 Tol di Jatim Selama Long Weekend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimSenin, 12 Feb 2024 13:30 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratusan ribu kendaraan berlalu-lalang di jalan tol Trans Jawa. Sebagian di antaranya memadati kawasan Jatim pada 7-10 Februari 2024 atau saat libur panjang (long weekend) Isra Mikraj dan Tahun Baru Imlek. VP Corporate Secretary and Legal PT Jasa Marga Trans Jawa Tol Ria Marlinda Paallo mengatakan, puncak arus lalin dari wilayah Jatim menuju sejumlah daerah terjadi pada Minggu (11/2/2024). Di antaranya di Gerbang Tol (GT) Warugunung, Kejapanan Utama, dan Singosari. "Untuk GT Waru Gunung pada periode 7-10 Februari 2024, tercatat sebanyak 87.582 kendaraan menuju Jakarta atau naik 17,58% dari lalin normal sebanyak 74.485 kendaraan," kata Ria dalam keterangannya, Senin (12/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Untuk kendaraan yang menuju Surabaya melalui GT Waru Gunung tercatat sebanyak 87.004 kendaraan atau naik 17,00% dari lalin normal 74.365 kendaraan," imbuh dia. Pada periode yang sama, tercatat sebanyak 139.832 kendaraan menuju Malang atau naik 39,61% dari lalin normal, yakni 100.156 kendaraan. Sebaliknya, kendaraan yang menuju Surabaya tercatat sebanyak 124.871 kendaraan atau naik 24,01% dari lalin normal sebanyak 100.692 kendaraan. Lalu, pada GT Singosari tercatat sebanyak 68.391 kendaraan menuju Malang atau naik 26,25% dari lalin normal sebanyak 54.169 kendaraan. Sebaliknya, kendaraan yang menuju Surabaya tercatat sebanyak 59.561 kendaraan atau naik 27,64% dari lalin normal sebanyak 46.663 kendaraan. Secara keseluruhan, Ria menyebutkan, 156.454 kendaraan meninggalkan Jakarta melalui GT Cikampek Utama naik 37,44% jika dibandingkan lalin normal, yakni 113.834 kendaraan. Sementara, kendaraan yang menuju Jakarta mencapai 123.192 kendaraan atau naik 14,92% dari lalin normal sebanyak 107.197 kendaraan. Ria pun mengimbau pengendara untuk mempersiapkan diri sebelum memasuki perjalanan di jalan tol. Pastikan diri dan kendaraan dalam kondisi prima. "Pastikan kecukupan BBM dan saldo uang elektronik, serta mematuhi rambu-rambu dan arahan petugas di lapangan," tuturnya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7188832/ratusan-ribu-kendaraan-melintasi-3-tol-di-jatim-selama-long-weekend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masa Tenang, PDIP Jatim Instruksikan Kader hingga Caleg Turunkan APK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimSenin, 12 Feb 2024 12:25 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sejumlah partai politik dan caleg ikut menurunkan Alat Peraga Kampanye (APK) di wilayah masing-masing selama masa tenang Pemilu 2024. Salah satunya PDI Perjuangan (PDIP) yang dengan tegas menginstruksikan kepada seluruh kader maupun simpatisannya untuk membereskan APK secara mandiri. Ketua DPD PDIP Jatim Said Abdullah menegaskan, seluruh caleg PDIP di Jatim ikut membantu Satpol PP dan Bawaslu menurunkan berbagai APK di beberapa lokasi. Said mengatakan, partisipasi aktif dari para caleg maupun anggota partai dalam menjaga kebersihan dan keteraturan APK sangat penting untuk menciptakan suasana kondusif jelang pencoblosan. "Kita tunjukkan kepedulian kita terhadap lingkungan setempat dengan partisipasi turun ke jalan keliling. Kader PDI Perjuangan ikut membantu untuk membenahi dan membereskan seluruh Alat Peraga Kampanye yang telah terpasang di daerah masing-masing," jelas Said, Senin (12/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Selain imbauan tersebut, Said juga mengajak seluruh masyarakat Jatim turut aktif dalam pesta demokrasi 5 tahunan ini dengan menyalurkan hak pilihnya ke TPS masing-masing."Tanggal 14 Februari saya mengajak seluruh masyarakat Jawa Timur untuk hadir ke Tempat Pemungutan Suara (TPS) masing-masing, memberikan hak pilih dan hak suaranya, serta menjadi Warga Negara Indonesia yang baik dengan memenuhi kewajibannya dalam proses demokrasi," kata pria yang juga menjabat sebagai Ketua Banggar DPR RI tersebut.. Diketahui, menjelang pelaksanaan Pemilu 14 Februari 2024, Indonesia memasuki masa tenang sesuai dengan ketentuan yang diatur dalam Peraturan KPU Nomor 15 Tahun 2023 tentang Kampanye Pemilihan Umum. Masa tenang ini berlangsung selama 3 hari. Mulai 11 Februari 2024 hingga H-1 Pemilu atau 13 Februari 2024. Selama masa tenang ini, seluruh peserta pemilu, termasuk calon dan pendukungnya, dilarang untuk kampanye maupun melakukan berbagai aktivitas politik yang bisa memengaruhi opini publik. Hal ini bertujuan untuk menciptakan situasi yang kondusif dan adil menjelang hari pemungutan suara, sehingga masyarakat dapat memilih secara tenang dan rasional sesuai dengan hak suara masing-masing. Simak Video 'Momen APK di Sejumlah Daerah Mulai Dibersihkan di Masa Tenang':   [Gambas:Video 20detik] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7188691/masa-tenang-pdip-jatim-instruksikan-kader-hingga-caleg-turunkan-apk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asyiknya Belajar soal Capung Beraneka Warna di Wisata Jopuro Banyuwangi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimSenin, 12 Feb 2024 09:41 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penggemar fotografi fauna atau pecinta capung tak perlu risau. Musim hujan saat ini tepat untuk berkunjung ke destinasi wisata Jopuro Banyuwangi. Di Jopuro, wisatawan bisa dimanjakan dengan aneka penampakan capung yang berterbangan di sejumlah titik wisata dengan aliran air jernih dan bersih. Sejumlah bahasa daerah kerap disebut kinjeng, papatong, coblang dan tjapung. Wisata Jopuro adalah kawasan pemandian alami di Dusun Rejopuro, Desa Kampung Anyar, Kecamatan Glagah, cukup ikonik karena memadukan lanskap alami dan buatan. Aliran mata air yang dibendung membentuk kolam-kolam dengan arus yang tenang menjadi sebuah habitat para capung. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Capung di Wisata Jopuro dengan mudah dapat ditemui. Hal ini menandakan bahwa capung merupakan salah satu hewan yang berperan sebagai bioindikator untuk kualitas lingkungan, utamanya air. Ketua Kelompok Sadar Wisata (Pokdarwis) Jopuro Samian mengungkapkan rasa syukur dengan sering ditemukan capung di berbagai sudut area Wisata Jopuro. "Seperti yang kita ketahui, capung itu hanya bisa berkembang biak di habitat air yang bersih dan juga bergantung pada ekosistem perairan yang sehat dan rantai makanan yang sehat." kata Samian, Senin (12/2/2024). Beberapa kali, Samian mengaku mengamati betina capung meletakkan telur-telurnya di permukaan air, dan ada juga yang menaruh dalam tanaman atau lumut air. "Capung betina meletakkan telur di permukaan air yang tenang dan ada yang di lumut air. Setelah menetas, larva capung menghabiskan waktunya memburu invertebrata atau hewan tanpa tulang belakang alias hewan lunak di dalam air." ungkap Samian. Tak hanya itu, selain sebagai bioindikator, capung juga sangat berjasa bagi manusia karena telah membantu membasmi serangga seperti jentik-jentik yang berasal dari nyamuk, lalat atau serangga lainnya merupakan mangsa bagi capung. Salah satu wisatawan dari Jakarta Mardhita mengaku tidak rugi datang ke wisata pemandian alami tersebut, ia pun mengaku kerap menemukan Capung aneka warna. "Iya, bagus ada yang biru, merah itu ada macem-macem terus hitam dan hijau juga ada kuning keemasan. Baru tahu saya capung warna warni," katanya kepada detik Jatim. Salah satu wisatawan, Akbar asal Jakarta mengaku sempat mengabadikan sejumlah foto Capung di ponsel pintarnya. "Saya ambil foto tadi, gak tahu ya, ada capung kok rasanya makin percaya ini tempat wisata airnya pasti bersih. Seger lagi disini," terang Akbar. Berbagai jenis capung yang dapat dijumpai di tempat ini. Di antaranya Dragon fly si pemilik warna kuning keemasan, Neurothemis si wara kehitaman dengan semburat sayap keunguan, terminata, damselfly, Chalocholetes viridis dan atrocalopcalopteryx atrata. Jika ingin berkunjung ke tempat ini, pastikan membawa pakaian yang nyaman untuk berendam dan berburu capung dialam terbuka dan berair. Wisata Jopuro ini dibuka mulai pukul 7 pagi hingga 5 sore.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/wisata/d-7188379/asyiknya-belajar-soal-capung-beraneka-warna-di-wisata-jopuro-banyuwangi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebagian Besar Daerah di Jatim Diprediksi Hujan Ringan Senin 12 Februari 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimSenin, 12 Feb 2024 06:00 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebagian besar wilayah Jatim diprediksi hujan ringan di hari Senin 12 Februari 2024. Namun ada sebagian yang dilanda hujan lebat. Puncak suhu tertinggi berada di Kota Gresik dan Kota Surabaya yang mencapai hingga 34 derajat celsius. BMKG sendiri mengimbau kepada masyarakat yang tinggal di daerah yang diprediksi hujan lebat agar waspada terhadap petir dan angin kencang sesaat. Informasi cuaca lebih detil untuk tiap-tiap daerah di Jatim dapat dilihat di bawah berikut ini. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ 1. Bangkalan Cuaca: Pagi (Cerah berawan) Siang (Hujan ringan) Malam (Hujan ringan) Dini hari (Berawan) Suhu: 25-32 derajat celsius  2. Banyuwangi Cuaca: Pagi (Cerah berawan) Siang (Hujan lebat) Malam (Berawan) Dini hari (Cerah berawan) Suhu: 24-32 derajat celsius  3. Batu Cuaca: Pagi (Cerah berawan) Siang (Hujan ringan) Malam (Hujan ringan) Dini hari (Berawan) Suhu: 17-29 derajat celsius  4. Bojonegoro Cuaca: Pagi (Berawan) Siang (Hujan ringan) Malam (Cerah berawan) Dini hari (Cerah berawan) Suhu: 24-32 derajat celsius  5. Bondowoso Cuaca: Pagi (Cerah berawan) Siang (Hujan lebat) Malam (Berawan) Dini hari (Cerah berawan) Suhu: 23-28 derajat celsius  6. Gresik Cuaca: Pagi (Berawan) Siang (Cerah berawan) Malam (Hujan ringan) Dini hari (Cerah berawan) Suhu: 25-34 derajat celsius  7. Jember Cuaca: Pagi (Berawan) Siang (Hujan ringan) Malam (Berawan) Dini hari (Berawan) Suhu: 22-31 derajat celsius  8. Jombang Cuaca: Pagi (Berawan) Siang (Hujan ringan) Malam (Hujan ringan) Dini hari (Berawan) Suhu: 23-32 derajat celsius  9. Kabupaten Blitar Cuaca: Pagi (Cerah berawan) Siang (Cerah berawan) Malam (Cerah berawan) Dini hari (Berawan) Suhu: 23-31 derajat celsius  10. Kabupaten Kediri Cuaca: Pagi (Berawan) Siang (Hujan ringan) Malam (Berawan) Dini hari (Berawan) Suhu: 23-32 derajat celsius  11. Kabupaten Madiun Cuaca: Pagi (Cerah berawan) Siang (Hujan ringan) Malam (Cerah berawan) Dini hari (Berawan) Suhu: 23-32 derajat celsius  12. Kabupaten Malang Cuaca: Pagi (Cerah berawan) Siang (Cerah berawan) Malam (Berawan) Dini hari (Berawan) Suhu: 20-31 derajat celsius  13. Kabupaten Mojokerto Cuaca: Pagi (Cerah berawan) Siang (Hujan lebat) Malam (Berawan) Dini hari (Cerah berawan) Suhu: 22-30 derajat celsius  14. Kabupaten Pasuruan Cuaca: Pagi (Cerah berawan) Siang (Hujan ringan) Malam (Berawan) Dini hari (Cerah berawan) Suhu: 23-30 derajat celsius  15. Kabupaten Probolinggo Cuaca: Pagi (Cerah berawan) Siang (Hujan lebat) Malam (Hujan ringan) Dini hari (Berawan) Suhu: 22-31 derajat celsius  16. Kota Blitar Cuaca: Pagi (Berawan) Siang (Hujan ringan) Malam (Cerah berawan) Dini hari (Berawan) Suhu: 23-31 derajat celsius  17. Kota Kediri Cuaca: Pagi (Berawan) Siang (Hujan ringan) Malam (Hujan ringan) Dini hari (Cerah berawan) Suhu: 23-33 derajat celsius  18. Kota Madiun Cuaca: Pagi (Cerah berawan) Siang (Cerah berawan) Malam (Cerah berawan) Dini hari (Cerah berawan) Suhu: 23-32 derajat celsius  19. Kota Malang Cuaca: Pagi (Cerah berawan) Siang (Hujan ringan) Malam (Berawan) Dini hari (Berawan) Suhu: 20-31 derajat celsius  20. Kota Mojokerto Cuaca: Pagi (Cerah berawan) Siang (Hujan ringan) Malam (Cerah berawan) Dini hari (Cerah berawan) Suhu: 24-32 derajat celsius  21. Kota Pasuruan Cuaca: Pagi (Cerah berawan) Siang (Hujan ringan) Malam (Hujan ringan) Dini hari (Cerah berawan) Suhu: 24-31 derajat celsius  22. Kota Probolinggo Cuaca: Pagi (Cerah berawan) Siang (Hujan petir) Malam (Hujan ringan) Dini hari (Berawan) Suhu: 25-31 derajat celsius  23. Lamongan Cuaca: Pagi (Berawan) Siang (Hujan ringan) Malam (Hujan ringan) Dini hari (Cerah berawan) Suhu: 24-32 derajat celsius  24. Lumajang Cuaca: Pagi (Berawan) Siang (Hujan ringan) Malam (Berawan) Dini hari (Berawan) Suhu: 23-31 derajat celsius  25. Magetan Cuaca: Pagi (Cerah berawan) Siang (Hujan petir) Malam (Hujan petir) Dini hari (Cerah berawan) Suhu: 23-29 derajat celsius  26. Nganjuk Cuaca: Pagi (Berawan) Siang (Hujan ringan) Malam (Berawan) Dini hari (Kabut) Suhu: 23-30 derajat celsius  27. Ngawi Cuaca: Pagi (Berawan) Siang (Hujan ringan) Malam (Berawan) Dini hari (Cerah berawan) Suhu: 24-30 derajat celsius  28. Pacitan Cuaca: Pagi (Hujan ringan) Siang (Cerah berawan) Malam (Cerah berawan) Dini hari (Cerah berawan) Suhu: 23-32 derajat celsius  29. Pamekasan Cuaca: Pagi (Berawan) Siang (Hujan ringan) Malam (Berawan) Dini hari (Berawan) Suhu: 24-32 derajat celsius  30. Ponorogo Cuaca: Pagi (Cerah berawan) Siang (Hujan petir) Malam (Cerah berawan) Dini hari (Cerah berawan) Suhu: 24-30 derajat celsius  31. Sampang Cuaca: Pagi (Cerah berawan) Siang (Cerah berawan) Malam (Cerah berawan) Dini hari (Cerah berawan) Suhu: 24-32 derajat celsius  32. Sidoarjo Cuaca: Pagi (Cerah berawan) Siang (Berawal tebal) Malam (Hujan ringan) Dini hari (Berawan) Suhu: 24-33 derajat celsius  33. Situbondo Cuaca: Pagi (Cerah berawan) Siang (Hujan lebat) Malam (Hujan ringan) Dini hari (Cerah berawan) Suhu: 23-31 derajat celsius  34. Sumenep Cuaca: Pagi (Cerah berawan) Siang (Hujan petir) Malam (Berawan) Dini hari (Cerah berawan) Suhu: 24-33 derajat celsius  35. Surabaya Cuaca: Pagi (Berawan) Siang (Hujan ringan) Malam (Berawan) Dini hari (Cerah berawan) Suhu: 24-34 derajat celsius  36. Trenggalek Cuaca: Pagi (Cerah berawan) Siang (Hujan ringan) Malam (Hujan ringan) Dini hari (Cerah berawan) Suhu: 22-30 derajat celsius  37. Tuban Cuaca: Pagi (Cerah berawan) Siang (Hujan ringan) Malam (Cerah berawan) Dini hari (Berawan) Suhu: 23-32 derajat celsius 38. Tulungagung Cuaca: Pagi (Kabut) Siang (Hujan ringan) Malam (Berawan) Dini hari (Kabut) Suhu: 23-30 derajat celsius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7188145/sebagian-besar-daerah-di-jatim-diprediksi-hujan-ringan-senin-12-februari-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasus Pemerkosaan Turis Wanita di Bali Terjadi Lagi dan Lagi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikTravelSenin, 12 Feb 2024 05:40 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasus pemerkosaan terhadap turis wanita di Bali terjadi lagi. Kali ini, pelakunya pemandu wisata dan korbannya turis China. Ini adalah kasus kedua yang terjadi di Bali. Masih segar dalam ingatan, beberapa bulan lalu, tepatnya pada bulan Agustus 2023, seorang turis Brasil diperkosa oleh driver ojol di Bali. Peristiwa pemerkosaan itu terjadi di sepetak tanah kosong Jalan Nyang-nyang, Kelurahan Jimbaran, Kecamatan Kuta Selatan, Kabupaten Badung. Peristiwa memilukan itu terjadi pada rentang waktu pukul 04.00 hingga 05.00 Wita, Senin (7/8/2023). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Pelaku adalah laki-laki berinisial WD asal Kecamatan Bangsalsari, Kabupaten Jember, Jawa Timur (Jatim). Adapun korban pemerkosaan itu yakni turis perempuan asal Brasil berinisial GWL (26). "Korban merupakan wisatawan asal Brasil yang berlibur ke Bali dan menginap di salah satu vila di daerah Jimbaran," ungkap Kepala Bidang Hubungan Masyarakat (Kabid Humas) Polda Bali, Kombes Jansen Avitus Panjaitan. Jansen menjelaskan, GWL memesan ojol dari Puri Kelapa Quest By Bukit Villa dengan tujuan Villa Asri Jimbaran. Pesanan tersebut diambil oleh WD. "Selama dalam perjalanan korban (GWL) terus diajak mengobrol oleh pelaku sampai tidak memperhatikan map (peta) perjalanan," tutur Jansen. Sesampainya di sebuah tanah kosong, WD membelokkan motornya dan menyuruh GWL turun. Pria itu kemudian berupaya memerkosa GWL dan sempat membanting turis asing itu. Bahkan, WD sempat mencekik leher dan menutup mulut GWL. Perempuan berusia 26 tahun itu berupaya melawan dengan cara memukul WD menggunakan botol air mineral. GWL sempat kabur, tapi WD menangkapnya dan kembali membanting tubuh turis Brasil itu. Seusai diperkosa, pria pendatang dari luar Bali itu mengantar GWL pulang ke Villa Asri Jimbaran. 5 Bulan berselang, tepatnya di bulan Februari ini, turis asing kembali diperkosa di Bali. Kali ini, korbannya adalah seorang turis China berinisial HJT. Pelakunya, bukan driver ojol lagi, melainkan seorang pemandu wisata bernama Faisal Akbar Ramadhan, pria pendatang berusia 29 tahun dari Surabaya. Faisal ditangkap di sebuah hotel di kawasan Nusa Dua, Kuta Selatan, Badung, Bali. Fajar diamankan oleh sekuriti hotel dan teman korban setelah ketahuan memperkosa turis perempuan asal China itu. Kasus tersebut kemudian dilaporkan ke polisi. Kepala Seksi Hubungan Masyarakat (Kasi Humas) Polresta Denpasar, AKP I Ketut Sukadi mengatakan, pelaku saat ini sudah diamankan di Sat Reskrim Polresta Denpasar. Saat diinterogasi polisi, pria pendatang itu mengaku menawarkan diri sebagai pemandu wisata, sekaligus sopir pribadi HJT selama liburan di Pulau Dewata. HJT dan temannya pun sepakat menggunakan jasa Faisal untuk mengantarkan dan menemani mereka menuju ke sebuah tempat hiburan malam pada Rabu (7/2/2024). "Mereka sempat menikmati hiburan dan minum alkohol hingga pukul 01.00 Wita. Setelah itu, korban dan temannya meminta tersangka untuk mengantar mereka kembali ke hotel di kawasan Nusa Dua," ungkap Sukadi. Bukannya mengantarkan turis China itu kembali ke hotel tempatnya menginap, Faisal justru membawa mereka ke hotel lain di kawasan Benoa. Faisal lantas mengajak HJT masuk ke kamar hotel tersebut dengan alasan mengambil hadiah untuk temannya. Setelah itu, Faisal kemudian memuaskan nafsu bejatnya dan memerkosa turis China berusia 26 tahun tersebut.  Simak Video 'Ojol Pemerkosa Turis Brasil di Bali Ditangkap di Pasuruan':  [Gambas:Video 20detik]  Saksikan juga SOSOK pilihan minggu ini: Menilik Dapur Musik Vandra  [Gambas:Video 20detik]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://travel.detik.com/travel-news/d-7188122/kasus-pemerkosaan-turis-wanita-di-bali-terjadi-lagi-dan-lagi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimisme Jatim Bisa Pertahankan Gelar Juara Umum MTQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimSenin, 12 Feb 2024 05:00 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekdaprov Jatim Adhy Karyono membuka seleksi calon peserta Musabaqah Tilawatil Qur'an (MTQ) XXX Tingkat Nasional yang dilaksanakan di Harris Hotel and Convention Malang, Minggu (11/2). Seleksi ini dibagi menjadi dua tahap. Tahap pertama dilakukan pada 11-13 Februari. Sedangkan tahap kedua berlangsung setelah Pemilu, yakni 15-17 Februari 2024. Dalam kesempatan tersebut, sekdaprov yang akrab disapa Adhy itu mengatakan bahwa Jawa Timur optimis dapat kembali membawa pulang gelar juara umum. Terlebih setelah Jatim memenangkannya pada MTQ Nasional XXIX Tahun 2022 lalu di Provinsi Kalimantan Selatan. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Pesan Bu Gubernur dulu saat 2022 adalah kalau berdoa, minta yang terbaik. Alhamdulillah kita langsung juara umum. Tahun ini, tugas kita adalah mempertahankannya. Maka kita start dengan optimis bisa menang lagi," katanya. Meski begitu, Adhy menegaskan untuk mencapai target ini, dibutuhkan sinergitas dan kolaborasi matang dari semua pihak terkait. Tak hanya itu, perencanaan baik juga harus dilakukan. "Ini akan kami perlakukan sama dengan kompetisi penting lainnya seperti PON. Jadi persiapan dan manajemennya harus lebih profesional dan mengarah ke lebih baik," katanya. "Selain itu, kita butuh seleksi yang ketat, pembinaan yang kuat, dan doa dari pemerintah, orang tua maupun para kyai. Insya Allah ikhtiar diiringi doa sama-sama memberikan hasil yang dahsyat," lanjut Adhy. Lebih lanjut Adhy menjelaskan bahwa seleksi MTQ ini menjadi bagian dari usaha peningkatan Indeks Kesalehan Sosial (IKS) Jawa Timur. Di mana, pada 2022, IKS mencapai 72,03 dari skala 0-100. "Untuk dari pemerintah sendiri kami support sepenuhnya. Apa yang dibutuhkan, mulai dari anggaran dan pembinaan intens insya Allah akan kami usahakan semaksimal mungkin," pungkas Adhy. Tahap pertama ini sendiri diikuti oleh 99 putra-putri terbaik Jawa Timur, dengan rincian 49 laki-laki dan 50 perempuan. Pemenang dari seleksi ini nantinya akan mewakili Jawa Timur dalam MTQ Nasional XXX 2024 yang rencananya dilaksanakan di Kota Samarinda, Kalimantan Timur pada September mendatang. Terdapat 7 cabang yang akan dikompetisikan baik untuk regu putra maupun putri. Yaitu Seni Baca Al-Qur'an, Qiraatul Qur'an, Hafalan Al-Qur'an, Tafsir Al-Qur'an, Fahmil Qur'an, Syarhil Qur'an, serta Seni Baca Al-Qur'an.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7188148/optimisme-jatim-bisa-pertahankan-gelar-juara-umum-mtq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khofifah Serahkan PLTS Atap ke Puluhan Ponpes-UMKM se-Jatim di Probolinggo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimSenin, 12 Feb 2024 03:00 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gubernur Jawa Timur (Jatim) Khofifah Indar Parawansa menyerahkan bantuan Pembangkit Listrik Tenaga Surya (PLTS) atap kepada Pimpinan Pondok Pesantren (Ponpes) se-Jatim dan pelaku Usaha Mikro Kecil Menengah (UMKM). Penyerahan bantuan digelar di Probolinggo. Seremoni penyerahan bantuan itu dilaksanakan di Pelabuhan Perikanan Mayangan (PPM), Kelurahan/Kecamatan Mayangan, Kota Probolinggo pada Minggu (11/2/2024) malam. Penyerahan secara simbolis itu ditandai penekanan tombol sirene dan saklar oleh Gubernur Khofifah. "Penyerahan ini untuk memaksimalkan apa yang menjadi mandat. Kebetulan ada PLTS yang belum diserahkan, oleh karena itu malam ini kami serahkan. Ada ponpes, UMKM, dan perkantoran pemerintah," kata Gubernur Khofifah. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Menuju 2060, kata Khofifah, ada proses dan tahapan yang harus dilakukan bersama berkaitan pengalihan energi fosil ke nonfosil yang sudah mulai dilakukan di sejumlah tempat. "Oleh karena itu di tahun 2019 kami melahirkan Perda Rued (Rencana Umum Energi Daerah,red) Jawa Timur. Ini yang kami coba ukur sampai di mana kita bisa mencapai dan melampaui target Perda Rued itu 6,55% dan pada 2023 mencapai 9,37 persen," pungkasnya. Bantuan PLTS Atap 1 KWP itu diserahkan kepada UMKM Dapoer Oethi, Kota Probolinggo, PLTS Atap 1 KWP kepada UMKM Konveksi Cumang, Kota Probolinggo, PLTS Atap 1 KWP kepada UMKM Konveksi CV Hirma, Kota Probolinggo Kemudian PLTS Atap 1 KWP kepada UMKM UD. Nusa Sari, Kota Probolinggo, PLTS Atap 25 KWP kepada Kantor UPT PPP Mayangan Kota Probolinggo, PLTS Atap 1 KWP kepada Pondok Pesantren Tanfidzul Quran Kyai Said, Kabupaten Gresik. Lalu PLTS Atap 1 KWP kepada Pondok Pesantren Maslahatul Ikhwan, Kabupaten Jember, PLTS Atap 5 KWP kepada Pondok Pesantren Darul Ulum Banyu Anyar, Kabupaten Pamekasan, PLTS Atap 5 KWP ke Pondok Pesantren Sunan Ampel, Kabupaten Banyuwangi. PLTS Atap 5 KWP kepada Pondok Pesantren Al Islami Assalafi Gedongsari, Kabupaten Nganjuk, PLTS Atap 5 KWP kepada Pondok Pesantren Nurul Hakim, Masjid Nur Hasan, Kabupaten Kediri, PLTS Atap 5 KWP kepada Pondok Pesantren Mambaul Ulum, Kabupaten Malang PLTS Atap 5 KWP kepada Pondok Pesantren Al Hidayah, Kota Batu, PLTS Atap 5 KWP kepada Pondok Pesantren Ngalah, Yayasan Darut Taqwa, Kabupaten Pasuruan, PLTS Atap 5 KWP kepada Yayasan Tarbiyah Islam, Kabupaten Pasuruan. PLTS Atap 5 KWP kepada Pondok Pesantren Al Amin Putri, Kota Mojokerto, PLTS Atap 5 KWP kepada Pondok Pesantren Nurul Qadim, Kabupaten Probolinggo, PLTS Atap 5 KWP kepada Yayasan Amanatul Al Munawwar, Kabupaten Bojonegoro. PLTS Atap 5 KWP kepada Pondok Pesantren Al Rosyid, Kabupaten Bojonegoro, PLTS Atap 5 KWP kepada Pondok Pesantren Al Falah, Kabupaten Kediri, PLTS Atap 10 KWP kepada Pondok Pesantren Nazhatut Thullab, Kabupaten Sampang. PLTS Atap 10 KWP kepada Pondok Pesantren Modern Al Fatimah, Kabupaten Bojonegoro, PLTS Atap 10 KWP kepada Pondok Pesantren Al Amin, Kota Kediri, PLTS Atap 10 KWP kepada Pondok Pesantren Putri Salafiyah 2, Kabupaten Pasuruan Terakhir, PLTS Atap 10 KWP ke Pondok Pesantren Al Rifaie 1, Kabupaten Malang, PLTS Atap 10 KWP kepada Pondok Pesantren Al Amin Japan Sooko, Kabupaten Mojokerto, PLTS SHS sebesar 74 Unit kepada Kelompok Masyarakat Sumber Urip Kabupaten Pasuruan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7188149/khofifah-serahkan-plts-atap-ke-puluhan-ponpes-umkm-se-jatim-di-probolinggo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banyuwangi Borong 2 Penghargaan di Sapa Insan Budaya dan Pariwisata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimSenin, 12 Feb 2024 00:01 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anjang Sapa Insan Budaya dan Pariwisata Jawa Timur menjadi ajang unjuk kebolehan kinerja pemerintah daerah di bidang budaya dan pariwisata. Dalam ajang ini, Banyuwangi berhasil memborong dua penghargaan dari Pemprov Jawa Timur. Penghargaan itu adalah Kepala Daerah Pendukung Kebudayaan Terbaik serta penghargaan atas terpilihnya Festival Gandrung Sewu dan Banyuwangi Ethno Carnival sebagai bagian dari Karisma Event Nusantara (KEN). Kegiatan Sapa Insan Budaya dan Pariwisata Jawa Timur berlangsung meriah di gedung Graha Wisata Dinas Kebudayaan dan Pariwisata Provinsi Jawa Timur Rabu (7/2) malam. Penghargaan diserahkan langsung oleh Gubernur Jawa Timur Khofifah Indar Parawansa dan diterima oleh sekretaris Daerah Mudjiono . 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Kami berterima kasih kepada Pemprov Jatim yang telah mengapresiasi Banyuwangi atas upaya melestarikan dan mengembangkan budaya dan pariwisata daerah," ujar Bupati Ipuk Fiestiandani, Minggu (11/2/2024). Bupati Ipuk menegaskan pemerintah daerah terus berkomitmen untuk melestarikan dan mengembangkan seni dan budaya lokal. Dengan memfasilitasi melalui berbagai event, melakukan regenerasi hingga menjadikannya sebagai kekuatan utama dalam mengangkat pariwisata daerah. "Sebagaimana Festival Gandrung Sewu dan Banyuwangi Ethno Carnival yang sejak 2023 masuk agenda KEN, keduanya berawal dari upaya untuk bisa melestarikan sekaligus mengenalkan seni budaya lokal pada publik luas. Kami bersyukur upaya tersebut berbuah positif," ujar Bupati Ipuk. Sekretaris Kabupaten Mujiono menambahkan kedua penghargaan tersebut diberikan kepada kepala daerah yang peduli pada kearifan lokal, terutama pada pelaku seni dan budaya di Jatim. Penghargaan sebagai Kepala Daerah Pendukung Kebudayaan Terbaik didapat lantaran Bupati dinilai memiliki komitmen dan konsisten pada pelestarian seni dan budaya di Bumi Blambangan. "Salah satunya memberikan wadah aktualisasi dan regenerasi melalui agenda Banyuwangi Festival yang mengakomodir banyak event seni budaya serta melibatkan generasi muda sebagai talent-talent baru," ujar Mujiono. Sementara itu, berkenaan dengan Gandrung Sewu dan BEC, selain masuk KEN 2024, event ini juga mendapat poin plus dari Pemprov Jatim. Sebab, event ini menumbuhkan kebanggaan masyarakat akan seni-budaya daerah. "Bukan hanya peserta, tetapi ibu-bapak, kakek-nenek, hingga saudara-saudara para siswa yang tampil pada ajang Gandrung Sewu juga turut bangga. Sedangkan siswa yang tampil juga mendapat sertifikat yang bermanfaat menambah poin saat siswa tersebut mendaftar ke jenjang pendidikan lebih tinggi," pungkas Mujiono.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/budaya/d-7188134/banyuwangi-borong-2-penghargaan-di-sapa-insan-budaya-dan-pariwisata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jelang Pemilu, Pertamina Jamin Stok BBM Bisa Penuhi Kebutuhan Warga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikFinanceMinggu, 11 Feb 2024 22:30 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jelang Pemilihan Umum 2024, Pertamina memastikan pasokan bahan bakar minyak (BBM) dan LPG di sejumlah wilayah tetap aman dan bisa memenuhi kebutuhan konsumen. Seperti yang dilakukan oleh PT Pertamina Patra Niaga Regional Jawa Bagian Tengah. Area Manager Comm, Rel &amp; CSR Pertamina Patra Niaga Regional Jawa Bagian Tengah, Brasto Galih Nugroho, Minggu (11/2). "Perantau yang akan kembali ke kampung halaman untuk menggunakan hak pilihnya diprediksi akan memberikan kontribusi kenaikan konsumsi BBM +4% untuk produk gasoline dan +3% untuk produk gasoil dari rata rata konsumsi harian normal," ungkap Brasto dalam siaran pers, Minggu (11/2/2024). 
+    ADVERTISEMENT
+    SCROLL TO CONTINUE WITH CONTENT
+   Rata-rata harian konsumsi normal di wilayah Jawa Tengah dan DIY adalah 12.789 Kiloliter/hari untuk BBM gasoline (Pertalite dan Pertamax Series) dan 19.455 Kiloliter/hari untuk BBM gasoil (Biosolar dan Dex Series). Lebih lanjut, Brasto juga menjelaskan bahwa Pertamina terus memastikan dan melakukan monitoring secara rutin agar pasokan serta distribusi BBM dan LPG dalam kondisi aman dan tercukupi. "Hari Libur saat Pemilu, tentunya akan memberikan peningkatan konsumsi LPG dengan estimasi +1,1% kenaikan konsumsi LPG di wilayah Jateng dan DIY dari 4.667 metric ton/hari naik menjadi 4.718 metric ton/hari," terang Brasto. Beberapa wilayah yang diprediksi akan mengalami peningkatan signifikan juga telah diantisipasi dengan menyiagakan build up stock selama pesta demokrasi ini dengan waktu operasional yang diperpanjang dengan menugaskan SPBU, Agen dan Pangkalan LPG siaga 24 jam di titik titik yang telah ditunjuk oleh Pertamina. Stok LPG di Pantura-Madura Pertamina Patra Niaga Regional Jatimbalinus pada tanggal (10/2) menambah pasokan LPG 3kg di tingkat agen dan pangkalan untuk Kabupaten/Kota di Pantura - Madura Jawa Timur sejumlah 969 metrik ton (MT) atau sebesar 47,7% dari konsumsi normal harian sebesar 2.031 MT. Selain itu, penambahan dilakukan untuk Kabupaten Bondowoso, Jember dan Lumajang total sebesar 124 MT atau sebesar 8,1% dibanding konsumsi normal harian pada 3 kabupaten tersebut. Area Manager Comm, Rel &amp; CSR Ahad Rahedi mengatakan penambahan pada kota/kabupaten tertentu di Jawa Timur berdasarkan proyeksi kenaikan konsumsi dan pemantauan konsumsi beberapa pekan terakhir. "Kabupaten/Kota lainnya yang tidak ada penambahan stoknya dirasa cukup melihat tidak ada kenaikan konsumsi yang cukup berarti selama beberapa hari libur tanggal merah ini dan stok di agen dan pangkalan daerah tersebut dalam kondisi mampu memenuhi kebutuhan beberapa hari kedepan," ujar Ahad Ahad menegaskan stok LPG di Jawa Timur dalam kondisi sangat aman. "Jumlah diatas adalah extra dropping untuk Agen / Pangkalan. Sedangkan untuk Jatim dinaungi oleh 3 Storage LPG Utama yakni Surabaya, Gresik dan Banyuwangi total ketiganya mencapai 15.372 MT dengan konsumsi rata-rata harian sebesar 4.035 metrik ton / hari," imbuhnya. Untuk BBM, Jelang Pemilu ini tidak ada kenaikan konsumsi signifikan, namun demikian Pertamina tetap mempertebal stok untuk seluruh SPBU se-Jatimbalinus sebesar 2% untuk gasoline (bensin) dan 3% untuk Gasoil (diesel) karena berdasarkan proyeksi kenaikan konsumsi tidak terlalu signifikan yakni 0,9% untuk gasoline dan 1,3% untuk gasoil. "Masyarakat kami himbau untuk membeli LPG 3kg di Pangkalan Resmi Pertamina menggunakan KTP mengikuti Edaran Pemerintah demi mensukseskan program Subsidi Tepat LPG 3kg. Agar kondisi penyebab kelangkaan bisa diminimalisir. Untuk BBM, kami himbau untuk transaksi cashless di SPBU agar mempercepat antrian dan guna menambah kenyamanan kami sediakan beragam promo menarik melalui aplikasi MyPertamina," pungkas Ahad. Senada dengan hal ini, Vice President Corporate Communication PT Pertamina (Persero), Fadjar Djoko Santoso menjelaskan bahwa pasokan BBM, Avtur dan LPG secara nasional sangat mencukupi dan aman untuk memenuhi kebutuhan masyarakat di masa liburan dan jelang Pemilu 2024. "Pertamina berkomitmen memberikan layanan penuh dengan menyiagakan seluruh sarana dan fasilitasnya untuk melayani kebutuhan energi masyarakat," ujar Fadjar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://finance.detik.com/energi/d-7187972/jelang-pemilu-pertamina-jamin-stok-bbm-bisa-penuhi-kebutuhan-warga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 Kecamatan di Sampang Masuk Daerah Sangat Rawan Pemilu 2024, Mana Saja?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detikJatimMinggu, 11 Feb 2024 22:30 WIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polres Sampang menerima 560 personel BKO dari Polda Jatim. Jumlah personel yang diperbantukan tersebut merupakan jumlah personel terbanyak dibandingkan wilayah lainnya di Jatim. Kapolres Sampang AKBP Siswantoro membenarkan adanya penebalan pengamanan untuk Sampang. Menurut Siswantoro, Sampang menjadi daerah dengan tingkat kerawanan yang cukup tinggi. "Untuk BKO Polda Jatim 560 personel ditambah BKO Brimob 5 peleton, ditambah dengan 8 unit K-9. Ini dilakukan melihat potensi keamanan masing-masing wilayah," ujar Siswantoro usai memimpin apel di Mapolres Sampang, Minggu (11/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Siswantoro menegaskan penempatan posisi petugas Polri adalah di luar tempat pemungutan suara (TPS). Polisi akan dibantu oleh petugas ketertiban yang ditunjuk oleh KPPS serta pengawas TPS. "Kami sudah klasifikasikan sejumlah daerah yang rawan. Itu kami sampaikan ke Polda Jatim untuk memback up semua TPS yang rawan," kata Siswantoro. "Besok juga akan menggeser 359 personil BKO Polres Sampang ke 14 kecamatan di Sampang," imbuh Siswantoro. Siswantoro juga menyampaikan kehadiran personel BKO Polda Jatim diharapkan mampu mengamankan terlaksananya pemilu 2024. "Kami meminta dalam menjalankan tugas untuk selalu menjaga harkat dan marwah Kepolisian Republik Indonesia dengan menunjukkan profesionalisme dan netralitas," tandas Siswantoro. Sementara itu, Kabag Ops Polres Sampang Kompol Sujono mengatakan kategori daerah rawan di Sampang mengacu pada kejadian pemilu sebelumnya yakni tahun 2019. Dari 14 kecamatan di Sampang terdapat 5 kecamatan dengan tingkat kerawanan sangat rawan. "Berdasarkan kejadian pada pemilu 2019 terdapat 5 kecamatan yang tingkat kerawanan pemilunya sangat tinggi," kata Sujono Wilayah yang mencatatkan kejadian kerawanan tinggi tersebut di antaranya di Kecamatan Tambelangan karena ada pembakaran Mapolsek. Sedangkan di Kecamatan Banyuates pernah terjadi konflik perebutan suara hingga penembakan salah satu TPS. Di Robatal karena surat suara dibawa kabur. "5 Kecamatan itu adalah Tambelangan, Banyuates, Robatal, Kedundung, dan Kota Sampang," ungkap Sujono. Sujono menjelaskan pola pengamanan yang akan diterapkan di 2.726 TPS di Sampang menyesuaikan dengan situasi dan kondisi kerawanan. Untuk TPS kurang rawan, 1 personel polisi akan melaksanakan pengamanan di 10 TPS. "Pola kedua TPS rawan, 1 personel polisi akan melaksanakan pengamanan 1 TPS. Dan untuk TPS sangat rawan, setiap TPS akan dijaga 2 personel polisi," jelasnya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7188098/5-kecamatan-di-sampang-masuk-daerah-sangat-rawan-pemilu-2024-mana-saja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seorang pemandu wisata bernama Faisal Akbar Ramadhan (29), asal Surabaya, Jawa Timur (Jatim) ditangkap polisi. Dia diciduk diduga karena memperkosa turis asal China inisial HJT di Bali. Kasi Humas Polresta Denpasar AKP I Ketut Sukadi mengatakan pelaku diringkus di sebuah hotel di kawasan Nusa Dua, Kuta Selatan, Badung, Bali. Dia diamankan oleh sekuriti hotel dan teman korban usai melancarkan aksi bejatnya itu.  "Saat ini pelaku sudah diamankan di Sat Reskrim Polresta Denpasar, sedang menjalani pemeriksaan dan penyidikan secara intensif," kata Sukadi dalam keterangannya, Sabtu (10/2/2024), melansir detikBali. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
  Saat diinterogasi, Faisal mengaku awalnya menawarkan diri sebagai pemandu sekaligus sopir pribadi HJT selama berwisata di Bali. HJT dan temannya lalu menggunakan jasa Faisal untuk mengantar dan menemani mereka ke tempat hiburan malam pada Rabu (7/2/2024). "Mereka sempat menikmati hiburan dan minum alkohol hingga pukul 01.00 Wita. Setelah itu, korban dan temannya meminta tersangka untuk mengantar mereka kembali ke hotel di kawasan Nusa Dua," ungkap Sukadi. Bukannya mengantarkan turis China itu ke hotel tempat mereka menginap, pelaku malah membawa mereka ke hotel lain di kawasan Benoa. Pelaku lantas mengajak HJT masuk ke kamar hotel tersebut dengan alasan mengambil hadiah untuk diberikan kepada temannya. Saat itulah Faisal melancarkan aksi bejatnya dan memerkosa perempuan China berusia 26 tahun tersebut. Sukadi menyebut HJT yang dalam kondisi mabuk sempat berusaha menyelamatkan diri. Tapi, upaya tersebut gagal. "Korban berusaha melakukan perlawanan dengan pelaku, tetapi pelaku menutup wajah korban dengan bantal dan menyetubuhi korban," imbuh Sukadi. Akibat perbuatannya, Faisal dijerat Pasal 285 KUHP tentang pemerkosaan. Ia terancam hukuman penjara maksimal 12 tahun. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/sumut/hukum-dan-kriminal/d-7187081/perkosa-turis-di-bali-pemandu-wisata-ini-ditangkap-polisi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masa Tenang Pemilu, Polda Jatim Sebar 1.013 Personel di Daerah Rawan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detikJatimMinggu, 11 Feb 2024 04:01 WIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kapolda Jatim Irjen Imam Sugianto mengungkapkan pihaknya menerjunkan ribuan personel saat memasuki masa tenang Pemilu 2024. Ribuan personel itu akan disebar di sejumlah titik rawan. "Kami upayakan mitigasi dan sudah tambah daerah rawan di mitigasi Sumenep dan 5 hari lalu sudah berangkat ke kepulauan di Kabupaten Sumenep," kata Imam saat ditemui awak media di Halaman Gedung Mahameru Polda Jatim, Sabtu (10/2/2024). Imam mengimbau masyarakat tetap beraktivitas seperti biasa saat masa tenang pemilu. Masa tenang Pemilu sendiri akan berlaku Minggu (11/2) hingga 13 Februari mendatang. 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- "Minggu tenang besok dan para paslon tidak ada agenda, untuk minggu tenang ini kami imbau pada masyarakat beraktivitas seperti biasa dan (diharapkan) tidak terjadi kasus-kasus yang terhubung dengan pelaksanaan hari puncak (Pemilu 2024)," ujarnya. Sementara itu, Karo Ops Polda Jatim Kombes Puji Santosa mengatakan ribuan personel telah dipersiapkan pada apel terakhir pagi ini. Seluruhnya, akan diberangkatkan pada Minggu (11/2) nanti ke sejumlah titik. "Hari ini apel dan pengecekan terakhir, total 1.013 personel, besok akan laksanakan pemberangkatan ke lokasi masing-masing," tutur Puji. Ia menyebut ribuan personel itu bakal dikirim ke 6 titik. Diantaranya Banyuwangi Kota, Bangkalan, Sampang, Pamekasan, dan Sumenep. "Untuk Madura, seluruh kabupaten kita BKO sesuai permintaan dari kapolres masing-masing. Untuk pulau Madura kita berikan penambahan sekitar 750 personel terbagi menjadi 4 kabupaten," jelasnya. "Kita bekali mereka dengan anggaran atau uang saku dan uang makan, obat-obatan atau kesehatan, mereka wajib bawa jas hujan, senter, dan lain sebagainya, kami juga berikan buku panduan untuk melaksanakan tugas pam (pengamanan) di sana," imbuh dia. Ia memastikan seluruh personel yang diberangkatkan harus netral. Terutama saat pelaksanaan pemilu di hari H nanti atau Rabu, 14 Februari 2024 mendatang. "Polri harus netral dan tidak ikut menghitung hasil pungut (pemungutan suara) pada saat pencoblosan itu, jadi mereka tidak diperbolehkan, yang penting hanya mengamankan bagaimana pelaksanaan pencoblosan aman damai sesuai aturan yang berlaku," tandas Puji.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187054/masa-tenang-pemilu-polda-jatim-sebar-1-013-personel-di-daerah-rawan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eceng Gondok Sungai Buntung Penyebab Banjir Sidoarjo Ternyata Masih Banyak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detikJatimMinggu, 11 Feb 2024 02:01 WIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guna mengantisipasi terjadinya banjir kembali di Waru, Sidoarjo, Pemprov Jatim melalui Dinas PU Sumber Daya Air (SDA) dan BPBD melakukan pengecekan sungai-sungai di sekitaran Waru. Kadis PU SDA Jatim Baju Trihaksoro mengatakan pihaknya telah mengecek langsung sungai-sungai di wilayah Waru yang menjadi daerah aliran sungai (DAS) Sungai Brantas. Sungai yang dicek di antaranya di Sungai Buntung, Desa Tambak Oso, Kecamatan Waru, Sidoarjo. "Pagi sampai siang ini kami telah melakukan pengecekan sungai yang jadi aliran Brantas di wilayah Waru," kata Baju, dalam keterangannya, Sabtu (10/2/2024). 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- "Kami ingin pastikan keadaan sungai bersih dan tidak ada penumpukan enceng gondok, yang bisa menyebabkan penyumbatan air sehingga tidak lancar menuju muara," tambahnya Baju. Menurut Baju, salah satu sungai yang terhambat alirannya karena enceng gondok yakni Sungai Buntung. Dirinya bersama personel PU SDA Jatim, BPBD Jatim, serta Perum Jasa Tirta 1, dqn BBWS Brantas mengecek langsung kondisi terkini sungai tersebut. "Hasilnya masih terdapat koloni enceng gondok yang menyumbat aliran air Sungai Buntung dan ditengarai sebagai penyebab banjir di Kecamatan Waru beberapa hari kemarin," ujar Baju. Baju memastikan enceng gondok di Sungai Buntung akan segera dibersihkan agar aliran sungai lancar kembali dan tidak menyebabkan banjir. "Perum Jasa Tirta 1 rencananya akan membantu mengirimkan 1 unit excavator amphibi. Untuk mempercepat penanganan diperlukan koordinasi lebih lanjut terkait untuk penambahan alat guna mempercepat pekerjaan," ujarnya. "Kita juga akan mencari tempat pembuangan enceng gondok, serta memikirkan akses untuk excavator amphibi masuk. Secepatnya akan segera dibersihkan, dan akan dilakukan rapat koordinasi dengan mengundang instansi terkait untuk percepatan pelaksanaan kegiatan," tandas Mantan Kepala Dinas PU Cipta Karya ini.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187052/eceng-gondok-sungai-buntung-penyebab-banjir-sidoarjo-ternyata-masih-banyak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puluhan Ribu Buruh SKT Titip Pesan ke Ketua Projo Jatim: Matur Nuwun Jokowi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detikJatimMinggu, 11 Feb 2024 01:45 WIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ketua DPD Pro Joko Widodo (Projo) Jawa Timur Bayu Airlangga bertemu dengan puluhan ribu buruh sigaret kretek tangan (SKT) di 4 wilayah berbeda yakni Mojokerto, Jombang, Nganjuk, dan Madiun. Dalam perjumpaannya dengan buruh SKT ini, Bayu mengaku mendapat banyak titipan aspirasi agar program-program Presiden Jokowi terus dilanjutkan. "Saya bertemu di 4 kabupaten berbeda, dan mereka semua ingin agar program Presiden Jokowi bisa diteruskan ke depan. Dan harapan buruh penerus Pak Jokowi ya Prabowo-Gibran," kata Bayu dalam keterangannya, Sabtu (10/2/2024). 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- Bayu menyebut para buruh SKT juga menyampaikan terima kasihnya kepada Presiden Jokowi yang sudah menurunkan cukai rokok SKT hingga di angka 4,7%. "Keberpihakan Pak Jokowi kepada rakyat, kepada buruh SKT diharapkan bisa diteruskan oleh penerus beliau yang akan memimpin 5 tahun ke depan," kata Bayu. Mantan Gubernur Jatim 2009-2019 yang turut hadir yakni Soekarwo (Pakde Karwo) menceritakan saat cukai SKT melambung tinggi 5 tahun silam. Kala itu cukai rokok SKT naik 16,44% berdasar Peraturan Menteri Keuangan (PMK) 152/2019 tentang Perubahan Kedua atas PMK 146/2017 tentang Tarif Cukai Hasil Tembakau. "Saya menerima masukan dari pabrik dan owner rokok SKT karena banyak PHK ketika cukai di angka 16 persen sekitar 4-5 tahun lalu. Kala itu, Hampir setengah pekerja buruh SKT di pabrik-pabrik di-PHK," ujar Pakde Karwo. "Kala itu masukan dari buruh yang saya tampung kemudian saya sampaikan langsung dan diterima Presiden Jokowi. Saat itu, Presiden yang langsung turun mengecek lapangan akhirnya ambil keputusan tidak ada kenaikan cukai untuk tahun 2021 sebagai komitmen pemerintah juga dalam recovery ekonomi saat pandemi COVID-19," tambah Pakde Karwo. Sukmini, salah satu buruh SKT asal Madiun menyampaikan terima kasihnya ke Presiden Jokowi karena telah menurunkan cukai rokok SKT dari awalnya hampir 16%, kini menjadi 4,7%. "Terima kasih Pak Jokowi yang peduli kepada buruh SKT. Ketika cukai itu di angka 16 persen, banyak PHK massal. Sekarang cukai sudah 4,7 persen, pabrik baru pakai pekerja lagi. Kami bisa bekerja lagi, saya harap penerus Pak Jokowi bisa melanjutkan program-program pro rakyat cilik," ujar Sukmini.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187078/puluhan-ribu-buruh-skt-titip-pesan-ke-ketua-projo-jatim-matur-nuwun-jokowi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Nyalla-Keponakan Khofifah Diprediksi Lolos Jadi Anggota DPD RI Versi ARCI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detikJatimMinggu, 11 Feb 2024 00:01 WIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accurate Research and Consulting Indonesia (ARCI) merilis hasil terbaru elektabilitas calon Anggota DPD RI dari Jawa Timur. "Hasilnya, La Nyalla masih menjadi calon anggota DPD RI dengan elektabilitas tertinggi di Jawa Timur," kata Direktur ARCI Baihaki Sirajt saat paparan di Surabaya, Sabtu (10/2/2024). Baihaki kemudian menyebut peluang Keponakan Gubernur Jatim Khofifah Indar Parawansa, Lia Istifhama untuk lolos ke DPD RI sangat besar. 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- "Elektabililtas Lia Istifhama menempel La Nyalla. Ini cukup mengejutkan mengingat Lia adalah pendatang baru," jelasnya. Dari jawaban responden, Baihaki menyebut gambar-gambar keponakan Khofifah ini cukup masif di daerah-daerah. Sehingga, banyak responden yang mengetahuinya. "Dan responden juga tertarik, karena Lia menjadi representasi wakil DPD RI perempuan. Jika pada Pileg 2019 lalu representasi perempuan itu ada di Eva Zainal Abidin, yang sekarang nyaleg di Gerindra, di Pileg 2024 ini beralih ke Lia," bebernya. Selain itu, Baihaki menyebut nama DPD RI inkumben seperti Ahmad Nawardi berpeluang lolos kembali ke Senayan untuk periode 2024-2029. "Sementara Mantan Ketua KPK Agus Raharjo elektabilitasnya masih rendah. Namun, undecided voters masih tinggi di angka 28 persen," tandas Baihaki. Survei ARCI dilakukan pada 27 Januari-5 Februari 2024. Survei menggunakan metode multistage random sampling dengan jumlah sampel sebanyak 1.800 responden yang tersebar proporsional di 38 kabupaten/kota Jatim. Survei ARCI memiliki margin of error sebesar 2,8% dan tingkat kepercayaan sebesar 95%. Berikut elektabilitas Calon DPD RI dari Jatim Periode 2024-2029: 1. La Nyalla Mattalitti 20,7%2. Lia Istifhama 15,6%3. Ahmad Nawardi 7,9%4. Abdul Qodir Amir 6,9%5. Adilla Azis 6,5%6. Ayub Khan 3,9%7. Agus Raharjo 3,6%8. Kuncung Wahyudi 2,8%9. Kondang Kusumaning Ayu 1,7%10. Bambang Haryanto 0,7%11. Catur Budi Utomo 0,5%12. Doddy Dwi Nugroho 0,2%13. Muhammad Tianto 0,1%Tidak tahu/tidak menjawab 28,8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187050/la-nyalla-keponakan-khofifah-diprediksi-lolos-jadi-anggota-dpd-ri-versi-arci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hitung-hitungan TKD Jatim dengan Gabungnya Kiai Khos ke Prabowo-Gibran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 22:33 WIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tim Kampanye Daerah (TKD) melakukan kalkulasi dukungan masyarakat Jatim terhadap Prabowo-Gibran. Dukungan ini diketahui dari hasil data survei yang ada. Ketua TKD Jatim Prabowo Gibran, Boedi Prijo Suprayitno menyebut dukungan didominasi dua masyarakat dari organisasi NU dan Muhammadiyah. Hal ini didasarkan pada survei Poltracking. "Taruhlah warga NU Jatim dari 41 juta total penduduk Jatim, 60 persennya adalah warga NU atau sekitar 24 jutaan. Sementara itu, warga Muhammadiyah adalah 10 jutaan, atau 24 persen dari total penduduk Jatim dalam survei Poltracking arah dukungan warga Muhammadiyah ke Paslon 02 adalah 42 persen, sedangkan warga NU sekitar sesuai riset Poltracking per Februari adalah 60,9 persen mendukung Prabowo Gibran," papar Boedi, Sabtu (10/2/2024). 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- "Maka suara dukungan Muhammadiyah ke Prabowo Gibran, berdasar total hak pilih Jatim 31 juta, maka pemilih Muhammadiyah yang mendukung paslon 02 adalah 4,3 juta. Ditambah warga NU Jatim 60,9 persen atau berjumlah sekitar 14,616 juta maka potensi dukungan Prabowo Gibran dari NU dan Muhammadiyah di Jatim sebanyak 18,916 juta total perolehan suaranya," tambah Boedi. Boedi tidak memungkiri bahwa survei yang pernah dilakukan lembaga di Jatim turut mengaitkan kepuasan kepemimpinan Khofifah sebagai Gubernur Jatim dengan elektabilitas paslon 02. "Tercatat beberapa kiai dan pondok pesantren yang selama ini mendukung Khofifah Indar Parawansa, dipastikan mendukung Prabowo Gibran. Khofifah Effect tentu tidak hanya kiai dan pondok pesantren saja. Swing vote, pemilih milenial, hingga profesi warga Jatim juga tinggi mendukung Prabowo Gibran sebagai impact dari Khofifah Effect tersebut," jelasnya. "Taruhlah, para pelaku usaha, petani, pedagang, dan jutaan UMKM di Jatim yang telah menikmati kinerja Khofifah memimpin Jatim 5 tahun terakhir," tandas Boedi. Sementara itu, dukungan terhadap Prabowo-Gibran juga terus mengalir. Sejumlah kiai khos dan nyai di Jawa Timur. Mereka tampak turut hadir dalam acara Sholawatan Bersama Prabowo-Gibran Menang Sekali Putaran' yang digelar TKD Jatim 02 di Jatim Expo Surabaya. Dianantaranya hadir KH M Anwar Manshur, yang merupakan cucu pendiri Ponpes Lirboyo KH Abd Karim. Deretan kiai khos dan alim lainnya juga muncul di barisan paslon 02 antara lain, KH Fuad Noerhasan, Pengasuh Ponpes Sidogiri, Pasuruan. Mereka berdua secara bergiliran memanjatkan doa diamini puluhan ribu massa jemaah solawatan yang hadur. Kiai Anwar Manshur, kemudian KH Fuad Noerhasan, dan KH Anwar Iskandar, Rois Syuriah PBNU, yang juga pendiri Ponpes As Saidiyaj, Kota Kediri ini, membacakan doa khusus. "Kabulkan Prabowo Gibran menjadi Presiden dan Wakil Presiden RI, di Pemilu 2024, dan Bu Khofifah Indar Parawansa, jadi Gubernur dua periode," ujarnya. Dengan kehadiran tokoh kiai khos dan alim di Jawa Timur, ini tentu akan diikuti oleh masyarakat NU yang berprinsip nderek kiai (ikut kiai,red). Sedikitnya 31 juta lebih pemilih yang masuk di daftar pemilih tetap (DPT) akan menggunakan suaranya di Pemilu dan Pilpres 2024, besok. Berikut daftar Kiai yang mendukung Prabowo Gibran di Jatim: KH. Anwar Mansur Pp Lirboyo KediriKH. Fuad Nur Hasan Pp SidogiriKH. Anwar Iskandar Pp Al Amin KediriKH. Abdul Ghofur Pp. Sunan Drajat LamonganKH Agus Ubaidillah Faqih Langitan Tuban Kh. M. Hasan Mutawakkil Alallah Pp Genggong ProbolinggoKH. Asep Saifuddin Chalim Pp Ammanatul Ummah MojokertoKH. Muchlis Alawy Pp Attaroqqi Tsani SampangKH. Syafiuddin Wahid SampangKH. Abdul Hamid Mannan Pamekasan Ibu Nyai Mahfudhoh Wahab Hasbullah Pp Tambakberas Ibu Nyai MasrurohKH. Hasib Wahab Hasbullah Pp TambakberasKH. Fahrur Rozi Pp An-nur I MalangKH. Abdul Qodir Pp Al Qodariyah Sumenep Kh. Nurullah Pp Al IstifadahKH. Ghozali Pp Lanbulan Sampang </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187010/hitung-hitungan-tkd-jatim-dengan-gabungnya-kiai-khos-ke-prabowo-gibran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 Amalan Bulan Syaban yang Disunnahkan, Yuk Amalkan!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detikSulselSabtu, 10 Feb 2024 22:21 WIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulan Syaban 1445 H jatuh pada tanggal 11 Februari 2024 dalam penanggalan Masehi. Terdapat sejumlah amalan yang dianjurkan untuk dikerjakan umat Islam. Lantas, apa saja amalan bulan Syaban yang dapat dikerjakan? Melansir NU Online Jatim, Syaban menjadi salah satu bulan yang biasa dilupakan karena diapit dua bulan mulia yaitu Rajab dan Ramadhan. Padahal, Syaban merupakan bulan diangkatnya amal-amal manusia sebagaimana sabda Rasulullah SAW berikut: 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- ذاكَ شهر تغفل الناس فِيه عنه ، بين رجب ورمضان ، وهو شهر ترفع فيه الأعمال إلى رب العالمين، وأحب أن يرفع عملي وأنا صائم -- حديث صحيح رواه أبو داود النسائي Artinya: Bulan Syaban adalah bulan yang biasa dilupakan orang, karena letaknya berada di antara Rajab dengan Ramadan. Bulan Syaban adalah bulan diangkatnya amal-amal. Karenanya, aku menginginkan pada saat diangkatnya amalku, aku dalam keadaan sedang berpuasa. (HR Abu Dawud dan Nasa'i) Untuk itu, umat muslim dianjurkan memperbanyak amalan di bulan Syaban. Nah, berikut 8 amalan bulan Syaban lengkap dengan keistimewaannya yang dilansir dari buku Kalender Ibadah Sepanjang Tahun oleh Ustaz Abdullah Faqih Ahmad Abdul Wahid. Yuk, disimak! 1. Berdoa di Bulan Syaban Memasuki bulan Syaban, terdapat doa yang dibaca Rasulullah SAW. Berikut bacaan doanya lengkap Arab, Latin, dan artinya: اللَّهُمَّ بَارِكْ لَنَا فِي رَجَبَ وَشَعْبَانَ وَبَلِّغْنَا رَمَضَانَ Arab Latin: Allaahumma baarik lanaa fii rajaba wa sya'baana wa ballighnaa ramadhaana Artinya: "Ya Allah, berkahilah kami di bulan Rajab dan Syaban, dan sampaikanlah kami kepada bulan Ramadhan." Doa tersebut dianjurkan untuk dibaca berulang kali ketika memasuki bulan Syaban. Pasalnya, semakin sering dibaca maka semakin besar pahalanya. Selain itu, ada pula doa lainnya yang biasa dibaca oleh para sahabat Nabi SAW di bulan Rajab dan Syaban. Bacaan doanya sebagai berikut: اللَّهُمَّ سَلَّمْنِي لِرَمَضَانَ وَسَلَّمْ لِي رَمَضَانَ وَتَسَلَّمْهُ مِنِّي مُتَقَبَّلا Arab Latin: Allaahumma sallimnii liramadhaana wasallim lii ramadhaana wa tasallam-hu minni mutaqabbalan Artinya: "Ya Allah, antarkanlah aku hingga sampai Ramadhan, dan antarkanlah Ramadhan kepadaku, dan terimalah amal-amalku di bulan Ramadhan." 2. Berdoa di Malam Nifsu Syaban Malam Nifsu Syaban menjadi salah satu waktu istimewa dalam ajaran Islam. Di waktu ini, umat muslim juga dianjurkan memanjatkan doa kepada Allah. Doa yang dilafalkan dikutip oleh para ulama dari doa Nabi Adam ketika turun ke Bumi, thawaf tujuh kali di Ka'bah, dan salat dua rakaat di belakang maqam. Berikut bacaan doanya: اللَّهُمَّ إِنَّكَ تَعْلَمُ سِرِّي وَعَلَانِيَتِي فَاقْبَلْ مَعْذِرَتِي، وَتَعْلَمُ حَاجَتِي فَأَعْطِنِي سُؤَلِي، وَتَعْلَمُ مَا فِي نَفْسِي فَاغْفِرْ لِي ذَنْبِي اللَّهُمَّ إِنِّي أَسْأَلُكَ إِيْمَانًا يُبَاشِرُ قَلْبِيْ وَيَقِيْنَا صَادِقًا حَتَّى أَعْلَمَ أَنَّهُ لَا يُصِيبُنِي إِلَّا مَا كَتَبْتَ لِي وَرَضِنِي بِقَضَائِكَ Arab Latin: Allaahumma innaka ta'lamu sirrii wa 'alaaniyati faqbal ma'dzirati, wata'lamu haajatii fa'thinii suaa-li, wata'lamu maa fii nafsii faghfir lii dzambii. Allaahumma innii as-aluka imaanan yubasyiru qalbii wa yaqiinan shaadiqan hattaa a'lamu annahu laa yushiibunii illaa maa katabta lii waraddani biqadhaa-ik. Artinya: "Ya Allah, sungguh Engkau tahu apa yang tersembunyi dan tampak dariku, karena itu terimalah penyesalanku. Engkau tahu kebutuhanku, maka kabulkanlah permintaanku. Engkau tahu apa yang ada dalam diriku, maka ampunilah dosaku. Ya Allah sungguh aku memohon kepada-Mu iman yang menyentuh kalbuku dan keyakinan yang benar sehingga aku tahu bahwa tidak akan menimpaku kecuali telah Engkau tetapkan atasku. Ya Allah berikanlah rasa rela terhadap apa yang Engkau bagi untuk diriku." 3. Berpuasa di Bulan Syaban Amalan sunah selanjutnya yaitu dengan melaksanakan puasa. Umat muslim yang mengerjakannya tidak terikat pada ketentuan khusus sehingga tidak ada tanggal atau hari tertentu untuk mengerjakannya. Apabila dikerjakan, pahala yang didapatkan sangat besar karena bulan Syaban termasuk ke dalam bulan mulia. Untuk itu, berikut beberapa puasa yang bisa dikerjakan selama bulan Syaban. Sebagian ulama berpendapat bahwa puasa di pertengahan bulan Syaban hukumnya sunnah. Sebagaimana sabda Rasulullah SAW berikut ini: "Jika tiba waktu malam nisfu Syaban, maka beribadahlah di malamnya dan puasalah di siangnya, karena sesungguhnya Allah Ta'ala menurunkan rahmat-Nya mulai tenggelamnya matahari (Maghrib) di langit dunia dan berfirman, 'Siapa yang meminta ampun akan Aku ampuni. Siapa yang minta rezeki akan Aku beri rezeki. Siapa yang terkena musibah akan Aku sembuhkan. Siapa yang minta ini dan itu seterusnya, sampai waktu terbitnya fajar (matahari)." (HR. Ibnu Majah). Rasulullah SAW memperbanyak puasa sebagai salah satu amalan pada bulan Syaban. Bahkan, dalam sebuah hadis disebutkan bahwa Rasulullah SAW berpuasa sunah di bulan ini hampir satu bulan penuh. Sebagaimana pernah dikatakan Aisyah RA dalam hadis riwayat Bukhari dan Muslim berikut: "Saya tidak pernah melihat Rasulullah SWT melakukan puasa satu bulan penuh kecuali pada bulan Ramadhan. Dan, saya juga tidak pernah melihatnya sangat banyak melakukan puasa selain pada bulan Syaban." (HR. Bukhari dan Muslim). Dalam hadis riwayat Tirmidzi dan Nasa'i juga disebutkan bahwa Ummu Salamah sebagai berikut: "Saya tidak pernah melihat Rasulullah SAW berpuasa dua bulan berturut-turut, kecuali pada bulan Syaban dan bulan Ramadhan." Beberapa hadits meriwayatkan bahwa hari Kamis dan Senin di bulan Syaban memiliki keistimewaan yang luar biasa apabila diisi dengan berpuasa. Berpuasa pada hari Kamis di bulan Syaban sendiri termasuk salah satu amalan yang memiliki keutamaan. Dalam sebuah hadis dijelaskan bahwa pada hari Kamis bulan Syaban para malaikat sibuk menghiasi langit. Kemudian mereka berseru, "Wahai Tuhan kami, ampunilah orang- orang yang berpuasa pada hari ini dan kabulkanlah doa mereka." Selain itu, Rasulullah SAW bersabda sebagai berikut: "Barang siapa berpuasa pada hari Senin dan Kamis di bulan Syaban, maka Allah SWT akan mengabulkan kepentingan dunia dan akhiratnya masing-masing dua puluh kepentingan." 4. Membaca Surah Yasin di Malam Nifsu Syaban Amalan berikutnya yang bisa dikerjakan adalah membaca surah Yasin di malam Nifsu Syaban. Waktu pengerjaannya yaitu setelah salat magrib dan lebih utama jika dikerjakan bersama-sama. Adapun amalan yang sangat dianjurkan ini dikerjakan secara berturut-turut sebanyak tiga kali. Bacaan pertama diniatkan untuk meminta umur panjang yang diisi dengan ketaatan kepada Allah SWT. Bacaan Yasin kedua diniatkan agar dijaga dari semua bahaya dan diberi keluasan rezeki yang baik serta halal. Bacaan yang ketiga diniatkan agar hati merasa cukup dan dianugerahi husnul khatimah. Apabila telah selesai membaca surah Yasin, umat muslim disunahkan membaca doa berikut: بِسْمِ اللهِ الرَّحْمَنِ الرَّحِيمِ. اللَّهُمَّ يَا ذَا الْمَنِّ وَلَا يُمَنُ عَلَيْهِ، يَا ذَا الْجَلَالِ وَالْإِكْرَامِ، يَا ذَا الطَّوْلِ وَالْإِنْعَامِ، لَا إِلَهَ إِلَّا أَنْتَ ظَهْرَ اللَّاجِيْنَ، وَجَارَ الْمُسْتَجِيْرِينَ، وَمَأْمَنَ الْخَائِفِينَ اللَّهُمَّ إِنْ كُنْتَ كَتَبْتَنِيْ عِنْدَكَ فِي أُمَ الْكِتَابِ شَقِيًّا أَوْ مَحْرُوْمًا أَوْ مَطْرُوْدًا أَوْ مُقَتَّرًا عَلَيَّ فِي الرِّزْقِ فَامْحُ مِنْ أُمَ الْكِتَابِ شَقَاوَتِي وَحِرْمَانِي وَتَقْتِيرَ رِزْقِي، وَأَثْبِتْنِي عِنْدَكَ سَعِيدًا مَرْزُوْقًا مُوَفَقًا لِلْخَيْرَاتِ، فَإِنَّكَ قُلْتَ وَقَوْلُكَ الْحَقُّ فِي كِتَابِكَ الْمُنْزَلِ عَلَى لِسَانِ نَبِيِّكَ الْمُرْسَلِ يَمْحُو اللَّهُ مَا يَشَاءُ وَيُثْبِتُ وَعِنْدَهُ أُمُّ الْكِتَابِ). إِلهِي بِالتَّجَلِي الْأَعْظَمِ فِي لَيْلَةِ النِصْفِ مِنْ شَعْبَانَ الْمُكَرَمِ الَّتِي يُفْرَقُ فِيْهَا كُلُّ أَمْرٍ حَكِيمٍ وَيُبْرَمُ، إِكْشِفْ عَنِّي مِنَ الْبَلَاءِ مَا أَعْلَمُ وَمَا لَا أَعْلَمُ وَاغْفِرْ لِي مَا أَنْتَ بِهِ أَعْلَمُ إِنَّكَ أَنْتَ الْأَعَزُ الْأَكْرَمُ. وَصَلَّى اللَّهُ تَعَالَى عَلَىسَيِّدِنَا مُحَمَّدٍ وَعَلَى آلِهِ وَصَحْبِهِ وَسَلَّمَ Arab Latin: Bismillaahir rahmaanir rahim. Allaahumma yaa dzal manni wa laa yumannu 'alaika yaa dzal jalaali wal ikraam, yaa dzath thauli wal in'aam. Laa ilaaha illaa anta zhahral laajiina wajaaral mustajiiriina wa ma' manal khaa-ifiin. Allaahumma in kunta katabtanaa indaka fii ummil kitaabi asyiqiyaa'a au mahruumiina au muqtarran 'alaina fir rizqi fahumllaahumma bifadhlika syaqaawatanaa wa hirmaananaa wa iqtaara arzaaqinaa wa atsbitnaa 'indaka fii ummil kitaabi su'adaa'a marzuuqina muwaffaqiin lil khairaat. Fa- innaka qulta waqaulukal haqqu fii kitaabikal munzali 'alaa lisaani nabiyyikal mursal, yamhullaahu maa yasyaa-u wa yutsbitu wa 'indahu ummul kitaab. Ilaahii bit tajallil a'zhami fii lailatin nishfi min syahri sya'baanal mukarram allatii yufraqu fiiha kullu amrin hakiimin wa yubram nas-aluka an taksyifa 'annaa minal balaa-i maa na'lamu wa maa laa na'lam, wa maa anta bihi a'larna. Innaka antal a'azzul akram. Wa shallallaahu 'alaa sayyidinaa muhammadin wa 'alaa aalihi wa shahbihi wa sallam. Artinya: "Dengan menyebut nama Allah yang Maha pemurah lagi Maha Penyayang. Ya Allah, wahai Dzat yang mempunyai anugerah, dan Engkau tidak diberi anugerah, wahai Dzat yang mempunyai kebesaran dan kemuliaan, wahai Dzat yang mempunyai kekuasaan dan memberikan kenikmatan, tiada Tuhan melainkan Engkau. Engkau- lah Penolong orang-orang yang memohon pertolongan, Pelindung orang-orang yang mencari perlindungan, dan Pemberi Keamanan kepada orang-orang yang ketakutan. Ya Allah, jika Engkau mencatat kami di sisi-Mu dalam induk catatan sebagai orang-orang yang celaka, terhalang dari rahmat-Mu dijauhkan dari-Mu, atau disempitkan dalam mendapat rezeki, dengan karunia-Mu, ya Allah, hapuskanlah kecelakaan kami, keterhalangan kami, kejauhan kami dari rahmat-Mu, dan kesempitan rezeki kami. Dan tetapkanlah kami di sisi-Mu dalam catatan sebagai orang-orang yang berbahagia, diberi rezeki yang luas, serta diberi petunjuk menuju kebajikan. Karena sesungguhnya Engkau telah berfirman dalam kitab-Mu yang telah diturunkan kepada rasul-Mu, sedangkan firman-Mu itu benar, Allah menghapus dan menetapkan apa yang dikehendaki-Nya dan di sisi-Nya terdapat induk kitab. Tuhan kami, dengan tajalli-Mu (penampakan sifat-Mu) Yang Maha Besar pada malam Nishfu Sya'ban yang mulia ini, saat setiap urusan dibedakan dan ditetapkan di dalamnya, kami memohon kepada-Mu agar Engkau palingkan kami dari segala bencana, baik yang kami ketahui maupun yang tidak kami ketahui. Sesungguhnya, Engkau Dzat Yang Paling Mulia dan Paling Pemurah. Dan, semoga Allah senantiasa memberi rahmat serta kesejahteraan kepada junjungan kami Nabi Muhammad, keluarganya, dan sahabatnya." Doa lainnya yang bisa dibaca setelah membaca surah Yasin diambil dari Syekh Abdul Qadir Jailani. Berikut rincian bacaan doa dan terjemahannya: اللَّهُمَّ إِذْ أَطْلَعْتَ لَيْلَةَ النِّصْفِ مِنْ شَعْبَانَ عَلَى خَلْقِكَ، فَعُدْ عَلَيْنَا بِمَنِكَ وَعِتْقِكَ، وَقَدِرْ لَنَا مِنْ فَضْلِكَ، وَوَسِعْ رِزْقَكَ، وَاجْعَلْنَا مِمَّنْ يَقُوْمُ لَكَ فِيْهَا بِبَعْضِ حَقِكَ. اللَّهُمَّ مَنْ قَضَيْتَ فِيْهَا بِوَفَاتِهِ فَاقْضِ مَعَ ذَلِكَ رَحْمَتَكَ، وَمَنْ قَدَّرْتَ طُولَ حَيَاتِهِ فَاجْعَلْ مَعَ ذَلِكَ نِعْمَتَكَ، وَبَلَغْنَا مَا لَا تَبْلُغُ الْآمَالُ إِلَيْهِ يَا خَيْرَ مَنْ وَقَفَتِ الْأَقْدَامُ بَيْنَ يَدَيْهِ يَارَبَّ الْعَالَمِينَ، بِرَحْمَتِكَ يَا أَرْحَمَ الرَّاحِمِينَ. وَصَلَّى اللهُ تَعَالَى عَلَى سَيِّدِنَا مُحَمَّدٍ خَيْرِ خَلْقِهِ وَعَلَى آلِهِوَصَحْبِهِ أَجْمَعِينَ Arab Latin: Allahumma idz ath-la'ta lailatan nishfi min sya'baana 'alaa khalqika, fa'ud 'alainaa bimannika wa 'itqika, wa qaddir lanaa min fadhlika, wa wassi' rizqaka, waj'alnaa mimman yaquumu laka fiihaa biba'dhi haqqika. Allahumma man qadhaita fiihaa biwafaatihi faqdhi ma'a dzaalika rahmataka, wa man qaddarta thuula hayaatihi faj'al ma'a dzaalika ni'mataka, wa ballighnaa maa laa tablughul aamaalu ilaihi yaa khaira man waqafatil aqdaamu baina yadaihi yaa rabbal 'aalamiina, birahmatika yaa arhamar raahimiina. Wa shallallahu ta'aalaa 'alaa sayyidinaa muhammadin khairi khalqihi wa 'alaa aalihi wa shahbihi ajma'iina. Artinya: "Ya Allah, jika Engkau telah memunculkan malam Nisfu Sya'ban pada makhluk-Mu maka curahkan atas kami anugerah dan pembebasan-Mu (dari neraka), takdirkanlah untuk kami kebaikan dari keutamaan-Mu, perluaslah curahan rezeki-Mu untuk kami, jadikanlah kami di malam itu termasuk orang yang bangkit melaksanakan hak-Mu. Ya Allah, orang yang Engkau tentukan takdirnya di malam itu dengan kematiannya, maka bersamakanlah dengan rahmat-Mu, dan orang yang Engkau takdirkan berumur panjang maka jadikanlah rahmat-Mu bersamanya, dan sampaikanlah kami pada tujuan mulia yang tidak tercapai oleh angan-angan, wahai sebaik-baik Dzat yang bersimpuh di hadapan-Nya semua telapak kaki, wahai Tuhan sekalian alam, dengan rahmat-Mu, wahai Dzat Yang Paling Pengasih. Semoga shalawat Allah tercurah pada junjungan kami Nabi Muhammad, sebaik-baik makhluk, dan atas keluarga serta sahabat kesemuanya." 5. Berdzikir Pada bulan Syaban ini, umat muslim juga dianjurkan untuk memperbanyak dzikir sebagai bentuk penghambaan kepada Allah SWT. Bentuk dzikir yang biasa dilakukan oleh para ulama yaitu sebagai berikut: Dzikir yang pertama yaitu dengan membaca istighfar. Bacaan istighfar ini dibaca sebanyak 70 kali setiap harinya. Berikut bacaan dan terjemahannya: أَسْتَغْفِرُ اللهَ وَأَسْأَلُهُ التَّوْبَةَ Arab Latin: Astaghfirullaaha wa as-aluhut taubah Artinya: "Aku memohon ampun kepada Allah dan aku meminta kepada-Nya agar diterima tobatku." Selain itu, bacaan istighfar berikut ini juga bisa dibaca sepanjang bulan Syaban: أَسْتَغْفِرُ اللهَ الَّذِي لَا إِلَهَ إِلَّا هُوَ الرَّحْمَنُ الرَّحِيمُ الْحَيُّ الْقَيُّومُ وَأَتُوْبُ إِلَيْهِ Arab Latin: Astaghfirullaahaladzii laa ilaaha illaa huwar rahmaanur rahiimul hayyul qayyuumu wa atuubu ilaih Artinya: "Aku memohon ampun kepada Allah, tiada Tuhan selain Dia, Yang Maha Pengasih, Maha Penyayang, Yang Maha Hidup, Yang Maha Berdiri Sendiri, dan aku bertobat kepada-Nya." Selanjutnya yaitu membaca bacaan dzikir sebanyak 70 kali setiap harinya. Berikut rincian bacaannya: لَا إِلَهَ إِلَّا اللهُ وَلَا نَعْبُدُ إِلَّا إِيَّاهُ مُخْلِصِينَ لَهُ الدِّينَ وَلَوْ كَرِهَ الْمُشْرِكُونَ Arab Latin: Laa ilaaha illallaahu wa laa na'budu illaa iyyahu mukhlishiina lahud diina wa lau karihal musyrikuuna Artinya: "Tiada Tuhan selain Allah dan kami tidak menyembah selain kepada-Nya dengan memurnikan ketaatan kepada-Nya meskipun orang-orang musyrik membencinya." 6. Bersedekah Amalan yang dianjurkan pada bulan Syaban selanjutnya yaitu bersedekah. Sebagaimana diriwayatkan Imam Shadiq ketika ditanya tentang amalan terbaik di bulan Syaban. Imam Shadiq mengatakan bersedekah dan beristighfar merupakan amalan terbaik. Sebagaimana yang dijelaskannya sebagai berikut: "Bershadaqah dan membaca istighfar. Barang siapa bershadaqah di bulan Sya'ban, maka Allah Swt. akan memelihara shadaqah tersebut sebagaimana salah seorang dari kalian memelihara anak untanya, sehingga pada hari kiamat, shadaqah tersebut sampai di tangan pemiliknya sebesar Gunung Uhud." 7. Melakukan Salat Sunah Salat sunnah dianjurkan untuk dilakukan setiap hari Kamis pada bulan Syaban. Salat sunah bulan Syaban ini dikerjakan sebanyak dua rakaat. Pada masing-masing rakaat membaca al-Fatihah kemudian diikuti surah pendek al-Ikhlas yang dibaca sebanyak 100 kali. Kemudian, setelah salam dianjurkan untuk membaca shalawat sebanyak 100 kali. 8. Berpuasa Ayyamul Bidh Amalan terakhir yang dianjurkan untuk dilakukan pada bulan Syaban yaitu berpuasa Ayyamul Bidh. Puasa Ayyamul Bidh merupakan puasa pertengahan bulan pada tanggal 13, 14, dan 15 dalam penanggalan Hijriah. Dinukil dari laman NU Online, puasa Ayyamul Bidh dimulai dengan membaca niat puasa mutlak, seperti "Saya niat puasa". Namun, lebih baik membaca niat khususnya sebagai berikut: نَوَيْتُ صَوْمَ أَيَّامِ الْبِيْضِ لِلّٰهِ تَعَالَى Arab Latin: Nawaitu shauma ayyâmil bîdl lilâhi ta'âlâ Artinya: "Saya niat puasa Ayyamul Bidl (hari-hari yang malamnya cerah), karena Allah ta'âlâ." Keistimewaan Bulan Syaban Keistimewaan bulan Syaban ditafsirkan oleh beberapa ulama sebagai yang penuh dengan kemuliaan. Masih melansir buku Kalender Ibadah Sepanjang Tahun, berikut daftar keistimewaan bulan Syaban: Demikianlah amalan yang dapat dikerjakan pada bulan Syaban lengkap dengan keistimewaannya. Diamalkan ya, detikers!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/sulsel/berita/d-7187007/8-amalan-bulan-syaban-yang-disunnahkan-yuk-amalkan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ahok Sindir Kinerja Jokowi dan Gibran, Emil Dardak Pasang Badan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 22:05 WIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emil Dardak, juru Bicara Gibran Rakabuming Raka buka suara terkait kritikan Ahok yang bertanya kinerja Presiden Jokowi dan Wali Kota Solo Gibran Rakabuming Raka. Pernyataan Ahok viral di media sosial dan belakangan Ahok sendiri merasa bahwa kalimatnya itu dipotong di video viral. Emil menyebut kritik dari Ahok senantiasa diterima sebagai masukan oleh Gibran. Emil menyebut Gibran lapang dada mendapat kritik dari Ahok. "Semua kritik diterima oleh Gibran dengan lapang dada," kata Emil di Surabaya, Sabtu (10/2/2024). 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- Menurut Emil, Gibran justru mengapresiasi kinerja Ahok selama ini mulai memimpin DKI Jakarta hingga memimpin dewan komisaris di Pertamina. "Gibran mengatakan Bang Ahok relatif baik kinerjanya dan menjadi rujukan," tambahnya. Meski begitu, Wagub Jatim ini menegaskan Gibran sosok pekerja keras dan bisa bekerja. Hal itu dibuktikan dengan capaian di Kota Surakarta. "Saya berpendapat Gibran bisa kerja. Saya sudah melakukan penelaahan empiris apa yang dilakukan Gibran dalam memimpin Solo," ujarnya. "Jadi saya rasa semua pandangan-pandangan itu kita hormati bahwa ada pihak-pihak yang punya pandangan lain itu jadi sarana untuk introspeksi diri semakin berbenah ke depannya. Kita ikuti keteladanan Gibran yang senantiasa lapang dada menerima masukan dan saran," tandasnya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186998/ahok-sindir-kinerja-jokowi-dan-gibran-emil-dardak-pasang-badan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUI Jatim Sebut Golput Haram Jika Bawa Mudarat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 20:59 WIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUI Jatim meminta agar semua warga menggunakan hak pilihnya pada 14 Februari 2024 mendatang. MUI lalu mengimbau masyarakat agar tak golput. Ketua Umum MUI Jatim KH Mutawakkil Alallah mengatakan tidak ada capres-cawapres yang sempurna. Sebab menurutnya setiap calon pasti punya kelebihan dan kekurangan. "Yang jelas semua capres dan cawapres ada tiga ini adalah kader-kader dan tokoh-tokoh terbaik bangsa. Dan tentu kita tidak akan menemukan manusia yang sempurna, pasti di samping kelebihan ada kekurangan. Oleh karena itu pilih salah satu dari tiga ini yang diyakini untuk menjadi pemimpin nasional untuk memberi kesejahteraan ke rakyat," kata Mutawakkil di Surabaya, Sabtu (10/2/2024). 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- "Jangan sia-siakan hak pilih, kalau sampai golput dan mengakibatkan kegagalan pemilu itu dosa hukumnya haram karena itu membawa mudarat kepada umat bangsa dan negara. Akan menjadikan tatanan pemerintahan Indonesia semrawut," tambahnya. Menurut Mutawakkil, menggunakan hak pilih dalam demokrasi sesuai dengan ajaran Islam. Sebab, hal itu merupakan bagian dari menjaga kedaulatan negara. "Pemilu ini pemenuhan negara terhadap kedaulatan rakyat. Seluruh masyarakat, seluruh umat yang memiliki hak pilih gunakan hak pilihnya pada 14 Februari nanti, pilih pilpres sampai DPR, karena ini untuk keberlanjutan estafet nasional ini bagian menjaga kedaulatan negara," ujarnya. "Menjaga kedaulatan negara sama wajibnya menjaga martabat dan nilai agama. Golput bukan pilihan, tapi menyia-nyiakan hak yang diberi Allah itu lebih tidak baik," tambahnya. Pengasuh Ponpes Genggong Probolinggo ini berharap Pemilu 2024 bisa berjalan dengan baik, lancar, jujur, adil, dan bisa melahirkan pemimpin terbaik. "Kita berharap pemilu berjalan dengan damai, jurdil, dan Allah menganugerahkan bangsa kita pemimpin yang bisa membawa negara ini menjadi negara maju, adil, makmur, adil, sejahtera, gemah ripah, menjadi bangsa bermartabat dan dihagai oleh bangsa-bangsa lain di dunia," ujarnya. "Ingat golput kalau sampai mengakibatkan gagalnya pemilu sehingga rusaknya tatanan pemerintah, tentu itu haram, karena membawa mudarat," tandasnya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186956/mui-jatim-sebut-golput-haram-jika-bawa-mudarat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kisah Cordo Tuban, Nama Lahirnya Panjang 19 Kata hingga Sulit Bikin Akta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 19:09 WIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pada 6 Januari 2019, lahir seorang anak bernama Rangga Madhipa Sutra Jiwa Cordosega Akre Askhala Mughal Ilkhanat Akbar Sahara Pi-Thariq Ziyad Syaifudin Quthuz Khoshala Sura Talenta. Namanya panjang hingga 19 kata. Ia akrab dipanggil Cordo. Ia merupakan buah hati atau putra kedua dari pasangan Arif Akbar (29) dan Suci Nur Aisyiah (26), yang tinggal di Desa Ngujuran, Kecamatan Bancar, Tuban. Karena namanya terlalu panjang, Cordo kesulitan mendapatkan akta lahir. Itu seperti yang disampaikan sang ayah. 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- "Iya sudah beberapa kali ke kantor Dukcapil Tuban. Informasi yang kita dapat katanya di SIAK namanya melebihi 50 karakter. Ini lho sudah tiga tahun," jelas Arif saat dihubungi detikJatim, Senin ( 4/10/2021). Nama untuk Data Dukcapil Maksimal 55 Karakter Nama Cordo lebih dari 55 karakter bahkan mencapai 132 karakter. Sehingga tidak bisa masuk data Dukcapil. Itu seperti yang disampaikan Kepala Dinas Kependudukan dan Catatan Sipil (Dukcapil) Tuban, Ubait Rohman. Menurutnya, semua dokumen kependudukan itu terintegrasi dengan pusat, yang terkoneksi dengan Sistem Informasi Administrasi Kependudukan (SIAK). "Dukcapil itu sistemnya sudah diatur oleh pusat dan nasional. Melalui SIAK yang ada di Dirjen Dukcapil. Terkait aturan juga sudah digariskan di sana. Mulai dari sistemnya, aplikasinya juga," kata Ubait. "Jadi di dalam pengisian database itu ada aplikasinya. Dalam penulisan nama warga atau penduduk, baik itu yang baru lahir maupun yang belum terdata, itu semua sudah ada aplikasinya yang telah ditetapkan oleh Direktorat Jenderal itu sebanyak 55 karakter (nama). Jadi kalau melebihi 55 karakter ya tidak bisa dimasukkan," imbuhnya. Nama Cordo yang Capai 19 Kata Pemberian Paman Sang Ayah Arif menuturkan, nama yang terdiri dari 19 kata atau 115 huruf itu merupakan hasil diskusi bersama pamannya Mujoko Zahid. Yang merupakan budayawan asal Bumi Ronggolawe Tuban. Menurutnya, nama tersebut mempunyai makna yang sangat luas. "Harapan kami semoga anak itu kelak berpenalaran landung selandung namanya. Dan Menjadi inspirasi peradaban umat manusia," kata Arif kepada detikcom, Selasa (12/2/2019). Sang ayah menambahkan, nama putra keduanya itu memiliki hubungan dengan sejarah nama Kota Teladan Islam. Dengan harapan, kelak anak tersebut bisa menjadi tokoh yang mendunia. "Maknanya anak itu kelak menjadi tokoh dunia yang mendunia. Menjadi diri yang tidak berpikir lokal, sempit atau primordial. Tetapi mempunyai wawasan global sekaligus memiliki karsa dan power untuk merealisasikan wawasan besarnya. Kuat namun berjiwa lembut yang welas asih," terang Arif. Nama Cordo yang Capai 19 Kata Disarankan Diganti Dukcapil Tuban menyarankan agar nama Cordo diganti. Menanggapi hal itu, Arif pada dasarnya menyayangkan jika harus sampai mengganti nama anak. Sebab nama itu berisi doa dan harapan. "Saya disuruh mengubah nama anak, padahal nama tersemat doa untuk kebaikannya. Kalau harapan tentu bisa diproses aktanya, karena saat masuk TK akta dibutuhkan," kata Arif. Arif akan bersedia mengubah nama Cordo jika ada surat keterangan resmi dari Dukcapil Tuban. Namun selama ada celah untuk memperjuangkan nama anak sepanjang 19 kata itu, ia akan terus memperjuangkannya. "Kalau untuk mengganti nama kami siap kok. Asalkan saya minta satu lembar kertas surat dari Dinas Catatan Sipil Tuban bahwa nama tersebut dilarang, atau tidak boleh. Itu saja. (Jika) surat ditandatangani dan distempel pihak terkait dan sudah kami terima, insyaallah kami ganti namanya. Saya taat hukum," tutur Arif. Nama Cordo Diganti dan Dapat Akta Lahir Nama Cordo jadi lebih pendek yakni R - Akbar Zudan Cordosega Sura Talenta. Pergantian nama bocah tersebut terjadi setelah adanya komunikasi yang intens dari Dirjen Dukcapil Kemendagri, Zudan Arif Fakrulloh dengan Arif dan tokoh adat Desa Ngujuran, Mujoko Sahid. Mujoko yang juga merupakan paman dari Arif menceritakan alasan mengapa pihaknya mau mengganti nama Cordo. Menurutnya, pihaknya luluh dengan sikap humanis yang ditunjukkan Zudan. Yang santun, terbuka, informatif dan berorientasi pada solusi. "Itulah mengapa kami bersedia mengganti nama lengkap Cordosega karena terkena apa yang kami sebut istilahnya sebagai 'pasal sungkan'. Saya sungkan dengan Pak Prof Zudan yang memberikan nasihat dan saran yang bisa membuat kami legowo," ungkap Mujoko, Rabu (10/11/2021). "Melalui kejadian ini, kami menjadi percaya bahwa cara-cara seperti yang dilakukan Prof Zudan ini, bahwa dengan ketulusan silaturahmi, itu kunci solusi untuk segala problem di NKRI," imbuhnya. Zudan mendatangi rumah Arif untuk memberikan secara langsung dokumen kependudukan milik Cordo. Seperti Akta Kelahiran, KK dan Kartu Identitas Anak (KIA). "Meski demikian, nama Cordosega yang sebelumnya (19 kata), silahkan tetap menjadi nama adat baginya sehingga ketentuan adat tetap berlaku," terang Zudan, Rabu (10/11/2021). Ia juga menjelaskan, nama R - Akbar Zudan Cordosega Sura Talenta dapat diakomodir dalam Sistem Informasi Administrasi Kependudukan (SIAK). Sehingga proses pengurusan berbagai dokumen kependudukan dapat dilakukan. "Yang penting untuk kepentingan negara, nama lengkap terbaru dari ananda Cordosega kami resmikan di dokumen kependudukan, agar mendapatkan berbagai pelayanan publik dengan mudah ke depannya," imbuh Zudan.  Jatim Flashback adalah rubrik spesial detikJatim yang mengulas peristiwa-peristiwa di Jawa Timur serta menjadi perhatian besar pada masa lalu. Jatim Flashback diharapkan bisa memutar kembali memori pembaca setia detikJatim. Jatim Flashback tayang setiap hari Sabtu. Ingin mencari artikel-artikel lain di rubrik Jatim Flashback? Klik di sini.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186817/kisah-cordo-tuban-nama-lahirnya-panjang-19-kata-hingga-sulit-bikin-akta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kejayaan PDIP dan PKB di Jatim Terancam Dua Partai Ini Versi ARCI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 18:49 WIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominasi PKB dan PDIP di Jawa Timur terancam diusik oleh dua partai ini. Hal itu tergambar dalam survei Accurate Research and Consulting Indonesia (ARCI). Direktur ARCI Baihaki Sirajt menyebut Gerindra dan Golkar berpotensi menyalip PDIP bahkan PKB di Jawa Timur jika lengah di menit akhir. "Selisih antara 4 partai teratas di Jatim ini sangat tipis. Dan jika lengah di hari-hari akhir Pemilu, bisa jadi ada kejutan besar dua kekuatan partai tradisional di Jatim bisa dikalahkan oleh Gerindra atau bahkan Golkar," kata Baihaki saat paparan survei di Surabaya, Sabtu (10/2/2024). 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- Dalam survei ARCI di Jatim, elektabilitas PKB di angka 17,7% dan berada di peringkat teratas. Menguntit di peringkat kedua ada PDI Perjuangan (PDIP) di angka 16,1%. Sementara Gerindra di posisi ketiga di angka 15,8%, dan Golkar 14,7% melengkapi 4 besar. Baihaki membeberkan tren PKB di Jatim cenderung naik namun angkanya sangat kecil. Sementara PDIP trennya justru terus menurun. "PKB stagnan agak naik sedikit. Berbanding terbalik dengan PDIP yang justru perlahan turun sedikit demi sedikit," ungkapnya. Baihaki juga membeberkan Gerindra meraih coattail effect dari majunya Prabowo Subianto. Sementara, kerja keras kader Golkar Jatim dan efek elektoral Gibran berpengaruh ke elektabilitas Partai Berlambang Beringin. "Gerindra mengalami kenaikan perlahan berkat coattail effect Prabowo. Sementara Golkar trennya cukup mengejutkan, dan temuan kami ada limpahan suara PDIP ke Golkar di Jawa Timur karena faktor Gibran Rakabuming Raka yang notabene putra Jokowi," jelas Baihaki. "Beberapa responden memilih Golkar, karena mereka menilai Gibran sudah menjadi kader Golkar. Kita ingat kala itu Gibran diusulkan Golkar jadi cawapres Prabowo. Jadi Golkar dapat limpahan elektoral Gibran dari pemilih Jokowi dulu yang ada di PDIP," tambahnya. Namun, Baihaki menyebut apapun masih bisa terjadi di Pileg 2024 ini mengingat 3 hari jelang coblosan sangat krusial. "Karena Pileg ini, 3 hari menjelang coblosan menjadi penentu, terutama untuk menjaga suara," tandasnya. Survei ARCI dilakukan pada 27 Januari-5 Februari 2024. Survei menggunakan metode multistage random sampling dengan jumlah sampel sebanyak 1.800 responden yang tersebar proporsional di 38 kabupaten/kota Jatim. Survei ARCI memiliki margin of error sebesar 2,8% dan tingkat kepercayaan sebesar 95%. Berikut elektabilitas partai politik di Jawa Timur versi ARCI: 1. PKB 17,7%2. PDIP 16,1%3. Gerindra 15,8%4. Golkar 14,7%5. Demokrat 8,2%6. NasDem 6,7%7. PKS 5,8%8. PAN 5,1%9. PPP 4,1%10. PSI 1,5%11. Perindo 1,2%12. PBB 1,2%13. Gelora 0,5%14. Hanura 0,1%15. PKN 0,1%16. Ummat 0%17. Garuda 0%18. Buruh 0%Tidak tahu/tidak menjawab 1,2%.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186779/kejayaan-pdip-dan-pkb-di-jatim-terancam-dua-partai-ini-versi-arci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GMNI Jatim Gelar Aksi Serukan Pemilu Damai Tanpa Provokasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 17:22 WIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Massa yang terdiri dari mahasiswa sejumlah kampus di Jatim menggelar aksi menyerukan pemilu damai. Mereka menyampaikan seruan damai di Taman Makam Pahlawan (TMP) Mayjend Sungkono Surabaya. Ketua DPD GMNI Jatim Hendra Prayogi mengatakan seruan damai kebangsaan bertajuk 'Pemilu Damai Tanpa Provokasi' itu merupakan bukti dan tekad untuk menjunjung tinggi nilai-nilai demokrasi. Begitu juga dengan kedamaian dan keadilan dalam pelaksanaan Pemilu 2024 pada 14 Februari 2024. "Aksi kami hari ini mencerminkan semangat persatuan, hingga menyoroti peran vital pemuda dan mahasiswa sebagai garda terdepan dalam mewujudkan pemilu yang damai, jujur, dan adil," kata Hendra saat ditemui di TMP Mayjend Sungkono Surabaya, Sabtu (10/2/2024). 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- Hendra meyakini masa depan negara Indonesia ada pada partisipasi para pemuda secara aktif. Begitu juga dari seluruh elemen masyarakat. Hendra mengajak masyarakat untuk bersama-sama menggunakan hak pilih pada Pemilu 2024. Karena mencoblos secara bermartabat akan memberikan harapan baru bagi tanah air. "Secara esensi, pemilu adalah momentum dan ujian bagi seluruh elemen bangsa, seberapa jauh nilai nilai demokrasi telah menjadi bagian dari jati diri bangsa Indonesia, sekaligus menjadi proses pembelajaran dalam rangka pendewasaan bangsa," ujarnya. Nilai demokrasi, sambung dia, yang dimaksud yakni merampungkan perselisihan secara damai dan sukarela. Lalu, menjamin terjadinya perubahan secara damai, pergantian penguasa dengan teratur, hingga adanya pengakuan terhadap nilai keberagaman, pengakuan, dan jaminan atas tegaknya keadilan. Berikut beberapa poin yang diserukan dalam aksi tersebut: 1. Pemilu damai tanpa provokasi, ini menjadi penting untuk diketahui oleh seluruh anak bangsa, seluruh elemen masyarakat agar tidak menjadikan pemilu sebagai sebab atau pun menjadikan pemilu pemecah bela bangsa. 2. Kami sadar bahwa bangsa kita ini didirikan tidak mudah, banyak pengorbanan pahlawan kita hari ini. Kami mendesak dan menyerukan generasi bangsa, mahasiswa dan elemen seluruh masyarakat untuk mengutamakan persatuan dan kesatuan. 3. Mendesak pada seluruh pejabat negara untuk berpedoman selalu berada di jalur jalur Pancasila dan UU dasar 1945.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186612/gmni-jatim-gelar-aksi-serukan-pemilu-damai-tanpa-provokasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puncak Arus Balik Libur Panjang Imlek di Jatim Diprediksi Terjadi Besok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 17:05 WIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puncak arus balik masyarakat usai libur panjang Isra Miraj dan tahun baru Imlek diprediksi terjadi besok (11/2/2024). Diprediksi, kepadatan kendaraan akan terjadi, baik di jalan raya maupun di jalan tol. Kakorlantas Polri Irjen Aan Suhanan memastikan pihaknya telah melakukan sejumlah antisipasi. Baik di kawasan kabupaten atau kota, terutama di jalanan yang dinilai bakal menjadi penumpukan arus lalin saat arus balik nanti. "Kita siapkan untuk antisipasi dan lakukan survei dan rapat-rapat arus balik diperkirakan besok tanggal 11 Februari dari timur ke barat, maupun sebaliknya dan seterusnya, mungkin dari kabupaten ke kota, sudah kami antisipasi," kata Aan saat sesi doorstop di Halaman Gedung Mahameru Polda Jatim, Sabtu (10/2/2024). 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- Ia memastikan, telah menyebar sejumlah personel lalu lintas di jalan raya. Terutama, di 3 titik rawan kemacetan atau kepadatan volume lalin. Aan juga menegaskan, sudah ada cara yang kerap dilakukan pihaknya saat libur panjang serupa. Diantaranya melakukan contra flow maupun oneway. "Kalau kita kluster ada 3 ruas jalan ya kalau bicara kemacetan, ada tol, arteri, wisata, dan pelabuhan penyeberangan, sudah diantisipasi semua, sudah kita siapkan rekayasa contra flow dan one way, termasuk yang ke pelabuhan, Insyaallah bisa kita kelola dengan baik," ujarnya. Selain itu, Aan mengimbau para pengendara yang akan melakukan arus balik tetap ekstra hati-hati dan waspada. Kurangi kecepatan kendaraan dan saling menjunjung toleransi di jalan. "Meredam emosi di jalan, harus toleransi sesama pengguna jalan yang lain," tuturnya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186534/puncak-arus-balik-libur-panjang-imlek-di-jatim-diprediksi-terjadi-besok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bubaran Haul Akbar di Surabaya Sempat Macetkan Suramadu hingga 2 Km</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detikJatimMinggu, 11 Feb 2024 19:28 WIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jembatan Suramadu arah Madura macet hingga kurang lebih 2 kilo meter. Hal ini dikarenakan adanya haul akbar di pondok pesantren (Ponpes) di Jalan Kedinding Lor. Dari video yang beredar di beberapa akun media sosial, tampak kemacetan panjang di ruas roda 4 Jembatan Suramadu arah Madura. Kemacetan terjadi pukul 13.41 WIB sepanjang kurang lebih 2 km, bahkan sebelum Jembatan Suramadu. Dalam video tersebut juga dijelaskan ada banyak bus yang parkir di pinggir jalan menjemput jemaah haul akbar di Jalan Kedinding. Sedangkan untuk ruas roda dua terlihat lancar. 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- Kanit PJR 8 Jatim Suramadu AKP Agus Wibowo menyebut, kemacetan itu disebabkan oleh bubaran haul akbar di Jalan Kedinding Lor. Pihak kepolisian juga telah dikerahkan. "Ada haul akbar di Ponpes Al-Fithrah Kedinding," kata AKP Agus saat dihubungi detikJatim, Minggu (11/2/2024) Agus menjelaskan acara haul akbar di Ponpes Al-Fithrah Kedinding sudah berlangsung sejak kemarin Sabtu (10/2). Hari ini kegiatan sudah selesai dan pihak kepolisian mengatur lalu lintas. "Acaranya sudah dari kemarin dan sore ini tinggal bubaran. Personil dari Polres Tanjung Perak selaku pemangku wilyah sudah di lokasi dari kemarin," jelasnya. Sementara Kasat Lantas Polres Tanjung Perak AKP Moch Suud menjelaskan kegiatan haul akbar di Ponpes Al-Fithrah sudah selesai dan bubaran pukul 12.00 WIB. Karena jemaah ada 10 ribu lebih, maka otomatis ketika selesai acara cukup macet. Pada pukul 16.30 WIB, jalan sudah normal dan lancar kembali. Baik dari arah Surabaya ke Madura maupun sebaliknya. "Kegiatan Sabtu dan Minggu. Minggu jam 12.00 WIB selesai acara, efeknya bubaran, macetnya siang hari. Pukul 16.30 WIB anggota melaporkan sudah clear, arah balik lancar, normal. Kenapa padat? Karena imbas bubaran jemaah, kantung parkir di jalur lambat di Lapangan Tembak Surabaya mereka harus nyebrang ke busnya, lebih dari 10 ribu jemaah nyebrang itu yang jadi hambatan" jelasnya. Sedangkan untuk parkir bus, Suud menyebut sedang diparkir di jalur lambat. Bus sedang menunggu jemaah yang sudah selesai mengikuti haul akbar. "Jalan ada jalur lambat dan cepat, bus itu parkir di jalur lambat. Volume menyebrang. Bisa dilaporkan jemaah itu 10 ribu lebih. Kalau bubaran otomatis padat," pungkasnya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187947/bubaran-haul-akbar-di-surabaya-sempat-macetkan-suramadu-hingga-2-km</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMKN Maritim di Brondong Lamongan Diresmikan Gubernur Khofifah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detikJatimMinggu, 11 Feb 2024 01:01 WIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gubernur Jatim Khofifah Indar Parawansa meresmikan Sekolah Menengah Kejuruan (SMK) Negeri Maritim Jawa Timur di Brondong Lamongan. Hadirnya sekolah ini menjadi bentuk ketanggapan pemerintah daerah dalam menghadirkan pendidikan terbaik di bidang vokasi atau keahlian berbasis maritim. "Vokasi-vokasi yang memang dibutuhkan oleh berbagai sektor itu akan terus kita siapkan. Karena pada dasarnya technical skill yang dibutuhkan oleh berbagai sektor kita harus difasilitasi bersama," ujar Khofifah saat meresmikan SMKN Maritim Jawa Timur di Brondong, Sabtu (10/2/2024). Khofifah berharap dengan berdirinya SMKN Maritim, Disdik Jatim mampu bersinergi dengan Koarmada II (Komando Armada II) atau Mabes AL. Khofifah menyebut mentoring dari TNI angkatan laut akan menjadi bagian dari penguatan. Tidak sekadar di sektor maritim, sektor perikanan, tapi juga membangun penguatan ke-Nusantara-an. 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- "Tidak sekedar di sektor maritim, sektor perikanan, tapi kalau bersama TNI AL ini adalah bagian dari penguatan Nusantara seluruh hal-hal yang membangun penguatan ke nusantaraan kita akan mensinergikan," ujarnya. Hadirnya SMKN Maritim di Lamongan disambut baik oleh Bupati Lamongan Yuhronur Efendi. Menurut, Bupati Yes, SMKN maritim dapat mendorong kualitas generasi masa depan, khususnya dalam rangka peningkatan kualitas sumber daya manusia. "Terlebih Lamongan dengan potensi pantai sepanjang 47 km, produksi perikanan hampir 87.000 ton di tahun 2023, dan tercatat sekitar 60.000 warga bekerja di sektor perikanan, dengan jumlah perahu sekitar 3.423, menjadi penguat keterampilan dan keahlian," jelasnya. Kepala Dinas Pendidikan Provinsi Jawa Timur Aries Agung Paewai mengatakan secara historis SMKN Maritim telah diajukan izin pendirian dan operasional sejak 30 April 2019. SMKN Maritim Dibangun secara bertahap selama 4 tahun di lahan seluas 38.950 meter persegi. SMKN Maritim ini juga telah dilengkapi 2 ruang praktik siswa, 4 ruang kelas, asrama dua lantai dengan kapasitas 32 ruang dengan fasilitas kamar mandi dan pendukung lainnya, gedung kantor, fasilitas-fasilitas alat praktek, hingga lainnya. Usai diresmikan, SMKN Maritim akan mulai membuka Penerima Peserta Didik Baru (PPDB) pada Februari - Maret 2024 untuk gelombang 1 dan April - Mei 2024 untuk gelombang 2. Kuota untuk sekolah maritim tingkat atas ini sebanyak 108 siswa untuk konsentrasi keahlian yakni nautikal kapal penangkapan ikan, technica kapal penangkapan ikan, dan agrobisnis pengelolaan hasil perikanan. Saat peresmian, Khofifah didampingi Bupati Lamongan Yuhronur Efendi, Kepala Dinas Pendidikan Provinsi Jawa Timur Aries Agung Paewai, Wakil Bupati Lamongan Abdul Rouf. Selain itu, hadir pula Asops Koarmada II Kolonel Laut (P) Heri Prihartono.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187051/smkn-maritim-di-brondong-lamongan-diresmikan-gubernur-khofifah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Said Abdullah Harap Pemilu 2024 Tak Dikotori dan Dinodai Teror: Biarlah Alami</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 15:55 WIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kampanye hari terakhir dimanfaatkan para relawan Ganjar Pranowo-Mahfud Md di Sumenep untuk mengoptimalkan dukungan pada paslon nomor urut 03. Salah satunya dengan menggelar kegiatan jalan-jalan sehat hingga pasar rakyat. Ketua DPD PDI Perjuangan Jatim Said Abdullah mengaku yakin Ganjar-Mahfud akan menang Pilpres 2024. Said optimistis Ganjar-Mahfud akan meraup suara 37 sampai 39 persen saat Pemilu nanti.Dalam kesempatan ini, Said Abdullah ditemani Bupati Sumenep Achmad Fauzi yang juga Ketua DPC PDI Perjuangan Sumenep. Keduanya berbaur dengan ribuan relawan dalam acara yang digelar di depan Museum Keraton Sumenep. Said Abdullah berharap, Pemilu berjalan tanpa ada paksaan kepada rakyat untuk memilih calon tertentu. 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- "Nanti hasilnya akan ditentukan oleh rakyat dan semoga pemilihan ini tidak kotor, tidak dinodai oleh yang aneh-aneh, pemaksaan dan sebagainya apalagi teror, biarlah alami, kalau ada kata-kata klise yang selalu diteriakkan jujur adil terbuka dan sebagainya," kata Said Abdullah, Sabtu (10/02/2024). Said yang juga Ketua Banggar DPR RI itu yakin rakyat bisa datang ke TPS untuk menggunakan hak pilihnya tanpa ada paksaan apalagi teror dari siapapun. "Ketika rakyat-rakyat sudah menentukan pilihannya dengan cara yang legal, yang disediakan oleh undang-undang, saya haqqul yakin Ganjar Pranowo akan menang, insyaallah Ganjar Pranowo sekitar 37 sampai 39 persen," kata Said yang juga putra Sumenep asli itu. Sementara itu, Said berharap, masyarakat Sumenep akan menyambut dengan riang gembira kegiatan penutup kampanye tersebut. "Terima kasih kepada seluruh masyarakat Sumenep dan saya berharap sampai acara nanti malam akan penuh kedamaian, riang gembira kita bersatu padu layaknya masyarakat Sumenep," kata Said. Menurut Said, berbeda pilihan itu soal lumrah. Namun yang terpenting, para pemilih tetap bersama-sama menjaga situasi kondusif dan tidak boleh ada pemaksaan kepada siapapun untuk memilih paslon sesuai keinginannya. "Pilihan itu adalah pilihan hati nurani, tidak bisa siapapun memaksa-maksa dan kondisi ini saya berharap sampai tanggal 14 Februari dan seterusnya," harap Said.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186417/said-abdullah-harap-pemilu-2024-tak-dikotori-dan-dinodai-teror-biarlah-alami</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear Warga RI! Fotokopi KTP Tak Lagi Berlaku Mulai Tahun Ini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detikInetSabtu, 10 Feb 2024 13:45 WIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pemerintah tengah berupaya untuk menggantikan penggunaan identitas kependudukan masyarakat, dari semula Kartu Tanda Penduduk (KTP) dengan Identitas Kependudukan Digital (IKD). Ditargetkan pada tahun 2024 ini proses peralihan tersebut akan rampung. Itu tandanya, era fotokopi KTP sudah tidak lagi berlaku ke depannya. Sebab, di masa mendatang, penggunannya berubah yang dilakukan secara digital. Di awal 2024, Presiden Joko Widodo (Jokowi) telah menginstruksikan untuk mempercepat transformasi digital dan keterpaduan melalui Digital ID atau IKD, pembayaran digital, dan pertukaran data untuk interoperabilitas layanan publik yang berorientasi kepada pengguna. 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
-   Terkait instruksi tersebut, Kementerian Dalam Negeri (Kemendagri) pun gencar melakukan percepatan pengembangan Sistem Pemerintahan Berbasis Elektronik (SPBE). "Secara spesifik, Ditjen Dukcapil memiliki peran penting dalam penyediaan IKD dan menjadi basis dalam proses pertukaran data (data exchange), terutama dalam memastikan keamanan dan keandalan data kependudukan," ujar Kemendagri beberapa waktu lalu. Sebagai informasi, IKD adalah identitas digital nasional, yaitu berupa alat untuk membuktikan identitas pengguna secara online ketika mengakses layanan pemerintah dan swasta. Kemendagri juga telah merilis aplikasi IKD yang bisa diakses lewat HP, baik pengguna smartphone berbasis Android dan iOS. Hal yang mencolok dari perubahan e-KTP menjadi IKD ini nantinya pelayanan publik tak lagi memerlukan fotokopi KTP. Persoalan tersebut yang sering dihadapi masyarakat ketika mengurus suatu dokumen. "IKD diharapkan dapat meningkatkan aksesibilitas dan efisiensi masyarakat terhadap layanan pemerintah maupun swasta. Pertama, IKD dapat memvisualisasikan KTP secara digital (menjadi KTP Digital) agar tidak diperlukan lagi fotokopi KTP," kata Kemendagri. Kemendagri menyebutkan sejak IKD diluncurkan pada tahun 2022 hingga saat ini (10 Januari 2024), lebih dari 7.316.449 jiwa telah memiliki Identitas Digital. Saat ini bank, seperti BNI, Bank Jatim, BPR Urban Bali dan BPR Danagung Ramulti sudah menggunakan IKD untuk proses pembukaan rekening secara lebih cepat dan aman.   Selain itu, di dalam aplikasi IKD, masyarakat dapat melakukan pelayanan adminduk seperti melaporkan kelahiran anak, melaporkan kematian, permohonan surat keterangan pindah, pisah atau pecah Kartu Keluarga, dan lainnya. "Ke depan, pengayaan fitur akan terus dilakukan untuk meningkatkan user experience dan kemudahan pengguna dalam melakukan aktivasi IKD tanpa harus datang ke kantor Dinas Dukcapil," pungkas Kemendagri.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://inet.detik.com/law-and-policy/d-7186066/dear-warga-ri-fotokopi-ktp-tak-lagi-berlaku-mulai-tahun-ini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kakorlantas Polri Sebut Jatim Sumbang Laka Lantas Tertinggi Setelah Jakarta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 13:29 WIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indeks keselamatan berlalu lintas di Indonesia dinilai masih jauh dari harapan. Bahkan, diklaim masih di bawah beberapa negara lain di Asia Tenggara. Kakorlantas Polri Irjen Aan Suhanan mengatakan, pihaknya menargetkan indeks keselamatan di 1,37 persen atau jumlah korban fatalitas sampai tahun 2025, diharapkan hanya berkisar pada 27 ribu. Menurutnya, jumlah fatalitas laka lantas di Indonesia, termasuk Jatim setiap tahun selalu naik. "Nanti kita lihat sudah sampai mana korban laka lantas ini, sudah tercapai atau tidak, lalu kita bandingkan dengan negara Asia Tenggara, kita ingin indeks keselamatan teratas di Asia Tenggara, tapi faktanya keselamatan berlalu lintas di Indonesia hanya di rangking 4 terburuk, bukan di atas, bisa kita lihat negara-negara lain di Singapura, Filipina, dan lain-lain jauh lebih baik," kata Aan saat pemaparan materi Gebyar Keselamatan 2024 di Gedung Mahameru Polda Jatim, Sabtu (10/2/2024). 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- "Artinya, kita perlu effort yang lebih keras lagi, komunitas lalin menjadi duta kita, duta Polri, duta pemerintah untuk menjaga keselamatan berlalu lintas. Jatim sendiri memang menyumbang angka laka lantas cukup tinggi, ada di rangking kedua setelah Jakarta, tahun lalu 2023 tertinggi, alhamdulillah tahun ini ada di rangking kedua," imbuhnya. Aan mengaku prihatin lantaran data kecelakaan lalu lintas di Indonesia dari tahun ke tahun terus meningkat. Menurutnya, ada kenaikan 10 persen pada tingkat fatalitas korban atau sekitar 27.596 orang. Apabila dibandingkan jumlah penduduk atau kendaraan bermotor di Indonesia, Aan memprediksi masih jauh dari target keselamatan di tahun 2025. Ia menyebut, target yang sudah ditentukan di tahun 2025 masih cukup jauh, yakni di 9,9 persen. "Artinya, perlu kerja keras untuk realisasikan target, masih 9,9 indeks keselamatan Indonesia. Di tahun 2024 ini jumlah laka lantas harus turun, itu perintah Pak Kapolda Jatim (Irjen Imam Sugianto) juga, bukan angkanya yang diturunkan tapi diubah," bebernya. "Sekarang yang dinilai adalah upayanya dari para Kasat Lantas bagaimana mengajak teman-teman untuk bersama-sama memberikan edukasi dan sosialisasi bersama para stakeholder untuk menurunkan angka laka lantas, mulai dari pendataan, blackspot, sampai penanganan laka lantas," imbuh Aan. Aan menyatakan, ada data yang sangat memprihatinkan. Sebab, dari data dan hasil rekapitulasi korban laka lantas, angka terbesar adalah usia-usia produktif. Mulai usia 15 sampai 59 tahun, yakni para pelajar, mahasiswa, hingga karyawan. "Angkanya tetap, 3 tahun berturut-turut dan menjadi korban laka lantas," sambungnya. Untuk jenis kelamin para korban, Aan memastikan adalah tulang punggung keluarga. Mulai dari suami, orangtua, atau bapak. "Artinya, kalau ortu yang jadi korban laka lantas bisa dipastikan akan ada 1 orang janda, kalau punya anak akan ada anak yatim, akibatnya luar biasa terhadap perekonomian keluarga, negara, dan seterusnya," papar Aan. "Karena 84 persen korban meninggal dunia akibat laka lantas adalah pria sebagai tulang punggung keluarga, ini menjadi referensi kita untuk sosialisasi dan edukasi betapa laka lantas ini mengakibatkan kemiskinan, terutama untuk keluarga," tambahnya. Lalu, untuk jenis kendaraan yang terlibat laka lantas di tahun 2021 sampai 2023, masih didominasi roda 2. Bahkan, masih menjadi rangking pertama selama 3 tahun berturut-turut. "Untuk faktor penyebab laka lantas angka secara nasional ini perilaku jaga jarak sering jadi penyebab laka lantas, bisa over speed, lalu tidak bisa mengerem, lalu terjadi tabrakan, dan seterusnya," jelasnya. Dari data ini, ia ingin masyarakat dan komunitas serta para produsen kendaraan untuk bersama-sama meningkatkan keselamatan berlalu lintas. Menurutnya, Jatim menjadi sasaran penekanan dan pencegahan laka lantas karena dinilai masih cukup tinggi setelah Jakarta. Berdasarkan data yang dihimpun Mabes Polri, Aan mengaku tengah berupaya dan mengkoordinasikan serta mengembangkan TI untuk mengelola keselamatan berlalu lintas. Supaya, bisa sejajar dengan negara-negara lain di Asia Tenggara. "Kita lihat sudah mulai banyak pengembangan melalui riset, dan lain-lain terhadap keselamatan berlalu lintas terutama pada roda 2 karena sangat rentan laka lantas. Data dari PBB memang roda 2 ini adalah yang paling fatal, karena tidak ada rumah luar, begitu jatuh langsung ke aspal," ungkap Aan. "Ini tanggung jawab kita, mulai dari Bapenda, Dishub, PUPR, Binamarga, polisi, sehingga bisa menekan jumlah fatalitas laka lantas, untuk para Kasatlantas di Jatim manfaatkan informasi dari kita untuk mengelola keselamatan berlalu lintas, tidak hanya patroli, tidak hanya jalan-jalan, tapi tentukan pada data yang ada, sehingga tepat sasaran," tutupnya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186225/kakorlantas-polri-sebut-jatim-sumbang-laka-lantas-tertinggi-setelah-jakarta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peringati HPN 2024, TKD Jatim Prabowo-Gibran Perhatikan Kesehatan Wartawan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 10:15 WIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKD Jatim 02 Prabowo Subianto-Gibran Rakabuming Raka memberi perhatian khusus kepada para jurnalis di Hari Pers Nasional (HPN) yang jatuh pada Jumat (9/2/2024). Pemeriksaan kesehatan hingga suplemen diberikan pada para jurnalis. Selain itu, TKD Jatim Prabowo-Gibran juga mengucapkan selamat Hari Pers Nasional. TKD Jatim berharap, di HPN 2024 kali ini, pers dapat tumbuh bersama dan berkembang baik, khususnya di Jawa Timur dan Indonesia. Ketua TKD Jatim Prabowo-Gibran, Boedi Prijo Soeprajitno menghargai kinerja semua jurnalis yang bekerja di Jawa Timur dan Indonesia, karena di masa Pemilu, kerja para jurnalis tentu sangat berat. 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- "Kami mengulik sedikit, kami apresiasi kinerja jurnalis. Selamat Hari Pers Nasional ya, semoga pers tumbuh sehat dan baik di bumi tercinta," ujar Boedi di Jatim Expo Surabaya, Jumat (9/2/2024). Boedi Prijo juga mengirimkan tim untuk mengecek kesehatan dan memberikan vitamin gratis bagi para rekan media di HPN 2024 ini. "Di hari yang spesial, Hari Pers Nasional ini kita melakukan tes kesehatan dan pemberian vitamin untuk teman-teman media, sesuai tema Hari Pers Nasional 2024 ini yakni Mengawal Transisi Kepemimpinan Nasional dan Menjaga Keutuhan Bangsa, maka rekan media harus tetap sehat untuk mengawal tugas besar itu dengan baik," ujar Boedi. "Saya harapkan pemeriksaan kesehatan dan pemberian vitamin ini bisa dilakukan secara rutin ke depan, sehingga seluruh teman-teman terjaga kesehatannya. Sehat lahirnya, sehat batinnya dan sehat dompetnya," ungkap mantan Kepala Bapenda Jatim ini berkelakar. Tim kesehatan di lokasi, Dr Makhyan Jibril Al Farabi berpesan agar jurnalis tidak melupakan kesehatannya. Terlebih selama Pemilu. "Terutama kinerja awak media di lapangan, yang setiap hari tak kenal waktu, siang malam, panas dan hujan bertugas di lapangan selama Pemilu ini. Yang paling penting dari cek kesehatan dan berbagi vitamin gratis ini, teman-teman media bisa memastikan bahwa mereka sehat selalu dalam menjalankan pekerjaannya," pesan dr Jibril. Menurut Jibril, vitamin yang diberikan juga akan membantu menjaga daya tahan dan mencegah terjadinya penyakit. Apalagi ketika jurnalis harus kerja maraton ke sana ke mari dalam minggu-minggu krusial menjelang Pemilu. "Jika memang ada gejala atau apa, lanjut Jibril, bisa nantinya dilanjutkan ke pemeriksaan selanjutnya. Harapannya teman-teman di sini semuanya tetap fit, ketika bertugas di lapangan," pungkas Jibril.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7185907/peringati-hpn-2024-tkd-jatim-prabowo-gibran-perhatikan-kesehatan-wartawan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upaya Wagub Emil Dardak Cegah Banjir Susulan di Waru Sidoarjo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 09:22 WIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wagub Jatim Emil Elestianto Dardak memaparkan sejumlah upaya untuk mencegah banjir susulan di kawasan Waru, Sidoarjo. Salah satunya dengan mempercepat pembersihan enceng gondok di sungai. Sebelumnya, Emil telah meninjau langsung posko bencana banjir di Kantor BPBD Jatim. Kunjungan ini untuk memastikan kesiapsiagaan Pemprov Jatim dalam penanganan bencana banjir. Sebagaimana diketahui sebelumnya, hujan lebat mengakibatkan banjir menggenangi jalan desa di Kecamatan Waru, Sidoarjo. Ditambah hujan lebat pada keesokan harinya, Selasa (6/2) sore, menambah tingginya genangan yang ada di jalan desa hingga memasuki rumah warga. 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- Emil menjelaskan, pihaknya telah melakukan pemetaan melalui drone guna memantau titik-titik penyebab banjir. Pemetaan tersebut menggunakan drone di sepanjang aliran Kali Buntung Waru hingga arah Juanda sebagai area hilir. Harapannya, melalui pemetaan ini bisa menentukan langkah guna mengurangi risiko atau intensitas banjir di wilayah tersebut. "Kita tadi menggunakan drone untuk meninjau titik-titik tersebut. Ditemukan titik yang bisa dibersihkan yaitu karena ada banyak hambatan seperti enceng gondok sepanjang 7 kilometer," ungkap Emil, Sabtu (10/2/2024). Emil menuturkan, bencana banjir di Waru, Sidoarjo ini merupakan yang pertama kalinya terjadi. Curah hujan yang tinggi dan pasangnya air laut menjadi penyebab utama. Walaupun banjir sudah semakin surut, namun di beberapa wilayah masih terpantau genangan hingga betis orang dewasa. Oleh sebab itu, Wagub Emil menegaskan, tetap perlu ada upaya percepatan, seperti pembersihan enceng gondok guna mencegah banjir kembali terjadi. "Identifikasi bottle neck atau sumbatan botolnya ada di situ. Kalau air laut pasang kita tidak bisa mengantisipasi, tapi kalau sungainya kita bisa mengurangi potensi luapan atau tinggi muka air," tuturnya. Tidak hanya di kawasan Sidoarjo, kesiapsiagaan bencana juga harus ada di seluruh penjuru Jawa Timur, utamanya daerah rawan bencana. BPBD Jatim telah melakukan pemetaan di seluruh Jawa Timur, khususnya tempat-tempat yang di tahun sebelumnya titik rawan banjir. "Ada langkah antisipasi, jika banjir menyebabkan tanggul jebol, kita pastikan bahwa bronjong tersedia. Bahkan sand bag, karena saat ini adalah musim bencana hidrometeorologi," tegasnya. Tidak hanya itu, kesiapan posko pengungsian hingga dapur umum juga menjadi perhatian Wagub Emil. Ia memuji kesiapan seluruh elemen terkait seperti BPBD, Dinas Sosial hingga Dinas Kesehatan yang gercep dalam menangani para korban. "Hari ini kita juga pastikan bahwa tempat ini stand by untuk bisa men-support kebutuhan masyarakat. Ada tempat bermain, ada dapur umum bahkan ada tempat istirahat," pungkasnya. Pernyataan Emil Elestianto Dardak, Wakil Gubernur Jawa Timur bila penyebab banjir yang merendam ratusan rumah 5 desa di Kecamatan Waru Sidoarjo akibat enceng gondok di Sungai Buntung ternyata benar. Tumpukan enceng gondok terlihat memenuhi Sungai Buntung di depan Terminal Purabaya Bungurasih, tepatnya di samping depan Ramayana, Jumat (9/2/2024) pagi. Tidak hanya enceng gondok, sampah juga memenuhi Sungai yang membentang mulai dari Terminal Purabaya hingga Pasar Waru ini. Kepala Dinas PU SDA Jatim, Baju Trihaksoro mengatakan, sungai di depan Terminal Purabaya merupakan wilayah Balai Besar Wilayah Sungai Brantas. "Sungai di depan Terminal Purabaya merupakan wilayah Balai Besar Wilayah Sungai Brantas. Tapi kita tetap tanggung jawab untuk melakukan pembersihan," ujarnya Saat ini, lanjut Baju Trihaksono, pihaknya melakukan pembersihan enceng gondok di Sungai Desa Waru belakang Hotel Neo. "Dinas PU SDA Prov Jatim bergerak cepat dengan mengerahkan 1 unit excavator, 2 unit dump truk, 1 unit crane, 2 perahu pencacah enceng gondok dan puluhan tenaga untuk membersihkan sungai," tandasnya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7185830/upaya-wagub-emil-dardak-cegah-banjir-susulan-di-waru-sidoarjo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hasto Sebut Bupati Sidoarjo Tersandera hingga Terpaksa Dukung 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detikSumutSabtu, 10 Feb 2024 03:00 WIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sekjen PDIP Hasto Kristianto menyebut Bupati Sidoarjo tersandera hingga dipaksa menjadi pendukung pasangan calon (Paslon) 02 di Pemilu 2024. Hasto juga menyebut sejumlah oknum aparat, kepala dinas, hingga perangkat desa juga menurutnya diduga diminta untuk memenangkan partai tertentu. "Ya, tadi saya juga bertemu dan mendengarkan laporan dari seluruh pimpinan dari PDIP di Jatim. Mereka mengatakan justru di Jatim masif. Itu kan (ada) suatu operasi khusus yang kemudian menyandera Bupati Sidoarjo dan kemudian dipaksa mendukung paslon 02," kata Hasto mendampingi Megawati di Blitar, Jumat (9/2/2024), melansir detikJatim. Hasto menilai, aksi penyanderaan atau pemaksaan seperti itu juga dilakukan terhadap sejumlah oknum aparat TNI dan Polri. Bahkah terjadi di lingkup PDI Perjuangan. 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- "Bagaimana oknum-oknum TNI/Polri, kemudian para kepala dinas, ditekan, dicari kelemahannya, kemudian Bupatinya juga dicari kelemahannya. Bahkan ada opsus-opsus juga untuk memenangkan partai tertentu," terangnya. Namun, Hasto mengaku pihaknya tetap akan percaya pada pengalaman tentang suara rakyat. Hasto mengatakan, kekuasaan dan kekuatan rakyat tidak bisa dibungkam. Sehingga hal itu dapat menjadi kekuatan arus balik. "Kami yakin kekuatan rakyat tidak bisa dibungkam. Kekuatan kebenaran yang mulai menyuarakan," jelasnya. Lanjut Hasto, termasuk kekuatan kebenaran dari aparat TNI/Polri yang harus menempatkan sebagai lembaga netral. Nantinya akan ada kekuatan kebenaran bagi para anggota TNI/Polri yang tidak setuju dengan perintah untuk berpihak ke pasangan 02. "Seiring dengan keberanian dari perguruan tinggi untuk bersuara, maka ini juga memunculkan keberanian dari para prajurit TNI/Polri yang sebelumnya ada perintah-perintah khusus. Kemudian mereka berani menegakkan bahwa mereka harus netral," pungkasnya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/sumut/berita/d-7185570/hasto-sebut-bupati-sidoarjo-tersandera-hingga-terpaksa-dukung-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caleg PDIP Asal Banyuwangi Ini Copot APK-nya Sendiri Jelang Masa Tenang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 00:01 WIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jelang masa tenang Pemilu 2024, sejumlah alat peraga kampanye (APK) mulai dicopoti. Hal ini sesuai dengan Pasal 1 angka 36 Undang-Undang Pemilu. Karena hal ini, Chandra Astan Caleg PDI Perjuangan Dapil 3 Jatim Banyuwangi, Situbondo dan Bondowoso satu ini langsung menginstruksikan pada pendukungnya membereskan APK lebih awal. Meski masa tenang masih dua hari lagi, tepatnya dimulai pada tanggal 11 hingga 13 Februari 2024 mendatang, caleg nomor urut 7 ini mengaku sengaja berinisiatif membersihkan APK dirinya sendiri secara mandiri. 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- "Kami hari ini mulai membersihkan alat peraga kampanye berupa baliho yang sudah terpasang, supaya bisa membantu para teman kita Satpol PP supaya tidak terlalu banyak yang dibersihkan ya pak," ungkap Chandra, Jumat (9/2/2024). Chandra mengaku ingin memberikan contoh perilaku berpolitik yang edukatif dan sportif. Menurutnya, menghormati aturan masa tenang adalah wujud dari implementasi Pemilu bermartabat. "Kita taat aturan, bahwa setelah ini adalah masa tenang. Jadi, kita betul-betul masuk ke pemilu yang sesuai dengan aturan. Dan semoga ini bisa jadi gerakan supaya tidak banyak sampah Baliho di mana mana nantinya," jelas Chandra. Bersih-bersih pencopotan APK Chandra ini dimulai dari sekitar jalan utama menuju Bangsring, Chandra beserta pendukungnya mencopot semua APK. Yang kemudian akan serempak diikuti dengan gerakan pembersihan APK yang dipasang oleh pendukungnya di seluruh wilayah pencalonannya Dapil 3 Jatim.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7185576/caleg-pdip-asal-banyuwangi-ini-copot-apk-nya-sendiri-jelang-masa-tenang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fans Rhoma Irama Jatim Deklarasi Dukung AMIN, Ajak Penggemar Coblos 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detikJatimJumat, 09 Feb 2024 23:30 WIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kampanye akbar pasangan calon presiden dan calon wakil presiden nomor 01 Anies Baswedan dan Muhaimin Iskandar (AMIN) di Stadion Untung Suropati Kota Pasuruan dimeriahkan penampilan Raja Dangdut Rhoma Irama dan Soneta Grup. Bukan hanya itu, kelompok penggemarnya, Rhomais, juga deklarasi mendukung AMIN. Deklarasi dilakukan di atas panggung utama. Deklarasi disaksikan Anies Baswedan, Muhaimin Iskandar, Rhoma Irama dan ribuan pendukung. Deklarasi dibacakan Suryanto Aka yang terdiri 4 poin. "Kami fans Raja Dangdut Rhoma Irama Jawa Timur, rakyat lndonesia yang ingin melihat Indonesia adil makmur untuk semua," kata Ketua Umum Rhomais Jawa Timur, Suryanto Aka, Jumat (9/2/2024). 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- Dalam kesempatan itu, Rhoma Irama juga melakukan simulasi pencoblosan Anies-Muhaimin saat di panggung. Simulasi dilakukan usai Anies dan Cak Imin menyampaikan pidato. Rhoma Irama mengenakan baju berwana putih dan memakai kaca mata hitam. Rhoma melakukan pencoblosan menggunakan sebuah tongkat. Dia mencoblos gambar Anies dan Muhaimin. Anies dan Muhaimin menemani Rhoma Irama dalam simulasi pencoblosan tersebut. Pendukung bersorak saat gambar Anies dan Muhaimin dicoblos sang Raja Dangdut. Setelah itu, Rhoma kemudian bernyanyi menghibur pendukung Anies-Muhaimin. Berikut 4 poin deklarasi Rhomais: 1. Mendukung penuh perjuangan Anies-Muhaimin dalam mewujudkan kesejahteraan dan persatuan bangsa 2. Mendukung penuh perjuangan Anies-Muhaimin untuk memenangkan Pilpres 2024 3. Mengajak para penggemar Rhoma lrama dan Soneta yang berada di bawah organisasi-organisasi yang dipimpin Raja Dangdut Rhoma Irama, yang sejalan dengan sikap Rhoma Irama, mari bergabung dan bersatu padu didalam wadah RHOMAIS untuk memperjuangkan perubahan. 4. Mengajak seluruh rakyat untuk mencoblos di TPS dan ikut mengawasi penghitungan suara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7185563/fans-rhoma-irama-jatim-deklarasi-dukung-amin-ajak-penggemar-coblos-01</t>
   </si>
 </sst>
 </file>
@@ -1181,6 +1427,244 @@
         <v>115</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>152</v>
+      </c>
+      <c r="B39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>164</v>
+      </c>
+      <c r="B42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" t="s">
+        <v>166</v>
+      </c>
+      <c r="D42" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>168</v>
+      </c>
+      <c r="B43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" t="s">
+        <v>170</v>
+      </c>
+      <c r="D43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>172</v>
+      </c>
+      <c r="B44" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44" t="s">
+        <v>174</v>
+      </c>
+      <c r="D44" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" t="s">
+        <v>180</v>
+      </c>
+      <c r="D46" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/beritadetikjatim.xlsx
+++ b/beritadetikjatim.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t xml:space="preserve">judul</t>
   </si>
@@ -29,7 +29,7 @@
     <t xml:space="preserve">Pasar Murah di Banyuwangi Diserbu Warga, Ratusan Sembako Ludes Terjual</t>
   </si>
   <si>
-    <t xml:space="preserve">detikJatimMinggu, 11 Feb 2024 16:33 WIB</t>
+    <t xml:space="preserve">2024-02-11</t>
   </si>
   <si>
     <t xml:space="preserve">Warga Banyuwangi menyerbu pasar murah yang digelar Dinas Perindustrian dan Perdagangan Pemprov Jatim. Pasar murah ini serangkaian kunjungan Gubernur Jawa Timur Kofifah Indar Parawansa di halaman SMAN 2 Taruna Bhayangkara, Kecamatan Genteng, Minggu (11/2/2024). Ratusan warga yang memadati area pasar murah rela antre demi mendapatkan sembako murah berupa beras, telur, gula dan minyak goreng. Salah satunya Desi (28), yang mengaku terbantu dengan keberadaan pasar murah tersebut. "Alhamdulilah bisa berhemat puluhan ribu, karena harga bahan pokok seperti beras di pasar sekarang mahal," ungkap warga Genteng Kulon ini. 
@@ -44,9 +44,6 @@
     <t xml:space="preserve">Said Abdullah Tekankan Kader PDIP Jatim Tak Boleh Lengah di Masa Tenang</t>
   </si>
   <si>
-    <t xml:space="preserve">detikJatimMinggu, 11 Feb 2024 15:38 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Masa tenang akan berlangsung selama tiga hari hingga 13 Februari 2024. Di masa tersebut, Ketua DPD PDI Perjuangan Jawa Timur Said Abdullah menekankan agar anggota dan kader tak boleh lengah dan meningkatkan siaga jelang pencoblosan pada 14 Februari 2024. Untuk menjaga soliditas, Said meningkatkan koordinasi dengan pimpinan-pimpinan DPC di seluruh Jatim. Said ingin memastikan pada kadernya untuk tidak lengah dan kecolongan. "Kita tetap siaga penuh selama masa tenang kampanye menjelang pemungutan suara. Masa tenang ini bukan hari tenang, namun dalam tingkat kesiagaan," kata pria yang duduk sebagai anggota DPR RI ini, Minggu (11/02) di Banyuwangi. 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
@@ -59,9 +56,6 @@
     <t xml:space="preserve">Hunian Tetap untuk 66 Korban Banjir Kalibaru Banyuwangi Mulai Dibangun</t>
   </si>
   <si>
-    <t xml:space="preserve">detikJatimMinggu, 11 Feb 2024 14:47 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hunian tetap bagi 66 warga korban Banjir Bandang di Dusun Krajan, Desa Kalibaru Wetan, Kecamatan Kalibaru, Banyuwangi mulai dibangun. Penanda dimulainya pembangunan atau ground breaking hunian tetap untuk korban banjir itu diresmikan Gubernur Jatim Khofifah Indar Parawansa. Rumah pengganti itu akan dibangun di petak lahan seluas 1,17 hektare yang merupakan lahan milik PTPN XII yang telah dibeli oleh Pemprov Jatim untuk warga korban banjir di Banyuwangi. Khofifah bersyukur hunian relokasi bagi korban banjir bandang di Kalibaru bisa segera terealisasi. Pemprov sempat membutuhkan banyak waktu untuk menyiapkan lahan sesuai dengan keinginan warga. 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
@@ -74,9 +68,6 @@
     <t xml:space="preserve">Pesan Kapolda Jatim Saat Berangkatkan 1.013 Personel Amankan Pemilu 2024</t>
   </si>
   <si>
-    <t xml:space="preserve">detikJatimMinggu, 11 Feb 2024 13:58 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Polda Jatim menggelar apel terakhir pergeseran pasukan dalam rangka BKO ke wilayah-wilayah rawan untuk mengamankan Pemilu 2024. Ada 1.013 personel Polda Jatim yang BKO ke sejumlah polres yang membutuhkan penebalan pengamanan. Apel yang digelar di Lapangan Polda Jatim itu dipimpin Kapolda Jawa Timur Irjen Pol Imam Sugianto didampingi pejabat utama (PJU) Polda Jatim. Kapolda Jatim dalam arahannya mengatakan, Polda Jatim menyelenggarakan operasi kepolisian terpusat mantap Brata Semeru 2023-2024 dalam rangka pengamanan tahapan penyelenggaraan Pemilu 2024 di wilayah hukum Polda Jatim. "Beberapa hari ke depan kita akan memasuki tahapan penting dari tahapan Pemilu Serentak 2024, yaitu tahap pungut dan hitung suara tanggal 14 Februari 2024," kata Imam, Minggu (11/2/2024). 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
@@ -89,9 +80,6 @@
     <t xml:space="preserve">Khofifah Pamit dan Mohon Doa untuk Maju di Pilgub 2024 Bareng Emil Dardak</t>
   </si>
   <si>
-    <t xml:space="preserve">detikJatimMinggu, 11 Feb 2024 13:44 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gubernur Jawa Timur Kofifah Indar Parawansa berpamitan ke warga Banyuwangi, sekaligus meminta doa restu kembali maju di Pilgub Jatim. Ia menyatakan akan kembali maju bersama wakilnya saat ini Emil Elestianto Dardak. Gemuruh tepuk tangan dan ucapan syukur keluar dari mulut sekitar 100 warga yang hadir pada acara launching ground breaking pembangunan tempat relokasi warga pascabencana banjir bandang di Desa Kalibaru Wetan, Kecamatan Kalibaru, Kabupaten Banyuwangi, Minggu (11/2/2024). "Sekaligus menyampaikan mohon pangestu panjenengan semua, saya dan Pak Emil insyaallah akan maju kembali dalam pilgub tahun ini. Mohon doanya," ungkap Khofifah dengan senyum simpul. 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
@@ -104,9 +92,6 @@
     <t xml:space="preserve">Perkosa Turis di Bali, Pemandu Wisata Ini Ditangkap Polisi!</t>
   </si>
   <si>
-    <t xml:space="preserve">detikSumutMinggu, 11 Feb 2024 05:00 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Seorang pemandu wisata bernama Faisal Akbar Ramadhan (29), asal Surabaya, Jawa Timur (Jatim) ditangkap polisi. Dia diciduk diduga karena memperkosa turis asal China inisial HJT di Bali. Kasi Humas Polresta Denpasar AKP I Ketut Sukadi mengatakan pelaku diringkus di sebuah hotel di kawasan Nusa Dua, Kuta Selatan, Badung, Bali. Dia diamankan oleh sekuriti hotel dan teman korban usai melancarkan aksi bejatnya itu.  "Saat ini pelaku sudah diamankan di Sat Reskrim Polresta Denpasar, sedang menjalani pemeriksaan dan penyidikan secara intensif," kata Sukadi dalam keterangannya, Sabtu (10/2/2024), melansir detikBali. 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
@@ -119,9 +104,6 @@
     <t xml:space="preserve">Masa Tenang Pemilu, Polda Jatim Sebar 1.013 Personel di Daerah Rawan</t>
   </si>
   <si>
-    <t xml:space="preserve">detikJatimMinggu, 11 Feb 2024 04:01 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kapolda Jatim Irjen Imam Sugianto mengungkapkan pihaknya menerjunkan ribuan personel saat memasuki masa tenang Pemilu 2024. Ribuan personel itu akan disebar di sejumlah titik rawan. "Kami upayakan mitigasi dan sudah tambah daerah rawan di mitigasi Sumenep dan 5 hari lalu sudah berangkat ke kepulauan di Kabupaten Sumenep," kata Imam saat ditemui awak media di Halaman Gedung Mahameru Polda Jatim, Sabtu (10/2/2024). Imam mengimbau masyarakat tetap beraktivitas seperti biasa saat masa tenang pemilu. Masa tenang Pemilu sendiri akan berlaku Minggu (11/2) hingga 13 Februari mendatang. 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
@@ -134,9 +116,6 @@
     <t xml:space="preserve">Eceng Gondok Sungai Buntung Penyebab Banjir Sidoarjo Ternyata Masih Banyak</t>
   </si>
   <si>
-    <t xml:space="preserve">detikJatimMinggu, 11 Feb 2024 02:01 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Guna mengantisipasi terjadinya banjir kembali di Waru, Sidoarjo, Pemprov Jatim melalui Dinas PU Sumber Daya Air (SDA) dan BPBD melakukan pengecekan sungai-sungai di sekitaran Waru. Kadis PU SDA Jatim Baju Trihaksoro mengatakan pihaknya telah mengecek langsung sungai-sungai di wilayah Waru yang menjadi daerah aliran sungai (DAS) Sungai Brantas. Sungai yang dicek di antaranya di Sungai Buntung, Desa Tambak Oso, Kecamatan Waru, Sidoarjo. "Pagi sampai siang ini kami telah melakukan pengecekan sungai yang jadi aliran Brantas di wilayah Waru," kata Baju, dalam keterangannya, Sabtu (10/2/2024). 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
@@ -149,9 +128,6 @@
     <t xml:space="preserve">Puluhan Ribu Buruh SKT Titip Pesan ke Ketua Projo Jatim: Matur Nuwun Jokowi</t>
   </si>
   <si>
-    <t xml:space="preserve">detikJatimMinggu, 11 Feb 2024 01:45 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ketua DPD Pro Joko Widodo (Projo) Jawa Timur Bayu Airlangga bertemu dengan puluhan ribu buruh sigaret kretek tangan (SKT) di 4 wilayah berbeda yakni Mojokerto, Jombang, Nganjuk, dan Madiun. Dalam perjumpaannya dengan buruh SKT ini, Bayu mengaku mendapat banyak titipan aspirasi agar program-program Presiden Jokowi terus dilanjutkan. "Saya bertemu di 4 kabupaten berbeda, dan mereka semua ingin agar program Presiden Jokowi bisa diteruskan ke depan. Dan harapan buruh penerus Pak Jokowi ya Prabowo-Gibran," kata Bayu dalam keterangannya, Sabtu (10/2/2024). 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
@@ -164,9 +140,6 @@
     <t xml:space="preserve">La Nyalla-Keponakan Khofifah Diprediksi Lolos Jadi Anggota DPD RI Versi ARCI</t>
   </si>
   <si>
-    <t xml:space="preserve">detikJatimMinggu, 11 Feb 2024 00:01 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Accurate Research and Consulting Indonesia (ARCI) merilis hasil terbaru elektabilitas calon Anggota DPD RI dari Jawa Timur. "Hasilnya, La Nyalla masih menjadi calon anggota DPD RI dengan elektabilitas tertinggi di Jawa Timur," kata Direktur ARCI Baihaki Sirajt saat paparan di Surabaya, Sabtu (10/2/2024). Baihaki kemudian menyebut peluang Keponakan Gubernur Jatim Khofifah Indar Parawansa, Lia Istifhama untuk lolos ke DPD RI sangat besar. 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
@@ -179,7 +152,7 @@
     <t xml:space="preserve">Hitung-hitungan TKD Jatim dengan Gabungnya Kiai Khos ke Prabowo-Gibran</t>
   </si>
   <si>
-    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 22:33 WIB</t>
+    <t xml:space="preserve">2024-02-10</t>
   </si>
   <si>
     <t xml:space="preserve">Tim Kampanye Daerah (TKD) melakukan kalkulasi dukungan masyarakat Jatim terhadap Prabowo-Gibran. Dukungan ini diketahui dari hasil data survei yang ada. Ketua TKD Jatim Prabowo Gibran, Boedi Prijo Suprayitno menyebut dukungan didominasi dua masyarakat dari organisasi NU dan Muhammadiyah. Hal ini didasarkan pada survei Poltracking. "Taruhlah warga NU Jatim dari 41 juta total penduduk Jatim, 60 persennya adalah warga NU atau sekitar 24 jutaan. Sementara itu, warga Muhammadiyah adalah 10 jutaan, atau 24 persen dari total penduduk Jatim dalam survei Poltracking arah dukungan warga Muhammadiyah ke Paslon 02 adalah 42 persen, sedangkan warga NU sekitar sesuai riset Poltracking per Februari adalah 60,9 persen mendukung Prabowo Gibran," papar Boedi, Sabtu (10/2/2024). 
@@ -194,9 +167,6 @@
     <t xml:space="preserve">8 Amalan Bulan Syaban yang Disunnahkan, Yuk Amalkan!</t>
   </si>
   <si>
-    <t xml:space="preserve">detikSulselSabtu, 10 Feb 2024 22:21 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bulan Syaban 1445 H jatuh pada tanggal 11 Februari 2024 dalam penanggalan Masehi. Terdapat sejumlah amalan yang dianjurkan untuk dikerjakan umat Islam. Lantas, apa saja amalan bulan Syaban yang dapat dikerjakan? Melansir NU Online Jatim, Syaban menjadi salah satu bulan yang biasa dilupakan karena diapit dua bulan mulia yaitu Rajab dan Ramadhan. Padahal, Syaban merupakan bulan diangkatnya amal-amal manusia sebagaimana sabda Rasulullah SAW berikut: 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
@@ -209,9 +179,6 @@
     <t xml:space="preserve">Ahok Sindir Kinerja Jokowi dan Gibran, Emil Dardak Pasang Badan</t>
   </si>
   <si>
-    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 22:05 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Emil Dardak, juru Bicara Gibran Rakabuming Raka buka suara terkait kritikan Ahok yang bertanya kinerja Presiden Jokowi dan Wali Kota Solo Gibran Rakabuming Raka. Pernyataan Ahok viral di media sosial dan belakangan Ahok sendiri merasa bahwa kalimatnya itu dipotong di video viral. Emil menyebut kritik dari Ahok senantiasa diterima sebagai masukan oleh Gibran. Emil menyebut Gibran lapang dada mendapat kritik dari Ahok. "Semua kritik diterima oleh Gibran dengan lapang dada," kata Emil di Surabaya, Sabtu (10/2/2024). 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
@@ -224,9 +191,6 @@
     <t xml:space="preserve">MUI Jatim Sebut Golput Haram Jika Bawa Mudarat</t>
   </si>
   <si>
-    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 20:59 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">MUI Jatim meminta agar semua warga menggunakan hak pilihnya pada 14 Februari 2024 mendatang. MUI lalu mengimbau masyarakat agar tak golput. Ketua Umum MUI Jatim KH Mutawakkil Alallah mengatakan tidak ada capres-cawapres yang sempurna. Sebab menurutnya setiap calon pasti punya kelebihan dan kekurangan. "Yang jelas semua capres dan cawapres ada tiga ini adalah kader-kader dan tokoh-tokoh terbaik bangsa. Dan tentu kita tidak akan menemukan manusia yang sempurna, pasti di samping kelebihan ada kekurangan. Oleh karena itu pilih salah satu dari tiga ini yang diyakini untuk menjadi pemimpin nasional untuk memberi kesejahteraan ke rakyat," kata Mutawakkil di Surabaya, Sabtu (10/2/2024). 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
@@ -239,9 +203,6 @@
     <t xml:space="preserve">Kisah Cordo Tuban, Nama Lahirnya Panjang 19 Kata hingga Sulit Bikin Akta</t>
   </si>
   <si>
-    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 19:09 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pada 6 Januari 2019, lahir seorang anak bernama Rangga Madhipa Sutra Jiwa Cordosega Akre Askhala Mughal Ilkhanat Akbar Sahara Pi-Thariq Ziyad Syaifudin Quthuz Khoshala Sura Talenta. Namanya panjang hingga 19 kata. Ia akrab dipanggil Cordo. Ia merupakan buah hati atau putra kedua dari pasangan Arif Akbar (29) dan Suci Nur Aisyiah (26), yang tinggal di Desa Ngujuran, Kecamatan Bancar, Tuban. Karena namanya terlalu panjang, Cordo kesulitan mendapatkan akta lahir. Itu seperti yang disampaikan sang ayah. 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
@@ -254,9 +215,6 @@
     <t xml:space="preserve">Kejayaan PDIP dan PKB di Jatim Terancam Dua Partai Ini Versi ARCI</t>
   </si>
   <si>
-    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 18:49 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dominasi PKB dan PDIP di Jawa Timur terancam diusik oleh dua partai ini. Hal itu tergambar dalam survei Accurate Research and Consulting Indonesia (ARCI). Direktur ARCI Baihaki Sirajt menyebut Gerindra dan Golkar berpotensi menyalip PDIP bahkan PKB di Jawa Timur jika lengah di menit akhir. "Selisih antara 4 partai teratas di Jatim ini sangat tipis. Dan jika lengah di hari-hari akhir Pemilu, bisa jadi ada kejutan besar dua kekuatan partai tradisional di Jatim bisa dikalahkan oleh Gerindra atau bahkan Golkar," kata Baihaki saat paparan survei di Surabaya, Sabtu (10/2/2024). 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
@@ -269,9 +227,6 @@
     <t xml:space="preserve">GMNI Jatim Gelar Aksi Serukan Pemilu Damai Tanpa Provokasi</t>
   </si>
   <si>
-    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 17:22 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Massa yang terdiri dari mahasiswa sejumlah kampus di Jatim menggelar aksi menyerukan pemilu damai. Mereka menyampaikan seruan damai di Taman Makam Pahlawan (TMP) Mayjend Sungkono Surabaya. Ketua DPD GMNI Jatim Hendra Prayogi mengatakan seruan damai kebangsaan bertajuk 'Pemilu Damai Tanpa Provokasi' itu merupakan bukti dan tekad untuk menjunjung tinggi nilai-nilai demokrasi. Begitu juga dengan kedamaian dan keadilan dalam pelaksanaan Pemilu 2024 pada 14 Februari 2024. "Aksi kami hari ini mencerminkan semangat persatuan, hingga menyoroti peran vital pemuda dan mahasiswa sebagai garda terdepan dalam mewujudkan pemilu yang damai, jujur, dan adil," kata Hendra saat ditemui di TMP Mayjend Sungkono Surabaya, Sabtu (10/2/2024). 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
@@ -284,9 +239,6 @@
     <t xml:space="preserve">Puncak Arus Balik Libur Panjang Imlek di Jatim Diprediksi Terjadi Besok</t>
   </si>
   <si>
-    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 17:05 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Puncak arus balik masyarakat usai libur panjang Isra Miraj dan tahun baru Imlek diprediksi terjadi besok (11/2/2024). Diprediksi, kepadatan kendaraan akan terjadi, baik di jalan raya maupun di jalan tol. Kakorlantas Polri Irjen Aan Suhanan memastikan pihaknya telah melakukan sejumlah antisipasi. Baik di kawasan kabupaten atau kota, terutama di jalanan yang dinilai bakal menjadi penumpukan arus lalin saat arus balik nanti. "Kita siapkan untuk antisipasi dan lakukan survei dan rapat-rapat arus balik diperkirakan besok tanggal 11 Februari dari timur ke barat, maupun sebaliknya dan seterusnya, mungkin dari kabupaten ke kota, sudah kami antisipasi," kata Aan saat sesi doorstop di Halaman Gedung Mahameru Polda Jatim, Sabtu (10/2/2024). 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
@@ -299,9 +251,6 @@
     <t xml:space="preserve">Bubaran Haul Akbar di Surabaya Sempat Macetkan Suramadu hingga 2 Km</t>
   </si>
   <si>
-    <t xml:space="preserve">detikJatimMinggu, 11 Feb 2024 19:28 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jembatan Suramadu arah Madura macet hingga kurang lebih 2 kilo meter. Hal ini dikarenakan adanya haul akbar di pondok pesantren (Ponpes) di Jalan Kedinding Lor. Dari video yang beredar di beberapa akun media sosial, tampak kemacetan panjang di ruas roda 4 Jembatan Suramadu arah Madura. Kemacetan terjadi pukul 13.41 WIB sepanjang kurang lebih 2 km, bahkan sebelum Jembatan Suramadu. Dalam video tersebut juga dijelaskan ada banyak bus yang parkir di pinggir jalan menjemput jemaah haul akbar di Jalan Kedinding. Sedangkan untuk ruas roda dua terlihat lancar. 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
@@ -314,9 +263,6 @@
     <t xml:space="preserve">SMKN Maritim di Brondong Lamongan Diresmikan Gubernur Khofifah</t>
   </si>
   <si>
-    <t xml:space="preserve">detikJatimMinggu, 11 Feb 2024 01:01 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gubernur Jatim Khofifah Indar Parawansa meresmikan Sekolah Menengah Kejuruan (SMK) Negeri Maritim Jawa Timur di Brondong Lamongan. Hadirnya sekolah ini menjadi bentuk ketanggapan pemerintah daerah dalam menghadirkan pendidikan terbaik di bidang vokasi atau keahlian berbasis maritim. "Vokasi-vokasi yang memang dibutuhkan oleh berbagai sektor itu akan terus kita siapkan. Karena pada dasarnya technical skill yang dibutuhkan oleh berbagai sektor kita harus difasilitasi bersama," ujar Khofifah saat meresmikan SMKN Maritim Jawa Timur di Brondong, Sabtu (10/2/2024). Khofifah berharap dengan berdirinya SMKN Maritim, Disdik Jatim mampu bersinergi dengan Koarmada II (Komando Armada II) atau Mabes AL. Khofifah menyebut mentoring dari TNI angkatan laut akan menjadi bagian dari penguatan. Tidak sekadar di sektor maritim, sektor perikanan, tapi juga membangun penguatan ke-Nusantara-an. 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
@@ -329,9 +275,6 @@
     <t xml:space="preserve">Said Abdullah Harap Pemilu 2024 Tak Dikotori dan Dinodai Teror: Biarlah Alami</t>
   </si>
   <si>
-    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 15:55 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kampanye hari terakhir dimanfaatkan para relawan Ganjar Pranowo-Mahfud Md di Sumenep untuk mengoptimalkan dukungan pada paslon nomor urut 03. Salah satunya dengan menggelar kegiatan jalan-jalan sehat hingga pasar rakyat. Ketua DPD PDI Perjuangan Jatim Said Abdullah mengaku yakin Ganjar-Mahfud akan menang Pilpres 2024. Said optimistis Ganjar-Mahfud akan meraup suara 37 sampai 39 persen saat Pemilu nanti.Dalam kesempatan ini, Said Abdullah ditemani Bupati Sumenep Achmad Fauzi yang juga Ketua DPC PDI Perjuangan Sumenep. Keduanya berbaur dengan ribuan relawan dalam acara yang digelar di depan Museum Keraton Sumenep. Said Abdullah berharap, Pemilu berjalan tanpa ada paksaan kepada rakyat untuk memilih calon tertentu. 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
@@ -344,9 +287,6 @@
     <t xml:space="preserve">Dear Warga RI! Fotokopi KTP Tak Lagi Berlaku Mulai Tahun Ini</t>
   </si>
   <si>
-    <t xml:space="preserve">detikInetSabtu, 10 Feb 2024 13:45 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pemerintah tengah berupaya untuk menggantikan penggunaan identitas kependudukan masyarakat, dari semula Kartu Tanda Penduduk (KTP) dengan Identitas Kependudukan Digital (IKD). Ditargetkan pada tahun 2024 ini proses peralihan tersebut akan rampung. Itu tandanya, era fotokopi KTP sudah tidak lagi berlaku ke depannya. Sebab, di masa mendatang, penggunannya berubah yang dilakukan secara digital. Di awal 2024, Presiden Joko Widodo (Jokowi) telah menginstruksikan untuk mempercepat transformasi digital dan keterpaduan melalui Digital ID atau IKD, pembayaran digital, dan pertukaran data untuk interoperabilitas layanan publik yang berorientasi kepada pengguna. 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
@@ -359,9 +299,6 @@
     <t xml:space="preserve">Kakorlantas Polri Sebut Jatim Sumbang Laka Lantas Tertinggi Setelah Jakarta</t>
   </si>
   <si>
-    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 13:29 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Indeks keselamatan berlalu lintas di Indonesia dinilai masih jauh dari harapan. Bahkan, diklaim masih di bawah beberapa negara lain di Asia Tenggara. Kakorlantas Polri Irjen Aan Suhanan mengatakan, pihaknya menargetkan indeks keselamatan di 1,37 persen atau jumlah korban fatalitas sampai tahun 2025, diharapkan hanya berkisar pada 27 ribu. Menurutnya, jumlah fatalitas laka lantas di Indonesia, termasuk Jatim setiap tahun selalu naik. "Nanti kita lihat sudah sampai mana korban laka lantas ini, sudah tercapai atau tidak, lalu kita bandingkan dengan negara Asia Tenggara, kita ingin indeks keselamatan teratas di Asia Tenggara, tapi faktanya keselamatan berlalu lintas di Indonesia hanya di rangking 4 terburuk, bukan di atas, bisa kita lihat negara-negara lain di Singapura, Filipina, dan lain-lain jauh lebih baik," kata Aan saat pemaparan materi Gebyar Keselamatan 2024 di Gedung Mahameru Polda Jatim, Sabtu (10/2/2024). 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
@@ -374,9 +311,6 @@
     <t xml:space="preserve">Peringati HPN 2024, TKD Jatim Prabowo-Gibran Perhatikan Kesehatan Wartawan</t>
   </si>
   <si>
-    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 10:15 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">TKD Jatim 02 Prabowo Subianto-Gibran Rakabuming Raka memberi perhatian khusus kepada para jurnalis di Hari Pers Nasional (HPN) yang jatuh pada Jumat (9/2/2024). Pemeriksaan kesehatan hingga suplemen diberikan pada para jurnalis. Selain itu, TKD Jatim Prabowo-Gibran juga mengucapkan selamat Hari Pers Nasional. TKD Jatim berharap, di HPN 2024 kali ini, pers dapat tumbuh bersama dan berkembang baik, khususnya di Jawa Timur dan Indonesia. Ketua TKD Jatim Prabowo-Gibran, Boedi Prijo Soeprajitno menghargai kinerja semua jurnalis yang bekerja di Jawa Timur dan Indonesia, karena di masa Pemilu, kerja para jurnalis tentu sangat berat. 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
@@ -389,9 +323,6 @@
     <t xml:space="preserve">Upaya Wagub Emil Dardak Cegah Banjir Susulan di Waru Sidoarjo</t>
   </si>
   <si>
-    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 09:22 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wagub Jatim Emil Elestianto Dardak memaparkan sejumlah upaya untuk mencegah banjir susulan di kawasan Waru, Sidoarjo. Salah satunya dengan mempercepat pembersihan enceng gondok di sungai. Sebelumnya, Emil telah meninjau langsung posko bencana banjir di Kantor BPBD Jatim. Kunjungan ini untuk memastikan kesiapsiagaan Pemprov Jatim dalam penanganan bencana banjir. Sebagaimana diketahui sebelumnya, hujan lebat mengakibatkan banjir menggenangi jalan desa di Kecamatan Waru, Sidoarjo. Ditambah hujan lebat pada keesokan harinya, Selasa (6/2) sore, menambah tingginya genangan yang ada di jalan desa hingga memasuki rumah warga. 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
@@ -404,9 +335,6 @@
     <t xml:space="preserve">Hasto Sebut Bupati Sidoarjo Tersandera hingga Terpaksa Dukung 02</t>
   </si>
   <si>
-    <t xml:space="preserve">detikSumutSabtu, 10 Feb 2024 03:00 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sekjen PDIP Hasto Kristianto menyebut Bupati Sidoarjo tersandera hingga dipaksa menjadi pendukung pasangan calon (Paslon) 02 di Pemilu 2024. Hasto juga menyebut sejumlah oknum aparat, kepala dinas, hingga perangkat desa juga menurutnya diduga diminta untuk memenangkan partai tertentu. "Ya, tadi saya juga bertemu dan mendengarkan laporan dari seluruh pimpinan dari PDIP di Jatim. Mereka mengatakan justru di Jatim masif. Itu kan (ada) suatu operasi khusus yang kemudian menyandera Bupati Sidoarjo dan kemudian dipaksa mendukung paslon 02," kata Hasto mendampingi Megawati di Blitar, Jumat (9/2/2024), melansir detikJatim. Hasto menilai, aksi penyanderaan atau pemaksaan seperti itu juga dilakukan terhadap sejumlah oknum aparat TNI dan Polri. Bahkah terjadi di lingkup PDI Perjuangan. 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
@@ -419,9 +347,6 @@
     <t xml:space="preserve">Caleg PDIP Asal Banyuwangi Ini Copot APK-nya Sendiri Jelang Masa Tenang</t>
   </si>
   <si>
-    <t xml:space="preserve">detikJatimSabtu, 10 Feb 2024 00:01 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jelang masa tenang Pemilu 2024, sejumlah alat peraga kampanye (APK) mulai dicopoti. Hal ini sesuai dengan Pasal 1 angka 36 Undang-Undang Pemilu. Karena hal ini, Chandra Astan Caleg PDI Perjuangan Dapil 3 Jatim Banyuwangi, Situbondo dan Bondowoso satu ini langsung menginstruksikan pada pendukungnya membereskan APK lebih awal. Meski masa tenang masih dua hari lagi, tepatnya dimulai pada tanggal 11 hingga 13 Februari 2024 mendatang, caleg nomor urut 7 ini mengaku sengaja berinisiatif membersihkan APK dirinya sendiri secara mandiri. 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
@@ -434,7 +359,7 @@
     <t xml:space="preserve">Fans Rhoma Irama Jatim Deklarasi Dukung AMIN, Ajak Penggemar Coblos 01</t>
   </si>
   <si>
-    <t xml:space="preserve">detikJatimJumat, 09 Feb 2024 23:30 WIB</t>
+    <t xml:space="preserve">2024-02-09</t>
   </si>
   <si>
     <t xml:space="preserve">Kampanye akbar pasangan calon presiden dan calon wakil presiden nomor 01 Anies Baswedan dan Muhaimin Iskandar (AMIN) di Stadion Untung Suropati Kota Pasuruan dimeriahkan penampilan Raja Dangdut Rhoma Irama dan Soneta Grup. Bukan hanya itu, kelompok penggemarnya, Rhomais, juga deklarasi mendukung AMIN. Deklarasi dilakukan di atas panggung utama. Deklarasi disaksikan Anies Baswedan, Muhaimin Iskandar, Rhoma Irama dan ribuan pendukung. Deklarasi dibacakan Suryanto Aka yang terdiri 4 poin. "Kami fans Raja Dangdut Rhoma Irama Jawa Timur, rakyat lndonesia yang ingin melihat Indonesia adil makmur untuk semua," kata Ketua Umum Rhomais Jawa Timur, Suryanto Aka, Jumat (9/2/2024). 
@@ -449,7 +374,7 @@
     <t xml:space="preserve">11.942 Personel Gabungan Diterjunkan Amankan Pemilu di Banyuwangi</t>
   </si>
   <si>
-    <t xml:space="preserve">detikJatimSenin, 12 Feb 2024 18:23 WIB</t>
+    <t xml:space="preserve">2024-02-12</t>
   </si>
   <si>
     <t xml:space="preserve">11.942 Pasukan gabungan TNI, Polri, Pol PP dan Linmas Banyuwangi menggelar apel bersama di lapangan Taman Blambangan Banyuwangi. Para petugas gabungan bersiap mengemban tugas penting mengamankan jalannya pemungutan dan penghitungan suara pemilu 2024 yang akan digelar pada 14 - 15 Februari mendatang. Bupati Banyuwangi Ipuk Fiestiandani mengatakan kegiatan apel gelar pasukan pemungutan dan penghitungan suara tersebut merupakan kesiapan akhir dalam rangka mengamankan tahapan pemilu. Ipuk berharap para personel bisa menjalankan tugas dengan tulus dan sebaik-baiknya. "Saya berharap para personel bekerja dengan tulus karena akan bernilai ibadah. Tugas ini tidak dapat dinilai dengan apapun," kata Ipuk saat memimpin apel gelar pasukan Senin (12/02) sore. 
@@ -464,9 +389,6 @@
     <t xml:space="preserve">Tiket Masuk Diskon 10 Persen Bagi Pengunjung yang Ikut Nyoblos</t>
   </si>
   <si>
-    <t xml:space="preserve">detikJatimSenin, 12 Feb 2024 15:28 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wisatawan yang ingin berkunjung ke seluruh destinasi wisata milik Jatim Park Group, Kota Batu dapat diskon 10% saat 14 Februari 2024. Namun, untuk memperoleh diskon ada beberapa persyaratan khusus yang harus dipenuhi. Manager Marketing and Public Relations, Titik S Ariyanto mengatakan, persyaratan untuk mendapat diskon 10% dengan mudah. Pengunjung cukup menunjukkan tanda tinta atau bukti jika sudah mencoblos pada saat pemilu. "Caranya mudah, cukup dengan menunjukkan tanda tinta pada jari serta bukti coblos pada pemilu. Nanti untuk 100 pengunjung pertama di setiap theme park naungan Jawa Timur Park Group juga akan mendapat eksklusif merchandise," ujarnya saat dikonfirmasi, Senin (12/2/2024). 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
@@ -479,9 +401,6 @@
     <t xml:space="preserve">Dituding Selingkuh, Emak-emak di Malang Tewas Dibunuh Suami</t>
   </si>
   <si>
-    <t xml:space="preserve">detikJogjaSenin, 12 Feb 2024 15:25 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Seorang ibu rumah tangga (IRT) di Malang, Jawa Timur, Dayang Santi (40) tewas dibunuh suaminya, Ditya Mukhsan Muhammad (40). Dayang Santi dan suaminya kerap cekcok gegara tudingan selingkuh. Dilansir detikJatim, Senin (12/2/2024), Kasat Reskrim Polres Malang AKP Gandha Syah Hidayat menyebut kedua suami istri ini sering cekcok. Keduanya saling menuduh selingkuh. "Ini sama-sama mencurigai masing-masing memiliki pria idaman lain maupun wanita idaman lain karena memang riwayat dari diari korban ini melambangkan bahwa kurang akur ya," kata Gandha kepada wartawan, Senin (12/2). 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
@@ -494,9 +413,6 @@
     <t xml:space="preserve">Personel di Polres Blitar Kota Dipertebal demi Antisipasi Kerawanan Pemilu</t>
   </si>
   <si>
-    <t xml:space="preserve">detikJatimSenin, 12 Feb 2024 14:58 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wilayah hukum Polres Blitar Kota masuk daerah rawan Pemilu 2024 berdasarkan hasil pemetaan yang dilakukan Polda Jatim. Personel tambahan diterjunkan ke wilayah hukum Polres Blitar untuk membantu pengamanan Pemilu. "Ada 420 personel akan dilibatkan untuk mengamankan Pemilu di Wilayah Kota Blitar. Sudah termasuk BKO dari Polda Jatim 60 personel. Kemudian juga ada perbantuan dari TNI (Kodim 0808 dan Batalyon 511)," kata Kapolres Blitar Kota AKBP Danang Setiyo PS, Senin (12/2/2024). Danang menyebutkan jumlah personel Polres Blitar Kota cukup terbatas untuk mengamankan 1.577 TPS yang masuk wilayah hukum Polres Blitar Kota. Untuk itulah perlu dilakukan penebalan atau penambahan personel dari Polda Jatim. 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
@@ -509,9 +425,6 @@
     <t xml:space="preserve">Ini Instruksi Gerindra Jatim ke Seluruh Kader-Simpatisan Jelang Pemilu 2024</t>
   </si>
   <si>
-    <t xml:space="preserve">detikJatimSenin, 12 Feb 2024 14:20 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Memasuki masa tenang Pemilu 2024, DPD Gerindra Jawa Timur menginstruksikan kepada semua jajaran kader dan simpatisan partai untuk mengawal serta menjaga suara kemenangan. Ketua DPD Gerindra Jatim Anwar Sadad mengatakan, tiga hari masa tenang merupakan momen yang krusial dalam Pemilu. Ia meminta semua kader tidak lengah. "Jangan lengah, meski di survei capres-cawapres kita unggul, partai Gerindra juga unggul. Tiga sampai lima hari ke depan sangat krusial, jaga suara kita, jaga kemenangan kita," kata Anwar Sadad saat dikonfirmasi awak media, Senin (12/2/2024). 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
@@ -524,9 +437,6 @@
     <t xml:space="preserve">Tabrak Jembatan, Pelajar SMA Tewas Terpental ke Sungai Gianyar</t>
   </si>
   <si>
-    <t xml:space="preserve">detikBaliSenin, 12 Feb 2024 13:34 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kecelakaan maut terjadi di jembatan gantung Jalan Bypass Ida Bagus Mantra, Ketewel, Kecamatan Sukawati, Gianyar, Bali, malam tadi. Seorang pelajar tewas setelah menabrak jembatan dan terpental ke sungai. "Korban mengendarai motor besar, kemungkinan tidak mampu mengendalikan kecepatan motornya, oleng dan menabrak jembatan dan tewas di tempat, semalam," kata Kanit Laka Satlantas Polres Gianyar Ipda I Made Suarjana kepada detikBali, Senin (12/2/2024). Korban bernama Andre Reduli (17) asal Banyuwangi, Jawa Timur (Jatim). Dia adalah seorang pelajar SMA di sana. 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
@@ -539,9 +449,6 @@
     <t xml:space="preserve">Ratusan Ribu Kendaraan Melintasi 3 Tol di Jatim Selama Long Weekend</t>
   </si>
   <si>
-    <t xml:space="preserve">detikJatimSenin, 12 Feb 2024 13:30 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ratusan ribu kendaraan berlalu-lalang di jalan tol Trans Jawa. Sebagian di antaranya memadati kawasan Jatim pada 7-10 Februari 2024 atau saat libur panjang (long weekend) Isra Mikraj dan Tahun Baru Imlek. VP Corporate Secretary and Legal PT Jasa Marga Trans Jawa Tol Ria Marlinda Paallo mengatakan, puncak arus lalin dari wilayah Jatim menuju sejumlah daerah terjadi pada Minggu (11/2/2024). Di antaranya di Gerbang Tol (GT) Warugunung, Kejapanan Utama, dan Singosari. "Untuk GT Waru Gunung pada periode 7-10 Februari 2024, tercatat sebanyak 87.582 kendaraan menuju Jakarta atau naik 17,58% dari lalin normal sebanyak 74.485 kendaraan," kata Ria dalam keterangannya, Senin (12/2/2024). 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
@@ -554,13 +461,10 @@
     <t xml:space="preserve">Masa Tenang, PDIP Jatim Instruksikan Kader hingga Caleg Turunkan APK</t>
   </si>
   <si>
-    <t xml:space="preserve">detikJatimSenin, 12 Feb 2024 12:25 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sejumlah partai politik dan caleg ikut menurunkan Alat Peraga Kampanye (APK) di wilayah masing-masing selama masa tenang Pemilu 2024. Salah satunya PDI Perjuangan (PDIP) yang dengan tegas menginstruksikan kepada seluruh kader maupun simpatisannya untuk membereskan APK secara mandiri. Ketua DPD PDIP Jatim Said Abdullah menegaskan, seluruh caleg PDIP di Jatim ikut membantu Satpol PP dan Bawaslu menurunkan berbagai APK di beberapa lokasi. Said mengatakan, partisipasi aktif dari para caleg maupun anggota partai dalam menjaga kebersihan dan keteraturan APK sangat penting untuk menciptakan suasana kondusif jelang pencoblosan. "Kita tunjukkan kepedulian kita terhadap lingkungan setempat dengan partisipasi turun ke jalan keliling. Kader PDI Perjuangan ikut membantu untuk membenahi dan membereskan seluruh Alat Peraga Kampanye yang telah terpasang di daerah masing-masing," jelas Said, Senin (12/2/2024). 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
- Selain imbauan tersebut, Said juga mengajak seluruh masyarakat Jatim turut aktif dalam pesta demokrasi 5 tahunan ini dengan menyalurkan hak pilihnya ke TPS masing-masing."Tanggal 14 Februari saya mengajak seluruh masyarakat Jawa Timur untuk hadir ke Tempat Pemungutan Suara (TPS) masing-masing, memberikan hak pilih dan hak suaranya, serta menjadi Warga Negara Indonesia yang baik dengan memenuhi kewajibannya dalam proses demokrasi," kata pria yang juga menjabat sebagai Ketua Banggar DPR RI tersebut.. Diketahui, menjelang pelaksanaan Pemilu 14 Februari 2024, Indonesia memasuki masa tenang sesuai dengan ketentuan yang diatur dalam Peraturan KPU Nomor 15 Tahun 2023 tentang Kampanye Pemilihan Umum. Masa tenang ini berlangsung selama 3 hari. Mulai 11 Februari 2024 hingga H-1 Pemilu atau 13 Februari 2024. Selama masa tenang ini, seluruh peserta pemilu, termasuk calon dan pendukungnya, dilarang untuk kampanye maupun melakukan berbagai aktivitas politik yang bisa memengaruhi opini publik. Hal ini bertujuan untuk menciptakan situasi yang kondusif dan adil menjelang hari pemungutan suara, sehingga masyarakat dapat memilih secara tenang dan rasional sesuai dengan hak suara masing-masing. Simak Video 'Momen APK di Sejumlah Daerah Mulai Dibersihkan di Masa Tenang':   [Gambas:Video 20detik] </t>
+ Selain imbauan tersebut, Said juga mengajak seluruh masyarakat Jatim turut aktif dalam pesta demokrasi 5 tahunan ini dengan menyalurkan hak pilihnya ke TPS masing-masing."Tanggal 14 Februari saya mengajak seluruh masyarakat Jawa Timur untuk hadir ke Tempat Pemungutan Suara (TPS) masing-masing, memberikan hak pilih dan hak suaranya, serta menjadi Warga Negara Indonesia yang baik dengan memenuhi kewajibannya dalam proses demokrasi," kata pria yang juga menjabat sebagai Ketua Banggar DPR RI tersebut.. Diketahui, menjelang pelaksanaan Pemilu 14 Februari 2024, Indonesia memasuki masa tenang sesuai dengan ketentuan yang diatur dalam Peraturan KPU Nomor 15 Tahun 2023 tentang Kampanye Pemilihan Umum. Masa tenang ini berlangsung selama 3 hari. Mulai 11 Februari 2024 hingga H-1 Pemilu atau 13 Februari 2024. Selama masa tenang ini, seluruh peserta pemilu, termasuk calon dan pendukungnya, dilarang untuk kampanye maupun melakukan berbagai aktivitas politik yang bisa memengaruhi opini publik. Hal ini bertujuan untuk menciptakan situasi yang kondusif dan adil menjelang hari pemungutan suara, sehingga masyarakat dapat memilih secara tenang dan rasional sesuai dengan hak suara masing-masing. Simak Video 'Momen APK di Sejumlah Daerah Mulai Dibersihkan di Masa Tenang':   [Gambas:Video 20detik]</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7188691/masa-tenang-pdip-jatim-instruksikan-kader-hingga-caleg-turunkan-apk</t>
@@ -569,9 +473,6 @@
     <t xml:space="preserve">Asyiknya Belajar soal Capung Beraneka Warna di Wisata Jopuro Banyuwangi</t>
   </si>
   <si>
-    <t xml:space="preserve">detikJatimSenin, 12 Feb 2024 09:41 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Penggemar fotografi fauna atau pecinta capung tak perlu risau. Musim hujan saat ini tepat untuk berkunjung ke destinasi wisata Jopuro Banyuwangi. Di Jopuro, wisatawan bisa dimanjakan dengan aneka penampakan capung yang berterbangan di sejumlah titik wisata dengan aliran air jernih dan bersih. Sejumlah bahasa daerah kerap disebut kinjeng, papatong, coblang dan tjapung. Wisata Jopuro adalah kawasan pemandian alami di Dusun Rejopuro, Desa Kampung Anyar, Kecamatan Glagah, cukup ikonik karena memadukan lanskap alami dan buatan. Aliran mata air yang dibendung membentuk kolam-kolam dengan arus yang tenang menjadi sebuah habitat para capung. 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
@@ -584,9 +485,6 @@
     <t xml:space="preserve">Sebagian Besar Daerah di Jatim Diprediksi Hujan Ringan Senin 12 Februari 2024</t>
   </si>
   <si>
-    <t xml:space="preserve">detikJatimSenin, 12 Feb 2024 06:00 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sebagian besar wilayah Jatim diprediksi hujan ringan di hari Senin 12 Februari 2024. Namun ada sebagian yang dilanda hujan lebat. Puncak suhu tertinggi berada di Kota Gresik dan Kota Surabaya yang mencapai hingga 34 derajat celsius. BMKG sendiri mengimbau kepada masyarakat yang tinggal di daerah yang diprediksi hujan lebat agar waspada terhadap petir dan angin kencang sesaat. Informasi cuaca lebih detil untuk tiap-tiap daerah di Jatim dapat dilihat di bawah berikut ini. 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
@@ -599,13 +497,10 @@
     <t xml:space="preserve">Kasus Pemerkosaan Turis Wanita di Bali Terjadi Lagi dan Lagi</t>
   </si>
   <si>
-    <t xml:space="preserve">detikTravelSenin, 12 Feb 2024 05:40 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kasus pemerkosaan terhadap turis wanita di Bali terjadi lagi. Kali ini, pelakunya pemandu wisata dan korbannya turis China. Ini adalah kasus kedua yang terjadi di Bali. Masih segar dalam ingatan, beberapa bulan lalu, tepatnya pada bulan Agustus 2023, seorang turis Brasil diperkosa oleh driver ojol di Bali. Peristiwa pemerkosaan itu terjadi di sepetak tanah kosong Jalan Nyang-nyang, Kelurahan Jimbaran, Kecamatan Kuta Selatan, Kabupaten Badung. Peristiwa memilukan itu terjadi pada rentang waktu pukul 04.00 hingga 05.00 Wita, Senin (7/8/2023). 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
- Pelaku adalah laki-laki berinisial WD asal Kecamatan Bangsalsari, Kabupaten Jember, Jawa Timur (Jatim). Adapun korban pemerkosaan itu yakni turis perempuan asal Brasil berinisial GWL (26). "Korban merupakan wisatawan asal Brasil yang berlibur ke Bali dan menginap di salah satu vila di daerah Jimbaran," ungkap Kepala Bidang Hubungan Masyarakat (Kabid Humas) Polda Bali, Kombes Jansen Avitus Panjaitan. Jansen menjelaskan, GWL memesan ojol dari Puri Kelapa Quest By Bukit Villa dengan tujuan Villa Asri Jimbaran. Pesanan tersebut diambil oleh WD. "Selama dalam perjalanan korban (GWL) terus diajak mengobrol oleh pelaku sampai tidak memperhatikan map (peta) perjalanan," tutur Jansen. Sesampainya di sebuah tanah kosong, WD membelokkan motornya dan menyuruh GWL turun. Pria itu kemudian berupaya memerkosa GWL dan sempat membanting turis asing itu. Bahkan, WD sempat mencekik leher dan menutup mulut GWL. Perempuan berusia 26 tahun itu berupaya melawan dengan cara memukul WD menggunakan botol air mineral. GWL sempat kabur, tapi WD menangkapnya dan kembali membanting tubuh turis Brasil itu. Seusai diperkosa, pria pendatang dari luar Bali itu mengantar GWL pulang ke Villa Asri Jimbaran. 5 Bulan berselang, tepatnya di bulan Februari ini, turis asing kembali diperkosa di Bali. Kali ini, korbannya adalah seorang turis China berinisial HJT. Pelakunya, bukan driver ojol lagi, melainkan seorang pemandu wisata bernama Faisal Akbar Ramadhan, pria pendatang berusia 29 tahun dari Surabaya. Faisal ditangkap di sebuah hotel di kawasan Nusa Dua, Kuta Selatan, Badung, Bali. Fajar diamankan oleh sekuriti hotel dan teman korban setelah ketahuan memperkosa turis perempuan asal China itu. Kasus tersebut kemudian dilaporkan ke polisi. Kepala Seksi Hubungan Masyarakat (Kasi Humas) Polresta Denpasar, AKP I Ketut Sukadi mengatakan, pelaku saat ini sudah diamankan di Sat Reskrim Polresta Denpasar. Saat diinterogasi polisi, pria pendatang itu mengaku menawarkan diri sebagai pemandu wisata, sekaligus sopir pribadi HJT selama liburan di Pulau Dewata. HJT dan temannya pun sepakat menggunakan jasa Faisal untuk mengantarkan dan menemani mereka menuju ke sebuah tempat hiburan malam pada Rabu (7/2/2024). "Mereka sempat menikmati hiburan dan minum alkohol hingga pukul 01.00 Wita. Setelah itu, korban dan temannya meminta tersangka untuk mengantar mereka kembali ke hotel di kawasan Nusa Dua," ungkap Sukadi. Bukannya mengantarkan turis China itu kembali ke hotel tempatnya menginap, Faisal justru membawa mereka ke hotel lain di kawasan Benoa. Faisal lantas mengajak HJT masuk ke kamar hotel tersebut dengan alasan mengambil hadiah untuk temannya. Setelah itu, Faisal kemudian memuaskan nafsu bejatnya dan memerkosa turis China berusia 26 tahun tersebut.  Simak Video 'Ojol Pemerkosa Turis Brasil di Bali Ditangkap di Pasuruan':  [Gambas:Video 20detik]  Saksikan juga SOSOK pilihan minggu ini: Menilik Dapur Musik Vandra  [Gambas:Video 20detik]  </t>
+ Pelaku adalah laki-laki berinisial WD asal Kecamatan Bangsalsari, Kabupaten Jember, Jawa Timur (Jatim). Adapun korban pemerkosaan itu yakni turis perempuan asal Brasil berinisial GWL (26). "Korban merupakan wisatawan asal Brasil yang berlibur ke Bali dan menginap di salah satu vila di daerah Jimbaran," ungkap Kepala Bidang Hubungan Masyarakat (Kabid Humas) Polda Bali, Kombes Jansen Avitus Panjaitan. Jansen menjelaskan, GWL memesan ojol dari Puri Kelapa Quest By Bukit Villa dengan tujuan Villa Asri Jimbaran. Pesanan tersebut diambil oleh WD. "Selama dalam perjalanan korban (GWL) terus diajak mengobrol oleh pelaku sampai tidak memperhatikan map (peta) perjalanan," tutur Jansen. Sesampainya di sebuah tanah kosong, WD membelokkan motornya dan menyuruh GWL turun. Pria itu kemudian berupaya memerkosa GWL dan sempat membanting turis asing itu. Bahkan, WD sempat mencekik leher dan menutup mulut GWL. Perempuan berusia 26 tahun itu berupaya melawan dengan cara memukul WD menggunakan botol air mineral. GWL sempat kabur, tapi WD menangkapnya dan kembali membanting tubuh turis Brasil itu. Seusai diperkosa, pria pendatang dari luar Bali itu mengantar GWL pulang ke Villa Asri Jimbaran. 5 Bulan berselang, tepatnya di bulan Februari ini, turis asing kembali diperkosa di Bali. Kali ini, korbannya adalah seorang turis China berinisial HJT. Pelakunya, bukan driver ojol lagi, melainkan seorang pemandu wisata bernama Faisal Akbar Ramadhan, pria pendatang berusia 29 tahun dari Surabaya. Faisal ditangkap di sebuah hotel di kawasan Nusa Dua, Kuta Selatan, Badung, Bali. Fajar diamankan oleh sekuriti hotel dan teman korban setelah ketahuan memperkosa turis perempuan asal China itu. Kasus tersebut kemudian dilaporkan ke polisi. Kepala Seksi Hubungan Masyarakat (Kasi Humas) Polresta Denpasar, AKP I Ketut Sukadi mengatakan, pelaku saat ini sudah diamankan di Sat Reskrim Polresta Denpasar. Saat diinterogasi polisi, pria pendatang itu mengaku menawarkan diri sebagai pemandu wisata, sekaligus sopir pribadi HJT selama liburan di Pulau Dewata. HJT dan temannya pun sepakat menggunakan jasa Faisal untuk mengantarkan dan menemani mereka menuju ke sebuah tempat hiburan malam pada Rabu (7/2/2024). "Mereka sempat menikmati hiburan dan minum alkohol hingga pukul 01.00 Wita. Setelah itu, korban dan temannya meminta tersangka untuk mengantar mereka kembali ke hotel di kawasan Nusa Dua," ungkap Sukadi. Bukannya mengantarkan turis China itu kembali ke hotel tempatnya menginap, Faisal justru membawa mereka ke hotel lain di kawasan Benoa. Faisal lantas mengajak HJT masuk ke kamar hotel tersebut dengan alasan mengambil hadiah untuk temannya. Setelah itu, Faisal kemudian memuaskan nafsu bejatnya dan memerkosa turis China berusia 26 tahun tersebut.  Simak Video 'Ojol Pemerkosa Turis Brasil di Bali Ditangkap di Pasuruan':  [Gambas:Video 20detik]  Saksikan juga SOSOK pilihan minggu ini: Menilik Dapur Musik Vandra  [Gambas:Video 20detik]</t>
   </si>
   <si>
     <t xml:space="preserve">https://travel.detik.com/travel-news/d-7188122/kasus-pemerkosaan-turis-wanita-di-bali-terjadi-lagi-dan-lagi</t>
@@ -614,9 +509,6 @@
     <t xml:space="preserve">Optimisme Jatim Bisa Pertahankan Gelar Juara Umum MTQ</t>
   </si>
   <si>
-    <t xml:space="preserve">detikJatimSenin, 12 Feb 2024 05:00 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sekdaprov Jatim Adhy Karyono membuka seleksi calon peserta Musabaqah Tilawatil Qur'an (MTQ) XXX Tingkat Nasional yang dilaksanakan di Harris Hotel and Convention Malang, Minggu (11/2). Seleksi ini dibagi menjadi dua tahap. Tahap pertama dilakukan pada 11-13 Februari. Sedangkan tahap kedua berlangsung setelah Pemilu, yakni 15-17 Februari 2024. Dalam kesempatan tersebut, sekdaprov yang akrab disapa Adhy itu mengatakan bahwa Jawa Timur optimis dapat kembali membawa pulang gelar juara umum. Terlebih setelah Jatim memenangkannya pada MTQ Nasional XXIX Tahun 2022 lalu di Provinsi Kalimantan Selatan. 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
@@ -629,9 +521,6 @@
     <t xml:space="preserve">Khofifah Serahkan PLTS Atap ke Puluhan Ponpes-UMKM se-Jatim di Probolinggo</t>
   </si>
   <si>
-    <t xml:space="preserve">detikJatimSenin, 12 Feb 2024 03:00 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gubernur Jawa Timur (Jatim) Khofifah Indar Parawansa menyerahkan bantuan Pembangkit Listrik Tenaga Surya (PLTS) atap kepada Pimpinan Pondok Pesantren (Ponpes) se-Jatim dan pelaku Usaha Mikro Kecil Menengah (UMKM). Penyerahan bantuan digelar di Probolinggo. Seremoni penyerahan bantuan itu dilaksanakan di Pelabuhan Perikanan Mayangan (PPM), Kelurahan/Kecamatan Mayangan, Kota Probolinggo pada Minggu (11/2/2024) malam. Penyerahan secara simbolis itu ditandai penekanan tombol sirene dan saklar oleh Gubernur Khofifah. "Penyerahan ini untuk memaksimalkan apa yang menjadi mandat. Kebetulan ada PLTS yang belum diserahkan, oleh karena itu malam ini kami serahkan. Ada ponpes, UMKM, dan perkantoran pemerintah," kata Gubernur Khofifah. 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
@@ -644,9 +533,6 @@
     <t xml:space="preserve">Banyuwangi Borong 2 Penghargaan di Sapa Insan Budaya dan Pariwisata</t>
   </si>
   <si>
-    <t xml:space="preserve">detikJatimSenin, 12 Feb 2024 00:01 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Anjang Sapa Insan Budaya dan Pariwisata Jawa Timur menjadi ajang unjuk kebolehan kinerja pemerintah daerah di bidang budaya dan pariwisata. Dalam ajang ini, Banyuwangi berhasil memborong dua penghargaan dari Pemprov Jawa Timur. Penghargaan itu adalah Kepala Daerah Pendukung Kebudayaan Terbaik serta penghargaan atas terpilihnya Festival Gandrung Sewu dan Banyuwangi Ethno Carnival sebagai bagian dari Karisma Event Nusantara (KEN). Kegiatan Sapa Insan Budaya dan Pariwisata Jawa Timur berlangsung meriah di gedung Graha Wisata Dinas Kebudayaan dan Pariwisata Provinsi Jawa Timur Rabu (7/2) malam. Penghargaan diserahkan langsung oleh Gubernur Jawa Timur Khofifah Indar Parawansa dan diterima oleh sekretaris Daerah Mudjiono . 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
@@ -657,9 +543,6 @@
   </si>
   <si>
     <t xml:space="preserve">Jelang Pemilu, Pertamina Jamin Stok BBM Bisa Penuhi Kebutuhan Warga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detikFinanceMinggu, 11 Feb 2024 22:30 WIB</t>
   </si>
   <si>
     <t xml:space="preserve">Jelang Pemilihan Umum 2024, Pertamina memastikan pasokan bahan bakar minyak (BBM) dan LPG di sejumlah wilayah tetap aman dan bisa memenuhi kebutuhan konsumen. Seperti yang dilakukan oleh PT Pertamina Patra Niaga Regional Jawa Bagian Tengah. Area Manager Comm, Rel &amp; CSR Pertamina Patra Niaga Regional Jawa Bagian Tengah, Brasto Galih Nugroho, Minggu (11/2). "Perantau yang akan kembali ke kampung halaman untuk menggunakan hak pilihnya diprediksi akan memberikan kontribusi kenaikan konsumsi BBM +4% untuk produk gasoline dan +3% untuk produk gasoil dari rata rata konsumsi harian normal," ungkap Brasto dalam siaran pers, Minggu (11/2/2024). 
@@ -674,9 +557,6 @@
     <t xml:space="preserve">5 Kecamatan di Sampang Masuk Daerah Sangat Rawan Pemilu 2024, Mana Saja?</t>
   </si>
   <si>
-    <t xml:space="preserve">detikJatimMinggu, 11 Feb 2024 22:30 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Polres Sampang menerima 560 personel BKO dari Polda Jatim. Jumlah personel yang diperbantukan tersebut merupakan jumlah personel terbanyak dibandingkan wilayah lainnya di Jatim. Kapolres Sampang AKBP Siswantoro membenarkan adanya penebalan pengamanan untuk Sampang. Menurut Siswantoro, Sampang menjadi daerah dengan tingkat kerawanan yang cukup tinggi. "Untuk BKO Polda Jatim 560 personel ditambah BKO Brimob 5 peleton, ditambah dengan 8 unit K-9. Ini dilakukan melihat potensi keamanan masing-masing wilayah," ujar Siswantoro usai memimpin apel di Mapolres Sampang, Minggu (11/2/2024). 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
@@ -684,6 +564,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7188098/5-kecamatan-di-sampang-masuk-daerah-sangat-rawan-pemilu-2024-mana-saja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sejumlah partai politik dan caleg ikut menurunkan Alat Peraga Kampanye (APK) di wilayah masing-masing selama masa tenang Pemilu 2024. Salah satunya PDI Perjuangan (PDIP) yang dengan tegas menginstruksikan kepada seluruh kader maupun simpatisannya untuk membereskan APK secara mandiri. Ketua DPD PDIP Jatim Said Abdullah menegaskan, seluruh caleg PDIP di Jatim ikut membantu Satpol PP dan Bawaslu menurunkan berbagai APK di beberapa lokasi. Said mengatakan, partisipasi aktif dari para caleg maupun anggota partai dalam menjaga kebersihan dan keteraturan APK sangat penting untuk menciptakan suasana kondusif jelang pencoblosan. "Kita tunjukkan kepedulian kita terhadap lingkungan setempat dengan partisipasi turun ke jalan keliling. Kader PDI Perjuangan ikut membantu untuk membenahi dan membereskan seluruh Alat Peraga Kampanye yang telah terpasang di daerah masing-masing," jelas Said, Senin (12/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Selain imbauan tersebut, Said juga mengajak seluruh masyarakat Jatim turut aktif dalam pesta demokrasi 5 tahunan ini dengan menyalurkan hak pilihnya ke TPS masing-masing."Tanggal 14 Februari saya mengajak seluruh masyarakat Jawa Timur untuk hadir ke Tempat Pemungutan Suara (TPS) masing-masing, memberikan hak pilih dan hak suaranya, serta menjadi Warga Negara Indonesia yang baik dengan memenuhi kewajibannya dalam proses demokrasi," kata pria yang juga menjabat sebagai Ketua Banggar DPR RI tersebut.. Diketahui, menjelang pelaksanaan Pemilu 14 Februari 2024, Indonesia memasuki masa tenang sesuai dengan ketentuan yang diatur dalam Peraturan KPU Nomor 15 Tahun 2023 tentang Kampanye Pemilihan Umum. Masa tenang ini berlangsung selama 3 hari. Mulai 11 Februari 2024 hingga H-1 Pemilu atau 13 Februari 2024. Selama masa tenang ini, seluruh peserta pemilu, termasuk calon dan pendukungnya, dilarang untuk kampanye maupun melakukan berbagai aktivitas politik yang bisa memengaruhi opini publik. Hal ini bertujuan untuk menciptakan situasi yang kondusif dan adil menjelang hari pemungutan suara, sehingga masyarakat dapat memilih secara tenang dan rasional sesuai dengan hak suara masing-masing. Simak Video 'Momen APK di Sejumlah Daerah Mulai Dibersihkan di Masa Tenang':   [Gambas:Video 20detik] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasus pemerkosaan terhadap turis wanita di Bali terjadi lagi. Kali ini, pelakunya pemandu wisata dan korbannya turis China. Ini adalah kasus kedua yang terjadi di Bali. Masih segar dalam ingatan, beberapa bulan lalu, tepatnya pada bulan Agustus 2023, seorang turis Brasil diperkosa oleh driver ojol di Bali. Peristiwa pemerkosaan itu terjadi di sepetak tanah kosong Jalan Nyang-nyang, Kelurahan Jimbaran, Kecamatan Kuta Selatan, Kabupaten Badung. Peristiwa memilukan itu terjadi pada rentang waktu pukul 04.00 hingga 05.00 Wita, Senin (7/8/2023). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Pelaku adalah laki-laki berinisial WD asal Kecamatan Bangsalsari, Kabupaten Jember, Jawa Timur (Jatim). Adapun korban pemerkosaan itu yakni turis perempuan asal Brasil berinisial GWL (26). "Korban merupakan wisatawan asal Brasil yang berlibur ke Bali dan menginap di salah satu vila di daerah Jimbaran," ungkap Kepala Bidang Hubungan Masyarakat (Kabid Humas) Polda Bali, Kombes Jansen Avitus Panjaitan. Jansen menjelaskan, GWL memesan ojol dari Puri Kelapa Quest By Bukit Villa dengan tujuan Villa Asri Jimbaran. Pesanan tersebut diambil oleh WD. "Selama dalam perjalanan korban (GWL) terus diajak mengobrol oleh pelaku sampai tidak memperhatikan map (peta) perjalanan," tutur Jansen. Sesampainya di sebuah tanah kosong, WD membelokkan motornya dan menyuruh GWL turun. Pria itu kemudian berupaya memerkosa GWL dan sempat membanting turis asing itu. Bahkan, WD sempat mencekik leher dan menutup mulut GWL. Perempuan berusia 26 tahun itu berupaya melawan dengan cara memukul WD menggunakan botol air mineral. GWL sempat kabur, tapi WD menangkapnya dan kembali membanting tubuh turis Brasil itu. Seusai diperkosa, pria pendatang dari luar Bali itu mengantar GWL pulang ke Villa Asri Jimbaran. 5 Bulan berselang, tepatnya di bulan Februari ini, turis asing kembali diperkosa di Bali. Kali ini, korbannya adalah seorang turis China berinisial HJT. Pelakunya, bukan driver ojol lagi, melainkan seorang pemandu wisata bernama Faisal Akbar Ramadhan, pria pendatang berusia 29 tahun dari Surabaya. Faisal ditangkap di sebuah hotel di kawasan Nusa Dua, Kuta Selatan, Badung, Bali. Fajar diamankan oleh sekuriti hotel dan teman korban setelah ketahuan memperkosa turis perempuan asal China itu. Kasus tersebut kemudian dilaporkan ke polisi. Kepala Seksi Hubungan Masyarakat (Kasi Humas) Polresta Denpasar, AKP I Ketut Sukadi mengatakan, pelaku saat ini sudah diamankan di Sat Reskrim Polresta Denpasar. Saat diinterogasi polisi, pria pendatang itu mengaku menawarkan diri sebagai pemandu wisata, sekaligus sopir pribadi HJT selama liburan di Pulau Dewata. HJT dan temannya pun sepakat menggunakan jasa Faisal untuk mengantarkan dan menemani mereka menuju ke sebuah tempat hiburan malam pada Rabu (7/2/2024). "Mereka sempat menikmati hiburan dan minum alkohol hingga pukul 01.00 Wita. Setelah itu, korban dan temannya meminta tersangka untuk mengantar mereka kembali ke hotel di kawasan Nusa Dua," ungkap Sukadi. Bukannya mengantarkan turis China itu kembali ke hotel tempatnya menginap, Faisal justru membawa mereka ke hotel lain di kawasan Benoa. Faisal lantas mengajak HJT masuk ke kamar hotel tersebut dengan alasan mengambil hadiah untuk temannya. Setelah itu, Faisal kemudian memuaskan nafsu bejatnya dan memerkosa turis China berusia 26 tahun tersebut.  Simak Video 'Ojol Pemerkosa Turis Brasil di Bali Ditangkap di Pasuruan':  [Gambas:Video 20detik]  Saksikan juga SOSOK pilihan minggu ini: Menilik Dapur Musik Vandra  [Gambas:Video 20detik]  </t>
   </si>
   <si>
     <t xml:space="preserve">Seorang pemandu wisata bernama Faisal Akbar Ramadhan (29), asal Surabaya, Jawa Timur (Jatim) ditangkap polisi. Dia diciduk diduga karena memperkosa turis asal China inisial HJT di Bali. Kasi Humas Polresta Denpasar AKP I Ketut Sukadi mengatakan pelaku diringkus di sebuah hotel di kawasan Nusa Dua, Kuta Selatan, Badung, Bali. Dia diamankan oleh sekuriti hotel dan teman korban usai melancarkan aksi bejatnya itu.  "Saat ini pelaku sudah diamankan di Sat Reskrim Polresta Denpasar, sedang menjalani pemeriksaan dan penyidikan secara intensif," kata Sukadi dalam keterangannya, Sabtu (10/2/2024), melansir detikBali. 
@@ -1054,615 +946,643 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D30" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="D35" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="D37" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="B38" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="C38" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="D38" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="B39" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="D39" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="D40" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="B41" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="C41" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="D41" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="B42" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="D42" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="B43" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="C43" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="D43" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="B44" t="s">
-        <v>173</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="D44" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="B45" t="s">
-        <v>177</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="D45" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="D46" t="s">
-        <v>27</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/beritadetikjatim.xlsx
+++ b/beritadetikjatim.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t xml:space="preserve">judul</t>
   </si>
@@ -26,523 +26,10 @@
     <t xml:space="preserve">link_judul</t>
   </si>
   <si>
-    <t xml:space="preserve">Pasar Murah di Banyuwangi Diserbu Warga, Ratusan Sembako Ludes Terjual</t>
+    <t xml:space="preserve">Jelang Pemilu, Pertamina Jamin Stok BBM Bisa Penuhi Kebutuhan Warga</t>
   </si>
   <si>
     <t xml:space="preserve">2024-02-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warga Banyuwangi menyerbu pasar murah yang digelar Dinas Perindustrian dan Perdagangan Pemprov Jatim. Pasar murah ini serangkaian kunjungan Gubernur Jawa Timur Kofifah Indar Parawansa di halaman SMAN 2 Taruna Bhayangkara, Kecamatan Genteng, Minggu (11/2/2024). Ratusan warga yang memadati area pasar murah rela antre demi mendapatkan sembako murah berupa beras, telur, gula dan minyak goreng. Salah satunya Desi (28), yang mengaku terbantu dengan keberadaan pasar murah tersebut. "Alhamdulilah bisa berhemat puluhan ribu, karena harga bahan pokok seperti beras di pasar sekarang mahal," ungkap warga Genteng Kulon ini. 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- Desi menyebut, harga beras di pasaran kini berkisar Rp 70 ribu lebih per 5 kilogram. Sementara di pasar murah ini dijual dengan harga Rp 51 ribu dengan berat yang sama. Harga gula pasir di pasar murah ini dijual Rp 14 ribu, sementara di pasaran Rp 16 ribu-Rp 16.500 per kilogram. Ada juga telur yang cuma Rp 23 ribu, jauh lebih murah dibanding harga pasar antara Rp 26-27 ribu per kilogram. "Meski setiap orang hanya dibatasi dua karung beras seberat 5 kilogram, tapi ini sangat membantu kami. Harapan kami bisa sering-sering mengadakan acara pasar murah seperti ini," cetusnya. Warga lain, Kariadi (50) mengaku sengaja datang ke pasar murah tersebut untuk membeli beras. Tak sendiri, ia datang bersama salah satu anggota keluarganya. "Satu orang cuma boleh beli dua kemasan beras, jadi saya sama anak beli biar bisa untuk persediaan di rumah," kata Kariadi. Bupati Banyuwangi Ipuk Diet mengatakan, kehadiran pasar murah dapat membantu mengendalikan harga pasar sehingga berdampak pada pengendalian Inflasi Daerah. Hal tersebut selaras dengan tugas Tim Pengendali Inflasi Daerah (TPID) untuk melakukan langkah preventif dengan memastikan ketersediaan bahan pokok yang mudah dijangkau masyarakat. "Ketika ada harga kebutuhan pokok tertentu yang melesat cukup tinggi, maka toko penyeimbang akan menjual barang yang naik itu dengan harga yang sudah disubsidi. Harapannya agar harga bisa kembali stabil dan terkendali," kata Ipuk. Ketersediaan sembako murah tersebut, menurut Ipuk, menjadi salah satu yang berkontribusi pada capaian pengendalian inflasi di Banyuwangi. "Kami bersyukur berkat kekompakan stakeholder TPID dan dukungan semua mitra, pengendalian inflasi Banyuwangi selama 2023 bisa dijaga. Inflasi Banyuwangi year on year (YOY) 2023 menjadi yang terendah di Jatim yakni 2,15%. Lebih rendah dari YoY Jawa Timur (2,92%) maupun Nasional (2,61%)," pungkas Ipuk.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/bisnis/d-7187734/pasar-murah-di-banyuwangi-diserbu-warga-ratusan-sembako-ludes-terjual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Said Abdullah Tekankan Kader PDIP Jatim Tak Boleh Lengah di Masa Tenang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masa tenang akan berlangsung selama tiga hari hingga 13 Februari 2024. Di masa tersebut, Ketua DPD PDI Perjuangan Jawa Timur Said Abdullah menekankan agar anggota dan kader tak boleh lengah dan meningkatkan siaga jelang pencoblosan pada 14 Februari 2024. Untuk menjaga soliditas, Said meningkatkan koordinasi dengan pimpinan-pimpinan DPC di seluruh Jatim. Said ingin memastikan pada kadernya untuk tidak lengah dan kecolongan. "Kita tetap siaga penuh selama masa tenang kampanye menjelang pemungutan suara. Masa tenang ini bukan hari tenang, namun dalam tingkat kesiagaan," kata pria yang duduk sebagai anggota DPR RI ini, Minggu (11/02) di Banyuwangi. 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- Ketua Banggar DPR RI ini memandang bahwa masa tenang kampanye sebagai waktu paling krusial. Said meminta kepada para kader partai untuk memastikan tugas-tugasnya sudah selesai atau belum. "Saya sudah arahkan kantor DPC harus siaga penuh, buka mata buka telinga menerima laporan dari masyarakat dan menjaga suara PDI Perjuangan dan capres Ganjar-Mahfud," tegasnya. Said berharap kegiatan itu bukan kegiatan Kampanye, melainkan kegiatan penguatan saja atau patroli. "Penyelenggara pemilu ada Bawaslu yang mengawasi, partai ada juga yang mengawasi," tuturnya. Said melanjutkan dirinya mengapresiasi antusias masyarakat khususnya di Jawa Timur yang mengikuti kampanye pasangan capres dan cawapres nomor urut 03 di Banyuwangi pada Kamis, 8 Februari 2024. Hal tersebut juga menjadi kunci soliditas bagi seluruh pendukung di Jawa Timur. "Saya yakin kehadiran masyarakat di Jawa Timur sebagai bukti keyakinan mereka kepada PDI Perjuangan dan capres-cawapres yang akan dipilihnya," cetus Said.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187676/said-abdullah-tekankan-kader-pdip-jatim-tak-boleh-lengah-di-masa-tenang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hunian Tetap untuk 66 Korban Banjir Kalibaru Banyuwangi Mulai Dibangun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hunian tetap bagi 66 warga korban Banjir Bandang di Dusun Krajan, Desa Kalibaru Wetan, Kecamatan Kalibaru, Banyuwangi mulai dibangun. Penanda dimulainya pembangunan atau ground breaking hunian tetap untuk korban banjir itu diresmikan Gubernur Jatim Khofifah Indar Parawansa. Rumah pengganti itu akan dibangun di petak lahan seluas 1,17 hektare yang merupakan lahan milik PTPN XII yang telah dibeli oleh Pemprov Jatim untuk warga korban banjir di Banyuwangi. Khofifah bersyukur hunian relokasi bagi korban banjir bandang di Kalibaru bisa segera terealisasi. Pemprov sempat membutuhkan banyak waktu untuk menyiapkan lahan sesuai dengan keinginan warga. 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- Lokasi hunian relokasi itu cukup ideal karena berada di wilayah perkampungan. Lokasinya cukup dekat dengan hunian awal warga yang rusak akibat banjir bandang akhir 2022 lalu. "Tak pernah relokasi menyambung dengan kampung seperti ini. Luar biasa. Mudah-mudahan proses pembangunan berjalan lancar. Masyarakat tidak perlu beradaptasi lagi dengan lingkungan baru karena ini tempat mereka bersosialisasi," ujar Khofifah. "Ini bukan relokasi namanya, tapi pindah rumah." Sebelum lokasi itu ditetapkan, kata Khofifah, Pemprov Jatim sebenarnya telah menawarkan 2 titik lain. Namun, warga tak menghendaki karena lokasinya yang cukup jauh dari perkampungan. Hal inilah yang menurut Khofifah menyebabkan proses relokasi korban banjir bandang di Banyuwangi berlangsung lebih lama ketimbang daerah lain. Namun ia bersyukur proses pemilihan lahan bisa rampung dan pembangunan bakal segera dimulai. Secara simbolis, Khofifah meluncurkan proses pembangunan hunian relokasi bersama Bupati Banyuwangi Ipuk Fiestiandani beserta sejumlah pejabat dari PTPN XII dan Kepala Basarnas Jatim. Proses pembangunan hunian relokasi diprakirakan rampung dalam 3 bulan. Masing-masing rumah akan dibangun dengan ukuran 5 meter x 6 meter. Pembangunan rumah itu didanai anggaran Pemprov Jatim sedangkan sarana-prasarana akan dilengkapi oleh Pemkab Banyuwangi. Bupati Banyuwangi Ipuk Fiestiandani menjelaskan Pemkab siap berkolaborasi dengan menyediakan sejumlah sarana-prasarana di lingkungan baru tersebut. Sarana-prasarana itu meliputi jaringan air bersih dan listrik. "Fasilitas tambahan akan kami lengkapi, akan kami beri dukungan," tambah Ipuk. Mewakili warga, Ipuk berterima kasih kepada Pemprov Jatim atas pembangunan hunian relokasi itu. Ia juga mengajak warga untuk merawat dan menjaga lingkungan agar bencana banjir bandang tidak kembali terulang. "Mudah-mudahan pembangunan hunian ini jadi penyemangat bagi warga Kalibaru untuk menjaga apa yang telah diberikan," sambung Ipuk. Diketahui, banjir bandang yang terjadi 3 November 2022 di Kalibaru menyebabkan puluhan rumah warga rusak. Sungai Sumberbaru dataran tinggi yang berada di sekitar sungai yang dihuni ratusan warga meluap. Selama lebih dari setahun Pemkab Banyuwangi telah memberikan biaya kontrak dan perbaikan rumah warga yang huniannya rusak berat. Dengan pembangunan hunian relokasi warga akan mendapat tempat tinggal permanen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187616/hunian-tetap-untuk-66-korban-banjir-kalibaru-banyuwangi-mulai-dibangun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pesan Kapolda Jatim Saat Berangkatkan 1.013 Personel Amankan Pemilu 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polda Jatim menggelar apel terakhir pergeseran pasukan dalam rangka BKO ke wilayah-wilayah rawan untuk mengamankan Pemilu 2024. Ada 1.013 personel Polda Jatim yang BKO ke sejumlah polres yang membutuhkan penebalan pengamanan. Apel yang digelar di Lapangan Polda Jatim itu dipimpin Kapolda Jawa Timur Irjen Pol Imam Sugianto didampingi pejabat utama (PJU) Polda Jatim. Kapolda Jatim dalam arahannya mengatakan, Polda Jatim menyelenggarakan operasi kepolisian terpusat mantap Brata Semeru 2023-2024 dalam rangka pengamanan tahapan penyelenggaraan Pemilu 2024 di wilayah hukum Polda Jatim. "Beberapa hari ke depan kita akan memasuki tahapan penting dari tahapan Pemilu Serentak 2024, yaitu tahap pungut dan hitung suara tanggal 14 Februari 2024," kata Imam, Minggu (11/2/2024). 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- "Nanti personel-personel ini akan ditempatkan di TPS-TPS yang membutuhkan penebalan. Mudah-mudahan tiga hari ke depan semua terkonsolidasi dengan baik dan pengamanan TPS bekerja sama dengan TNI dan Linmas yang ditugaskan sudah siap, tanggal 14 Februari berjalan lancar," sambungnya. Imam melanjutkan, beberapa Polres sudah membuat inovasi-inovasi untuk menggugah para pemilih, terutama generasi millenial agar tertarik mendatangi TPS yang sudah ditentukan untuk menggunakan hak pilihnya. "Setelah mencoblos mereka bisa makan gratis di outlet-outlet di Surabaya, kurang lebih ada 100 ribu pemilih pertama yang menyalurkan suara," ungkap Imam. "Saya mengimbau kepada generasi muda, ayo sukseskan pemilu dengan mendatangi TPS. Mudah-mudahan partisipasi pemilih dalam Pemilu 2024 melebihi tahun 2019," lanjut dia. Sementara wilayah yang perlu mendapatkan penebalan pasukan, jelas Imam, Polresta Banyuwangi dan empat polres di Madura, terutama di Sumenep. Kemudian Polres Blitar Kota. "Kita belajar dari tahun 2019. Dulu di Madura, ada kotak suara hilang, diadakan PSU lagi, kemudian bentrokan pendukung yang fanatik antara pendukung paslon capres maupun cawapres, sampai berdampak pembakaran polsek di Sampang," jelas Imam. Ia juga mengungkapkan, ada 137 TPS rawan, di mana mayoritasnya ada di Madura. Polda Jatim juga akan menerapkan pola pengamanan TPS yang sangat rawan, yaitu dua TPS diamankan dua polisi. Polda Jatim pun sudah menyiapkan pasukan siaga untuk mengantisipasi kontigensi tiga SSK, baik Brimob maupun samapta setiap saat siap digerakkan. Berikut beberapa poin yang ditekankan Kapolda Jatim kepada pasukan dalam rangka Pam TPS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187542/pesan-kapolda-jatim-saat-berangkatkan-1-013-personel-amankan-pemilu-2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khofifah Pamit dan Mohon Doa untuk Maju di Pilgub 2024 Bareng Emil Dardak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gubernur Jawa Timur Kofifah Indar Parawansa berpamitan ke warga Banyuwangi, sekaligus meminta doa restu kembali maju di Pilgub Jatim. Ia menyatakan akan kembali maju bersama wakilnya saat ini Emil Elestianto Dardak. Gemuruh tepuk tangan dan ucapan syukur keluar dari mulut sekitar 100 warga yang hadir pada acara launching ground breaking pembangunan tempat relokasi warga pascabencana banjir bandang di Desa Kalibaru Wetan, Kecamatan Kalibaru, Kabupaten Banyuwangi, Minggu (11/2/2024). "Sekaligus menyampaikan mohon pangestu panjenengan semua, saya dan Pak Emil insyaallah akan maju kembali dalam pilgub tahun ini. Mohon doanya," ungkap Khofifah dengan senyum simpul. 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- "Mohon doa dan dukungan dari semuanya, mudah-mudahan semua berjalan lancar dan teriring dengan rida barakallah, mudah-mudahan Banyuwangi barokah, mudah-mudahan Jawa Timur barokah, mudah-mudahan Indonesia barokah, Al-Fatihah," tambah Khofifah disambut bacaan Al-Fatihah warga Bumi Blambangan. Khofifah berpamitan kepada seluruh warga Banyuwangi yang hadir lantaran hari ini merupakan masa kerja terakhirnya sebagai Gubernur Jawa Timur periode 2019-2024. "Besok itu masa akhir jabatan saya untuk periode ini. Akan ada, saya tidak tahu atau sertijab atau dalam bentuk pelantikan di Jakarta, pj atau plh tanggal 13 Februari," ucap Khofifah dalam sambutannya di hadapan Bupati Banyuwangi Ipuk Fiestiandani dan warga.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187518/khofifah-pamit-dan-mohon-doa-untuk-maju-di-pilgub-2024-bareng-emil-dardak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perkosa Turis di Bali, Pemandu Wisata Ini Ditangkap Polisi!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seorang pemandu wisata bernama Faisal Akbar Ramadhan (29), asal Surabaya, Jawa Timur (Jatim) ditangkap polisi. Dia diciduk diduga karena memperkosa turis asal China inisial HJT di Bali. Kasi Humas Polresta Denpasar AKP I Ketut Sukadi mengatakan pelaku diringkus di sebuah hotel di kawasan Nusa Dua, Kuta Selatan, Badung, Bali. Dia diamankan oleh sekuriti hotel dan teman korban usai melancarkan aksi bejatnya itu.  "Saat ini pelaku sudah diamankan di Sat Reskrim Polresta Denpasar, sedang menjalani pemeriksaan dan penyidikan secara intensif," kata Sukadi dalam keterangannya, Sabtu (10/2/2024), melansir detikBali. 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- Saat diinterogasi, Faisal mengaku awalnya menawarkan diri sebagai pemandu sekaligus sopir pribadi HJT selama berwisata di Bali. HJT dan temannya lalu menggunakan jasa Faisal untuk mengantar dan menemani mereka ke tempat hiburan malam pada Rabu (7/2/2024). "Mereka sempat menikmati hiburan dan minum alkohol hingga pukul 01.00 Wita. Setelah itu, korban dan temannya meminta tersangka untuk mengantar mereka kembali ke hotel di kawasan Nusa Dua," ungkap Sukadi. Bukannya mengantarkan turis China itu ke hotel tempat mereka menginap, pelaku malah membawa mereka ke hotel lain di kawasan Benoa. Pelaku lantas mengajak HJT masuk ke kamar hotel tersebut dengan alasan mengambil hadiah untuk diberikan kepada temannya. Saat itulah Faisal melancarkan aksi bejatnya dan memerkosa perempuan China berusia 26 tahun tersebut. Sukadi menyebut HJT yang dalam kondisi mabuk sempat berusaha menyelamatkan diri. Tapi, upaya tersebut gagal. "Korban berusaha melakukan perlawanan dengan pelaku, tetapi pelaku menutup wajah korban dengan bantal dan menyetubuhi korban," imbuh Sukadi. Akibat perbuatannya, Faisal dijerat Pasal 285 KUHP tentang pemerkosaan. Ia terancam hukuman penjara maksimal 12 tahun.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/sumut/hukum-dan-kriminal/d-7187081/perkosa-turis-di-bali-pemandu-wisata-ini-ditangkap-polisi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masa Tenang Pemilu, Polda Jatim Sebar 1.013 Personel di Daerah Rawan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kapolda Jatim Irjen Imam Sugianto mengungkapkan pihaknya menerjunkan ribuan personel saat memasuki masa tenang Pemilu 2024. Ribuan personel itu akan disebar di sejumlah titik rawan. "Kami upayakan mitigasi dan sudah tambah daerah rawan di mitigasi Sumenep dan 5 hari lalu sudah berangkat ke kepulauan di Kabupaten Sumenep," kata Imam saat ditemui awak media di Halaman Gedung Mahameru Polda Jatim, Sabtu (10/2/2024). Imam mengimbau masyarakat tetap beraktivitas seperti biasa saat masa tenang pemilu. Masa tenang Pemilu sendiri akan berlaku Minggu (11/2) hingga 13 Februari mendatang. 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- "Minggu tenang besok dan para paslon tidak ada agenda, untuk minggu tenang ini kami imbau pada masyarakat beraktivitas seperti biasa dan (diharapkan) tidak terjadi kasus-kasus yang terhubung dengan pelaksanaan hari puncak (Pemilu 2024)," ujarnya. Sementara itu, Karo Ops Polda Jatim Kombes Puji Santosa mengatakan ribuan personel telah dipersiapkan pada apel terakhir pagi ini. Seluruhnya, akan diberangkatkan pada Minggu (11/2) nanti ke sejumlah titik. "Hari ini apel dan pengecekan terakhir, total 1.013 personel, besok akan laksanakan pemberangkatan ke lokasi masing-masing," tutur Puji. Ia menyebut ribuan personel itu bakal dikirim ke 6 titik. Diantaranya Banyuwangi Kota, Bangkalan, Sampang, Pamekasan, dan Sumenep. "Untuk Madura, seluruh kabupaten kita BKO sesuai permintaan dari kapolres masing-masing. Untuk pulau Madura kita berikan penambahan sekitar 750 personel terbagi menjadi 4 kabupaten," jelasnya. "Kita bekali mereka dengan anggaran atau uang saku dan uang makan, obat-obatan atau kesehatan, mereka wajib bawa jas hujan, senter, dan lain sebagainya, kami juga berikan buku panduan untuk melaksanakan tugas pam (pengamanan) di sana," imbuh dia. Ia memastikan seluruh personel yang diberangkatkan harus netral. Terutama saat pelaksanaan pemilu di hari H nanti atau Rabu, 14 Februari 2024 mendatang. "Polri harus netral dan tidak ikut menghitung hasil pungut (pemungutan suara) pada saat pencoblosan itu, jadi mereka tidak diperbolehkan, yang penting hanya mengamankan bagaimana pelaksanaan pencoblosan aman damai sesuai aturan yang berlaku," tandas Puji.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187054/masa-tenang-pemilu-polda-jatim-sebar-1-013-personel-di-daerah-rawan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eceng Gondok Sungai Buntung Penyebab Banjir Sidoarjo Ternyata Masih Banyak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guna mengantisipasi terjadinya banjir kembali di Waru, Sidoarjo, Pemprov Jatim melalui Dinas PU Sumber Daya Air (SDA) dan BPBD melakukan pengecekan sungai-sungai di sekitaran Waru. Kadis PU SDA Jatim Baju Trihaksoro mengatakan pihaknya telah mengecek langsung sungai-sungai di wilayah Waru yang menjadi daerah aliran sungai (DAS) Sungai Brantas. Sungai yang dicek di antaranya di Sungai Buntung, Desa Tambak Oso, Kecamatan Waru, Sidoarjo. "Pagi sampai siang ini kami telah melakukan pengecekan sungai yang jadi aliran Brantas di wilayah Waru," kata Baju, dalam keterangannya, Sabtu (10/2/2024). 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- "Kami ingin pastikan keadaan sungai bersih dan tidak ada penumpukan enceng gondok, yang bisa menyebabkan penyumbatan air sehingga tidak lancar menuju muara," tambahnya Baju. Menurut Baju, salah satu sungai yang terhambat alirannya karena enceng gondok yakni Sungai Buntung. Dirinya bersama personel PU SDA Jatim, BPBD Jatim, serta Perum Jasa Tirta 1, dqn BBWS Brantas mengecek langsung kondisi terkini sungai tersebut. "Hasilnya masih terdapat koloni enceng gondok yang menyumbat aliran air Sungai Buntung dan ditengarai sebagai penyebab banjir di Kecamatan Waru beberapa hari kemarin," ujar Baju. Baju memastikan enceng gondok di Sungai Buntung akan segera dibersihkan agar aliran sungai lancar kembali dan tidak menyebabkan banjir. "Perum Jasa Tirta 1 rencananya akan membantu mengirimkan 1 unit excavator amphibi. Untuk mempercepat penanganan diperlukan koordinasi lebih lanjut terkait untuk penambahan alat guna mempercepat pekerjaan," ujarnya. "Kita juga akan mencari tempat pembuangan enceng gondok, serta memikirkan akses untuk excavator amphibi masuk. Secepatnya akan segera dibersihkan, dan akan dilakukan rapat koordinasi dengan mengundang instansi terkait untuk percepatan pelaksanaan kegiatan," tandas Mantan Kepala Dinas PU Cipta Karya ini.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187052/eceng-gondok-sungai-buntung-penyebab-banjir-sidoarjo-ternyata-masih-banyak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puluhan Ribu Buruh SKT Titip Pesan ke Ketua Projo Jatim: Matur Nuwun Jokowi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ketua DPD Pro Joko Widodo (Projo) Jawa Timur Bayu Airlangga bertemu dengan puluhan ribu buruh sigaret kretek tangan (SKT) di 4 wilayah berbeda yakni Mojokerto, Jombang, Nganjuk, dan Madiun. Dalam perjumpaannya dengan buruh SKT ini, Bayu mengaku mendapat banyak titipan aspirasi agar program-program Presiden Jokowi terus dilanjutkan. "Saya bertemu di 4 kabupaten berbeda, dan mereka semua ingin agar program Presiden Jokowi bisa diteruskan ke depan. Dan harapan buruh penerus Pak Jokowi ya Prabowo-Gibran," kata Bayu dalam keterangannya, Sabtu (10/2/2024). 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- Bayu menyebut para buruh SKT juga menyampaikan terima kasihnya kepada Presiden Jokowi yang sudah menurunkan cukai rokok SKT hingga di angka 4,7%. "Keberpihakan Pak Jokowi kepada rakyat, kepada buruh SKT diharapkan bisa diteruskan oleh penerus beliau yang akan memimpin 5 tahun ke depan," kata Bayu. Mantan Gubernur Jatim 2009-2019 yang turut hadir yakni Soekarwo (Pakde Karwo) menceritakan saat cukai SKT melambung tinggi 5 tahun silam. Kala itu cukai rokok SKT naik 16,44% berdasar Peraturan Menteri Keuangan (PMK) 152/2019 tentang Perubahan Kedua atas PMK 146/2017 tentang Tarif Cukai Hasil Tembakau. "Saya menerima masukan dari pabrik dan owner rokok SKT karena banyak PHK ketika cukai di angka 16 persen sekitar 4-5 tahun lalu. Kala itu, Hampir setengah pekerja buruh SKT di pabrik-pabrik di-PHK," ujar Pakde Karwo. "Kala itu masukan dari buruh yang saya tampung kemudian saya sampaikan langsung dan diterima Presiden Jokowi. Saat itu, Presiden yang langsung turun mengecek lapangan akhirnya ambil keputusan tidak ada kenaikan cukai untuk tahun 2021 sebagai komitmen pemerintah juga dalam recovery ekonomi saat pandemi COVID-19," tambah Pakde Karwo. Sukmini, salah satu buruh SKT asal Madiun menyampaikan terima kasihnya ke Presiden Jokowi karena telah menurunkan cukai rokok SKT dari awalnya hampir 16%, kini menjadi 4,7%. "Terima kasih Pak Jokowi yang peduli kepada buruh SKT. Ketika cukai itu di angka 16 persen, banyak PHK massal. Sekarang cukai sudah 4,7 persen, pabrik baru pakai pekerja lagi. Kami bisa bekerja lagi, saya harap penerus Pak Jokowi bisa melanjutkan program-program pro rakyat cilik," ujar Sukmini.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187078/puluhan-ribu-buruh-skt-titip-pesan-ke-ketua-projo-jatim-matur-nuwun-jokowi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Nyalla-Keponakan Khofifah Diprediksi Lolos Jadi Anggota DPD RI Versi ARCI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accurate Research and Consulting Indonesia (ARCI) merilis hasil terbaru elektabilitas calon Anggota DPD RI dari Jawa Timur. "Hasilnya, La Nyalla masih menjadi calon anggota DPD RI dengan elektabilitas tertinggi di Jawa Timur," kata Direktur ARCI Baihaki Sirajt saat paparan di Surabaya, Sabtu (10/2/2024). Baihaki kemudian menyebut peluang Keponakan Gubernur Jatim Khofifah Indar Parawansa, Lia Istifhama untuk lolos ke DPD RI sangat besar. 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- "Elektabililtas Lia Istifhama menempel La Nyalla. Ini cukup mengejutkan mengingat Lia adalah pendatang baru," jelasnya. Dari jawaban responden, Baihaki menyebut gambar-gambar keponakan Khofifah ini cukup masif di daerah-daerah. Sehingga, banyak responden yang mengetahuinya. "Dan responden juga tertarik, karena Lia menjadi representasi wakil DPD RI perempuan. Jika pada Pileg 2019 lalu representasi perempuan itu ada di Eva Zainal Abidin, yang sekarang nyaleg di Gerindra, di Pileg 2024 ini beralih ke Lia," bebernya. Selain itu, Baihaki menyebut nama DPD RI inkumben seperti Ahmad Nawardi berpeluang lolos kembali ke Senayan untuk periode 2024-2029. "Sementara Mantan Ketua KPK Agus Raharjo elektabilitasnya masih rendah. Namun, undecided voters masih tinggi di angka 28 persen," tandas Baihaki. Survei ARCI dilakukan pada 27 Januari-5 Februari 2024. Survei menggunakan metode multistage random sampling dengan jumlah sampel sebanyak 1.800 responden yang tersebar proporsional di 38 kabupaten/kota Jatim. Survei ARCI memiliki margin of error sebesar 2,8% dan tingkat kepercayaan sebesar 95%. Berikut elektabilitas Calon DPD RI dari Jatim Periode 2024-2029: 1. La Nyalla Mattalitti 20,7%2. Lia Istifhama 15,6%3. Ahmad Nawardi 7,9%4. Abdul Qodir Amir 6,9%5. Adilla Azis 6,5%6. Ayub Khan 3,9%7. Agus Raharjo 3,6%8. Kuncung Wahyudi 2,8%9. Kondang Kusumaning Ayu 1,7%10. Bambang Haryanto 0,7%11. Catur Budi Utomo 0,5%12. Doddy Dwi Nugroho 0,2%13. Muhammad Tianto 0,1%Tidak tahu/tidak menjawab 28,8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187050/la-nyalla-keponakan-khofifah-diprediksi-lolos-jadi-anggota-dpd-ri-versi-arci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hitung-hitungan TKD Jatim dengan Gabungnya Kiai Khos ke Prabowo-Gibran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-02-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tim Kampanye Daerah (TKD) melakukan kalkulasi dukungan masyarakat Jatim terhadap Prabowo-Gibran. Dukungan ini diketahui dari hasil data survei yang ada. Ketua TKD Jatim Prabowo Gibran, Boedi Prijo Suprayitno menyebut dukungan didominasi dua masyarakat dari organisasi NU dan Muhammadiyah. Hal ini didasarkan pada survei Poltracking. "Taruhlah warga NU Jatim dari 41 juta total penduduk Jatim, 60 persennya adalah warga NU atau sekitar 24 jutaan. Sementara itu, warga Muhammadiyah adalah 10 jutaan, atau 24 persen dari total penduduk Jatim dalam survei Poltracking arah dukungan warga Muhammadiyah ke Paslon 02 adalah 42 persen, sedangkan warga NU sekitar sesuai riset Poltracking per Februari adalah 60,9 persen mendukung Prabowo Gibran," papar Boedi, Sabtu (10/2/2024). 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- "Maka suara dukungan Muhammadiyah ke Prabowo Gibran, berdasar total hak pilih Jatim 31 juta, maka pemilih Muhammadiyah yang mendukung paslon 02 adalah 4,3 juta. Ditambah warga NU Jatim 60,9 persen atau berjumlah sekitar 14,616 juta maka potensi dukungan Prabowo Gibran dari NU dan Muhammadiyah di Jatim sebanyak 18,916 juta total perolehan suaranya," tambah Boedi. Boedi tidak memungkiri bahwa survei yang pernah dilakukan lembaga di Jatim turut mengaitkan kepuasan kepemimpinan Khofifah sebagai Gubernur Jatim dengan elektabilitas paslon 02. "Tercatat beberapa kiai dan pondok pesantren yang selama ini mendukung Khofifah Indar Parawansa, dipastikan mendukung Prabowo Gibran. Khofifah Effect tentu tidak hanya kiai dan pondok pesantren saja. Swing vote, pemilih milenial, hingga profesi warga Jatim juga tinggi mendukung Prabowo Gibran sebagai impact dari Khofifah Effect tersebut," jelasnya. "Taruhlah, para pelaku usaha, petani, pedagang, dan jutaan UMKM di Jatim yang telah menikmati kinerja Khofifah memimpin Jatim 5 tahun terakhir," tandas Boedi. Sementara itu, dukungan terhadap Prabowo-Gibran juga terus mengalir. Sejumlah kiai khos dan nyai di Jawa Timur. Mereka tampak turut hadir dalam acara Sholawatan Bersama Prabowo-Gibran Menang Sekali Putaran' yang digelar TKD Jatim 02 di Jatim Expo Surabaya. Dianantaranya hadir KH M Anwar Manshur, yang merupakan cucu pendiri Ponpes Lirboyo KH Abd Karim. Deretan kiai khos dan alim lainnya juga muncul di barisan paslon 02 antara lain, KH Fuad Noerhasan, Pengasuh Ponpes Sidogiri, Pasuruan. Mereka berdua secara bergiliran memanjatkan doa diamini puluhan ribu massa jemaah solawatan yang hadur. Kiai Anwar Manshur, kemudian KH Fuad Noerhasan, dan KH Anwar Iskandar, Rois Syuriah PBNU, yang juga pendiri Ponpes As Saidiyaj, Kota Kediri ini, membacakan doa khusus. "Kabulkan Prabowo Gibran menjadi Presiden dan Wakil Presiden RI, di Pemilu 2024, dan Bu Khofifah Indar Parawansa, jadi Gubernur dua periode," ujarnya. Dengan kehadiran tokoh kiai khos dan alim di Jawa Timur, ini tentu akan diikuti oleh masyarakat NU yang berprinsip nderek kiai (ikut kiai,red). Sedikitnya 31 juta lebih pemilih yang masuk di daftar pemilih tetap (DPT) akan menggunakan suaranya di Pemilu dan Pilpres 2024, besok. Berikut daftar Kiai yang mendukung Prabowo Gibran di Jatim: KH. Anwar Mansur Pp Lirboyo KediriKH. Fuad Nur Hasan Pp SidogiriKH. Anwar Iskandar Pp Al Amin KediriKH. Abdul Ghofur Pp. Sunan Drajat LamonganKH Agus Ubaidillah Faqih Langitan Tuban Kh. M. Hasan Mutawakkil Alallah Pp Genggong ProbolinggoKH. Asep Saifuddin Chalim Pp Ammanatul Ummah MojokertoKH. Muchlis Alawy Pp Attaroqqi Tsani SampangKH. Syafiuddin Wahid SampangKH. Abdul Hamid Mannan Pamekasan Ibu Nyai Mahfudhoh Wahab Hasbullah Pp Tambakberas Ibu Nyai MasrurohKH. Hasib Wahab Hasbullah Pp TambakberasKH. Fahrur Rozi Pp An-nur I MalangKH. Abdul Qodir Pp Al Qodariyah Sumenep Kh. Nurullah Pp Al IstifadahKH. Ghozali Pp Lanbulan Sampang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187010/hitung-hitungan-tkd-jatim-dengan-gabungnya-kiai-khos-ke-prabowo-gibran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 Amalan Bulan Syaban yang Disunnahkan, Yuk Amalkan!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulan Syaban 1445 H jatuh pada tanggal 11 Februari 2024 dalam penanggalan Masehi. Terdapat sejumlah amalan yang dianjurkan untuk dikerjakan umat Islam. Lantas, apa saja amalan bulan Syaban yang dapat dikerjakan? Melansir NU Online Jatim, Syaban menjadi salah satu bulan yang biasa dilupakan karena diapit dua bulan mulia yaitu Rajab dan Ramadhan. Padahal, Syaban merupakan bulan diangkatnya amal-amal manusia sebagaimana sabda Rasulullah SAW berikut: 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- ذاكَ شهر تغفل الناس فِيه عنه ، بين رجب ورمضان ، وهو شهر ترفع فيه الأعمال إلى رب العالمين، وأحب أن يرفع عملي وأنا صائم -- حديث صحيح رواه أبو داود النسائي Artinya: Bulan Syaban adalah bulan yang biasa dilupakan orang, karena letaknya berada di antara Rajab dengan Ramadan. Bulan Syaban adalah bulan diangkatnya amal-amal. Karenanya, aku menginginkan pada saat diangkatnya amalku, aku dalam keadaan sedang berpuasa. (HR Abu Dawud dan Nasa'i) Untuk itu, umat muslim dianjurkan memperbanyak amalan di bulan Syaban. Nah, berikut 8 amalan bulan Syaban lengkap dengan keistimewaannya yang dilansir dari buku Kalender Ibadah Sepanjang Tahun oleh Ustaz Abdullah Faqih Ahmad Abdul Wahid. Yuk, disimak! 1. Berdoa di Bulan Syaban Memasuki bulan Syaban, terdapat doa yang dibaca Rasulullah SAW. Berikut bacaan doanya lengkap Arab, Latin, dan artinya: اللَّهُمَّ بَارِكْ لَنَا فِي رَجَبَ وَشَعْبَانَ وَبَلِّغْنَا رَمَضَانَ Arab Latin: Allaahumma baarik lanaa fii rajaba wa sya'baana wa ballighnaa ramadhaana Artinya: "Ya Allah, berkahilah kami di bulan Rajab dan Syaban, dan sampaikanlah kami kepada bulan Ramadhan." Doa tersebut dianjurkan untuk dibaca berulang kali ketika memasuki bulan Syaban. Pasalnya, semakin sering dibaca maka semakin besar pahalanya. Selain itu, ada pula doa lainnya yang biasa dibaca oleh para sahabat Nabi SAW di bulan Rajab dan Syaban. Bacaan doanya sebagai berikut: اللَّهُمَّ سَلَّمْنِي لِرَمَضَانَ وَسَلَّمْ لِي رَمَضَانَ وَتَسَلَّمْهُ مِنِّي مُتَقَبَّلا Arab Latin: Allaahumma sallimnii liramadhaana wasallim lii ramadhaana wa tasallam-hu minni mutaqabbalan Artinya: "Ya Allah, antarkanlah aku hingga sampai Ramadhan, dan antarkanlah Ramadhan kepadaku, dan terimalah amal-amalku di bulan Ramadhan." 2. Berdoa di Malam Nifsu Syaban Malam Nifsu Syaban menjadi salah satu waktu istimewa dalam ajaran Islam. Di waktu ini, umat muslim juga dianjurkan memanjatkan doa kepada Allah. Doa yang dilafalkan dikutip oleh para ulama dari doa Nabi Adam ketika turun ke Bumi, thawaf tujuh kali di Ka'bah, dan salat dua rakaat di belakang maqam. Berikut bacaan doanya: اللَّهُمَّ إِنَّكَ تَعْلَمُ سِرِّي وَعَلَانِيَتِي فَاقْبَلْ مَعْذِرَتِي، وَتَعْلَمُ حَاجَتِي فَأَعْطِنِي سُؤَلِي، وَتَعْلَمُ مَا فِي نَفْسِي فَاغْفِرْ لِي ذَنْبِي اللَّهُمَّ إِنِّي أَسْأَلُكَ إِيْمَانًا يُبَاشِرُ قَلْبِيْ وَيَقِيْنَا صَادِقًا حَتَّى أَعْلَمَ أَنَّهُ لَا يُصِيبُنِي إِلَّا مَا كَتَبْتَ لِي وَرَضِنِي بِقَضَائِكَ Arab Latin: Allaahumma innaka ta'lamu sirrii wa 'alaaniyati faqbal ma'dzirati, wata'lamu haajatii fa'thinii suaa-li, wata'lamu maa fii nafsii faghfir lii dzambii. Allaahumma innii as-aluka imaanan yubasyiru qalbii wa yaqiinan shaadiqan hattaa a'lamu annahu laa yushiibunii illaa maa katabta lii waraddani biqadhaa-ik. Artinya: "Ya Allah, sungguh Engkau tahu apa yang tersembunyi dan tampak dariku, karena itu terimalah penyesalanku. Engkau tahu kebutuhanku, maka kabulkanlah permintaanku. Engkau tahu apa yang ada dalam diriku, maka ampunilah dosaku. Ya Allah sungguh aku memohon kepada-Mu iman yang menyentuh kalbuku dan keyakinan yang benar sehingga aku tahu bahwa tidak akan menimpaku kecuali telah Engkau tetapkan atasku. Ya Allah berikanlah rasa rela terhadap apa yang Engkau bagi untuk diriku." 3. Berpuasa di Bulan Syaban Amalan sunah selanjutnya yaitu dengan melaksanakan puasa. Umat muslim yang mengerjakannya tidak terikat pada ketentuan khusus sehingga tidak ada tanggal atau hari tertentu untuk mengerjakannya. Apabila dikerjakan, pahala yang didapatkan sangat besar karena bulan Syaban termasuk ke dalam bulan mulia. Untuk itu, berikut beberapa puasa yang bisa dikerjakan selama bulan Syaban. Sebagian ulama berpendapat bahwa puasa di pertengahan bulan Syaban hukumnya sunnah. Sebagaimana sabda Rasulullah SAW berikut ini: "Jika tiba waktu malam nisfu Syaban, maka beribadahlah di malamnya dan puasalah di siangnya, karena sesungguhnya Allah Ta'ala menurunkan rahmat-Nya mulai tenggelamnya matahari (Maghrib) di langit dunia dan berfirman, 'Siapa yang meminta ampun akan Aku ampuni. Siapa yang minta rezeki akan Aku beri rezeki. Siapa yang terkena musibah akan Aku sembuhkan. Siapa yang minta ini dan itu seterusnya, sampai waktu terbitnya fajar (matahari)." (HR. Ibnu Majah). Rasulullah SAW memperbanyak puasa sebagai salah satu amalan pada bulan Syaban. Bahkan, dalam sebuah hadis disebutkan bahwa Rasulullah SAW berpuasa sunah di bulan ini hampir satu bulan penuh. Sebagaimana pernah dikatakan Aisyah RA dalam hadis riwayat Bukhari dan Muslim berikut: "Saya tidak pernah melihat Rasulullah SWT melakukan puasa satu bulan penuh kecuali pada bulan Ramadhan. Dan, saya juga tidak pernah melihatnya sangat banyak melakukan puasa selain pada bulan Syaban." (HR. Bukhari dan Muslim). Dalam hadis riwayat Tirmidzi dan Nasa'i juga disebutkan bahwa Ummu Salamah sebagai berikut: "Saya tidak pernah melihat Rasulullah SAW berpuasa dua bulan berturut-turut, kecuali pada bulan Syaban dan bulan Ramadhan." Beberapa hadits meriwayatkan bahwa hari Kamis dan Senin di bulan Syaban memiliki keistimewaan yang luar biasa apabila diisi dengan berpuasa. Berpuasa pada hari Kamis di bulan Syaban sendiri termasuk salah satu amalan yang memiliki keutamaan. Dalam sebuah hadis dijelaskan bahwa pada hari Kamis bulan Syaban para malaikat sibuk menghiasi langit. Kemudian mereka berseru, "Wahai Tuhan kami, ampunilah orang- orang yang berpuasa pada hari ini dan kabulkanlah doa mereka." Selain itu, Rasulullah SAW bersabda sebagai berikut: "Barang siapa berpuasa pada hari Senin dan Kamis di bulan Syaban, maka Allah SWT akan mengabulkan kepentingan dunia dan akhiratnya masing-masing dua puluh kepentingan." 4. Membaca Surah Yasin di Malam Nifsu Syaban Amalan berikutnya yang bisa dikerjakan adalah membaca surah Yasin di malam Nifsu Syaban. Waktu pengerjaannya yaitu setelah salat magrib dan lebih utama jika dikerjakan bersama-sama. Adapun amalan yang sangat dianjurkan ini dikerjakan secara berturut-turut sebanyak tiga kali. Bacaan pertama diniatkan untuk meminta umur panjang yang diisi dengan ketaatan kepada Allah SWT. Bacaan Yasin kedua diniatkan agar dijaga dari semua bahaya dan diberi keluasan rezeki yang baik serta halal. Bacaan yang ketiga diniatkan agar hati merasa cukup dan dianugerahi husnul khatimah. Apabila telah selesai membaca surah Yasin, umat muslim disunahkan membaca doa berikut: بِسْمِ اللهِ الرَّحْمَنِ الرَّحِيمِ. اللَّهُمَّ يَا ذَا الْمَنِّ وَلَا يُمَنُ عَلَيْهِ، يَا ذَا الْجَلَالِ وَالْإِكْرَامِ، يَا ذَا الطَّوْلِ وَالْإِنْعَامِ، لَا إِلَهَ إِلَّا أَنْتَ ظَهْرَ اللَّاجِيْنَ، وَجَارَ الْمُسْتَجِيْرِينَ، وَمَأْمَنَ الْخَائِفِينَ اللَّهُمَّ إِنْ كُنْتَ كَتَبْتَنِيْ عِنْدَكَ فِي أُمَ الْكِتَابِ شَقِيًّا أَوْ مَحْرُوْمًا أَوْ مَطْرُوْدًا أَوْ مُقَتَّرًا عَلَيَّ فِي الرِّزْقِ فَامْحُ مِنْ أُمَ الْكِتَابِ شَقَاوَتِي وَحِرْمَانِي وَتَقْتِيرَ رِزْقِي، وَأَثْبِتْنِي عِنْدَكَ سَعِيدًا مَرْزُوْقًا مُوَفَقًا لِلْخَيْرَاتِ، فَإِنَّكَ قُلْتَ وَقَوْلُكَ الْحَقُّ فِي كِتَابِكَ الْمُنْزَلِ عَلَى لِسَانِ نَبِيِّكَ الْمُرْسَلِ يَمْحُو اللَّهُ مَا يَشَاءُ وَيُثْبِتُ وَعِنْدَهُ أُمُّ الْكِتَابِ). إِلهِي بِالتَّجَلِي الْأَعْظَمِ فِي لَيْلَةِ النِصْفِ مِنْ شَعْبَانَ الْمُكَرَمِ الَّتِي يُفْرَقُ فِيْهَا كُلُّ أَمْرٍ حَكِيمٍ وَيُبْرَمُ، إِكْشِفْ عَنِّي مِنَ الْبَلَاءِ مَا أَعْلَمُ وَمَا لَا أَعْلَمُ وَاغْفِرْ لِي مَا أَنْتَ بِهِ أَعْلَمُ إِنَّكَ أَنْتَ الْأَعَزُ الْأَكْرَمُ. وَصَلَّى اللَّهُ تَعَالَى عَلَىسَيِّدِنَا مُحَمَّدٍ وَعَلَى آلِهِ وَصَحْبِهِ وَسَلَّمَ Arab Latin: Bismillaahir rahmaanir rahim. Allaahumma yaa dzal manni wa laa yumannu 'alaika yaa dzal jalaali wal ikraam, yaa dzath thauli wal in'aam. Laa ilaaha illaa anta zhahral laajiina wajaaral mustajiiriina wa ma' manal khaa-ifiin. Allaahumma in kunta katabtanaa indaka fii ummil kitaabi asyiqiyaa'a au mahruumiina au muqtarran 'alaina fir rizqi fahumllaahumma bifadhlika syaqaawatanaa wa hirmaananaa wa iqtaara arzaaqinaa wa atsbitnaa 'indaka fii ummil kitaabi su'adaa'a marzuuqina muwaffaqiin lil khairaat. Fa- innaka qulta waqaulukal haqqu fii kitaabikal munzali 'alaa lisaani nabiyyikal mursal, yamhullaahu maa yasyaa-u wa yutsbitu wa 'indahu ummul kitaab. Ilaahii bit tajallil a'zhami fii lailatin nishfi min syahri sya'baanal mukarram allatii yufraqu fiiha kullu amrin hakiimin wa yubram nas-aluka an taksyifa 'annaa minal balaa-i maa na'lamu wa maa laa na'lam, wa maa anta bihi a'larna. Innaka antal a'azzul akram. Wa shallallaahu 'alaa sayyidinaa muhammadin wa 'alaa aalihi wa shahbihi wa sallam. Artinya: "Dengan menyebut nama Allah yang Maha pemurah lagi Maha Penyayang. Ya Allah, wahai Dzat yang mempunyai anugerah, dan Engkau tidak diberi anugerah, wahai Dzat yang mempunyai kebesaran dan kemuliaan, wahai Dzat yang mempunyai kekuasaan dan memberikan kenikmatan, tiada Tuhan melainkan Engkau. Engkau- lah Penolong orang-orang yang memohon pertolongan, Pelindung orang-orang yang mencari perlindungan, dan Pemberi Keamanan kepada orang-orang yang ketakutan. Ya Allah, jika Engkau mencatat kami di sisi-Mu dalam induk catatan sebagai orang-orang yang celaka, terhalang dari rahmat-Mu dijauhkan dari-Mu, atau disempitkan dalam mendapat rezeki, dengan karunia-Mu, ya Allah, hapuskanlah kecelakaan kami, keterhalangan kami, kejauhan kami dari rahmat-Mu, dan kesempitan rezeki kami. Dan tetapkanlah kami di sisi-Mu dalam catatan sebagai orang-orang yang berbahagia, diberi rezeki yang luas, serta diberi petunjuk menuju kebajikan. Karena sesungguhnya Engkau telah berfirman dalam kitab-Mu yang telah diturunkan kepada rasul-Mu, sedangkan firman-Mu itu benar, Allah menghapus dan menetapkan apa yang dikehendaki-Nya dan di sisi-Nya terdapat induk kitab. Tuhan kami, dengan tajalli-Mu (penampakan sifat-Mu) Yang Maha Besar pada malam Nishfu Sya'ban yang mulia ini, saat setiap urusan dibedakan dan ditetapkan di dalamnya, kami memohon kepada-Mu agar Engkau palingkan kami dari segala bencana, baik yang kami ketahui maupun yang tidak kami ketahui. Sesungguhnya, Engkau Dzat Yang Paling Mulia dan Paling Pemurah. Dan, semoga Allah senantiasa memberi rahmat serta kesejahteraan kepada junjungan kami Nabi Muhammad, keluarganya, dan sahabatnya." Doa lainnya yang bisa dibaca setelah membaca surah Yasin diambil dari Syekh Abdul Qadir Jailani. Berikut rincian bacaan doa dan terjemahannya: اللَّهُمَّ إِذْ أَطْلَعْتَ لَيْلَةَ النِّصْفِ مِنْ شَعْبَانَ عَلَى خَلْقِكَ، فَعُدْ عَلَيْنَا بِمَنِكَ وَعِتْقِكَ، وَقَدِرْ لَنَا مِنْ فَضْلِكَ، وَوَسِعْ رِزْقَكَ، وَاجْعَلْنَا مِمَّنْ يَقُوْمُ لَكَ فِيْهَا بِبَعْضِ حَقِكَ. اللَّهُمَّ مَنْ قَضَيْتَ فِيْهَا بِوَفَاتِهِ فَاقْضِ مَعَ ذَلِكَ رَحْمَتَكَ، وَمَنْ قَدَّرْتَ طُولَ حَيَاتِهِ فَاجْعَلْ مَعَ ذَلِكَ نِعْمَتَكَ، وَبَلَغْنَا مَا لَا تَبْلُغُ الْآمَالُ إِلَيْهِ يَا خَيْرَ مَنْ وَقَفَتِ الْأَقْدَامُ بَيْنَ يَدَيْهِ يَارَبَّ الْعَالَمِينَ، بِرَحْمَتِكَ يَا أَرْحَمَ الرَّاحِمِينَ. وَصَلَّى اللهُ تَعَالَى عَلَى سَيِّدِنَا مُحَمَّدٍ خَيْرِ خَلْقِهِ وَعَلَى آلِهِوَصَحْبِهِ أَجْمَعِينَ Arab Latin: Allahumma idz ath-la'ta lailatan nishfi min sya'baana 'alaa khalqika, fa'ud 'alainaa bimannika wa 'itqika, wa qaddir lanaa min fadhlika, wa wassi' rizqaka, waj'alnaa mimman yaquumu laka fiihaa biba'dhi haqqika. Allahumma man qadhaita fiihaa biwafaatihi faqdhi ma'a dzaalika rahmataka, wa man qaddarta thuula hayaatihi faj'al ma'a dzaalika ni'mataka, wa ballighnaa maa laa tablughul aamaalu ilaihi yaa khaira man waqafatil aqdaamu baina yadaihi yaa rabbal 'aalamiina, birahmatika yaa arhamar raahimiina. Wa shallallahu ta'aalaa 'alaa sayyidinaa muhammadin khairi khalqihi wa 'alaa aalihi wa shahbihi ajma'iina. Artinya: "Ya Allah, jika Engkau telah memunculkan malam Nisfu Sya'ban pada makhluk-Mu maka curahkan atas kami anugerah dan pembebasan-Mu (dari neraka), takdirkanlah untuk kami kebaikan dari keutamaan-Mu, perluaslah curahan rezeki-Mu untuk kami, jadikanlah kami di malam itu termasuk orang yang bangkit melaksanakan hak-Mu. Ya Allah, orang yang Engkau tentukan takdirnya di malam itu dengan kematiannya, maka bersamakanlah dengan rahmat-Mu, dan orang yang Engkau takdirkan berumur panjang maka jadikanlah rahmat-Mu bersamanya, dan sampaikanlah kami pada tujuan mulia yang tidak tercapai oleh angan-angan, wahai sebaik-baik Dzat yang bersimpuh di hadapan-Nya semua telapak kaki, wahai Tuhan sekalian alam, dengan rahmat-Mu, wahai Dzat Yang Paling Pengasih. Semoga shalawat Allah tercurah pada junjungan kami Nabi Muhammad, sebaik-baik makhluk, dan atas keluarga serta sahabat kesemuanya." 5. Berdzikir Pada bulan Syaban ini, umat muslim juga dianjurkan untuk memperbanyak dzikir sebagai bentuk penghambaan kepada Allah SWT. Bentuk dzikir yang biasa dilakukan oleh para ulama yaitu sebagai berikut: Dzikir yang pertama yaitu dengan membaca istighfar. Bacaan istighfar ini dibaca sebanyak 70 kali setiap harinya. Berikut bacaan dan terjemahannya: أَسْتَغْفِرُ اللهَ وَأَسْأَلُهُ التَّوْبَةَ Arab Latin: Astaghfirullaaha wa as-aluhut taubah Artinya: "Aku memohon ampun kepada Allah dan aku meminta kepada-Nya agar diterima tobatku." Selain itu, bacaan istighfar berikut ini juga bisa dibaca sepanjang bulan Syaban: أَسْتَغْفِرُ اللهَ الَّذِي لَا إِلَهَ إِلَّا هُوَ الرَّحْمَنُ الرَّحِيمُ الْحَيُّ الْقَيُّومُ وَأَتُوْبُ إِلَيْهِ Arab Latin: Astaghfirullaahaladzii laa ilaaha illaa huwar rahmaanur rahiimul hayyul qayyuumu wa atuubu ilaih Artinya: "Aku memohon ampun kepada Allah, tiada Tuhan selain Dia, Yang Maha Pengasih, Maha Penyayang, Yang Maha Hidup, Yang Maha Berdiri Sendiri, dan aku bertobat kepada-Nya." Selanjutnya yaitu membaca bacaan dzikir sebanyak 70 kali setiap harinya. Berikut rincian bacaannya: لَا إِلَهَ إِلَّا اللهُ وَلَا نَعْبُدُ إِلَّا إِيَّاهُ مُخْلِصِينَ لَهُ الدِّينَ وَلَوْ كَرِهَ الْمُشْرِكُونَ Arab Latin: Laa ilaaha illallaahu wa laa na'budu illaa iyyahu mukhlishiina lahud diina wa lau karihal musyrikuuna Artinya: "Tiada Tuhan selain Allah dan kami tidak menyembah selain kepada-Nya dengan memurnikan ketaatan kepada-Nya meskipun orang-orang musyrik membencinya." 6. Bersedekah Amalan yang dianjurkan pada bulan Syaban selanjutnya yaitu bersedekah. Sebagaimana diriwayatkan Imam Shadiq ketika ditanya tentang amalan terbaik di bulan Syaban. Imam Shadiq mengatakan bersedekah dan beristighfar merupakan amalan terbaik. Sebagaimana yang dijelaskannya sebagai berikut: "Bershadaqah dan membaca istighfar. Barang siapa bershadaqah di bulan Sya'ban, maka Allah Swt. akan memelihara shadaqah tersebut sebagaimana salah seorang dari kalian memelihara anak untanya, sehingga pada hari kiamat, shadaqah tersebut sampai di tangan pemiliknya sebesar Gunung Uhud." 7. Melakukan Salat Sunah Salat sunnah dianjurkan untuk dilakukan setiap hari Kamis pada bulan Syaban. Salat sunah bulan Syaban ini dikerjakan sebanyak dua rakaat. Pada masing-masing rakaat membaca al-Fatihah kemudian diikuti surah pendek al-Ikhlas yang dibaca sebanyak 100 kali. Kemudian, setelah salam dianjurkan untuk membaca shalawat sebanyak 100 kali. 8. Berpuasa Ayyamul Bidh Amalan terakhir yang dianjurkan untuk dilakukan pada bulan Syaban yaitu berpuasa Ayyamul Bidh. Puasa Ayyamul Bidh merupakan puasa pertengahan bulan pada tanggal 13, 14, dan 15 dalam penanggalan Hijriah. Dinukil dari laman NU Online, puasa Ayyamul Bidh dimulai dengan membaca niat puasa mutlak, seperti "Saya niat puasa". Namun, lebih baik membaca niat khususnya sebagai berikut: نَوَيْتُ صَوْمَ أَيَّامِ الْبِيْضِ لِلّٰهِ تَعَالَى Arab Latin: Nawaitu shauma ayyâmil bîdl lilâhi ta'âlâ Artinya: "Saya niat puasa Ayyamul Bidl (hari-hari yang malamnya cerah), karena Allah ta'âlâ." Keistimewaan Bulan Syaban Keistimewaan bulan Syaban ditafsirkan oleh beberapa ulama sebagai yang penuh dengan kemuliaan. Masih melansir buku Kalender Ibadah Sepanjang Tahun, berikut daftar keistimewaan bulan Syaban: Demikianlah amalan yang dapat dikerjakan pada bulan Syaban lengkap dengan keistimewaannya. Diamalkan ya, detikers!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/sulsel/berita/d-7187007/8-amalan-bulan-syaban-yang-disunnahkan-yuk-amalkan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ahok Sindir Kinerja Jokowi dan Gibran, Emil Dardak Pasang Badan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emil Dardak, juru Bicara Gibran Rakabuming Raka buka suara terkait kritikan Ahok yang bertanya kinerja Presiden Jokowi dan Wali Kota Solo Gibran Rakabuming Raka. Pernyataan Ahok viral di media sosial dan belakangan Ahok sendiri merasa bahwa kalimatnya itu dipotong di video viral. Emil menyebut kritik dari Ahok senantiasa diterima sebagai masukan oleh Gibran. Emil menyebut Gibran lapang dada mendapat kritik dari Ahok. "Semua kritik diterima oleh Gibran dengan lapang dada," kata Emil di Surabaya, Sabtu (10/2/2024). 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- Menurut Emil, Gibran justru mengapresiasi kinerja Ahok selama ini mulai memimpin DKI Jakarta hingga memimpin dewan komisaris di Pertamina. "Gibran mengatakan Bang Ahok relatif baik kinerjanya dan menjadi rujukan," tambahnya. Meski begitu, Wagub Jatim ini menegaskan Gibran sosok pekerja keras dan bisa bekerja. Hal itu dibuktikan dengan capaian di Kota Surakarta. "Saya berpendapat Gibran bisa kerja. Saya sudah melakukan penelaahan empiris apa yang dilakukan Gibran dalam memimpin Solo," ujarnya. "Jadi saya rasa semua pandangan-pandangan itu kita hormati bahwa ada pihak-pihak yang punya pandangan lain itu jadi sarana untuk introspeksi diri semakin berbenah ke depannya. Kita ikuti keteladanan Gibran yang senantiasa lapang dada menerima masukan dan saran," tandasnya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186998/ahok-sindir-kinerja-jokowi-dan-gibran-emil-dardak-pasang-badan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUI Jatim Sebut Golput Haram Jika Bawa Mudarat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUI Jatim meminta agar semua warga menggunakan hak pilihnya pada 14 Februari 2024 mendatang. MUI lalu mengimbau masyarakat agar tak golput. Ketua Umum MUI Jatim KH Mutawakkil Alallah mengatakan tidak ada capres-cawapres yang sempurna. Sebab menurutnya setiap calon pasti punya kelebihan dan kekurangan. "Yang jelas semua capres dan cawapres ada tiga ini adalah kader-kader dan tokoh-tokoh terbaik bangsa. Dan tentu kita tidak akan menemukan manusia yang sempurna, pasti di samping kelebihan ada kekurangan. Oleh karena itu pilih salah satu dari tiga ini yang diyakini untuk menjadi pemimpin nasional untuk memberi kesejahteraan ke rakyat," kata Mutawakkil di Surabaya, Sabtu (10/2/2024). 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- "Jangan sia-siakan hak pilih, kalau sampai golput dan mengakibatkan kegagalan pemilu itu dosa hukumnya haram karena itu membawa mudarat kepada umat bangsa dan negara. Akan menjadikan tatanan pemerintahan Indonesia semrawut," tambahnya. Menurut Mutawakkil, menggunakan hak pilih dalam demokrasi sesuai dengan ajaran Islam. Sebab, hal itu merupakan bagian dari menjaga kedaulatan negara. "Pemilu ini pemenuhan negara terhadap kedaulatan rakyat. Seluruh masyarakat, seluruh umat yang memiliki hak pilih gunakan hak pilihnya pada 14 Februari nanti, pilih pilpres sampai DPR, karena ini untuk keberlanjutan estafet nasional ini bagian menjaga kedaulatan negara," ujarnya. "Menjaga kedaulatan negara sama wajibnya menjaga martabat dan nilai agama. Golput bukan pilihan, tapi menyia-nyiakan hak yang diberi Allah itu lebih tidak baik," tambahnya. Pengasuh Ponpes Genggong Probolinggo ini berharap Pemilu 2024 bisa berjalan dengan baik, lancar, jujur, adil, dan bisa melahirkan pemimpin terbaik. "Kita berharap pemilu berjalan dengan damai, jurdil, dan Allah menganugerahkan bangsa kita pemimpin yang bisa membawa negara ini menjadi negara maju, adil, makmur, adil, sejahtera, gemah ripah, menjadi bangsa bermartabat dan dihagai oleh bangsa-bangsa lain di dunia," ujarnya. "Ingat golput kalau sampai mengakibatkan gagalnya pemilu sehingga rusaknya tatanan pemerintah, tentu itu haram, karena membawa mudarat," tandasnya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186956/mui-jatim-sebut-golput-haram-jika-bawa-mudarat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kisah Cordo Tuban, Nama Lahirnya Panjang 19 Kata hingga Sulit Bikin Akta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pada 6 Januari 2019, lahir seorang anak bernama Rangga Madhipa Sutra Jiwa Cordosega Akre Askhala Mughal Ilkhanat Akbar Sahara Pi-Thariq Ziyad Syaifudin Quthuz Khoshala Sura Talenta. Namanya panjang hingga 19 kata. Ia akrab dipanggil Cordo. Ia merupakan buah hati atau putra kedua dari pasangan Arif Akbar (29) dan Suci Nur Aisyiah (26), yang tinggal di Desa Ngujuran, Kecamatan Bancar, Tuban. Karena namanya terlalu panjang, Cordo kesulitan mendapatkan akta lahir. Itu seperti yang disampaikan sang ayah. 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- "Iya sudah beberapa kali ke kantor Dukcapil Tuban. Informasi yang kita dapat katanya di SIAK namanya melebihi 50 karakter. Ini lho sudah tiga tahun," jelas Arif saat dihubungi detikJatim, Senin ( 4/10/2021). Nama untuk Data Dukcapil Maksimal 55 Karakter Nama Cordo lebih dari 55 karakter bahkan mencapai 132 karakter. Sehingga tidak bisa masuk data Dukcapil. Itu seperti yang disampaikan Kepala Dinas Kependudukan dan Catatan Sipil (Dukcapil) Tuban, Ubait Rohman. Menurutnya, semua dokumen kependudukan itu terintegrasi dengan pusat, yang terkoneksi dengan Sistem Informasi Administrasi Kependudukan (SIAK). "Dukcapil itu sistemnya sudah diatur oleh pusat dan nasional. Melalui SIAK yang ada di Dirjen Dukcapil. Terkait aturan juga sudah digariskan di sana. Mulai dari sistemnya, aplikasinya juga," kata Ubait. "Jadi di dalam pengisian database itu ada aplikasinya. Dalam penulisan nama warga atau penduduk, baik itu yang baru lahir maupun yang belum terdata, itu semua sudah ada aplikasinya yang telah ditetapkan oleh Direktorat Jenderal itu sebanyak 55 karakter (nama). Jadi kalau melebihi 55 karakter ya tidak bisa dimasukkan," imbuhnya. Nama Cordo yang Capai 19 Kata Pemberian Paman Sang Ayah Arif menuturkan, nama yang terdiri dari 19 kata atau 115 huruf itu merupakan hasil diskusi bersama pamannya Mujoko Zahid. Yang merupakan budayawan asal Bumi Ronggolawe Tuban. Menurutnya, nama tersebut mempunyai makna yang sangat luas. "Harapan kami semoga anak itu kelak berpenalaran landung selandung namanya. Dan Menjadi inspirasi peradaban umat manusia," kata Arif kepada detikcom, Selasa (12/2/2019). Sang ayah menambahkan, nama putra keduanya itu memiliki hubungan dengan sejarah nama Kota Teladan Islam. Dengan harapan, kelak anak tersebut bisa menjadi tokoh yang mendunia. "Maknanya anak itu kelak menjadi tokoh dunia yang mendunia. Menjadi diri yang tidak berpikir lokal, sempit atau primordial. Tetapi mempunyai wawasan global sekaligus memiliki karsa dan power untuk merealisasikan wawasan besarnya. Kuat namun berjiwa lembut yang welas asih," terang Arif. Nama Cordo yang Capai 19 Kata Disarankan Diganti Dukcapil Tuban menyarankan agar nama Cordo diganti. Menanggapi hal itu, Arif pada dasarnya menyayangkan jika harus sampai mengganti nama anak. Sebab nama itu berisi doa dan harapan. "Saya disuruh mengubah nama anak, padahal nama tersemat doa untuk kebaikannya. Kalau harapan tentu bisa diproses aktanya, karena saat masuk TK akta dibutuhkan," kata Arif. Arif akan bersedia mengubah nama Cordo jika ada surat keterangan resmi dari Dukcapil Tuban. Namun selama ada celah untuk memperjuangkan nama anak sepanjang 19 kata itu, ia akan terus memperjuangkannya. "Kalau untuk mengganti nama kami siap kok. Asalkan saya minta satu lembar kertas surat dari Dinas Catatan Sipil Tuban bahwa nama tersebut dilarang, atau tidak boleh. Itu saja. (Jika) surat ditandatangani dan distempel pihak terkait dan sudah kami terima, insyaallah kami ganti namanya. Saya taat hukum," tutur Arif. Nama Cordo Diganti dan Dapat Akta Lahir Nama Cordo jadi lebih pendek yakni R - Akbar Zudan Cordosega Sura Talenta. Pergantian nama bocah tersebut terjadi setelah adanya komunikasi yang intens dari Dirjen Dukcapil Kemendagri, Zudan Arif Fakrulloh dengan Arif dan tokoh adat Desa Ngujuran, Mujoko Sahid. Mujoko yang juga merupakan paman dari Arif menceritakan alasan mengapa pihaknya mau mengganti nama Cordo. Menurutnya, pihaknya luluh dengan sikap humanis yang ditunjukkan Zudan. Yang santun, terbuka, informatif dan berorientasi pada solusi. "Itulah mengapa kami bersedia mengganti nama lengkap Cordosega karena terkena apa yang kami sebut istilahnya sebagai 'pasal sungkan'. Saya sungkan dengan Pak Prof Zudan yang memberikan nasihat dan saran yang bisa membuat kami legowo," ungkap Mujoko, Rabu (10/11/2021). "Melalui kejadian ini, kami menjadi percaya bahwa cara-cara seperti yang dilakukan Prof Zudan ini, bahwa dengan ketulusan silaturahmi, itu kunci solusi untuk segala problem di NKRI," imbuhnya. Zudan mendatangi rumah Arif untuk memberikan secara langsung dokumen kependudukan milik Cordo. Seperti Akta Kelahiran, KK dan Kartu Identitas Anak (KIA). "Meski demikian, nama Cordosega yang sebelumnya (19 kata), silahkan tetap menjadi nama adat baginya sehingga ketentuan adat tetap berlaku," terang Zudan, Rabu (10/11/2021). Ia juga menjelaskan, nama R - Akbar Zudan Cordosega Sura Talenta dapat diakomodir dalam Sistem Informasi Administrasi Kependudukan (SIAK). Sehingga proses pengurusan berbagai dokumen kependudukan dapat dilakukan. "Yang penting untuk kepentingan negara, nama lengkap terbaru dari ananda Cordosega kami resmikan di dokumen kependudukan, agar mendapatkan berbagai pelayanan publik dengan mudah ke depannya," imbuh Zudan.  Jatim Flashback adalah rubrik spesial detikJatim yang mengulas peristiwa-peristiwa di Jawa Timur serta menjadi perhatian besar pada masa lalu. Jatim Flashback diharapkan bisa memutar kembali memori pembaca setia detikJatim. Jatim Flashback tayang setiap hari Sabtu. Ingin mencari artikel-artikel lain di rubrik Jatim Flashback? Klik di sini.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186817/kisah-cordo-tuban-nama-lahirnya-panjang-19-kata-hingga-sulit-bikin-akta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kejayaan PDIP dan PKB di Jatim Terancam Dua Partai Ini Versi ARCI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominasi PKB dan PDIP di Jawa Timur terancam diusik oleh dua partai ini. Hal itu tergambar dalam survei Accurate Research and Consulting Indonesia (ARCI). Direktur ARCI Baihaki Sirajt menyebut Gerindra dan Golkar berpotensi menyalip PDIP bahkan PKB di Jawa Timur jika lengah di menit akhir. "Selisih antara 4 partai teratas di Jatim ini sangat tipis. Dan jika lengah di hari-hari akhir Pemilu, bisa jadi ada kejutan besar dua kekuatan partai tradisional di Jatim bisa dikalahkan oleh Gerindra atau bahkan Golkar," kata Baihaki saat paparan survei di Surabaya, Sabtu (10/2/2024). 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- Dalam survei ARCI di Jatim, elektabilitas PKB di angka 17,7% dan berada di peringkat teratas. Menguntit di peringkat kedua ada PDI Perjuangan (PDIP) di angka 16,1%. Sementara Gerindra di posisi ketiga di angka 15,8%, dan Golkar 14,7% melengkapi 4 besar. Baihaki membeberkan tren PKB di Jatim cenderung naik namun angkanya sangat kecil. Sementara PDIP trennya justru terus menurun. "PKB stagnan agak naik sedikit. Berbanding terbalik dengan PDIP yang justru perlahan turun sedikit demi sedikit," ungkapnya. Baihaki juga membeberkan Gerindra meraih coattail effect dari majunya Prabowo Subianto. Sementara, kerja keras kader Golkar Jatim dan efek elektoral Gibran berpengaruh ke elektabilitas Partai Berlambang Beringin. "Gerindra mengalami kenaikan perlahan berkat coattail effect Prabowo. Sementara Golkar trennya cukup mengejutkan, dan temuan kami ada limpahan suara PDIP ke Golkar di Jawa Timur karena faktor Gibran Rakabuming Raka yang notabene putra Jokowi," jelas Baihaki. "Beberapa responden memilih Golkar, karena mereka menilai Gibran sudah menjadi kader Golkar. Kita ingat kala itu Gibran diusulkan Golkar jadi cawapres Prabowo. Jadi Golkar dapat limpahan elektoral Gibran dari pemilih Jokowi dulu yang ada di PDIP," tambahnya. Namun, Baihaki menyebut apapun masih bisa terjadi di Pileg 2024 ini mengingat 3 hari jelang coblosan sangat krusial. "Karena Pileg ini, 3 hari menjelang coblosan menjadi penentu, terutama untuk menjaga suara," tandasnya. Survei ARCI dilakukan pada 27 Januari-5 Februari 2024. Survei menggunakan metode multistage random sampling dengan jumlah sampel sebanyak 1.800 responden yang tersebar proporsional di 38 kabupaten/kota Jatim. Survei ARCI memiliki margin of error sebesar 2,8% dan tingkat kepercayaan sebesar 95%. Berikut elektabilitas partai politik di Jawa Timur versi ARCI: 1. PKB 17,7%2. PDIP 16,1%3. Gerindra 15,8%4. Golkar 14,7%5. Demokrat 8,2%6. NasDem 6,7%7. PKS 5,8%8. PAN 5,1%9. PPP 4,1%10. PSI 1,5%11. Perindo 1,2%12. PBB 1,2%13. Gelora 0,5%14. Hanura 0,1%15. PKN 0,1%16. Ummat 0%17. Garuda 0%18. Buruh 0%Tidak tahu/tidak menjawab 1,2%.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186779/kejayaan-pdip-dan-pkb-di-jatim-terancam-dua-partai-ini-versi-arci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GMNI Jatim Gelar Aksi Serukan Pemilu Damai Tanpa Provokasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Massa yang terdiri dari mahasiswa sejumlah kampus di Jatim menggelar aksi menyerukan pemilu damai. Mereka menyampaikan seruan damai di Taman Makam Pahlawan (TMP) Mayjend Sungkono Surabaya. Ketua DPD GMNI Jatim Hendra Prayogi mengatakan seruan damai kebangsaan bertajuk 'Pemilu Damai Tanpa Provokasi' itu merupakan bukti dan tekad untuk menjunjung tinggi nilai-nilai demokrasi. Begitu juga dengan kedamaian dan keadilan dalam pelaksanaan Pemilu 2024 pada 14 Februari 2024. "Aksi kami hari ini mencerminkan semangat persatuan, hingga menyoroti peran vital pemuda dan mahasiswa sebagai garda terdepan dalam mewujudkan pemilu yang damai, jujur, dan adil," kata Hendra saat ditemui di TMP Mayjend Sungkono Surabaya, Sabtu (10/2/2024). 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- Hendra meyakini masa depan negara Indonesia ada pada partisipasi para pemuda secara aktif. Begitu juga dari seluruh elemen masyarakat. Hendra mengajak masyarakat untuk bersama-sama menggunakan hak pilih pada Pemilu 2024. Karena mencoblos secara bermartabat akan memberikan harapan baru bagi tanah air. "Secara esensi, pemilu adalah momentum dan ujian bagi seluruh elemen bangsa, seberapa jauh nilai nilai demokrasi telah menjadi bagian dari jati diri bangsa Indonesia, sekaligus menjadi proses pembelajaran dalam rangka pendewasaan bangsa," ujarnya. Nilai demokrasi, sambung dia, yang dimaksud yakni merampungkan perselisihan secara damai dan sukarela. Lalu, menjamin terjadinya perubahan secara damai, pergantian penguasa dengan teratur, hingga adanya pengakuan terhadap nilai keberagaman, pengakuan, dan jaminan atas tegaknya keadilan. Berikut beberapa poin yang diserukan dalam aksi tersebut: 1. Pemilu damai tanpa provokasi, ini menjadi penting untuk diketahui oleh seluruh anak bangsa, seluruh elemen masyarakat agar tidak menjadikan pemilu sebagai sebab atau pun menjadikan pemilu pemecah bela bangsa. 2. Kami sadar bahwa bangsa kita ini didirikan tidak mudah, banyak pengorbanan pahlawan kita hari ini. Kami mendesak dan menyerukan generasi bangsa, mahasiswa dan elemen seluruh masyarakat untuk mengutamakan persatuan dan kesatuan. 3. Mendesak pada seluruh pejabat negara untuk berpedoman selalu berada di jalur jalur Pancasila dan UU dasar 1945.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186612/gmni-jatim-gelar-aksi-serukan-pemilu-damai-tanpa-provokasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puncak Arus Balik Libur Panjang Imlek di Jatim Diprediksi Terjadi Besok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puncak arus balik masyarakat usai libur panjang Isra Miraj dan tahun baru Imlek diprediksi terjadi besok (11/2/2024). Diprediksi, kepadatan kendaraan akan terjadi, baik di jalan raya maupun di jalan tol. Kakorlantas Polri Irjen Aan Suhanan memastikan pihaknya telah melakukan sejumlah antisipasi. Baik di kawasan kabupaten atau kota, terutama di jalanan yang dinilai bakal menjadi penumpukan arus lalin saat arus balik nanti. "Kita siapkan untuk antisipasi dan lakukan survei dan rapat-rapat arus balik diperkirakan besok tanggal 11 Februari dari timur ke barat, maupun sebaliknya dan seterusnya, mungkin dari kabupaten ke kota, sudah kami antisipasi," kata Aan saat sesi doorstop di Halaman Gedung Mahameru Polda Jatim, Sabtu (10/2/2024). 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- Ia memastikan, telah menyebar sejumlah personel lalu lintas di jalan raya. Terutama, di 3 titik rawan kemacetan atau kepadatan volume lalin. Aan juga menegaskan, sudah ada cara yang kerap dilakukan pihaknya saat libur panjang serupa. Diantaranya melakukan contra flow maupun oneway. "Kalau kita kluster ada 3 ruas jalan ya kalau bicara kemacetan, ada tol, arteri, wisata, dan pelabuhan penyeberangan, sudah diantisipasi semua, sudah kita siapkan rekayasa contra flow dan one way, termasuk yang ke pelabuhan, Insyaallah bisa kita kelola dengan baik," ujarnya. Selain itu, Aan mengimbau para pengendara yang akan melakukan arus balik tetap ekstra hati-hati dan waspada. Kurangi kecepatan kendaraan dan saling menjunjung toleransi di jalan. "Meredam emosi di jalan, harus toleransi sesama pengguna jalan yang lain," tuturnya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186534/puncak-arus-balik-libur-panjang-imlek-di-jatim-diprediksi-terjadi-besok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bubaran Haul Akbar di Surabaya Sempat Macetkan Suramadu hingga 2 Km</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jembatan Suramadu arah Madura macet hingga kurang lebih 2 kilo meter. Hal ini dikarenakan adanya haul akbar di pondok pesantren (Ponpes) di Jalan Kedinding Lor. Dari video yang beredar di beberapa akun media sosial, tampak kemacetan panjang di ruas roda 4 Jembatan Suramadu arah Madura. Kemacetan terjadi pukul 13.41 WIB sepanjang kurang lebih 2 km, bahkan sebelum Jembatan Suramadu. Dalam video tersebut juga dijelaskan ada banyak bus yang parkir di pinggir jalan menjemput jemaah haul akbar di Jalan Kedinding. Sedangkan untuk ruas roda dua terlihat lancar. 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- Kanit PJR 8 Jatim Suramadu AKP Agus Wibowo menyebut, kemacetan itu disebabkan oleh bubaran haul akbar di Jalan Kedinding Lor. Pihak kepolisian juga telah dikerahkan. "Ada haul akbar di Ponpes Al-Fithrah Kedinding," kata AKP Agus saat dihubungi detikJatim, Minggu (11/2/2024) Agus menjelaskan acara haul akbar di Ponpes Al-Fithrah Kedinding sudah berlangsung sejak kemarin Sabtu (10/2). Hari ini kegiatan sudah selesai dan pihak kepolisian mengatur lalu lintas. "Acaranya sudah dari kemarin dan sore ini tinggal bubaran. Personil dari Polres Tanjung Perak selaku pemangku wilyah sudah di lokasi dari kemarin," jelasnya. Sementara Kasat Lantas Polres Tanjung Perak AKP Moch Suud menjelaskan kegiatan haul akbar di Ponpes Al-Fithrah sudah selesai dan bubaran pukul 12.00 WIB. Karena jemaah ada 10 ribu lebih, maka otomatis ketika selesai acara cukup macet. Pada pukul 16.30 WIB, jalan sudah normal dan lancar kembali. Baik dari arah Surabaya ke Madura maupun sebaliknya. "Kegiatan Sabtu dan Minggu. Minggu jam 12.00 WIB selesai acara, efeknya bubaran, macetnya siang hari. Pukul 16.30 WIB anggota melaporkan sudah clear, arah balik lancar, normal. Kenapa padat? Karena imbas bubaran jemaah, kantung parkir di jalur lambat di Lapangan Tembak Surabaya mereka harus nyebrang ke busnya, lebih dari 10 ribu jemaah nyebrang itu yang jadi hambatan" jelasnya. Sedangkan untuk parkir bus, Suud menyebut sedang diparkir di jalur lambat. Bus sedang menunggu jemaah yang sudah selesai mengikuti haul akbar. "Jalan ada jalur lambat dan cepat, bus itu parkir di jalur lambat. Volume menyebrang. Bisa dilaporkan jemaah itu 10 ribu lebih. Kalau bubaran otomatis padat," pungkasnya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187947/bubaran-haul-akbar-di-surabaya-sempat-macetkan-suramadu-hingga-2-km</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMKN Maritim di Brondong Lamongan Diresmikan Gubernur Khofifah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gubernur Jatim Khofifah Indar Parawansa meresmikan Sekolah Menengah Kejuruan (SMK) Negeri Maritim Jawa Timur di Brondong Lamongan. Hadirnya sekolah ini menjadi bentuk ketanggapan pemerintah daerah dalam menghadirkan pendidikan terbaik di bidang vokasi atau keahlian berbasis maritim. "Vokasi-vokasi yang memang dibutuhkan oleh berbagai sektor itu akan terus kita siapkan. Karena pada dasarnya technical skill yang dibutuhkan oleh berbagai sektor kita harus difasilitasi bersama," ujar Khofifah saat meresmikan SMKN Maritim Jawa Timur di Brondong, Sabtu (10/2/2024). Khofifah berharap dengan berdirinya SMKN Maritim, Disdik Jatim mampu bersinergi dengan Koarmada II (Komando Armada II) atau Mabes AL. Khofifah menyebut mentoring dari TNI angkatan laut akan menjadi bagian dari penguatan. Tidak sekadar di sektor maritim, sektor perikanan, tapi juga membangun penguatan ke-Nusantara-an. 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- "Tidak sekedar di sektor maritim, sektor perikanan, tapi kalau bersama TNI AL ini adalah bagian dari penguatan Nusantara seluruh hal-hal yang membangun penguatan ke nusantaraan kita akan mensinergikan," ujarnya. Hadirnya SMKN Maritim di Lamongan disambut baik oleh Bupati Lamongan Yuhronur Efendi. Menurut, Bupati Yes, SMKN maritim dapat mendorong kualitas generasi masa depan, khususnya dalam rangka peningkatan kualitas sumber daya manusia. "Terlebih Lamongan dengan potensi pantai sepanjang 47 km, produksi perikanan hampir 87.000 ton di tahun 2023, dan tercatat sekitar 60.000 warga bekerja di sektor perikanan, dengan jumlah perahu sekitar 3.423, menjadi penguat keterampilan dan keahlian," jelasnya. Kepala Dinas Pendidikan Provinsi Jawa Timur Aries Agung Paewai mengatakan secara historis SMKN Maritim telah diajukan izin pendirian dan operasional sejak 30 April 2019. SMKN Maritim Dibangun secara bertahap selama 4 tahun di lahan seluas 38.950 meter persegi. SMKN Maritim ini juga telah dilengkapi 2 ruang praktik siswa, 4 ruang kelas, asrama dua lantai dengan kapasitas 32 ruang dengan fasilitas kamar mandi dan pendukung lainnya, gedung kantor, fasilitas-fasilitas alat praktek, hingga lainnya. Usai diresmikan, SMKN Maritim akan mulai membuka Penerima Peserta Didik Baru (PPDB) pada Februari - Maret 2024 untuk gelombang 1 dan April - Mei 2024 untuk gelombang 2. Kuota untuk sekolah maritim tingkat atas ini sebanyak 108 siswa untuk konsentrasi keahlian yakni nautikal kapal penangkapan ikan, technica kapal penangkapan ikan, dan agrobisnis pengelolaan hasil perikanan. Saat peresmian, Khofifah didampingi Bupati Lamongan Yuhronur Efendi, Kepala Dinas Pendidikan Provinsi Jawa Timur Aries Agung Paewai, Wakil Bupati Lamongan Abdul Rouf. Selain itu, hadir pula Asops Koarmada II Kolonel Laut (P) Heri Prihartono.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187051/smkn-maritim-di-brondong-lamongan-diresmikan-gubernur-khofifah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Said Abdullah Harap Pemilu 2024 Tak Dikotori dan Dinodai Teror: Biarlah Alami</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kampanye hari terakhir dimanfaatkan para relawan Ganjar Pranowo-Mahfud Md di Sumenep untuk mengoptimalkan dukungan pada paslon nomor urut 03. Salah satunya dengan menggelar kegiatan jalan-jalan sehat hingga pasar rakyat. Ketua DPD PDI Perjuangan Jatim Said Abdullah mengaku yakin Ganjar-Mahfud akan menang Pilpres 2024. Said optimistis Ganjar-Mahfud akan meraup suara 37 sampai 39 persen saat Pemilu nanti.Dalam kesempatan ini, Said Abdullah ditemani Bupati Sumenep Achmad Fauzi yang juga Ketua DPC PDI Perjuangan Sumenep. Keduanya berbaur dengan ribuan relawan dalam acara yang digelar di depan Museum Keraton Sumenep. Said Abdullah berharap, Pemilu berjalan tanpa ada paksaan kepada rakyat untuk memilih calon tertentu. 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- "Nanti hasilnya akan ditentukan oleh rakyat dan semoga pemilihan ini tidak kotor, tidak dinodai oleh yang aneh-aneh, pemaksaan dan sebagainya apalagi teror, biarlah alami, kalau ada kata-kata klise yang selalu diteriakkan jujur adil terbuka dan sebagainya," kata Said Abdullah, Sabtu (10/02/2024). Said yang juga Ketua Banggar DPR RI itu yakin rakyat bisa datang ke TPS untuk menggunakan hak pilihnya tanpa ada paksaan apalagi teror dari siapapun. "Ketika rakyat-rakyat sudah menentukan pilihannya dengan cara yang legal, yang disediakan oleh undang-undang, saya haqqul yakin Ganjar Pranowo akan menang, insyaallah Ganjar Pranowo sekitar 37 sampai 39 persen," kata Said yang juga putra Sumenep asli itu. Sementara itu, Said berharap, masyarakat Sumenep akan menyambut dengan riang gembira kegiatan penutup kampanye tersebut. "Terima kasih kepada seluruh masyarakat Sumenep dan saya berharap sampai acara nanti malam akan penuh kedamaian, riang gembira kita bersatu padu layaknya masyarakat Sumenep," kata Said. Menurut Said, berbeda pilihan itu soal lumrah. Namun yang terpenting, para pemilih tetap bersama-sama menjaga situasi kondusif dan tidak boleh ada pemaksaan kepada siapapun untuk memilih paslon sesuai keinginannya. "Pilihan itu adalah pilihan hati nurani, tidak bisa siapapun memaksa-maksa dan kondisi ini saya berharap sampai tanggal 14 Februari dan seterusnya," harap Said.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186417/said-abdullah-harap-pemilu-2024-tak-dikotori-dan-dinodai-teror-biarlah-alami</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear Warga RI! Fotokopi KTP Tak Lagi Berlaku Mulai Tahun Ini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pemerintah tengah berupaya untuk menggantikan penggunaan identitas kependudukan masyarakat, dari semula Kartu Tanda Penduduk (KTP) dengan Identitas Kependudukan Digital (IKD). Ditargetkan pada tahun 2024 ini proses peralihan tersebut akan rampung. Itu tandanya, era fotokopi KTP sudah tidak lagi berlaku ke depannya. Sebab, di masa mendatang, penggunannya berubah yang dilakukan secara digital. Di awal 2024, Presiden Joko Widodo (Jokowi) telah menginstruksikan untuk mempercepat transformasi digital dan keterpaduan melalui Digital ID atau IKD, pembayaran digital, dan pertukaran data untuk interoperabilitas layanan publik yang berorientasi kepada pengguna. 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
-   Terkait instruksi tersebut, Kementerian Dalam Negeri (Kemendagri) pun gencar melakukan percepatan pengembangan Sistem Pemerintahan Berbasis Elektronik (SPBE). "Secara spesifik, Ditjen Dukcapil memiliki peran penting dalam penyediaan IKD dan menjadi basis dalam proses pertukaran data (data exchange), terutama dalam memastikan keamanan dan keandalan data kependudukan," ujar Kemendagri beberapa waktu lalu. Sebagai informasi, IKD adalah identitas digital nasional, yaitu berupa alat untuk membuktikan identitas pengguna secara online ketika mengakses layanan pemerintah dan swasta. Kemendagri juga telah merilis aplikasi IKD yang bisa diakses lewat HP, baik pengguna smartphone berbasis Android dan iOS. Hal yang mencolok dari perubahan e-KTP menjadi IKD ini nantinya pelayanan publik tak lagi memerlukan fotokopi KTP. Persoalan tersebut yang sering dihadapi masyarakat ketika mengurus suatu dokumen. "IKD diharapkan dapat meningkatkan aksesibilitas dan efisiensi masyarakat terhadap layanan pemerintah maupun swasta. Pertama, IKD dapat memvisualisasikan KTP secara digital (menjadi KTP Digital) agar tidak diperlukan lagi fotokopi KTP," kata Kemendagri. Kemendagri menyebutkan sejak IKD diluncurkan pada tahun 2022 hingga saat ini (10 Januari 2024), lebih dari 7.316.449 jiwa telah memiliki Identitas Digital. Saat ini bank, seperti BNI, Bank Jatim, BPR Urban Bali dan BPR Danagung Ramulti sudah menggunakan IKD untuk proses pembukaan rekening secara lebih cepat dan aman.   Selain itu, di dalam aplikasi IKD, masyarakat dapat melakukan pelayanan adminduk seperti melaporkan kelahiran anak, melaporkan kematian, permohonan surat keterangan pindah, pisah atau pecah Kartu Keluarga, dan lainnya. "Ke depan, pengayaan fitur akan terus dilakukan untuk meningkatkan user experience dan kemudahan pengguna dalam melakukan aktivasi IKD tanpa harus datang ke kantor Dinas Dukcapil," pungkas Kemendagri.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://inet.detik.com/law-and-policy/d-7186066/dear-warga-ri-fotokopi-ktp-tak-lagi-berlaku-mulai-tahun-ini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kakorlantas Polri Sebut Jatim Sumbang Laka Lantas Tertinggi Setelah Jakarta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indeks keselamatan berlalu lintas di Indonesia dinilai masih jauh dari harapan. Bahkan, diklaim masih di bawah beberapa negara lain di Asia Tenggara. Kakorlantas Polri Irjen Aan Suhanan mengatakan, pihaknya menargetkan indeks keselamatan di 1,37 persen atau jumlah korban fatalitas sampai tahun 2025, diharapkan hanya berkisar pada 27 ribu. Menurutnya, jumlah fatalitas laka lantas di Indonesia, termasuk Jatim setiap tahun selalu naik. "Nanti kita lihat sudah sampai mana korban laka lantas ini, sudah tercapai atau tidak, lalu kita bandingkan dengan negara Asia Tenggara, kita ingin indeks keselamatan teratas di Asia Tenggara, tapi faktanya keselamatan berlalu lintas di Indonesia hanya di rangking 4 terburuk, bukan di atas, bisa kita lihat negara-negara lain di Singapura, Filipina, dan lain-lain jauh lebih baik," kata Aan saat pemaparan materi Gebyar Keselamatan 2024 di Gedung Mahameru Polda Jatim, Sabtu (10/2/2024). 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- "Artinya, kita perlu effort yang lebih keras lagi, komunitas lalin menjadi duta kita, duta Polri, duta pemerintah untuk menjaga keselamatan berlalu lintas. Jatim sendiri memang menyumbang angka laka lantas cukup tinggi, ada di rangking kedua setelah Jakarta, tahun lalu 2023 tertinggi, alhamdulillah tahun ini ada di rangking kedua," imbuhnya. Aan mengaku prihatin lantaran data kecelakaan lalu lintas di Indonesia dari tahun ke tahun terus meningkat. Menurutnya, ada kenaikan 10 persen pada tingkat fatalitas korban atau sekitar 27.596 orang. Apabila dibandingkan jumlah penduduk atau kendaraan bermotor di Indonesia, Aan memprediksi masih jauh dari target keselamatan di tahun 2025. Ia menyebut, target yang sudah ditentukan di tahun 2025 masih cukup jauh, yakni di 9,9 persen. "Artinya, perlu kerja keras untuk realisasikan target, masih 9,9 indeks keselamatan Indonesia. Di tahun 2024 ini jumlah laka lantas harus turun, itu perintah Pak Kapolda Jatim (Irjen Imam Sugianto) juga, bukan angkanya yang diturunkan tapi diubah," bebernya. "Sekarang yang dinilai adalah upayanya dari para Kasat Lantas bagaimana mengajak teman-teman untuk bersama-sama memberikan edukasi dan sosialisasi bersama para stakeholder untuk menurunkan angka laka lantas, mulai dari pendataan, blackspot, sampai penanganan laka lantas," imbuh Aan. Aan menyatakan, ada data yang sangat memprihatinkan. Sebab, dari data dan hasil rekapitulasi korban laka lantas, angka terbesar adalah usia-usia produktif. Mulai usia 15 sampai 59 tahun, yakni para pelajar, mahasiswa, hingga karyawan. "Angkanya tetap, 3 tahun berturut-turut dan menjadi korban laka lantas," sambungnya. Untuk jenis kelamin para korban, Aan memastikan adalah tulang punggung keluarga. Mulai dari suami, orangtua, atau bapak. "Artinya, kalau ortu yang jadi korban laka lantas bisa dipastikan akan ada 1 orang janda, kalau punya anak akan ada anak yatim, akibatnya luar biasa terhadap perekonomian keluarga, negara, dan seterusnya," papar Aan. "Karena 84 persen korban meninggal dunia akibat laka lantas adalah pria sebagai tulang punggung keluarga, ini menjadi referensi kita untuk sosialisasi dan edukasi betapa laka lantas ini mengakibatkan kemiskinan, terutama untuk keluarga," tambahnya. Lalu, untuk jenis kendaraan yang terlibat laka lantas di tahun 2021 sampai 2023, masih didominasi roda 2. Bahkan, masih menjadi rangking pertama selama 3 tahun berturut-turut. "Untuk faktor penyebab laka lantas angka secara nasional ini perilaku jaga jarak sering jadi penyebab laka lantas, bisa over speed, lalu tidak bisa mengerem, lalu terjadi tabrakan, dan seterusnya," jelasnya. Dari data ini, ia ingin masyarakat dan komunitas serta para produsen kendaraan untuk bersama-sama meningkatkan keselamatan berlalu lintas. Menurutnya, Jatim menjadi sasaran penekanan dan pencegahan laka lantas karena dinilai masih cukup tinggi setelah Jakarta. Berdasarkan data yang dihimpun Mabes Polri, Aan mengaku tengah berupaya dan mengkoordinasikan serta mengembangkan TI untuk mengelola keselamatan berlalu lintas. Supaya, bisa sejajar dengan negara-negara lain di Asia Tenggara. "Kita lihat sudah mulai banyak pengembangan melalui riset, dan lain-lain terhadap keselamatan berlalu lintas terutama pada roda 2 karena sangat rentan laka lantas. Data dari PBB memang roda 2 ini adalah yang paling fatal, karena tidak ada rumah luar, begitu jatuh langsung ke aspal," ungkap Aan. "Ini tanggung jawab kita, mulai dari Bapenda, Dishub, PUPR, Binamarga, polisi, sehingga bisa menekan jumlah fatalitas laka lantas, untuk para Kasatlantas di Jatim manfaatkan informasi dari kita untuk mengelola keselamatan berlalu lintas, tidak hanya patroli, tidak hanya jalan-jalan, tapi tentukan pada data yang ada, sehingga tepat sasaran," tutupnya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186225/kakorlantas-polri-sebut-jatim-sumbang-laka-lantas-tertinggi-setelah-jakarta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peringati HPN 2024, TKD Jatim Prabowo-Gibran Perhatikan Kesehatan Wartawan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKD Jatim 02 Prabowo Subianto-Gibran Rakabuming Raka memberi perhatian khusus kepada para jurnalis di Hari Pers Nasional (HPN) yang jatuh pada Jumat (9/2/2024). Pemeriksaan kesehatan hingga suplemen diberikan pada para jurnalis. Selain itu, TKD Jatim Prabowo-Gibran juga mengucapkan selamat Hari Pers Nasional. TKD Jatim berharap, di HPN 2024 kali ini, pers dapat tumbuh bersama dan berkembang baik, khususnya di Jawa Timur dan Indonesia. Ketua TKD Jatim Prabowo-Gibran, Boedi Prijo Soeprajitno menghargai kinerja semua jurnalis yang bekerja di Jawa Timur dan Indonesia, karena di masa Pemilu, kerja para jurnalis tentu sangat berat. 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- "Kami mengulik sedikit, kami apresiasi kinerja jurnalis. Selamat Hari Pers Nasional ya, semoga pers tumbuh sehat dan baik di bumi tercinta," ujar Boedi di Jatim Expo Surabaya, Jumat (9/2/2024). Boedi Prijo juga mengirimkan tim untuk mengecek kesehatan dan memberikan vitamin gratis bagi para rekan media di HPN 2024 ini. "Di hari yang spesial, Hari Pers Nasional ini kita melakukan tes kesehatan dan pemberian vitamin untuk teman-teman media, sesuai tema Hari Pers Nasional 2024 ini yakni Mengawal Transisi Kepemimpinan Nasional dan Menjaga Keutuhan Bangsa, maka rekan media harus tetap sehat untuk mengawal tugas besar itu dengan baik," ujar Boedi. "Saya harapkan pemeriksaan kesehatan dan pemberian vitamin ini bisa dilakukan secara rutin ke depan, sehingga seluruh teman-teman terjaga kesehatannya. Sehat lahirnya, sehat batinnya dan sehat dompetnya," ungkap mantan Kepala Bapenda Jatim ini berkelakar. Tim kesehatan di lokasi, Dr Makhyan Jibril Al Farabi berpesan agar jurnalis tidak melupakan kesehatannya. Terlebih selama Pemilu. "Terutama kinerja awak media di lapangan, yang setiap hari tak kenal waktu, siang malam, panas dan hujan bertugas di lapangan selama Pemilu ini. Yang paling penting dari cek kesehatan dan berbagi vitamin gratis ini, teman-teman media bisa memastikan bahwa mereka sehat selalu dalam menjalankan pekerjaannya," pesan dr Jibril. Menurut Jibril, vitamin yang diberikan juga akan membantu menjaga daya tahan dan mencegah terjadinya penyakit. Apalagi ketika jurnalis harus kerja maraton ke sana ke mari dalam minggu-minggu krusial menjelang Pemilu. "Jika memang ada gejala atau apa, lanjut Jibril, bisa nantinya dilanjutkan ke pemeriksaan selanjutnya. Harapannya teman-teman di sini semuanya tetap fit, ketika bertugas di lapangan," pungkas Jibril.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7185907/peringati-hpn-2024-tkd-jatim-prabowo-gibran-perhatikan-kesehatan-wartawan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upaya Wagub Emil Dardak Cegah Banjir Susulan di Waru Sidoarjo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wagub Jatim Emil Elestianto Dardak memaparkan sejumlah upaya untuk mencegah banjir susulan di kawasan Waru, Sidoarjo. Salah satunya dengan mempercepat pembersihan enceng gondok di sungai. Sebelumnya, Emil telah meninjau langsung posko bencana banjir di Kantor BPBD Jatim. Kunjungan ini untuk memastikan kesiapsiagaan Pemprov Jatim dalam penanganan bencana banjir. Sebagaimana diketahui sebelumnya, hujan lebat mengakibatkan banjir menggenangi jalan desa di Kecamatan Waru, Sidoarjo. Ditambah hujan lebat pada keesokan harinya, Selasa (6/2) sore, menambah tingginya genangan yang ada di jalan desa hingga memasuki rumah warga. 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- Emil menjelaskan, pihaknya telah melakukan pemetaan melalui drone guna memantau titik-titik penyebab banjir. Pemetaan tersebut menggunakan drone di sepanjang aliran Kali Buntung Waru hingga arah Juanda sebagai area hilir. Harapannya, melalui pemetaan ini bisa menentukan langkah guna mengurangi risiko atau intensitas banjir di wilayah tersebut. "Kita tadi menggunakan drone untuk meninjau titik-titik tersebut. Ditemukan titik yang bisa dibersihkan yaitu karena ada banyak hambatan seperti enceng gondok sepanjang 7 kilometer," ungkap Emil, Sabtu (10/2/2024). Emil menuturkan, bencana banjir di Waru, Sidoarjo ini merupakan yang pertama kalinya terjadi. Curah hujan yang tinggi dan pasangnya air laut menjadi penyebab utama. Walaupun banjir sudah semakin surut, namun di beberapa wilayah masih terpantau genangan hingga betis orang dewasa. Oleh sebab itu, Wagub Emil menegaskan, tetap perlu ada upaya percepatan, seperti pembersihan enceng gondok guna mencegah banjir kembali terjadi. "Identifikasi bottle neck atau sumbatan botolnya ada di situ. Kalau air laut pasang kita tidak bisa mengantisipasi, tapi kalau sungainya kita bisa mengurangi potensi luapan atau tinggi muka air," tuturnya. Tidak hanya di kawasan Sidoarjo, kesiapsiagaan bencana juga harus ada di seluruh penjuru Jawa Timur, utamanya daerah rawan bencana. BPBD Jatim telah melakukan pemetaan di seluruh Jawa Timur, khususnya tempat-tempat yang di tahun sebelumnya titik rawan banjir. "Ada langkah antisipasi, jika banjir menyebabkan tanggul jebol, kita pastikan bahwa bronjong tersedia. Bahkan sand bag, karena saat ini adalah musim bencana hidrometeorologi," tegasnya. Tidak hanya itu, kesiapan posko pengungsian hingga dapur umum juga menjadi perhatian Wagub Emil. Ia memuji kesiapan seluruh elemen terkait seperti BPBD, Dinas Sosial hingga Dinas Kesehatan yang gercep dalam menangani para korban. "Hari ini kita juga pastikan bahwa tempat ini stand by untuk bisa men-support kebutuhan masyarakat. Ada tempat bermain, ada dapur umum bahkan ada tempat istirahat," pungkasnya. Pernyataan Emil Elestianto Dardak, Wakil Gubernur Jawa Timur bila penyebab banjir yang merendam ratusan rumah 5 desa di Kecamatan Waru Sidoarjo akibat enceng gondok di Sungai Buntung ternyata benar. Tumpukan enceng gondok terlihat memenuhi Sungai Buntung di depan Terminal Purabaya Bungurasih, tepatnya di samping depan Ramayana, Jumat (9/2/2024) pagi. Tidak hanya enceng gondok, sampah juga memenuhi Sungai yang membentang mulai dari Terminal Purabaya hingga Pasar Waru ini. Kepala Dinas PU SDA Jatim, Baju Trihaksoro mengatakan, sungai di depan Terminal Purabaya merupakan wilayah Balai Besar Wilayah Sungai Brantas. "Sungai di depan Terminal Purabaya merupakan wilayah Balai Besar Wilayah Sungai Brantas. Tapi kita tetap tanggung jawab untuk melakukan pembersihan," ujarnya Saat ini, lanjut Baju Trihaksono, pihaknya melakukan pembersihan enceng gondok di Sungai Desa Waru belakang Hotel Neo. "Dinas PU SDA Prov Jatim bergerak cepat dengan mengerahkan 1 unit excavator, 2 unit dump truk, 1 unit crane, 2 perahu pencacah enceng gondok dan puluhan tenaga untuk membersihkan sungai," tandasnya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7185830/upaya-wagub-emil-dardak-cegah-banjir-susulan-di-waru-sidoarjo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hasto Sebut Bupati Sidoarjo Tersandera hingga Terpaksa Dukung 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sekjen PDIP Hasto Kristianto menyebut Bupati Sidoarjo tersandera hingga dipaksa menjadi pendukung pasangan calon (Paslon) 02 di Pemilu 2024. Hasto juga menyebut sejumlah oknum aparat, kepala dinas, hingga perangkat desa juga menurutnya diduga diminta untuk memenangkan partai tertentu. "Ya, tadi saya juga bertemu dan mendengarkan laporan dari seluruh pimpinan dari PDIP di Jatim. Mereka mengatakan justru di Jatim masif. Itu kan (ada) suatu operasi khusus yang kemudian menyandera Bupati Sidoarjo dan kemudian dipaksa mendukung paslon 02," kata Hasto mendampingi Megawati di Blitar, Jumat (9/2/2024), melansir detikJatim. Hasto menilai, aksi penyanderaan atau pemaksaan seperti itu juga dilakukan terhadap sejumlah oknum aparat TNI dan Polri. Bahkah terjadi di lingkup PDI Perjuangan. 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- "Bagaimana oknum-oknum TNI/Polri, kemudian para kepala dinas, ditekan, dicari kelemahannya, kemudian Bupatinya juga dicari kelemahannya. Bahkan ada opsus-opsus juga untuk memenangkan partai tertentu," terangnya. Namun, Hasto mengaku pihaknya tetap akan percaya pada pengalaman tentang suara rakyat. Hasto mengatakan, kekuasaan dan kekuatan rakyat tidak bisa dibungkam. Sehingga hal itu dapat menjadi kekuatan arus balik. "Kami yakin kekuatan rakyat tidak bisa dibungkam. Kekuatan kebenaran yang mulai menyuarakan," jelasnya. Lanjut Hasto, termasuk kekuatan kebenaran dari aparat TNI/Polri yang harus menempatkan sebagai lembaga netral. Nantinya akan ada kekuatan kebenaran bagi para anggota TNI/Polri yang tidak setuju dengan perintah untuk berpihak ke pasangan 02. "Seiring dengan keberanian dari perguruan tinggi untuk bersuara, maka ini juga memunculkan keberanian dari para prajurit TNI/Polri yang sebelumnya ada perintah-perintah khusus. Kemudian mereka berani menegakkan bahwa mereka harus netral," pungkasnya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/sumut/berita/d-7185570/hasto-sebut-bupati-sidoarjo-tersandera-hingga-terpaksa-dukung-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caleg PDIP Asal Banyuwangi Ini Copot APK-nya Sendiri Jelang Masa Tenang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jelang masa tenang Pemilu 2024, sejumlah alat peraga kampanye (APK) mulai dicopoti. Hal ini sesuai dengan Pasal 1 angka 36 Undang-Undang Pemilu. Karena hal ini, Chandra Astan Caleg PDI Perjuangan Dapil 3 Jatim Banyuwangi, Situbondo dan Bondowoso satu ini langsung menginstruksikan pada pendukungnya membereskan APK lebih awal. Meski masa tenang masih dua hari lagi, tepatnya dimulai pada tanggal 11 hingga 13 Februari 2024 mendatang, caleg nomor urut 7 ini mengaku sengaja berinisiatif membersihkan APK dirinya sendiri secara mandiri. 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- "Kami hari ini mulai membersihkan alat peraga kampanye berupa baliho yang sudah terpasang, supaya bisa membantu para teman kita Satpol PP supaya tidak terlalu banyak yang dibersihkan ya pak," ungkap Chandra, Jumat (9/2/2024). Chandra mengaku ingin memberikan contoh perilaku berpolitik yang edukatif dan sportif. Menurutnya, menghormati aturan masa tenang adalah wujud dari implementasi Pemilu bermartabat. "Kita taat aturan, bahwa setelah ini adalah masa tenang. Jadi, kita betul-betul masuk ke pemilu yang sesuai dengan aturan. Dan semoga ini bisa jadi gerakan supaya tidak banyak sampah Baliho di mana mana nantinya," jelas Chandra. Bersih-bersih pencopotan APK Chandra ini dimulai dari sekitar jalan utama menuju Bangsring, Chandra beserta pendukungnya mencopot semua APK. Yang kemudian akan serempak diikuti dengan gerakan pembersihan APK yang dipasang oleh pendukungnya di seluruh wilayah pencalonannya Dapil 3 Jatim.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7185576/caleg-pdip-asal-banyuwangi-ini-copot-apk-nya-sendiri-jelang-masa-tenang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fans Rhoma Irama Jatim Deklarasi Dukung AMIN, Ajak Penggemar Coblos 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-02-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kampanye akbar pasangan calon presiden dan calon wakil presiden nomor 01 Anies Baswedan dan Muhaimin Iskandar (AMIN) di Stadion Untung Suropati Kota Pasuruan dimeriahkan penampilan Raja Dangdut Rhoma Irama dan Soneta Grup. Bukan hanya itu, kelompok penggemarnya, Rhomais, juga deklarasi mendukung AMIN. Deklarasi dilakukan di atas panggung utama. Deklarasi disaksikan Anies Baswedan, Muhaimin Iskandar, Rhoma Irama dan ribuan pendukung. Deklarasi dibacakan Suryanto Aka yang terdiri 4 poin. "Kami fans Raja Dangdut Rhoma Irama Jawa Timur, rakyat lndonesia yang ingin melihat Indonesia adil makmur untuk semua," kata Ketua Umum Rhomais Jawa Timur, Suryanto Aka, Jumat (9/2/2024). 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- Dalam kesempatan itu, Rhoma Irama juga melakukan simulasi pencoblosan Anies-Muhaimin saat di panggung. Simulasi dilakukan usai Anies dan Cak Imin menyampaikan pidato. Rhoma Irama mengenakan baju berwana putih dan memakai kaca mata hitam. Rhoma melakukan pencoblosan menggunakan sebuah tongkat. Dia mencoblos gambar Anies dan Muhaimin. Anies dan Muhaimin menemani Rhoma Irama dalam simulasi pencoblosan tersebut. Pendukung bersorak saat gambar Anies dan Muhaimin dicoblos sang Raja Dangdut. Setelah itu, Rhoma kemudian bernyanyi menghibur pendukung Anies-Muhaimin. Berikut 4 poin deklarasi Rhomais: 1. Mendukung penuh perjuangan Anies-Muhaimin dalam mewujudkan kesejahteraan dan persatuan bangsa 2. Mendukung penuh perjuangan Anies-Muhaimin untuk memenangkan Pilpres 2024 3. Mengajak para penggemar Rhoma lrama dan Soneta yang berada di bawah organisasi-organisasi yang dipimpin Raja Dangdut Rhoma Irama, yang sejalan dengan sikap Rhoma Irama, mari bergabung dan bersatu padu didalam wadah RHOMAIS untuk memperjuangkan perubahan. 4. Mengajak seluruh rakyat untuk mencoblos di TPS dan ikut mengawasi penghitungan suara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7185563/fans-rhoma-irama-jatim-deklarasi-dukung-amin-ajak-penggemar-coblos-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.942 Personel Gabungan Diterjunkan Amankan Pemilu di Banyuwangi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-02-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.942 Pasukan gabungan TNI, Polri, Pol PP dan Linmas Banyuwangi menggelar apel bersama di lapangan Taman Blambangan Banyuwangi. Para petugas gabungan bersiap mengemban tugas penting mengamankan jalannya pemungutan dan penghitungan suara pemilu 2024 yang akan digelar pada 14 - 15 Februari mendatang. Bupati Banyuwangi Ipuk Fiestiandani mengatakan kegiatan apel gelar pasukan pemungutan dan penghitungan suara tersebut merupakan kesiapan akhir dalam rangka mengamankan tahapan pemilu. Ipuk berharap para personel bisa menjalankan tugas dengan tulus dan sebaik-baiknya. "Saya berharap para personel bekerja dengan tulus karena akan bernilai ibadah. Tugas ini tidak dapat dinilai dengan apapun," kata Ipuk saat memimpin apel gelar pasukan Senin (12/02) sore. 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- Ipuk menyebut tahap pemungutan dan perhitungan adalah tahap paling krusial sehingga seluruh personel harus memahami tugas pokok, peta kerawanan wilayah dan mengedepankan sinergi. "Sehingga jalannya pemilu dapat berjalan aman, nyaman, lancar tanpa adanya gangguan. Mudah-mudahan semuanya sukses," tegas Ipuk. Sementara itu, Kapolresta Banyuwangi Kombes Pol Nanang Hariyono mengatakan total 11.942 personel gabungan dikerahkan untuk melakukan pengamanan di Banyuwangi. Mereka terdiri dari 900 personel Polresta Banyuwangi, 367 personel Kodim 0825 Banyuwangi, 100 personel BKO Polda Jatim, 1 SST Brimob Polda Jatim, 200 personel Satpol PP, 30 petugas Dishub Banyuwangi, dan 10.000 personel Linmas. "Para personel langsung geser ke masing-masing TPS," kata Nanang. Berkaca pada pemilu sebelumnya di mana banyak petugas Pemilu yang sakit dan meninggal, Nanang mengimbau kepada seluruh personel yang terlibat untuk menjaga kesehatan dan memastikan kondusifitas. "Kami imbau personel untuk menjaga kesehatan. Kami juga mengimbau masyarakat untuk berpartisipasi dengan menggunakan hak pilihnya di TPS," imbaunya. Apel ini turut dihadiri sejumlah Forkopimda Banyuwangi, pejabat Kodim 0825 Banyuwangi, Lanal Banyuwangi, Kejaksaan Negeri Banyuwangi, Komisioner KPU dan Bawaslu Banyuwangi. Apel ditutup dengan doa bersama tokoh lintas agama. Diharapkan jalannya Pemilu di Banyuwangi aman lancar tanpa ada gangguan.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7189540/11-942-personel-gabungan-diterjunkan-amankan-pemilu-di-banyuwangi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiket Masuk Diskon 10 Persen Bagi Pengunjung yang Ikut Nyoblos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wisatawan yang ingin berkunjung ke seluruh destinasi wisata milik Jatim Park Group, Kota Batu dapat diskon 10% saat 14 Februari 2024. Namun, untuk memperoleh diskon ada beberapa persyaratan khusus yang harus dipenuhi. Manager Marketing and Public Relations, Titik S Ariyanto mengatakan, persyaratan untuk mendapat diskon 10% dengan mudah. Pengunjung cukup menunjukkan tanda tinta atau bukti jika sudah mencoblos pada saat pemilu. "Caranya mudah, cukup dengan menunjukkan tanda tinta pada jari serta bukti coblos pada pemilu. Nanti untuk 100 pengunjung pertama di setiap theme park naungan Jawa Timur Park Group juga akan mendapat eksklusif merchandise," ujarnya saat dikonfirmasi, Senin (12/2/2024). 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- Ia menyampaikan, diskon ini disediakan untuk 100 pengunjung pertama di setiap destinasi wisata milik Jatim Park Group. Selain itu, diskon 10% ini berlaku bagi seluruh pengunjung reguler non rombongan serta hanya dapat dibeli pada loket yang tersedia di setiap theme park. Pemberian diskon pada 14 Februari 2024 ini program kampanye bertajuk 'Coblos Dulu, Liburan Kemudian'. Tujuannya untuk mendukung program pemerintah bahwa masyarakat Indonesia masih wajib berperan serta dalam pemilu 2024. "Tujuannya saat libur pemilu itu dikhawatirkan masyarakat lebih memilih untuk liburan daripada nyoblos. Nah kampanye ini tujuannya untuk mendukung program pemerintah bahwa masyarakat Indonesia itu masih wajib berperan serta dalam pemilu," ungkap Titik. Bagi wisatawan yang ingin mengetahui tentang pemilu dan demokrasi bisa mengunjungi Rumah Pintar Pemilu (RPP) Wisata Demokrasi dan Pemilu di Jatim Park 1. Wahana yang diresmikan sejak tahun 2020 ini mengkolaborasikan konsep pendidikan dan wisata demokrasi serta pemilu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/wisata/d-7189082/tiket-masuk-diskon-10-persen-bagi-pengunjung-yang-ikut-nyoblos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dituding Selingkuh, Emak-emak di Malang Tewas Dibunuh Suami</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seorang ibu rumah tangga (IRT) di Malang, Jawa Timur, Dayang Santi (40) tewas dibunuh suaminya, Ditya Mukhsan Muhammad (40). Dayang Santi dan suaminya kerap cekcok gegara tudingan selingkuh. Dilansir detikJatim, Senin (12/2/2024), Kasat Reskrim Polres Malang AKP Gandha Syah Hidayat menyebut kedua suami istri ini sering cekcok. Keduanya saling menuduh selingkuh. "Ini sama-sama mencurigai masing-masing memiliki pria idaman lain maupun wanita idaman lain karena memang riwayat dari diari korban ini melambangkan bahwa kurang akur ya," kata Gandha kepada wartawan, Senin (12/2). 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- Gandha menyebut korban sempat menulis di diarinya jika suaminya hanya bermain handphone saat di rumah. Ditya juga disebut tak pernah mengajak istrinya ngobrol hingga kerap ketahuan membonceng perempuan lain. "Cekcok-cekcok ini karena sering berantem karena cemburu," imbuhnya. Atas perbuatannya, Ditya kini telah ditetapkan sebagai tersangka usai pemeriksaan 12 saksi. Tiga di antaranya merupakan saksi ahli. "Kami memeriksa total sejumlah 12 orang saksi, yang mana dari 12 orang saksi tersebut 3 diantaranya merupakan saksi ahli. Untuk barang bukti yang kita amankan diantaranya video milik korban serta buku diary, berisi curahan isi hati korban," sambungnya. Selain itu, penyidik juga telah memiliki alat bukti yang cukup untuk menetapkan Ditya sebagai tersangka. Alat bukti itu antara lain hasil rekam medis, sejumlah temuan di TKP, dan dilengkapi dengan hasil gelar perkara. "Ada surat lebih dari satu, ahli pun kita pakai lebih dari 2, kemudian keterangan saksi kita ada 9 kemudian petunjuk pola TKP juga sudah dilakukan. Petunjuk itu bersesuaian antara keterangan saksi, keterangan ahli, barang bukti dan surat itu sendiri yaitu sesuai. Makanya kami tetapkan yang bersangkutan inisial DMM sebagai tersangka pelaku KDRT yang menyebabkan korban meninggal dunia," jelas dia. Atas perbuatannya, tersangka dijerat Pasal 44 ayat 1 dan ayat 3 Undang-Undang Nomor 23 Tahun 2004 tentang penghapusan dalam lingkup rumah tangga, dengan ancaman hukuman paling lama 12 tahun penjara. Diberitakan detikJatim sebelumnya, jasad Dayang Santi ditemukan di rumahnya di Perumahan Bumi Mondoroko Raya (BMR) Blok G01, Kecamatan Singosari, Kabupaten Malang, pada Rabu (24/) sekitar pukul 09.00 WIB. Jasad Dayang Santi ditemukan terkapar dengan mulut mengeluarkan busa di lantai kamar. Keterangan tetangga menyebutkan sempat mendengar cekcok. Anak korban Y (6) juga memberikan pengakuan kedua orang tuanya bertengkar dan sempat melihat ayahnya menuangkan cairan pembersih lantai ke dalam gelas. "Saksi melihat ayahnya meminumkan cairan tersebut kepada korban dengan cara memegang pipi korban," ujar Gandha beberapa waktu lalu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jogja/berita/d-7189095/dituding-selingkuh-emak-emak-di-malang-tewas-dibunuh-suami</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personel di Polres Blitar Kota Dipertebal demi Antisipasi Kerawanan Pemilu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wilayah hukum Polres Blitar Kota masuk daerah rawan Pemilu 2024 berdasarkan hasil pemetaan yang dilakukan Polda Jatim. Personel tambahan diterjunkan ke wilayah hukum Polres Blitar untuk membantu pengamanan Pemilu. "Ada 420 personel akan dilibatkan untuk mengamankan Pemilu di Wilayah Kota Blitar. Sudah termasuk BKO dari Polda Jatim 60 personel. Kemudian juga ada perbantuan dari TNI (Kodim 0808 dan Batalyon 511)," kata Kapolres Blitar Kota AKBP Danang Setiyo PS, Senin (12/2/2024). Danang menyebutkan jumlah personel Polres Blitar Kota cukup terbatas untuk mengamankan 1.577 TPS yang masuk wilayah hukum Polres Blitar Kota. Untuk itulah perlu dilakukan penebalan atau penambahan personel dari Polda Jatim. 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- "Sebanyak 1.577 TPS yang ada di Wilkum Polres Blitar. Tiga kecamatan di Kota Blitar, dan 6 kecamatan Kabupaten Blitar. Jadi membutuhkan banyak personel," terangnya. Berdasarkan data yang dihimpun detikJatim, risiko kerawanan di wilayah hukum Polres Blitar Kota cukup beragam. Di antaranya ada sejumlah kecamatan dengan jumlah DPT yang sangat banyak, kemudian ada TPSyang berdekatan dengan rumah caleg sehingga rawan intervensi caleg tertentu. Danang enggan memberikan penjelasan lebih gamblang tentang potensi kerawanan itu, dia hanya memastikan bahwa masing-masing TPS punya karakteristik kerawanan berbeda. Menurutnya, diperlukan adanya antisipasi dan analisis dalam pola pengamanan di masing-masing TPS. Termasuk tindakan apa yang perlu dilakukan dan rekayasa sosial yang perlu disiapkan bila terjadi hal yang tidak diinginkan. "Potensi kerawanan masing-masing wilayah pasti ada karakteristiknya. Yang jelas kami mengantisipasi itu," tegasnya. Selain itu, Kata Danang, saat ini juga telah masuk musim hujan sehingga diperlukan pengawasan dan pengamanan ekstra logistik pemilu serta lokasi TPS yang telah tersedia. "Makanya mulai hari ini kami harapkan personel bisa langsung menuju TPS untuk pengecekan, membantu persiapan, dan memastikan TPS aman dari resiko lainnya," terangnya. Terpisah, Kapolres Blitar AKBP Wiwit Adisatria menyebutkan pihaknya juga sudah menyiapkan pola pengaman untuk Pemilu 2024. Meskipun wilayah Kabupaten Blitar dinyatakan daerah kurang rawan. "Dari pola pengamanan Polri dan Polda Jatim, wilkum Blitar (Kabupaten) tidak ada wilayah rawan. Adanya TPS kurang rawan. Tapi kami tetap lakukan pengamanan," katanya saat dikonfirmasi detikJatim, Senin (12/2/2024). Berdasarkan data Polres Blitar jumlah personel pengamanan Pemilu mencapai 520 orang. Terdiri dari 300 personel PAM di TPS, 120 personel Dalmas dengan masing-masing rayon 1 pleton, dan 1 kompi lainnya sekitar 100 personel. Wiwit menjelaskan bahwa di wilayah hukum Polres Blitar ada sebanyak 2.396 TPS. Di antaranya terdapat sejumlah TPS yang harus mendapatkan treatment khusus. Misalnya sejumlah TPS yang rawan bencana. "Ada beberpa TPS yang secara demografi masuk rawan bencana. Seperti di wilayah Kecamatan Doko. Tetap diantisipasi dengan pengamanan di masing-masing rayon (Polsek) 1 pleton," katanya. Lebih lanjut, Wiwit memastikan Polres Blitar sudah siap untuk melakukan pengaman Pemilu 2024. Pihaknya berharap Pemilu bisa berjalan lancar dan kondusif.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7189024/personel-di-polres-blitar-kota-dipertebal-demi-antisipasi-kerawanan-pemilu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ini Instruksi Gerindra Jatim ke Seluruh Kader-Simpatisan Jelang Pemilu 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memasuki masa tenang Pemilu 2024, DPD Gerindra Jawa Timur menginstruksikan kepada semua jajaran kader dan simpatisan partai untuk mengawal serta menjaga suara kemenangan. Ketua DPD Gerindra Jatim Anwar Sadad mengatakan, tiga hari masa tenang merupakan momen yang krusial dalam Pemilu. Ia meminta semua kader tidak lengah. "Jangan lengah, meski di survei capres-cawapres kita unggul, partai Gerindra juga unggul. Tiga sampai lima hari ke depan sangat krusial, jaga suara kita, jaga kemenangan kita," kata Anwar Sadad saat dikonfirmasi awak media, Senin (12/2/2024). 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- Politikus yang akrab disapa Gus Sadad ini meminta kepada kader untuk menjaga masing-masing TPS. Selain menempatkan masing-masing minimal satu saksi per TPS, ia meminta ada kader Gerindra di setiap TPS. "Agar suara kemenangan Gerindra, suara kemenangan Prabowo-Gibran aman. Awasi sekitar, jaga TPS dari segala potensi kecurangan," tegas Gus Sadad. Gus Sadad menyebut, kemenangan untuk Gerindra dan Prabowo-Gibran sudah di depan mata. Ia meminta semua kader untuk menuntaskan misi kemenangan. "Kemenangan sudah di depan mata, semua kader tuntaskan kerja keras kita selama 4 tahun terakhir ini dengan hasil semaksimal mungkin di Pemilu 2024," tandas Gus Sadad.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7188941/ini-instruksi-gerindra-jatim-ke-seluruh-kader-simpatisan-jelang-pemilu-2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tabrak Jembatan, Pelajar SMA Tewas Terpental ke Sungai Gianyar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kecelakaan maut terjadi di jembatan gantung Jalan Bypass Ida Bagus Mantra, Ketewel, Kecamatan Sukawati, Gianyar, Bali, malam tadi. Seorang pelajar tewas setelah menabrak jembatan dan terpental ke sungai. "Korban mengendarai motor besar, kemungkinan tidak mampu mengendalikan kecepatan motornya, oleng dan menabrak jembatan dan tewas di tempat, semalam," kata Kanit Laka Satlantas Polres Gianyar Ipda I Made Suarjana kepada detikBali, Senin (12/2/2024). Korban bernama Andre Reduli (17) asal Banyuwangi, Jawa Timur (Jatim). Dia adalah seorang pelajar SMA di sana. 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- Suarjana mengatakan, korban meluncur dari arah barat ke timur. Setiba di lokasi, Andre diduga tak bisa mengendalikan motornya hingga menabrak pembatas jembatan. Andre lantas terpental ke sungai dari ketinggian 15 meter. Korban meninggal dunia di tempat dengan tubuh penuh luka, tangan dan kakinya patah. "Sudah dievakuasi ke RSU Sanjiwani, Gianyar," pungkasnya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/bali/berita/d-7188844/tabrak-jembatan-pelajar-sma-tewas-terpental-ke-sungai-gianyar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratusan Ribu Kendaraan Melintasi 3 Tol di Jatim Selama Long Weekend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratusan ribu kendaraan berlalu-lalang di jalan tol Trans Jawa. Sebagian di antaranya memadati kawasan Jatim pada 7-10 Februari 2024 atau saat libur panjang (long weekend) Isra Mikraj dan Tahun Baru Imlek. VP Corporate Secretary and Legal PT Jasa Marga Trans Jawa Tol Ria Marlinda Paallo mengatakan, puncak arus lalin dari wilayah Jatim menuju sejumlah daerah terjadi pada Minggu (11/2/2024). Di antaranya di Gerbang Tol (GT) Warugunung, Kejapanan Utama, dan Singosari. "Untuk GT Waru Gunung pada periode 7-10 Februari 2024, tercatat sebanyak 87.582 kendaraan menuju Jakarta atau naik 17,58% dari lalin normal sebanyak 74.485 kendaraan," kata Ria dalam keterangannya, Senin (12/2/2024). 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- "Untuk kendaraan yang menuju Surabaya melalui GT Waru Gunung tercatat sebanyak 87.004 kendaraan atau naik 17,00% dari lalin normal 74.365 kendaraan," imbuh dia. Pada periode yang sama, tercatat sebanyak 139.832 kendaraan menuju Malang atau naik 39,61% dari lalin normal, yakni 100.156 kendaraan. Sebaliknya, kendaraan yang menuju Surabaya tercatat sebanyak 124.871 kendaraan atau naik 24,01% dari lalin normal sebanyak 100.692 kendaraan. Lalu, pada GT Singosari tercatat sebanyak 68.391 kendaraan menuju Malang atau naik 26,25% dari lalin normal sebanyak 54.169 kendaraan. Sebaliknya, kendaraan yang menuju Surabaya tercatat sebanyak 59.561 kendaraan atau naik 27,64% dari lalin normal sebanyak 46.663 kendaraan. Secara keseluruhan, Ria menyebutkan, 156.454 kendaraan meninggalkan Jakarta melalui GT Cikampek Utama naik 37,44% jika dibandingkan lalin normal, yakni 113.834 kendaraan. Sementara, kendaraan yang menuju Jakarta mencapai 123.192 kendaraan atau naik 14,92% dari lalin normal sebanyak 107.197 kendaraan. Ria pun mengimbau pengendara untuk mempersiapkan diri sebelum memasuki perjalanan di jalan tol. Pastikan diri dan kendaraan dalam kondisi prima. "Pastikan kecukupan BBM dan saldo uang elektronik, serta mematuhi rambu-rambu dan arahan petugas di lapangan," tuturnya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7188832/ratusan-ribu-kendaraan-melintasi-3-tol-di-jatim-selama-long-weekend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masa Tenang, PDIP Jatim Instruksikan Kader hingga Caleg Turunkan APK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sejumlah partai politik dan caleg ikut menurunkan Alat Peraga Kampanye (APK) di wilayah masing-masing selama masa tenang Pemilu 2024. Salah satunya PDI Perjuangan (PDIP) yang dengan tegas menginstruksikan kepada seluruh kader maupun simpatisannya untuk membereskan APK secara mandiri. Ketua DPD PDIP Jatim Said Abdullah menegaskan, seluruh caleg PDIP di Jatim ikut membantu Satpol PP dan Bawaslu menurunkan berbagai APK di beberapa lokasi. Said mengatakan, partisipasi aktif dari para caleg maupun anggota partai dalam menjaga kebersihan dan keteraturan APK sangat penting untuk menciptakan suasana kondusif jelang pencoblosan. "Kita tunjukkan kepedulian kita terhadap lingkungan setempat dengan partisipasi turun ke jalan keliling. Kader PDI Perjuangan ikut membantu untuk membenahi dan membereskan seluruh Alat Peraga Kampanye yang telah terpasang di daerah masing-masing," jelas Said, Senin (12/2/2024). 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- Selain imbauan tersebut, Said juga mengajak seluruh masyarakat Jatim turut aktif dalam pesta demokrasi 5 tahunan ini dengan menyalurkan hak pilihnya ke TPS masing-masing."Tanggal 14 Februari saya mengajak seluruh masyarakat Jawa Timur untuk hadir ke Tempat Pemungutan Suara (TPS) masing-masing, memberikan hak pilih dan hak suaranya, serta menjadi Warga Negara Indonesia yang baik dengan memenuhi kewajibannya dalam proses demokrasi," kata pria yang juga menjabat sebagai Ketua Banggar DPR RI tersebut.. Diketahui, menjelang pelaksanaan Pemilu 14 Februari 2024, Indonesia memasuki masa tenang sesuai dengan ketentuan yang diatur dalam Peraturan KPU Nomor 15 Tahun 2023 tentang Kampanye Pemilihan Umum. Masa tenang ini berlangsung selama 3 hari. Mulai 11 Februari 2024 hingga H-1 Pemilu atau 13 Februari 2024. Selama masa tenang ini, seluruh peserta pemilu, termasuk calon dan pendukungnya, dilarang untuk kampanye maupun melakukan berbagai aktivitas politik yang bisa memengaruhi opini publik. Hal ini bertujuan untuk menciptakan situasi yang kondusif dan adil menjelang hari pemungutan suara, sehingga masyarakat dapat memilih secara tenang dan rasional sesuai dengan hak suara masing-masing. Simak Video 'Momen APK di Sejumlah Daerah Mulai Dibersihkan di Masa Tenang':   [Gambas:Video 20detik]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7188691/masa-tenang-pdip-jatim-instruksikan-kader-hingga-caleg-turunkan-apk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asyiknya Belajar soal Capung Beraneka Warna di Wisata Jopuro Banyuwangi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Penggemar fotografi fauna atau pecinta capung tak perlu risau. Musim hujan saat ini tepat untuk berkunjung ke destinasi wisata Jopuro Banyuwangi. Di Jopuro, wisatawan bisa dimanjakan dengan aneka penampakan capung yang berterbangan di sejumlah titik wisata dengan aliran air jernih dan bersih. Sejumlah bahasa daerah kerap disebut kinjeng, papatong, coblang dan tjapung. Wisata Jopuro adalah kawasan pemandian alami di Dusun Rejopuro, Desa Kampung Anyar, Kecamatan Glagah, cukup ikonik karena memadukan lanskap alami dan buatan. Aliran mata air yang dibendung membentuk kolam-kolam dengan arus yang tenang menjadi sebuah habitat para capung. 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- Capung di Wisata Jopuro dengan mudah dapat ditemui. Hal ini menandakan bahwa capung merupakan salah satu hewan yang berperan sebagai bioindikator untuk kualitas lingkungan, utamanya air. Ketua Kelompok Sadar Wisata (Pokdarwis) Jopuro Samian mengungkapkan rasa syukur dengan sering ditemukan capung di berbagai sudut area Wisata Jopuro. "Seperti yang kita ketahui, capung itu hanya bisa berkembang biak di habitat air yang bersih dan juga bergantung pada ekosistem perairan yang sehat dan rantai makanan yang sehat." kata Samian, Senin (12/2/2024). Beberapa kali, Samian mengaku mengamati betina capung meletakkan telur-telurnya di permukaan air, dan ada juga yang menaruh dalam tanaman atau lumut air. "Capung betina meletakkan telur di permukaan air yang tenang dan ada yang di lumut air. Setelah menetas, larva capung menghabiskan waktunya memburu invertebrata atau hewan tanpa tulang belakang alias hewan lunak di dalam air." ungkap Samian. Tak hanya itu, selain sebagai bioindikator, capung juga sangat berjasa bagi manusia karena telah membantu membasmi serangga seperti jentik-jentik yang berasal dari nyamuk, lalat atau serangga lainnya merupakan mangsa bagi capung. Salah satu wisatawan dari Jakarta Mardhita mengaku tidak rugi datang ke wisata pemandian alami tersebut, ia pun mengaku kerap menemukan Capung aneka warna. "Iya, bagus ada yang biru, merah itu ada macem-macem terus hitam dan hijau juga ada kuning keemasan. Baru tahu saya capung warna warni," katanya kepada detik Jatim. Salah satu wisatawan, Akbar asal Jakarta mengaku sempat mengabadikan sejumlah foto Capung di ponsel pintarnya. "Saya ambil foto tadi, gak tahu ya, ada capung kok rasanya makin percaya ini tempat wisata airnya pasti bersih. Seger lagi disini," terang Akbar. Berbagai jenis capung yang dapat dijumpai di tempat ini. Di antaranya Dragon fly si pemilik warna kuning keemasan, Neurothemis si wara kehitaman dengan semburat sayap keunguan, terminata, damselfly, Chalocholetes viridis dan atrocalopcalopteryx atrata. Jika ingin berkunjung ke tempat ini, pastikan membawa pakaian yang nyaman untuk berendam dan berburu capung dialam terbuka dan berair. Wisata Jopuro ini dibuka mulai pukul 7 pagi hingga 5 sore.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/wisata/d-7188379/asyiknya-belajar-soal-capung-beraneka-warna-di-wisata-jopuro-banyuwangi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebagian Besar Daerah di Jatim Diprediksi Hujan Ringan Senin 12 Februari 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebagian besar wilayah Jatim diprediksi hujan ringan di hari Senin 12 Februari 2024. Namun ada sebagian yang dilanda hujan lebat. Puncak suhu tertinggi berada di Kota Gresik dan Kota Surabaya yang mencapai hingga 34 derajat celsius. BMKG sendiri mengimbau kepada masyarakat yang tinggal di daerah yang diprediksi hujan lebat agar waspada terhadap petir dan angin kencang sesaat. Informasi cuaca lebih detil untuk tiap-tiap daerah di Jatim dapat dilihat di bawah berikut ini. 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- 1. Bangkalan Cuaca: Pagi (Cerah berawan) Siang (Hujan ringan) Malam (Hujan ringan) Dini hari (Berawan) Suhu: 25-32 derajat celsius  2. Banyuwangi Cuaca: Pagi (Cerah berawan) Siang (Hujan lebat) Malam (Berawan) Dini hari (Cerah berawan) Suhu: 24-32 derajat celsius  3. Batu Cuaca: Pagi (Cerah berawan) Siang (Hujan ringan) Malam (Hujan ringan) Dini hari (Berawan) Suhu: 17-29 derajat celsius  4. Bojonegoro Cuaca: Pagi (Berawan) Siang (Hujan ringan) Malam (Cerah berawan) Dini hari (Cerah berawan) Suhu: 24-32 derajat celsius  5. Bondowoso Cuaca: Pagi (Cerah berawan) Siang (Hujan lebat) Malam (Berawan) Dini hari (Cerah berawan) Suhu: 23-28 derajat celsius  6. Gresik Cuaca: Pagi (Berawan) Siang (Cerah berawan) Malam (Hujan ringan) Dini hari (Cerah berawan) Suhu: 25-34 derajat celsius  7. Jember Cuaca: Pagi (Berawan) Siang (Hujan ringan) Malam (Berawan) Dini hari (Berawan) Suhu: 22-31 derajat celsius  8. Jombang Cuaca: Pagi (Berawan) Siang (Hujan ringan) Malam (Hujan ringan) Dini hari (Berawan) Suhu: 23-32 derajat celsius  9. Kabupaten Blitar Cuaca: Pagi (Cerah berawan) Siang (Cerah berawan) Malam (Cerah berawan) Dini hari (Berawan) Suhu: 23-31 derajat celsius  10. Kabupaten Kediri Cuaca: Pagi (Berawan) Siang (Hujan ringan) Malam (Berawan) Dini hari (Berawan) Suhu: 23-32 derajat celsius  11. Kabupaten Madiun Cuaca: Pagi (Cerah berawan) Siang (Hujan ringan) Malam (Cerah berawan) Dini hari (Berawan) Suhu: 23-32 derajat celsius  12. Kabupaten Malang Cuaca: Pagi (Cerah berawan) Siang (Cerah berawan) Malam (Berawan) Dini hari (Berawan) Suhu: 20-31 derajat celsius  13. Kabupaten Mojokerto Cuaca: Pagi (Cerah berawan) Siang (Hujan lebat) Malam (Berawan) Dini hari (Cerah berawan) Suhu: 22-30 derajat celsius  14. Kabupaten Pasuruan Cuaca: Pagi (Cerah berawan) Siang (Hujan ringan) Malam (Berawan) Dini hari (Cerah berawan) Suhu: 23-30 derajat celsius  15. Kabupaten Probolinggo Cuaca: Pagi (Cerah berawan) Siang (Hujan lebat) Malam (Hujan ringan) Dini hari (Berawan) Suhu: 22-31 derajat celsius  16. Kota Blitar Cuaca: Pagi (Berawan) Siang (Hujan ringan) Malam (Cerah berawan) Dini hari (Berawan) Suhu: 23-31 derajat celsius  17. Kota Kediri Cuaca: Pagi (Berawan) Siang (Hujan ringan) Malam (Hujan ringan) Dini hari (Cerah berawan) Suhu: 23-33 derajat celsius  18. Kota Madiun Cuaca: Pagi (Cerah berawan) Siang (Cerah berawan) Malam (Cerah berawan) Dini hari (Cerah berawan) Suhu: 23-32 derajat celsius  19. Kota Malang Cuaca: Pagi (Cerah berawan) Siang (Hujan ringan) Malam (Berawan) Dini hari (Berawan) Suhu: 20-31 derajat celsius  20. Kota Mojokerto Cuaca: Pagi (Cerah berawan) Siang (Hujan ringan) Malam (Cerah berawan) Dini hari (Cerah berawan) Suhu: 24-32 derajat celsius  21. Kota Pasuruan Cuaca: Pagi (Cerah berawan) Siang (Hujan ringan) Malam (Hujan ringan) Dini hari (Cerah berawan) Suhu: 24-31 derajat celsius  22. Kota Probolinggo Cuaca: Pagi (Cerah berawan) Siang (Hujan petir) Malam (Hujan ringan) Dini hari (Berawan) Suhu: 25-31 derajat celsius  23. Lamongan Cuaca: Pagi (Berawan) Siang (Hujan ringan) Malam (Hujan ringan) Dini hari (Cerah berawan) Suhu: 24-32 derajat celsius  24. Lumajang Cuaca: Pagi (Berawan) Siang (Hujan ringan) Malam (Berawan) Dini hari (Berawan) Suhu: 23-31 derajat celsius  25. Magetan Cuaca: Pagi (Cerah berawan) Siang (Hujan petir) Malam (Hujan petir) Dini hari (Cerah berawan) Suhu: 23-29 derajat celsius  26. Nganjuk Cuaca: Pagi (Berawan) Siang (Hujan ringan) Malam (Berawan) Dini hari (Kabut) Suhu: 23-30 derajat celsius  27. Ngawi Cuaca: Pagi (Berawan) Siang (Hujan ringan) Malam (Berawan) Dini hari (Cerah berawan) Suhu: 24-30 derajat celsius  28. Pacitan Cuaca: Pagi (Hujan ringan) Siang (Cerah berawan) Malam (Cerah berawan) Dini hari (Cerah berawan) Suhu: 23-32 derajat celsius  29. Pamekasan Cuaca: Pagi (Berawan) Siang (Hujan ringan) Malam (Berawan) Dini hari (Berawan) Suhu: 24-32 derajat celsius  30. Ponorogo Cuaca: Pagi (Cerah berawan) Siang (Hujan petir) Malam (Cerah berawan) Dini hari (Cerah berawan) Suhu: 24-30 derajat celsius  31. Sampang Cuaca: Pagi (Cerah berawan) Siang (Cerah berawan) Malam (Cerah berawan) Dini hari (Cerah berawan) Suhu: 24-32 derajat celsius  32. Sidoarjo Cuaca: Pagi (Cerah berawan) Siang (Berawal tebal) Malam (Hujan ringan) Dini hari (Berawan) Suhu: 24-33 derajat celsius  33. Situbondo Cuaca: Pagi (Cerah berawan) Siang (Hujan lebat) Malam (Hujan ringan) Dini hari (Cerah berawan) Suhu: 23-31 derajat celsius  34. Sumenep Cuaca: Pagi (Cerah berawan) Siang (Hujan petir) Malam (Berawan) Dini hari (Cerah berawan) Suhu: 24-33 derajat celsius  35. Surabaya Cuaca: Pagi (Berawan) Siang (Hujan ringan) Malam (Berawan) Dini hari (Cerah berawan) Suhu: 24-34 derajat celsius  36. Trenggalek Cuaca: Pagi (Cerah berawan) Siang (Hujan ringan) Malam (Hujan ringan) Dini hari (Cerah berawan) Suhu: 22-30 derajat celsius  37. Tuban Cuaca: Pagi (Cerah berawan) Siang (Hujan ringan) Malam (Cerah berawan) Dini hari (Berawan) Suhu: 23-32 derajat celsius 38. Tulungagung Cuaca: Pagi (Kabut) Siang (Hujan ringan) Malam (Berawan) Dini hari (Kabut) Suhu: 23-30 derajat celsius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7188145/sebagian-besar-daerah-di-jatim-diprediksi-hujan-ringan-senin-12-februari-2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kasus Pemerkosaan Turis Wanita di Bali Terjadi Lagi dan Lagi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kasus pemerkosaan terhadap turis wanita di Bali terjadi lagi. Kali ini, pelakunya pemandu wisata dan korbannya turis China. Ini adalah kasus kedua yang terjadi di Bali. Masih segar dalam ingatan, beberapa bulan lalu, tepatnya pada bulan Agustus 2023, seorang turis Brasil diperkosa oleh driver ojol di Bali. Peristiwa pemerkosaan itu terjadi di sepetak tanah kosong Jalan Nyang-nyang, Kelurahan Jimbaran, Kecamatan Kuta Selatan, Kabupaten Badung. Peristiwa memilukan itu terjadi pada rentang waktu pukul 04.00 hingga 05.00 Wita, Senin (7/8/2023). 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- Pelaku adalah laki-laki berinisial WD asal Kecamatan Bangsalsari, Kabupaten Jember, Jawa Timur (Jatim). Adapun korban pemerkosaan itu yakni turis perempuan asal Brasil berinisial GWL (26). "Korban merupakan wisatawan asal Brasil yang berlibur ke Bali dan menginap di salah satu vila di daerah Jimbaran," ungkap Kepala Bidang Hubungan Masyarakat (Kabid Humas) Polda Bali, Kombes Jansen Avitus Panjaitan. Jansen menjelaskan, GWL memesan ojol dari Puri Kelapa Quest By Bukit Villa dengan tujuan Villa Asri Jimbaran. Pesanan tersebut diambil oleh WD. "Selama dalam perjalanan korban (GWL) terus diajak mengobrol oleh pelaku sampai tidak memperhatikan map (peta) perjalanan," tutur Jansen. Sesampainya di sebuah tanah kosong, WD membelokkan motornya dan menyuruh GWL turun. Pria itu kemudian berupaya memerkosa GWL dan sempat membanting turis asing itu. Bahkan, WD sempat mencekik leher dan menutup mulut GWL. Perempuan berusia 26 tahun itu berupaya melawan dengan cara memukul WD menggunakan botol air mineral. GWL sempat kabur, tapi WD menangkapnya dan kembali membanting tubuh turis Brasil itu. Seusai diperkosa, pria pendatang dari luar Bali itu mengantar GWL pulang ke Villa Asri Jimbaran. 5 Bulan berselang, tepatnya di bulan Februari ini, turis asing kembali diperkosa di Bali. Kali ini, korbannya adalah seorang turis China berinisial HJT. Pelakunya, bukan driver ojol lagi, melainkan seorang pemandu wisata bernama Faisal Akbar Ramadhan, pria pendatang berusia 29 tahun dari Surabaya. Faisal ditangkap di sebuah hotel di kawasan Nusa Dua, Kuta Selatan, Badung, Bali. Fajar diamankan oleh sekuriti hotel dan teman korban setelah ketahuan memperkosa turis perempuan asal China itu. Kasus tersebut kemudian dilaporkan ke polisi. Kepala Seksi Hubungan Masyarakat (Kasi Humas) Polresta Denpasar, AKP I Ketut Sukadi mengatakan, pelaku saat ini sudah diamankan di Sat Reskrim Polresta Denpasar. Saat diinterogasi polisi, pria pendatang itu mengaku menawarkan diri sebagai pemandu wisata, sekaligus sopir pribadi HJT selama liburan di Pulau Dewata. HJT dan temannya pun sepakat menggunakan jasa Faisal untuk mengantarkan dan menemani mereka menuju ke sebuah tempat hiburan malam pada Rabu (7/2/2024). "Mereka sempat menikmati hiburan dan minum alkohol hingga pukul 01.00 Wita. Setelah itu, korban dan temannya meminta tersangka untuk mengantar mereka kembali ke hotel di kawasan Nusa Dua," ungkap Sukadi. Bukannya mengantarkan turis China itu kembali ke hotel tempatnya menginap, Faisal justru membawa mereka ke hotel lain di kawasan Benoa. Faisal lantas mengajak HJT masuk ke kamar hotel tersebut dengan alasan mengambil hadiah untuk temannya. Setelah itu, Faisal kemudian memuaskan nafsu bejatnya dan memerkosa turis China berusia 26 tahun tersebut.  Simak Video 'Ojol Pemerkosa Turis Brasil di Bali Ditangkap di Pasuruan':  [Gambas:Video 20detik]  Saksikan juga SOSOK pilihan minggu ini: Menilik Dapur Musik Vandra  [Gambas:Video 20detik]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://travel.detik.com/travel-news/d-7188122/kasus-pemerkosaan-turis-wanita-di-bali-terjadi-lagi-dan-lagi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimisme Jatim Bisa Pertahankan Gelar Juara Umum MTQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sekdaprov Jatim Adhy Karyono membuka seleksi calon peserta Musabaqah Tilawatil Qur'an (MTQ) XXX Tingkat Nasional yang dilaksanakan di Harris Hotel and Convention Malang, Minggu (11/2). Seleksi ini dibagi menjadi dua tahap. Tahap pertama dilakukan pada 11-13 Februari. Sedangkan tahap kedua berlangsung setelah Pemilu, yakni 15-17 Februari 2024. Dalam kesempatan tersebut, sekdaprov yang akrab disapa Adhy itu mengatakan bahwa Jawa Timur optimis dapat kembali membawa pulang gelar juara umum. Terlebih setelah Jatim memenangkannya pada MTQ Nasional XXIX Tahun 2022 lalu di Provinsi Kalimantan Selatan. 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- "Pesan Bu Gubernur dulu saat 2022 adalah kalau berdoa, minta yang terbaik. Alhamdulillah kita langsung juara umum. Tahun ini, tugas kita adalah mempertahankannya. Maka kita start dengan optimis bisa menang lagi," katanya. Meski begitu, Adhy menegaskan untuk mencapai target ini, dibutuhkan sinergitas dan kolaborasi matang dari semua pihak terkait. Tak hanya itu, perencanaan baik juga harus dilakukan. "Ini akan kami perlakukan sama dengan kompetisi penting lainnya seperti PON. Jadi persiapan dan manajemennya harus lebih profesional dan mengarah ke lebih baik," katanya. "Selain itu, kita butuh seleksi yang ketat, pembinaan yang kuat, dan doa dari pemerintah, orang tua maupun para kyai. Insya Allah ikhtiar diiringi doa sama-sama memberikan hasil yang dahsyat," lanjut Adhy. Lebih lanjut Adhy menjelaskan bahwa seleksi MTQ ini menjadi bagian dari usaha peningkatan Indeks Kesalehan Sosial (IKS) Jawa Timur. Di mana, pada 2022, IKS mencapai 72,03 dari skala 0-100. "Untuk dari pemerintah sendiri kami support sepenuhnya. Apa yang dibutuhkan, mulai dari anggaran dan pembinaan intens insya Allah akan kami usahakan semaksimal mungkin," pungkas Adhy. Tahap pertama ini sendiri diikuti oleh 99 putra-putri terbaik Jawa Timur, dengan rincian 49 laki-laki dan 50 perempuan. Pemenang dari seleksi ini nantinya akan mewakili Jawa Timur dalam MTQ Nasional XXX 2024 yang rencananya dilaksanakan di Kota Samarinda, Kalimantan Timur pada September mendatang. Terdapat 7 cabang yang akan dikompetisikan baik untuk regu putra maupun putri. Yaitu Seni Baca Al-Qur'an, Qiraatul Qur'an, Hafalan Al-Qur'an, Tafsir Al-Qur'an, Fahmil Qur'an, Syarhil Qur'an, serta Seni Baca Al-Qur'an.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7188148/optimisme-jatim-bisa-pertahankan-gelar-juara-umum-mtq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khofifah Serahkan PLTS Atap ke Puluhan Ponpes-UMKM se-Jatim di Probolinggo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gubernur Jawa Timur (Jatim) Khofifah Indar Parawansa menyerahkan bantuan Pembangkit Listrik Tenaga Surya (PLTS) atap kepada Pimpinan Pondok Pesantren (Ponpes) se-Jatim dan pelaku Usaha Mikro Kecil Menengah (UMKM). Penyerahan bantuan digelar di Probolinggo. Seremoni penyerahan bantuan itu dilaksanakan di Pelabuhan Perikanan Mayangan (PPM), Kelurahan/Kecamatan Mayangan, Kota Probolinggo pada Minggu (11/2/2024) malam. Penyerahan secara simbolis itu ditandai penekanan tombol sirene dan saklar oleh Gubernur Khofifah. "Penyerahan ini untuk memaksimalkan apa yang menjadi mandat. Kebetulan ada PLTS yang belum diserahkan, oleh karena itu malam ini kami serahkan. Ada ponpes, UMKM, dan perkantoran pemerintah," kata Gubernur Khofifah. 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- Menuju 2060, kata Khofifah, ada proses dan tahapan yang harus dilakukan bersama berkaitan pengalihan energi fosil ke nonfosil yang sudah mulai dilakukan di sejumlah tempat. "Oleh karena itu di tahun 2019 kami melahirkan Perda Rued (Rencana Umum Energi Daerah,red) Jawa Timur. Ini yang kami coba ukur sampai di mana kita bisa mencapai dan melampaui target Perda Rued itu 6,55% dan pada 2023 mencapai 9,37 persen," pungkasnya. Bantuan PLTS Atap 1 KWP itu diserahkan kepada UMKM Dapoer Oethi, Kota Probolinggo, PLTS Atap 1 KWP kepada UMKM Konveksi Cumang, Kota Probolinggo, PLTS Atap 1 KWP kepada UMKM Konveksi CV Hirma, Kota Probolinggo Kemudian PLTS Atap 1 KWP kepada UMKM UD. Nusa Sari, Kota Probolinggo, PLTS Atap 25 KWP kepada Kantor UPT PPP Mayangan Kota Probolinggo, PLTS Atap 1 KWP kepada Pondok Pesantren Tanfidzul Quran Kyai Said, Kabupaten Gresik. Lalu PLTS Atap 1 KWP kepada Pondok Pesantren Maslahatul Ikhwan, Kabupaten Jember, PLTS Atap 5 KWP kepada Pondok Pesantren Darul Ulum Banyu Anyar, Kabupaten Pamekasan, PLTS Atap 5 KWP ke Pondok Pesantren Sunan Ampel, Kabupaten Banyuwangi. PLTS Atap 5 KWP kepada Pondok Pesantren Al Islami Assalafi Gedongsari, Kabupaten Nganjuk, PLTS Atap 5 KWP kepada Pondok Pesantren Nurul Hakim, Masjid Nur Hasan, Kabupaten Kediri, PLTS Atap 5 KWP kepada Pondok Pesantren Mambaul Ulum, Kabupaten Malang PLTS Atap 5 KWP kepada Pondok Pesantren Al Hidayah, Kota Batu, PLTS Atap 5 KWP kepada Pondok Pesantren Ngalah, Yayasan Darut Taqwa, Kabupaten Pasuruan, PLTS Atap 5 KWP kepada Yayasan Tarbiyah Islam, Kabupaten Pasuruan. PLTS Atap 5 KWP kepada Pondok Pesantren Al Amin Putri, Kota Mojokerto, PLTS Atap 5 KWP kepada Pondok Pesantren Nurul Qadim, Kabupaten Probolinggo, PLTS Atap 5 KWP kepada Yayasan Amanatul Al Munawwar, Kabupaten Bojonegoro. PLTS Atap 5 KWP kepada Pondok Pesantren Al Rosyid, Kabupaten Bojonegoro, PLTS Atap 5 KWP kepada Pondok Pesantren Al Falah, Kabupaten Kediri, PLTS Atap 10 KWP kepada Pondok Pesantren Nazhatut Thullab, Kabupaten Sampang. PLTS Atap 10 KWP kepada Pondok Pesantren Modern Al Fatimah, Kabupaten Bojonegoro, PLTS Atap 10 KWP kepada Pondok Pesantren Al Amin, Kota Kediri, PLTS Atap 10 KWP kepada Pondok Pesantren Putri Salafiyah 2, Kabupaten Pasuruan Terakhir, PLTS Atap 10 KWP ke Pondok Pesantren Al Rifaie 1, Kabupaten Malang, PLTS Atap 10 KWP kepada Pondok Pesantren Al Amin Japan Sooko, Kabupaten Mojokerto, PLTS SHS sebesar 74 Unit kepada Kelompok Masyarakat Sumber Urip Kabupaten Pasuruan.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7188149/khofifah-serahkan-plts-atap-ke-puluhan-ponpes-umkm-se-jatim-di-probolinggo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banyuwangi Borong 2 Penghargaan di Sapa Insan Budaya dan Pariwisata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anjang Sapa Insan Budaya dan Pariwisata Jawa Timur menjadi ajang unjuk kebolehan kinerja pemerintah daerah di bidang budaya dan pariwisata. Dalam ajang ini, Banyuwangi berhasil memborong dua penghargaan dari Pemprov Jawa Timur. Penghargaan itu adalah Kepala Daerah Pendukung Kebudayaan Terbaik serta penghargaan atas terpilihnya Festival Gandrung Sewu dan Banyuwangi Ethno Carnival sebagai bagian dari Karisma Event Nusantara (KEN). Kegiatan Sapa Insan Budaya dan Pariwisata Jawa Timur berlangsung meriah di gedung Graha Wisata Dinas Kebudayaan dan Pariwisata Provinsi Jawa Timur Rabu (7/2) malam. Penghargaan diserahkan langsung oleh Gubernur Jawa Timur Khofifah Indar Parawansa dan diterima oleh sekretaris Daerah Mudjiono . 
-ADVERTISEMENT
-SCROLL TO CONTINUE WITH CONTENT
- "Kami berterima kasih kepada Pemprov Jatim yang telah mengapresiasi Banyuwangi atas upaya melestarikan dan mengembangkan budaya dan pariwisata daerah," ujar Bupati Ipuk Fiestiandani, Minggu (11/2/2024). Bupati Ipuk menegaskan pemerintah daerah terus berkomitmen untuk melestarikan dan mengembangkan seni dan budaya lokal. Dengan memfasilitasi melalui berbagai event, melakukan regenerasi hingga menjadikannya sebagai kekuatan utama dalam mengangkat pariwisata daerah. "Sebagaimana Festival Gandrung Sewu dan Banyuwangi Ethno Carnival yang sejak 2023 masuk agenda KEN, keduanya berawal dari upaya untuk bisa melestarikan sekaligus mengenalkan seni budaya lokal pada publik luas. Kami bersyukur upaya tersebut berbuah positif," ujar Bupati Ipuk. Sekretaris Kabupaten Mujiono menambahkan kedua penghargaan tersebut diberikan kepada kepala daerah yang peduli pada kearifan lokal, terutama pada pelaku seni dan budaya di Jatim. Penghargaan sebagai Kepala Daerah Pendukung Kebudayaan Terbaik didapat lantaran Bupati dinilai memiliki komitmen dan konsisten pada pelestarian seni dan budaya di Bumi Blambangan. "Salah satunya memberikan wadah aktualisasi dan regenerasi melalui agenda Banyuwangi Festival yang mengakomodir banyak event seni budaya serta melibatkan generasi muda sebagai talent-talent baru," ujar Mujiono. Sementara itu, berkenaan dengan Gandrung Sewu dan BEC, selain masuk KEN 2024, event ini juga mendapat poin plus dari Pemprov Jatim. Sebab, event ini menumbuhkan kebanggaan masyarakat akan seni-budaya daerah. "Bukan hanya peserta, tetapi ibu-bapak, kakek-nenek, hingga saudara-saudara para siswa yang tampil pada ajang Gandrung Sewu juga turut bangga. Sedangkan siswa yang tampil juga mendapat sertifikat yang bermanfaat menambah poin saat siswa tersebut mendaftar ke jenjang pendidikan lebih tinggi," pungkas Mujiono.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.detik.com/jatim/budaya/d-7188134/banyuwangi-borong-2-penghargaan-di-sapa-insan-budaya-dan-pariwisata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jelang Pemilu, Pertamina Jamin Stok BBM Bisa Penuhi Kebutuhan Warga</t>
   </si>
   <si>
     <t xml:space="preserve">Jelang Pemilihan Umum 2024, Pertamina memastikan pasokan bahan bakar minyak (BBM) dan LPG di sejumlah wilayah tetap aman dan bisa memenuhi kebutuhan konsumen. Seperti yang dilakukan oleh PT Pertamina Patra Niaga Regional Jawa Bagian Tengah. Area Manager Comm, Rel &amp; CSR Pertamina Patra Niaga Regional Jawa Bagian Tengah, Brasto Galih Nugroho, Minggu (11/2). "Perantau yang akan kembali ke kampung halaman untuk menggunakan hak pilihnya diprediksi akan memberikan kontribusi kenaikan konsumsi BBM +4% untuk produk gasoline dan +3% untuk produk gasoil dari rata rata konsumsi harian normal," ungkap Brasto dalam siaran pers, Minggu (11/2/2024). 
@@ -566,22 +53,550 @@
     <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7188098/5-kecamatan-di-sampang-masuk-daerah-sangat-rawan-pemilu-2024-mana-saja</t>
   </si>
   <si>
+    <t xml:space="preserve">Bubaran Haul Akbar di Surabaya Sempat Macetkan Suramadu hingga 2 Km</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jembatan Suramadu arah Madura macet hingga kurang lebih 2 kilo meter. Hal ini dikarenakan adanya haul akbar di pondok pesantren (Ponpes) di Jalan Kedinding Lor. Dari video yang beredar di beberapa akun media sosial, tampak kemacetan panjang di ruas roda 4 Jembatan Suramadu arah Madura. Kemacetan terjadi pukul 13.41 WIB sepanjang kurang lebih 2 km, bahkan sebelum Jembatan Suramadu. Dalam video tersebut juga dijelaskan ada banyak bus yang parkir di pinggir jalan menjemput jemaah haul akbar di Jalan Kedinding. Sedangkan untuk ruas roda dua terlihat lancar. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Kanit PJR 8 Jatim Suramadu AKP Agus Wibowo menyebut, kemacetan itu disebabkan oleh bubaran haul akbar di Jalan Kedinding Lor. Pihak kepolisian juga telah dikerahkan. "Ada haul akbar di Ponpes Al-Fithrah Kedinding," kata AKP Agus saat dihubungi detikJatim, Minggu (11/2/2024) Agus menjelaskan acara haul akbar di Ponpes Al-Fithrah Kedinding sudah berlangsung sejak kemarin Sabtu (10/2). Hari ini kegiatan sudah selesai dan pihak kepolisian mengatur lalu lintas. "Acaranya sudah dari kemarin dan sore ini tinggal bubaran. Personil dari Polres Tanjung Perak selaku pemangku wilyah sudah di lokasi dari kemarin," jelasnya. Sementara Kasat Lantas Polres Tanjung Perak AKP Moch Suud menjelaskan kegiatan haul akbar di Ponpes Al-Fithrah sudah selesai dan bubaran pukul 12.00 WIB. Karena jemaah ada 10 ribu lebih, maka otomatis ketika selesai acara cukup macet. Pada pukul 16.30 WIB, jalan sudah normal dan lancar kembali. Baik dari arah Surabaya ke Madura maupun sebaliknya. "Kegiatan Sabtu dan Minggu. Minggu jam 12.00 WIB selesai acara, efeknya bubaran, macetnya siang hari. Pukul 16.30 WIB anggota melaporkan sudah clear, arah balik lancar, normal. Kenapa padat? Karena imbas bubaran jemaah, kantung parkir di jalur lambat di Lapangan Tembak Surabaya mereka harus nyebrang ke busnya, lebih dari 10 ribu jemaah nyebrang itu yang jadi hambatan" jelasnya. Sedangkan untuk parkir bus, Suud menyebut sedang diparkir di jalur lambat. Bus sedang menunggu jemaah yang sudah selesai mengikuti haul akbar. "Jalan ada jalur lambat dan cepat, bus itu parkir di jalur lambat. Volume menyebrang. Bisa dilaporkan jemaah itu 10 ribu lebih. Kalau bubaran otomatis padat," pungkasnya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187947/bubaran-haul-akbar-di-surabaya-sempat-macetkan-suramadu-hingga-2-km</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jabatan Khofifah Habis Besok, Sekda Adhy Karyono jadi Plh Gubernur Jatim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jabatan Gubernur Jatim Khofifah Indar Parawansa akan habis pada 13 Februari 2024 pukul 23.59 WIB. Sekdaprov Jatim Adhy Karyono akan menjadi pelaksana harian (Plh) Gubernur Jatim menggantikan Khofifah. Gubernur Khofifah mengatakan penunjukan Adhy Karyono menjadi Plh karena bersamaan dengan agenda Pemilu 2024. "Dari pak Sekjen Kemendagri karena berakhirnya besok, besok lusa itu sudah masuk pada pencoblosan maka (Adhy Karyono) akan diputuskan Plh," kata Khofifah di Gedung Negara Grahadi, Senin (12/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Sementara untuk Pj Gubernur Jatim, Khofifah mengatakan akan dilantik Presiden RI pada Jumat mendatang. "Pj insyaallah hari Jumat. Pelantikan Pj hari Jumat dan hari ini akan keluar keputusan Plh saya belum dapat fisik suratnya meskipun sudah disampaikan jadi tunggu suratnya saja," tutur Khofifah. "Jadi Plh dulu tapi Plh dengan Pj insyaallah orangnya sama," imbuhnya. Diketahui, jabatan Khofifah Indar Parawansa-Emil Dardak akan habis pada Selasa 13 Februari pukul 23.59 WIB. Khofifah-Emil dilantik sebagai Gubernu-Wagub Jatim 2019-2024 pada 14 Februari 2019 silam.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7189578/jabatan-khofifah-habis-besok-sekda-adhy-karyono-jadi-plh-gubernur-jatim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.942 Personel Gabungan Diterjunkan Amankan Pemilu di Banyuwangi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.942 Pasukan gabungan TNI, Polri, Pol PP dan Linmas Banyuwangi menggelar apel bersama di lapangan Taman Blambangan Banyuwangi. Para petugas gabungan bersiap mengemban tugas penting mengamankan jalannya pemungutan dan penghitungan suara pemilu 2024 yang akan digelar pada 14 - 15 Februari mendatang. Bupati Banyuwangi Ipuk Fiestiandani mengatakan kegiatan apel gelar pasukan pemungutan dan penghitungan suara tersebut merupakan kesiapan akhir dalam rangka mengamankan tahapan pemilu. Ipuk berharap para personel bisa menjalankan tugas dengan tulus dan sebaik-baiknya. "Saya berharap para personel bekerja dengan tulus karena akan bernilai ibadah. Tugas ini tidak dapat dinilai dengan apapun," kata Ipuk saat memimpin apel gelar pasukan Senin (12/02) sore. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Ipuk menyebut tahap pemungutan dan perhitungan adalah tahap paling krusial sehingga seluruh personel harus memahami tugas pokok, peta kerawanan wilayah dan mengedepankan sinergi. "Sehingga jalannya pemilu dapat berjalan aman, nyaman, lancar tanpa adanya gangguan. Mudah-mudahan semuanya sukses," tegas Ipuk. Sementara itu, Kapolresta Banyuwangi Kombes Pol Nanang Hariyono mengatakan total 11.942 personel gabungan dikerahkan untuk melakukan pengamanan di Banyuwangi. Mereka terdiri dari 900 personel Polresta Banyuwangi, 367 personel Kodim 0825 Banyuwangi, 100 personel BKO Polda Jatim, 1 SST Brimob Polda Jatim, 200 personel Satpol PP, 30 petugas Dishub Banyuwangi, dan 10.000 personel Linmas. "Para personel langsung geser ke masing-masing TPS," kata Nanang. Berkaca pada pemilu sebelumnya di mana banyak petugas Pemilu yang sakit dan meninggal, Nanang mengimbau kepada seluruh personel yang terlibat untuk menjaga kesehatan dan memastikan kondusifitas. "Kami imbau personel untuk menjaga kesehatan. Kami juga mengimbau masyarakat untuk berpartisipasi dengan menggunakan hak pilihnya di TPS," imbaunya. Apel ini turut dihadiri sejumlah Forkopimda Banyuwangi, pejabat Kodim 0825 Banyuwangi, Lanal Banyuwangi, Kejaksaan Negeri Banyuwangi, Komisioner KPU dan Bawaslu Banyuwangi. Apel ditutup dengan doa bersama tokoh lintas agama. Diharapkan jalannya Pemilu di Banyuwangi aman lancar tanpa ada gangguan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7189540/11-942-personel-gabungan-diterjunkan-amankan-pemilu-di-banyuwangi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiket Masuk Diskon 10 Persen Bagi Pengunjung yang Ikut Nyoblos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wisatawan yang ingin berkunjung ke seluruh destinasi wisata milik Jatim Park Group, Kota Batu dapat diskon 10% saat 14 Februari 2024. Namun, untuk memperoleh diskon ada beberapa persyaratan khusus yang harus dipenuhi. Manager Marketing and Public Relations, Titik S Ariyanto mengatakan, persyaratan untuk mendapat diskon 10% dengan mudah. Pengunjung cukup menunjukkan tanda tinta atau bukti jika sudah mencoblos pada saat pemilu. "Caranya mudah, cukup dengan menunjukkan tanda tinta pada jari serta bukti coblos pada pemilu. Nanti untuk 100 pengunjung pertama di setiap theme park naungan Jawa Timur Park Group juga akan mendapat eksklusif merchandise," ujarnya saat dikonfirmasi, Senin (12/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Ia menyampaikan, diskon ini disediakan untuk 100 pengunjung pertama di setiap destinasi wisata milik Jatim Park Group. Selain itu, diskon 10% ini berlaku bagi seluruh pengunjung reguler non rombongan serta hanya dapat dibeli pada loket yang tersedia di setiap theme park. Pemberian diskon pada 14 Februari 2024 ini program kampanye bertajuk 'Coblos Dulu, Liburan Kemudian'. Tujuannya untuk mendukung program pemerintah bahwa masyarakat Indonesia masih wajib berperan serta dalam pemilu 2024. "Tujuannya saat libur pemilu itu dikhawatirkan masyarakat lebih memilih untuk liburan daripada nyoblos. Nah kampanye ini tujuannya untuk mendukung program pemerintah bahwa masyarakat Indonesia itu masih wajib berperan serta dalam pemilu," ungkap Titik. Bagi wisatawan yang ingin mengetahui tentang pemilu dan demokrasi bisa mengunjungi Rumah Pintar Pemilu (RPP) Wisata Demokrasi dan Pemilu di Jatim Park 1. Wahana yang diresmikan sejak tahun 2020 ini mengkolaborasikan konsep pendidikan dan wisata demokrasi serta pemilu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/wisata/d-7189082/tiket-masuk-diskon-10-persen-bagi-pengunjung-yang-ikut-nyoblos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dituding Selingkuh, Emak-emak di Malang Tewas Dibunuh Suami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seorang ibu rumah tangga (IRT) di Malang, Jawa Timur, Dayang Santi (40) tewas dibunuh suaminya, Ditya Mukhsan Muhammad (40). Dayang Santi dan suaminya kerap cekcok gegara tudingan selingkuh. Dilansir detikJatim, Senin (12/2/2024), Kasat Reskrim Polres Malang AKP Gandha Syah Hidayat menyebut kedua suami istri ini sering cekcok. Keduanya saling menuduh selingkuh. "Ini sama-sama mencurigai masing-masing memiliki pria idaman lain maupun wanita idaman lain karena memang riwayat dari diari korban ini melambangkan bahwa kurang akur ya," kata Gandha kepada wartawan, Senin (12/2). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Gandha menyebut korban sempat menulis di diarinya jika suaminya hanya bermain handphone saat di rumah. Ditya juga disebut tak pernah mengajak istrinya ngobrol hingga kerap ketahuan membonceng perempuan lain. "Cekcok-cekcok ini karena sering berantem karena cemburu," imbuhnya. Atas perbuatannya, Ditya kini telah ditetapkan sebagai tersangka usai pemeriksaan 12 saksi. Tiga di antaranya merupakan saksi ahli. "Kami memeriksa total sejumlah 12 orang saksi, yang mana dari 12 orang saksi tersebut 3 diantaranya merupakan saksi ahli. Untuk barang bukti yang kita amankan diantaranya video milik korban serta buku diary, berisi curahan isi hati korban," sambungnya. Selain itu, penyidik juga telah memiliki alat bukti yang cukup untuk menetapkan Ditya sebagai tersangka. Alat bukti itu antara lain hasil rekam medis, sejumlah temuan di TKP, dan dilengkapi dengan hasil gelar perkara. "Ada surat lebih dari satu, ahli pun kita pakai lebih dari 2, kemudian keterangan saksi kita ada 9 kemudian petunjuk pola TKP juga sudah dilakukan. Petunjuk itu bersesuaian antara keterangan saksi, keterangan ahli, barang bukti dan surat itu sendiri yaitu sesuai. Makanya kami tetapkan yang bersangkutan inisial DMM sebagai tersangka pelaku KDRT yang menyebabkan korban meninggal dunia," jelas dia. Atas perbuatannya, tersangka dijerat Pasal 44 ayat 1 dan ayat 3 Undang-Undang Nomor 23 Tahun 2004 tentang penghapusan dalam lingkup rumah tangga, dengan ancaman hukuman paling lama 12 tahun penjara. Diberitakan detikJatim sebelumnya, jasad Dayang Santi ditemukan di rumahnya di Perumahan Bumi Mondoroko Raya (BMR) Blok G01, Kecamatan Singosari, Kabupaten Malang, pada Rabu (24/) sekitar pukul 09.00 WIB. Jasad Dayang Santi ditemukan terkapar dengan mulut mengeluarkan busa di lantai kamar. Keterangan tetangga menyebutkan sempat mendengar cekcok. Anak korban Y (6) juga memberikan pengakuan kedua orang tuanya bertengkar dan sempat melihat ayahnya menuangkan cairan pembersih lantai ke dalam gelas. "Saksi melihat ayahnya meminumkan cairan tersebut kepada korban dengan cara memegang pipi korban," ujar Gandha beberapa waktu lalu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jogja/berita/d-7189095/dituding-selingkuh-emak-emak-di-malang-tewas-dibunuh-suami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personel di Polres Blitar Kota Dipertebal demi Antisipasi Kerawanan Pemilu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilayah hukum Polres Blitar Kota masuk daerah rawan Pemilu 2024 berdasarkan hasil pemetaan yang dilakukan Polda Jatim. Personel tambahan diterjunkan ke wilayah hukum Polres Blitar untuk membantu pengamanan Pemilu. "Ada 420 personel akan dilibatkan untuk mengamankan Pemilu di Wilayah Kota Blitar. Sudah termasuk BKO dari Polda Jatim 60 personel. Kemudian juga ada perbantuan dari TNI (Kodim 0808 dan Batalyon 511)," kata Kapolres Blitar Kota AKBP Danang Setiyo PS, Senin (12/2/2024). Danang menyebutkan jumlah personel Polres Blitar Kota cukup terbatas untuk mengamankan 1.577 TPS yang masuk wilayah hukum Polres Blitar Kota. Untuk itulah perlu dilakukan penebalan atau penambahan personel dari Polda Jatim. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Sebanyak 1.577 TPS yang ada di Wilkum Polres Blitar. Tiga kecamatan di Kota Blitar, dan 6 kecamatan Kabupaten Blitar. Jadi membutuhkan banyak personel," terangnya. Berdasarkan data yang dihimpun detikJatim, risiko kerawanan di wilayah hukum Polres Blitar Kota cukup beragam. Di antaranya ada sejumlah kecamatan dengan jumlah DPT yang sangat banyak, kemudian ada TPSyang berdekatan dengan rumah caleg sehingga rawan intervensi caleg tertentu. Danang enggan memberikan penjelasan lebih gamblang tentang potensi kerawanan itu, dia hanya memastikan bahwa masing-masing TPS punya karakteristik kerawanan berbeda. Menurutnya, diperlukan adanya antisipasi dan analisis dalam pola pengamanan di masing-masing TPS. Termasuk tindakan apa yang perlu dilakukan dan rekayasa sosial yang perlu disiapkan bila terjadi hal yang tidak diinginkan. "Potensi kerawanan masing-masing wilayah pasti ada karakteristiknya. Yang jelas kami mengantisipasi itu," tegasnya. Selain itu, Kata Danang, saat ini juga telah masuk musim hujan sehingga diperlukan pengawasan dan pengamanan ekstra logistik pemilu serta lokasi TPS yang telah tersedia. "Makanya mulai hari ini kami harapkan personel bisa langsung menuju TPS untuk pengecekan, membantu persiapan, dan memastikan TPS aman dari resiko lainnya," terangnya. Terpisah, Kapolres Blitar AKBP Wiwit Adisatria menyebutkan pihaknya juga sudah menyiapkan pola pengaman untuk Pemilu 2024. Meskipun wilayah Kabupaten Blitar dinyatakan daerah kurang rawan. "Dari pola pengamanan Polri dan Polda Jatim, wilkum Blitar (Kabupaten) tidak ada wilayah rawan. Adanya TPS kurang rawan. Tapi kami tetap lakukan pengamanan," katanya saat dikonfirmasi detikJatim, Senin (12/2/2024). Berdasarkan data Polres Blitar jumlah personel pengamanan Pemilu mencapai 520 orang. Terdiri dari 300 personel PAM di TPS, 120 personel Dalmas dengan masing-masing rayon 1 pleton, dan 1 kompi lainnya sekitar 100 personel. Wiwit menjelaskan bahwa di wilayah hukum Polres Blitar ada sebanyak 2.396 TPS. Di antaranya terdapat sejumlah TPS yang harus mendapatkan treatment khusus. Misalnya sejumlah TPS yang rawan bencana. "Ada beberpa TPS yang secara demografi masuk rawan bencana. Seperti di wilayah Kecamatan Doko. Tetap diantisipasi dengan pengamanan di masing-masing rayon (Polsek) 1 pleton," katanya. Lebih lanjut, Wiwit memastikan Polres Blitar sudah siap untuk melakukan pengaman Pemilu 2024. Pihaknya berharap Pemilu bisa berjalan lancar dan kondusif.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7189024/personel-di-polres-blitar-kota-dipertebal-demi-antisipasi-kerawanan-pemilu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ini Instruksi Gerindra Jatim ke Seluruh Kader-Simpatisan Jelang Pemilu 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memasuki masa tenang Pemilu 2024, DPD Gerindra Jawa Timur menginstruksikan kepada semua jajaran kader dan simpatisan partai untuk mengawal serta menjaga suara kemenangan. Ketua DPD Gerindra Jatim Anwar Sadad mengatakan, tiga hari masa tenang merupakan momen yang krusial dalam Pemilu. Ia meminta semua kader tidak lengah. "Jangan lengah, meski di survei capres-cawapres kita unggul, partai Gerindra juga unggul. Tiga sampai lima hari ke depan sangat krusial, jaga suara kita, jaga kemenangan kita," kata Anwar Sadad saat dikonfirmasi awak media, Senin (12/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Politikus yang akrab disapa Gus Sadad ini meminta kepada kader untuk menjaga masing-masing TPS. Selain menempatkan masing-masing minimal satu saksi per TPS, ia meminta ada kader Gerindra di setiap TPS. "Agar suara kemenangan Gerindra, suara kemenangan Prabowo-Gibran aman. Awasi sekitar, jaga TPS dari segala potensi kecurangan," tegas Gus Sadad. Gus Sadad menyebut, kemenangan untuk Gerindra dan Prabowo-Gibran sudah di depan mata. Ia meminta semua kader untuk menuntaskan misi kemenangan. "Kemenangan sudah di depan mata, semua kader tuntaskan kerja keras kita selama 4 tahun terakhir ini dengan hasil semaksimal mungkin di Pemilu 2024," tandas Gus Sadad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7188941/ini-instruksi-gerindra-jatim-ke-seluruh-kader-simpatisan-jelang-pemilu-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabrak Jembatan, Pelajar SMA Tewas Terpental ke Sungai Gianyar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kecelakaan maut terjadi di jembatan gantung Jalan Bypass Ida Bagus Mantra, Ketewel, Kecamatan Sukawati, Gianyar, Bali, malam tadi. Seorang pelajar tewas setelah menabrak jembatan dan terpental ke sungai. "Korban mengendarai motor besar, kemungkinan tidak mampu mengendalikan kecepatan motornya, oleng dan menabrak jembatan dan tewas di tempat, semalam," kata Kanit Laka Satlantas Polres Gianyar Ipda I Made Suarjana kepada detikBali, Senin (12/2/2024). Korban bernama Andre Reduli (17) asal Banyuwangi, Jawa Timur (Jatim). Dia adalah seorang pelajar SMA di sana. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Suarjana mengatakan, korban meluncur dari arah barat ke timur. Setiba di lokasi, Andre diduga tak bisa mengendalikan motornya hingga menabrak pembatas jembatan. Andre lantas terpental ke sungai dari ketinggian 15 meter. Korban meninggal dunia di tempat dengan tubuh penuh luka, tangan dan kakinya patah. "Sudah dievakuasi ke RSU Sanjiwani, Gianyar," pungkasnya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/bali/berita/d-7188844/tabrak-jembatan-pelajar-sma-tewas-terpental-ke-sungai-gianyar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratusan Ribu Kendaraan Melintasi 3 Tol di Jatim Selama Long Weekend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratusan ribu kendaraan berlalu-lalang di jalan tol Trans Jawa. Sebagian di antaranya memadati kawasan Jatim pada 7-10 Februari 2024 atau saat libur panjang (long weekend) Isra Mikraj dan Tahun Baru Imlek. VP Corporate Secretary and Legal PT Jasa Marga Trans Jawa Tol Ria Marlinda Paallo mengatakan, puncak arus lalin dari wilayah Jatim menuju sejumlah daerah terjadi pada Minggu (11/2/2024). Di antaranya di Gerbang Tol (GT) Warugunung, Kejapanan Utama, dan Singosari. "Untuk GT Waru Gunung pada periode 7-10 Februari 2024, tercatat sebanyak 87.582 kendaraan menuju Jakarta atau naik 17,58% dari lalin normal sebanyak 74.485 kendaraan," kata Ria dalam keterangannya, Senin (12/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Untuk kendaraan yang menuju Surabaya melalui GT Waru Gunung tercatat sebanyak 87.004 kendaraan atau naik 17,00% dari lalin normal 74.365 kendaraan," imbuh dia. Pada periode yang sama, tercatat sebanyak 139.832 kendaraan menuju Malang atau naik 39,61% dari lalin normal, yakni 100.156 kendaraan. Sebaliknya, kendaraan yang menuju Surabaya tercatat sebanyak 124.871 kendaraan atau naik 24,01% dari lalin normal sebanyak 100.692 kendaraan. Lalu, pada GT Singosari tercatat sebanyak 68.391 kendaraan menuju Malang atau naik 26,25% dari lalin normal sebanyak 54.169 kendaraan. Sebaliknya, kendaraan yang menuju Surabaya tercatat sebanyak 59.561 kendaraan atau naik 27,64% dari lalin normal sebanyak 46.663 kendaraan. Secara keseluruhan, Ria menyebutkan, 156.454 kendaraan meninggalkan Jakarta melalui GT Cikampek Utama naik 37,44% jika dibandingkan lalin normal, yakni 113.834 kendaraan. Sementara, kendaraan yang menuju Jakarta mencapai 123.192 kendaraan atau naik 14,92% dari lalin normal sebanyak 107.197 kendaraan. Ria pun mengimbau pengendara untuk mempersiapkan diri sebelum memasuki perjalanan di jalan tol. Pastikan diri dan kendaraan dalam kondisi prima. "Pastikan kecukupan BBM dan saldo uang elektronik, serta mematuhi rambu-rambu dan arahan petugas di lapangan," tuturnya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7188832/ratusan-ribu-kendaraan-melintasi-3-tol-di-jatim-selama-long-weekend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masa Tenang, PDIP Jatim Instruksikan Kader hingga Caleg Turunkan APK</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sejumlah partai politik dan caleg ikut menurunkan Alat Peraga Kampanye (APK) di wilayah masing-masing selama masa tenang Pemilu 2024. Salah satunya PDI Perjuangan (PDIP) yang dengan tegas menginstruksikan kepada seluruh kader maupun simpatisannya untuk membereskan APK secara mandiri. Ketua DPD PDIP Jatim Said Abdullah menegaskan, seluruh caleg PDIP di Jatim ikut membantu Satpol PP dan Bawaslu menurunkan berbagai APK di beberapa lokasi. Said mengatakan, partisipasi aktif dari para caleg maupun anggota partai dalam menjaga kebersihan dan keteraturan APK sangat penting untuk menciptakan suasana kondusif jelang pencoblosan. "Kita tunjukkan kepedulian kita terhadap lingkungan setempat dengan partisipasi turun ke jalan keliling. Kader PDI Perjuangan ikut membantu untuk membenahi dan membereskan seluruh Alat Peraga Kampanye yang telah terpasang di daerah masing-masing," jelas Said, Senin (12/2/2024). 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
  Selain imbauan tersebut, Said juga mengajak seluruh masyarakat Jatim turut aktif dalam pesta demokrasi 5 tahunan ini dengan menyalurkan hak pilihnya ke TPS masing-masing."Tanggal 14 Februari saya mengajak seluruh masyarakat Jawa Timur untuk hadir ke Tempat Pemungutan Suara (TPS) masing-masing, memberikan hak pilih dan hak suaranya, serta menjadi Warga Negara Indonesia yang baik dengan memenuhi kewajibannya dalam proses demokrasi," kata pria yang juga menjabat sebagai Ketua Banggar DPR RI tersebut.. Diketahui, menjelang pelaksanaan Pemilu 14 Februari 2024, Indonesia memasuki masa tenang sesuai dengan ketentuan yang diatur dalam Peraturan KPU Nomor 15 Tahun 2023 tentang Kampanye Pemilihan Umum. Masa tenang ini berlangsung selama 3 hari. Mulai 11 Februari 2024 hingga H-1 Pemilu atau 13 Februari 2024. Selama masa tenang ini, seluruh peserta pemilu, termasuk calon dan pendukungnya, dilarang untuk kampanye maupun melakukan berbagai aktivitas politik yang bisa memengaruhi opini publik. Hal ini bertujuan untuk menciptakan situasi yang kondusif dan adil menjelang hari pemungutan suara, sehingga masyarakat dapat memilih secara tenang dan rasional sesuai dengan hak suara masing-masing. Simak Video 'Momen APK di Sejumlah Daerah Mulai Dibersihkan di Masa Tenang':   [Gambas:Video 20detik] </t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7188691/masa-tenang-pdip-jatim-instruksikan-kader-hingga-caleg-turunkan-apk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanya Berjarak 6 Bulan, Kasus Pemerkosaan Turis Wanita di Bali Terjadi Lagi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasus pemerkosaan terhadap turis asing di Bali kembali terjadi. Kali ini, turis wanita asal China diperkosa oleh pemandu wisata. Ini merupakan kasus kedua dalam enam bulan terakhir. Awalnya, seorang turis wanita asal Brasil diperkosa oleh driver ojek online (ojol). Berikut rangkuman dua kasus itu: Driver Ojol Perkosa Turis Brasil Seorang turis wanita asal Brasil, GWL, menjadi korban pemerkosaan di Bali. Wisatawan itu diperkosa driver ojol saat dalam perjalan menuju vila di kawasan Jimbaran, Kuta Selatan, 7 Agustus 2023. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Selama dalam perjalanan korban (GWL) terus diajak mengobrol oleh pelaku sampai tidak memperhatikan map (peta) perjalanan," ungkap Kabid Humas Polda Bali Kombes Jansen Avitus, Senin (7/8/2023). Driver ojol yang memerkosa wanita asal Brasil itu adalah WD. Pria asal Jember, Jawa Timur, itu berupaya memerkosa GWL dan sempat membanting turis asing itu di tanah kosong. WD mencekik leher dan menutup mulut GWL. Perempuan berusia 26 tahun itu berupaya melawan dengan memukul menggunakan botol air mineral. GWL sempat kabur, tapi WD menangkapnya dan kembali membanting tubuh wisatawan asing itu. Seusai diperkosa, WD mengantar GWL pulang ke Villa Asri Jimbaran. Polisi kemudian bergerak memburu WD. Dia ditangkap di Pasuruan, Jatim, dua hari berikutnya. Pemandu Wisata Perkosa Turis China Berselang enam bulan kemudian, kasus pemerkosaan terhadap turis wanita kembali terjadi. Kali ini, perempuan asal China, HJT, diperkosa oleh guide atau pemandu wisata bernama Faisal Akbar Ramadhan.Kasi Humas Polresta Denpasar AKP I Ketut Sukadi mengungkapkan Faisal ditangkap di sebuah hotel di kawasan Nusa Dua, Kuta Selatan, Badung, Bali. Faisal diamankan oleh sekuriti hotel dan teman korban setelah memerkosa HJT. Kemudian, peristiwa itu dilaporkan ke polisi. "Saat ini pelaku sudah diamankan di Sat Reskrim Polresta Denpasar, sedang menjalani pemeriksaan dan penyidikan secara intensif," kata Sukadi dalam keterangannya, Sabtu (10/2/2024). Saat diinterogasi polisi, Faisal mengaku awalnya menawarkan diri sebagai pemandu sekaligus sopir pribadi HJT selama berwisata di Pulau Dewata. HJT dan temannya menggunakan jasa Faisal untuk mengantar dan menemani mereka ke tempat hiburan malam pada Rabu (7/2/2024). "Mereka sempat menikmati hiburan dan minum alkohol hingga pukul 01.00 Wita. Setelah itu, korban dan temannya meminta tersangka untuk mengantar mereka kembali ke hotel di kawasan Nusa Dua," ungkap Sukadi. Bukannya mengantarkan turis China itu ke hotel tempat mereka menginap, Faisal justru membawa mereka ke hotel lain di kawasan Benoa. Faisal lantas mengajak HJT masuk ke kamar hotel tersebut dengan alasan mengambil hadiah untuk diberikan kepada temannya. Saat itulah Faisal melancarkan niat bejatnya dan memerkosa perempuan China berusia 26 tahun tersebut. Menurut Sukadi, HJT yang dalam kondisi mabuk sempat berusaha menyelamatkan diri. Tapi, upaya tersebut gagal. "Korban berusaha melakukan perlawanan dengan pelaku, tetapi pelaku menutup wajah korban dengan bantal dan menyetubuhi korban," imbuh Sukadi. Kini, Faisal dijerat Pasal 285 KUHP tentang pemerkosaan. Ia terancam hukuman penjara maksimal 12 tahun.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/bali/hukum-dan-kriminal/d-7188359/hanya-berjarak-6-bulan-kasus-pemerkosaan-turis-wanita-di-bali-terjadi-lagi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebagian Besar Daerah di Jatim Diprediksi Hujan Ringan Senin 12 Februari 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebagian besar wilayah Jatim diprediksi hujan ringan di hari Senin 12 Februari 2024. Namun ada sebagian yang dilanda hujan lebat. Puncak suhu tertinggi berada di Kota Gresik dan Kota Surabaya yang mencapai hingga 34 derajat celsius. BMKG sendiri mengimbau kepada masyarakat yang tinggal di daerah yang diprediksi hujan lebat agar waspada terhadap petir dan angin kencang sesaat. Informasi cuaca lebih detil untuk tiap-tiap daerah di Jatim dapat dilihat di bawah berikut ini. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ 1. Bangkalan Cuaca: Pagi (Cerah berawan) Siang (Hujan ringan) Malam (Hujan ringan) Dini hari (Berawan) Suhu: 25-32 derajat celsius  2. Banyuwangi Cuaca: Pagi (Cerah berawan) Siang (Hujan lebat) Malam (Berawan) Dini hari (Cerah berawan) Suhu: 24-32 derajat celsius  3. Batu Cuaca: Pagi (Cerah berawan) Siang (Hujan ringan) Malam (Hujan ringan) Dini hari (Berawan) Suhu: 17-29 derajat celsius  4. Bojonegoro Cuaca: Pagi (Berawan) Siang (Hujan ringan) Malam (Cerah berawan) Dini hari (Cerah berawan) Suhu: 24-32 derajat celsius  5. Bondowoso Cuaca: Pagi (Cerah berawan) Siang (Hujan lebat) Malam (Berawan) Dini hari (Cerah berawan) Suhu: 23-28 derajat celsius  6. Gresik Cuaca: Pagi (Berawan) Siang (Cerah berawan) Malam (Hujan ringan) Dini hari (Cerah berawan) Suhu: 25-34 derajat celsius  7. Jember Cuaca: Pagi (Berawan) Siang (Hujan ringan) Malam (Berawan) Dini hari (Berawan) Suhu: 22-31 derajat celsius  8. Jombang Cuaca: Pagi (Berawan) Siang (Hujan ringan) Malam (Hujan ringan) Dini hari (Berawan) Suhu: 23-32 derajat celsius  9. Kabupaten Blitar Cuaca: Pagi (Cerah berawan) Siang (Cerah berawan) Malam (Cerah berawan) Dini hari (Berawan) Suhu: 23-31 derajat celsius  10. Kabupaten Kediri Cuaca: Pagi (Berawan) Siang (Hujan ringan) Malam (Berawan) Dini hari (Berawan) Suhu: 23-32 derajat celsius  11. Kabupaten Madiun Cuaca: Pagi (Cerah berawan) Siang (Hujan ringan) Malam (Cerah berawan) Dini hari (Berawan) Suhu: 23-32 derajat celsius  12. Kabupaten Malang Cuaca: Pagi (Cerah berawan) Siang (Cerah berawan) Malam (Berawan) Dini hari (Berawan) Suhu: 20-31 derajat celsius  13. Kabupaten Mojokerto Cuaca: Pagi (Cerah berawan) Siang (Hujan lebat) Malam (Berawan) Dini hari (Cerah berawan) Suhu: 22-30 derajat celsius  14. Kabupaten Pasuruan Cuaca: Pagi (Cerah berawan) Siang (Hujan ringan) Malam (Berawan) Dini hari (Cerah berawan) Suhu: 23-30 derajat celsius  15. Kabupaten Probolinggo Cuaca: Pagi (Cerah berawan) Siang (Hujan lebat) Malam (Hujan ringan) Dini hari (Berawan) Suhu: 22-31 derajat celsius  16. Kota Blitar Cuaca: Pagi (Berawan) Siang (Hujan ringan) Malam (Cerah berawan) Dini hari (Berawan) Suhu: 23-31 derajat celsius  17. Kota Kediri Cuaca: Pagi (Berawan) Siang (Hujan ringan) Malam (Hujan ringan) Dini hari (Cerah berawan) Suhu: 23-33 derajat celsius  18. Kota Madiun Cuaca: Pagi (Cerah berawan) Siang (Cerah berawan) Malam (Cerah berawan) Dini hari (Cerah berawan) Suhu: 23-32 derajat celsius  19. Kota Malang Cuaca: Pagi (Cerah berawan) Siang (Hujan ringan) Malam (Berawan) Dini hari (Berawan) Suhu: 20-31 derajat celsius  20. Kota Mojokerto Cuaca: Pagi (Cerah berawan) Siang (Hujan ringan) Malam (Cerah berawan) Dini hari (Cerah berawan) Suhu: 24-32 derajat celsius  21. Kota Pasuruan Cuaca: Pagi (Cerah berawan) Siang (Hujan ringan) Malam (Hujan ringan) Dini hari (Cerah berawan) Suhu: 24-31 derajat celsius  22. Kota Probolinggo Cuaca: Pagi (Cerah berawan) Siang (Hujan petir) Malam (Hujan ringan) Dini hari (Berawan) Suhu: 25-31 derajat celsius  23. Lamongan Cuaca: Pagi (Berawan) Siang (Hujan ringan) Malam (Hujan ringan) Dini hari (Cerah berawan) Suhu: 24-32 derajat celsius  24. Lumajang Cuaca: Pagi (Berawan) Siang (Hujan ringan) Malam (Berawan) Dini hari (Berawan) Suhu: 23-31 derajat celsius  25. Magetan Cuaca: Pagi (Cerah berawan) Siang (Hujan petir) Malam (Hujan petir) Dini hari (Cerah berawan) Suhu: 23-29 derajat celsius  26. Nganjuk Cuaca: Pagi (Berawan) Siang (Hujan ringan) Malam (Berawan) Dini hari (Kabut) Suhu: 23-30 derajat celsius  27. Ngawi Cuaca: Pagi (Berawan) Siang (Hujan ringan) Malam (Berawan) Dini hari (Cerah berawan) Suhu: 24-30 derajat celsius  28. Pacitan Cuaca: Pagi (Hujan ringan) Siang (Cerah berawan) Malam (Cerah berawan) Dini hari (Cerah berawan) Suhu: 23-32 derajat celsius  29. Pamekasan Cuaca: Pagi (Berawan) Siang (Hujan ringan) Malam (Berawan) Dini hari (Berawan) Suhu: 24-32 derajat celsius  30. Ponorogo Cuaca: Pagi (Cerah berawan) Siang (Hujan petir) Malam (Cerah berawan) Dini hari (Cerah berawan) Suhu: 24-30 derajat celsius  31. Sampang Cuaca: Pagi (Cerah berawan) Siang (Cerah berawan) Malam (Cerah berawan) Dini hari (Cerah berawan) Suhu: 24-32 derajat celsius  32. Sidoarjo Cuaca: Pagi (Cerah berawan) Siang (Berawal tebal) Malam (Hujan ringan) Dini hari (Berawan) Suhu: 24-33 derajat celsius  33. Situbondo Cuaca: Pagi (Cerah berawan) Siang (Hujan lebat) Malam (Hujan ringan) Dini hari (Cerah berawan) Suhu: 23-31 derajat celsius  34. Sumenep Cuaca: Pagi (Cerah berawan) Siang (Hujan petir) Malam (Berawan) Dini hari (Cerah berawan) Suhu: 24-33 derajat celsius  35. Surabaya Cuaca: Pagi (Berawan) Siang (Hujan ringan) Malam (Berawan) Dini hari (Cerah berawan) Suhu: 24-34 derajat celsius  36. Trenggalek Cuaca: Pagi (Cerah berawan) Siang (Hujan ringan) Malam (Hujan ringan) Dini hari (Cerah berawan) Suhu: 22-30 derajat celsius  37. Tuban Cuaca: Pagi (Cerah berawan) Siang (Hujan ringan) Malam (Cerah berawan) Dini hari (Berawan) Suhu: 23-32 derajat celsius 38. Tulungagung Cuaca: Pagi (Kabut) Siang (Hujan ringan) Malam (Berawan) Dini hari (Kabut) Suhu: 23-30 derajat celsius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7188145/sebagian-besar-daerah-di-jatim-diprediksi-hujan-ringan-senin-12-februari-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasus Pemerkosaan Turis Wanita di Bali Terjadi Lagi dan Lagi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kasus pemerkosaan terhadap turis wanita di Bali terjadi lagi. Kali ini, pelakunya pemandu wisata dan korbannya turis China. Ini adalah kasus kedua yang terjadi di Bali. Masih segar dalam ingatan, beberapa bulan lalu, tepatnya pada bulan Agustus 2023, seorang turis Brasil diperkosa oleh driver ojol di Bali. Peristiwa pemerkosaan itu terjadi di sepetak tanah kosong Jalan Nyang-nyang, Kelurahan Jimbaran, Kecamatan Kuta Selatan, Kabupaten Badung. Peristiwa memilukan itu terjadi pada rentang waktu pukul 04.00 hingga 05.00 Wita, Senin (7/8/2023). 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
  Pelaku adalah laki-laki berinisial WD asal Kecamatan Bangsalsari, Kabupaten Jember, Jawa Timur (Jatim). Adapun korban pemerkosaan itu yakni turis perempuan asal Brasil berinisial GWL (26). "Korban merupakan wisatawan asal Brasil yang berlibur ke Bali dan menginap di salah satu vila di daerah Jimbaran," ungkap Kepala Bidang Hubungan Masyarakat (Kabid Humas) Polda Bali, Kombes Jansen Avitus Panjaitan. Jansen menjelaskan, GWL memesan ojol dari Puri Kelapa Quest By Bukit Villa dengan tujuan Villa Asri Jimbaran. Pesanan tersebut diambil oleh WD. "Selama dalam perjalanan korban (GWL) terus diajak mengobrol oleh pelaku sampai tidak memperhatikan map (peta) perjalanan," tutur Jansen. Sesampainya di sebuah tanah kosong, WD membelokkan motornya dan menyuruh GWL turun. Pria itu kemudian berupaya memerkosa GWL dan sempat membanting turis asing itu. Bahkan, WD sempat mencekik leher dan menutup mulut GWL. Perempuan berusia 26 tahun itu berupaya melawan dengan cara memukul WD menggunakan botol air mineral. GWL sempat kabur, tapi WD menangkapnya dan kembali membanting tubuh turis Brasil itu. Seusai diperkosa, pria pendatang dari luar Bali itu mengantar GWL pulang ke Villa Asri Jimbaran. 5 Bulan berselang, tepatnya di bulan Februari ini, turis asing kembali diperkosa di Bali. Kali ini, korbannya adalah seorang turis China berinisial HJT. Pelakunya, bukan driver ojol lagi, melainkan seorang pemandu wisata bernama Faisal Akbar Ramadhan, pria pendatang berusia 29 tahun dari Surabaya. Faisal ditangkap di sebuah hotel di kawasan Nusa Dua, Kuta Selatan, Badung, Bali. Fajar diamankan oleh sekuriti hotel dan teman korban setelah ketahuan memperkosa turis perempuan asal China itu. Kasus tersebut kemudian dilaporkan ke polisi. Kepala Seksi Hubungan Masyarakat (Kasi Humas) Polresta Denpasar, AKP I Ketut Sukadi mengatakan, pelaku saat ini sudah diamankan di Sat Reskrim Polresta Denpasar. Saat diinterogasi polisi, pria pendatang itu mengaku menawarkan diri sebagai pemandu wisata, sekaligus sopir pribadi HJT selama liburan di Pulau Dewata. HJT dan temannya pun sepakat menggunakan jasa Faisal untuk mengantarkan dan menemani mereka menuju ke sebuah tempat hiburan malam pada Rabu (7/2/2024). "Mereka sempat menikmati hiburan dan minum alkohol hingga pukul 01.00 Wita. Setelah itu, korban dan temannya meminta tersangka untuk mengantar mereka kembali ke hotel di kawasan Nusa Dua," ungkap Sukadi. Bukannya mengantarkan turis China itu kembali ke hotel tempatnya menginap, Faisal justru membawa mereka ke hotel lain di kawasan Benoa. Faisal lantas mengajak HJT masuk ke kamar hotel tersebut dengan alasan mengambil hadiah untuk temannya. Setelah itu, Faisal kemudian memuaskan nafsu bejatnya dan memerkosa turis China berusia 26 tahun tersebut.  Simak Video 'Ojol Pemerkosa Turis Brasil di Bali Ditangkap di Pasuruan':  [Gambas:Video 20detik]  Saksikan juga SOSOK pilihan minggu ini: Menilik Dapur Musik Vandra  [Gambas:Video 20detik]  </t>
   </si>
   <si>
+    <t xml:space="preserve">https://travel.detik.com/travel-news/d-7188122/kasus-pemerkosaan-turis-wanita-di-bali-terjadi-lagi-dan-lagi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimisme Jatim Bisa Pertahankan Gelar Juara Umum MTQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekdaprov Jatim Adhy Karyono membuka seleksi calon peserta Musabaqah Tilawatil Qur'an (MTQ) XXX Tingkat Nasional yang dilaksanakan di Harris Hotel and Convention Malang, Minggu (11/2). Seleksi ini dibagi menjadi dua tahap. Tahap pertama dilakukan pada 11-13 Februari. Sedangkan tahap kedua berlangsung setelah Pemilu, yakni 15-17 Februari 2024. Dalam kesempatan tersebut, sekdaprov yang akrab disapa Adhy itu mengatakan bahwa Jawa Timur optimis dapat kembali membawa pulang gelar juara umum. Terlebih setelah Jatim memenangkannya pada MTQ Nasional XXIX Tahun 2022 lalu di Provinsi Kalimantan Selatan. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Pesan Bu Gubernur dulu saat 2022 adalah kalau berdoa, minta yang terbaik. Alhamdulillah kita langsung juara umum. Tahun ini, tugas kita adalah mempertahankannya. Maka kita start dengan optimis bisa menang lagi," katanya. Meski begitu, Adhy menegaskan untuk mencapai target ini, dibutuhkan sinergitas dan kolaborasi matang dari semua pihak terkait. Tak hanya itu, perencanaan baik juga harus dilakukan. "Ini akan kami perlakukan sama dengan kompetisi penting lainnya seperti PON. Jadi persiapan dan manajemennya harus lebih profesional dan mengarah ke lebih baik," katanya. "Selain itu, kita butuh seleksi yang ketat, pembinaan yang kuat, dan doa dari pemerintah, orang tua maupun para kyai. Insya Allah ikhtiar diiringi doa sama-sama memberikan hasil yang dahsyat," lanjut Adhy. Lebih lanjut Adhy menjelaskan bahwa seleksi MTQ ini menjadi bagian dari usaha peningkatan Indeks Kesalehan Sosial (IKS) Jawa Timur. Di mana, pada 2022, IKS mencapai 72,03 dari skala 0-100. "Untuk dari pemerintah sendiri kami support sepenuhnya. Apa yang dibutuhkan, mulai dari anggaran dan pembinaan intens insya Allah akan kami usahakan semaksimal mungkin," pungkas Adhy. Tahap pertama ini sendiri diikuti oleh 99 putra-putri terbaik Jawa Timur, dengan rincian 49 laki-laki dan 50 perempuan. Pemenang dari seleksi ini nantinya akan mewakili Jawa Timur dalam MTQ Nasional XXX 2024 yang rencananya dilaksanakan di Kota Samarinda, Kalimantan Timur pada September mendatang. Terdapat 7 cabang yang akan dikompetisikan baik untuk regu putra maupun putri. Yaitu Seni Baca Al-Qur'an, Qiraatul Qur'an, Hafalan Al-Qur'an, Tafsir Al-Qur'an, Fahmil Qur'an, Syarhil Qur'an, serta Seni Baca Al-Qur'an.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7188148/optimisme-jatim-bisa-pertahankan-gelar-juara-umum-mtq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khofifah Serahkan PLTS Atap ke Puluhan Ponpes-UMKM se-Jatim di Probolinggo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gubernur Jawa Timur (Jatim) Khofifah Indar Parawansa menyerahkan bantuan Pembangkit Listrik Tenaga Surya (PLTS) atap kepada Pimpinan Pondok Pesantren (Ponpes) se-Jatim dan pelaku Usaha Mikro Kecil Menengah (UMKM). Penyerahan bantuan digelar di Probolinggo. Seremoni penyerahan bantuan itu dilaksanakan di Pelabuhan Perikanan Mayangan (PPM), Kelurahan/Kecamatan Mayangan, Kota Probolinggo pada Minggu (11/2/2024) malam. Penyerahan secara simbolis itu ditandai penekanan tombol sirene dan saklar oleh Gubernur Khofifah. "Penyerahan ini untuk memaksimalkan apa yang menjadi mandat. Kebetulan ada PLTS yang belum diserahkan, oleh karena itu malam ini kami serahkan. Ada ponpes, UMKM, dan perkantoran pemerintah," kata Gubernur Khofifah. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Menuju 2060, kata Khofifah, ada proses dan tahapan yang harus dilakukan bersama berkaitan pengalihan energi fosil ke nonfosil yang sudah mulai dilakukan di sejumlah tempat. "Oleh karena itu di tahun 2019 kami melahirkan Perda Rued (Rencana Umum Energi Daerah,red) Jawa Timur. Ini yang kami coba ukur sampai di mana kita bisa mencapai dan melampaui target Perda Rued itu 6,55% dan pada 2023 mencapai 9,37 persen," pungkasnya. Bantuan PLTS Atap 1 KWP itu diserahkan kepada UMKM Dapoer Oethi, Kota Probolinggo, PLTS Atap 1 KWP kepada UMKM Konveksi Cumang, Kota Probolinggo, PLTS Atap 1 KWP kepada UMKM Konveksi CV Hirma, Kota Probolinggo Kemudian PLTS Atap 1 KWP kepada UMKM UD. Nusa Sari, Kota Probolinggo, PLTS Atap 25 KWP kepada Kantor UPT PPP Mayangan Kota Probolinggo, PLTS Atap 1 KWP kepada Pondok Pesantren Tanfidzul Quran Kyai Said, Kabupaten Gresik. Lalu PLTS Atap 1 KWP kepada Pondok Pesantren Maslahatul Ikhwan, Kabupaten Jember, PLTS Atap 5 KWP kepada Pondok Pesantren Darul Ulum Banyu Anyar, Kabupaten Pamekasan, PLTS Atap 5 KWP ke Pondok Pesantren Sunan Ampel, Kabupaten Banyuwangi. PLTS Atap 5 KWP kepada Pondok Pesantren Al Islami Assalafi Gedongsari, Kabupaten Nganjuk, PLTS Atap 5 KWP kepada Pondok Pesantren Nurul Hakim, Masjid Nur Hasan, Kabupaten Kediri, PLTS Atap 5 KWP kepada Pondok Pesantren Mambaul Ulum, Kabupaten Malang PLTS Atap 5 KWP kepada Pondok Pesantren Al Hidayah, Kota Batu, PLTS Atap 5 KWP kepada Pondok Pesantren Ngalah, Yayasan Darut Taqwa, Kabupaten Pasuruan, PLTS Atap 5 KWP kepada Yayasan Tarbiyah Islam, Kabupaten Pasuruan. PLTS Atap 5 KWP kepada Pondok Pesantren Al Amin Putri, Kota Mojokerto, PLTS Atap 5 KWP kepada Pondok Pesantren Nurul Qadim, Kabupaten Probolinggo, PLTS Atap 5 KWP kepada Yayasan Amanatul Al Munawwar, Kabupaten Bojonegoro. PLTS Atap 5 KWP kepada Pondok Pesantren Al Rosyid, Kabupaten Bojonegoro, PLTS Atap 5 KWP kepada Pondok Pesantren Al Falah, Kabupaten Kediri, PLTS Atap 10 KWP kepada Pondok Pesantren Nazhatut Thullab, Kabupaten Sampang. PLTS Atap 10 KWP kepada Pondok Pesantren Modern Al Fatimah, Kabupaten Bojonegoro, PLTS Atap 10 KWP kepada Pondok Pesantren Al Amin, Kota Kediri, PLTS Atap 10 KWP kepada Pondok Pesantren Putri Salafiyah 2, Kabupaten Pasuruan Terakhir, PLTS Atap 10 KWP ke Pondok Pesantren Al Rifaie 1, Kabupaten Malang, PLTS Atap 10 KWP kepada Pondok Pesantren Al Amin Japan Sooko, Kabupaten Mojokerto, PLTS SHS sebesar 74 Unit kepada Kelompok Masyarakat Sumber Urip Kabupaten Pasuruan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7188149/khofifah-serahkan-plts-atap-ke-puluhan-ponpes-umkm-se-jatim-di-probolinggo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banyuwangi Borong 2 Penghargaan di Sapa Insan Budaya dan Pariwisata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anjang Sapa Insan Budaya dan Pariwisata Jawa Timur menjadi ajang unjuk kebolehan kinerja pemerintah daerah di bidang budaya dan pariwisata. Dalam ajang ini, Banyuwangi berhasil memborong dua penghargaan dari Pemprov Jawa Timur. Penghargaan itu adalah Kepala Daerah Pendukung Kebudayaan Terbaik serta penghargaan atas terpilihnya Festival Gandrung Sewu dan Banyuwangi Ethno Carnival sebagai bagian dari Karisma Event Nusantara (KEN). Kegiatan Sapa Insan Budaya dan Pariwisata Jawa Timur berlangsung meriah di gedung Graha Wisata Dinas Kebudayaan dan Pariwisata Provinsi Jawa Timur Rabu (7/2) malam. Penghargaan diserahkan langsung oleh Gubernur Jawa Timur Khofifah Indar Parawansa dan diterima oleh sekretaris Daerah Mudjiono . 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Kami berterima kasih kepada Pemprov Jatim yang telah mengapresiasi Banyuwangi atas upaya melestarikan dan mengembangkan budaya dan pariwisata daerah," ujar Bupati Ipuk Fiestiandani, Minggu (11/2/2024). Bupati Ipuk menegaskan pemerintah daerah terus berkomitmen untuk melestarikan dan mengembangkan seni dan budaya lokal. Dengan memfasilitasi melalui berbagai event, melakukan regenerasi hingga menjadikannya sebagai kekuatan utama dalam mengangkat pariwisata daerah. "Sebagaimana Festival Gandrung Sewu dan Banyuwangi Ethno Carnival yang sejak 2023 masuk agenda KEN, keduanya berawal dari upaya untuk bisa melestarikan sekaligus mengenalkan seni budaya lokal pada publik luas. Kami bersyukur upaya tersebut berbuah positif," ujar Bupati Ipuk. Sekretaris Kabupaten Mujiono menambahkan kedua penghargaan tersebut diberikan kepada kepala daerah yang peduli pada kearifan lokal, terutama pada pelaku seni dan budaya di Jatim. Penghargaan sebagai Kepala Daerah Pendukung Kebudayaan Terbaik didapat lantaran Bupati dinilai memiliki komitmen dan konsisten pada pelestarian seni dan budaya di Bumi Blambangan. "Salah satunya memberikan wadah aktualisasi dan regenerasi melalui agenda Banyuwangi Festival yang mengakomodir banyak event seni budaya serta melibatkan generasi muda sebagai talent-talent baru," ujar Mujiono. Sementara itu, berkenaan dengan Gandrung Sewu dan BEC, selain masuk KEN 2024, event ini juga mendapat poin plus dari Pemprov Jatim. Sebab, event ini menumbuhkan kebanggaan masyarakat akan seni-budaya daerah. "Bukan hanya peserta, tetapi ibu-bapak, kakek-nenek, hingga saudara-saudara para siswa yang tampil pada ajang Gandrung Sewu juga turut bangga. Sedangkan siswa yang tampil juga mendapat sertifikat yang bermanfaat menambah poin saat siswa tersebut mendaftar ke jenjang pendidikan lebih tinggi," pungkas Mujiono.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/budaya/d-7188134/banyuwangi-borong-2-penghargaan-di-sapa-insan-budaya-dan-pariwisata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasar Murah di Banyuwangi Diserbu Warga, Ratusan Sembako Ludes Terjual</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Warga Banyuwangi menyerbu pasar murah yang digelar Dinas Perindustrian dan Perdagangan Pemprov Jatim. Pasar murah ini serangkaian kunjungan Gubernur Jawa Timur Kofifah Indar Parawansa di halaman SMAN 2 Taruna Bhayangkara, Kecamatan Genteng, Minggu (11/2/2024). Ratusan warga yang memadati area pasar murah rela antre demi mendapatkan sembako murah berupa beras, telur, gula dan minyak goreng. Salah satunya Desi (28), yang mengaku terbantu dengan keberadaan pasar murah tersebut. "Alhamdulilah bisa berhemat puluhan ribu, karena harga bahan pokok seperti beras di pasar sekarang mahal," ungkap warga Genteng Kulon ini. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Desi menyebut, harga beras di pasaran kini berkisar Rp 70 ribu lebih per 5 kilogram. Sementara di pasar murah ini dijual dengan harga Rp 51 ribu dengan berat yang sama. Harga gula pasir di pasar murah ini dijual Rp 14 ribu, sementara di pasaran Rp 16 ribu-Rp 16.500 per kilogram. Ada juga telur yang cuma Rp 23 ribu, jauh lebih murah dibanding harga pasar antara Rp 26-27 ribu per kilogram. "Meski setiap orang hanya dibatasi dua karung beras seberat 5 kilogram, tapi ini sangat membantu kami. Harapan kami bisa sering-sering mengadakan acara pasar murah seperti ini," cetusnya. Warga lain, Kariadi (50) mengaku sengaja datang ke pasar murah tersebut untuk membeli beras. Tak sendiri, ia datang bersama salah satu anggota keluarganya. "Satu orang cuma boleh beli dua kemasan beras, jadi saya sama anak beli biar bisa untuk persediaan di rumah," kata Kariadi. Bupati Banyuwangi Ipuk Diet mengatakan, kehadiran pasar murah dapat membantu mengendalikan harga pasar sehingga berdampak pada pengendalian Inflasi Daerah. Hal tersebut selaras dengan tugas Tim Pengendali Inflasi Daerah (TPID) untuk melakukan langkah preventif dengan memastikan ketersediaan bahan pokok yang mudah dijangkau masyarakat. "Ketika ada harga kebutuhan pokok tertentu yang melesat cukup tinggi, maka toko penyeimbang akan menjual barang yang naik itu dengan harga yang sudah disubsidi. Harapannya agar harga bisa kembali stabil dan terkendali," kata Ipuk. Ketersediaan sembako murah tersebut, menurut Ipuk, menjadi salah satu yang berkontribusi pada capaian pengendalian inflasi di Banyuwangi. "Kami bersyukur berkat kekompakan stakeholder TPID dan dukungan semua mitra, pengendalian inflasi Banyuwangi selama 2023 bisa dijaga. Inflasi Banyuwangi year on year (YOY) 2023 menjadi yang terendah di Jatim yakni 2,15%. Lebih rendah dari YoY Jawa Timur (2,92%) maupun Nasional (2,61%)," pungkas Ipuk.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/bisnis/d-7187734/pasar-murah-di-banyuwangi-diserbu-warga-ratusan-sembako-ludes-terjual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Said Abdullah Tekankan Kader PDIP Jatim Tak Boleh Lengah di Masa Tenang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masa tenang akan berlangsung selama tiga hari hingga 13 Februari 2024. Di masa tersebut, Ketua DPD PDI Perjuangan Jawa Timur Said Abdullah menekankan agar anggota dan kader tak boleh lengah dan meningkatkan siaga jelang pencoblosan pada 14 Februari 2024. Untuk menjaga soliditas, Said meningkatkan koordinasi dengan pimpinan-pimpinan DPC di seluruh Jatim. Said ingin memastikan pada kadernya untuk tidak lengah dan kecolongan. "Kita tetap siaga penuh selama masa tenang kampanye menjelang pemungutan suara. Masa tenang ini bukan hari tenang, namun dalam tingkat kesiagaan," kata pria yang duduk sebagai anggota DPR RI ini, Minggu (11/02) di Banyuwangi. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Ketua Banggar DPR RI ini memandang bahwa masa tenang kampanye sebagai waktu paling krusial. Said meminta kepada para kader partai untuk memastikan tugas-tugasnya sudah selesai atau belum. "Saya sudah arahkan kantor DPC harus siaga penuh, buka mata buka telinga menerima laporan dari masyarakat dan menjaga suara PDI Perjuangan dan capres Ganjar-Mahfud," tegasnya. Said berharap kegiatan itu bukan kegiatan Kampanye, melainkan kegiatan penguatan saja atau patroli. "Penyelenggara pemilu ada Bawaslu yang mengawasi, partai ada juga yang mengawasi," tuturnya. Said melanjutkan dirinya mengapresiasi antusias masyarakat khususnya di Jawa Timur yang mengikuti kampanye pasangan capres dan cawapres nomor urut 03 di Banyuwangi pada Kamis, 8 Februari 2024. Hal tersebut juga menjadi kunci soliditas bagi seluruh pendukung di Jawa Timur. "Saya yakin kehadiran masyarakat di Jawa Timur sebagai bukti keyakinan mereka kepada PDI Perjuangan dan capres-cawapres yang akan dipilihnya," cetus Said.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187676/said-abdullah-tekankan-kader-pdip-jatim-tak-boleh-lengah-di-masa-tenang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hunian Tetap untuk 66 Korban Banjir Kalibaru Banyuwangi Mulai Dibangun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hunian tetap bagi 66 warga korban Banjir Bandang di Dusun Krajan, Desa Kalibaru Wetan, Kecamatan Kalibaru, Banyuwangi mulai dibangun. Penanda dimulainya pembangunan atau ground breaking hunian tetap untuk korban banjir itu diresmikan Gubernur Jatim Khofifah Indar Parawansa. Rumah pengganti itu akan dibangun di petak lahan seluas 1,17 hektare yang merupakan lahan milik PTPN XII yang telah dibeli oleh Pemprov Jatim untuk warga korban banjir di Banyuwangi. Khofifah bersyukur hunian relokasi bagi korban banjir bandang di Kalibaru bisa segera terealisasi. Pemprov sempat membutuhkan banyak waktu untuk menyiapkan lahan sesuai dengan keinginan warga. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Lokasi hunian relokasi itu cukup ideal karena berada di wilayah perkampungan. Lokasinya cukup dekat dengan hunian awal warga yang rusak akibat banjir bandang akhir 2022 lalu. "Tak pernah relokasi menyambung dengan kampung seperti ini. Luar biasa. Mudah-mudahan proses pembangunan berjalan lancar. Masyarakat tidak perlu beradaptasi lagi dengan lingkungan baru karena ini tempat mereka bersosialisasi," ujar Khofifah. "Ini bukan relokasi namanya, tapi pindah rumah." Sebelum lokasi itu ditetapkan, kata Khofifah, Pemprov Jatim sebenarnya telah menawarkan 2 titik lain. Namun, warga tak menghendaki karena lokasinya yang cukup jauh dari perkampungan. Hal inilah yang menurut Khofifah menyebabkan proses relokasi korban banjir bandang di Banyuwangi berlangsung lebih lama ketimbang daerah lain. Namun ia bersyukur proses pemilihan lahan bisa rampung dan pembangunan bakal segera dimulai. Secara simbolis, Khofifah meluncurkan proses pembangunan hunian relokasi bersama Bupati Banyuwangi Ipuk Fiestiandani beserta sejumlah pejabat dari PTPN XII dan Kepala Basarnas Jatim. Proses pembangunan hunian relokasi diprakirakan rampung dalam 3 bulan. Masing-masing rumah akan dibangun dengan ukuran 5 meter x 6 meter. Pembangunan rumah itu didanai anggaran Pemprov Jatim sedangkan sarana-prasarana akan dilengkapi oleh Pemkab Banyuwangi. Bupati Banyuwangi Ipuk Fiestiandani menjelaskan Pemkab siap berkolaborasi dengan menyediakan sejumlah sarana-prasarana di lingkungan baru tersebut. Sarana-prasarana itu meliputi jaringan air bersih dan listrik. "Fasilitas tambahan akan kami lengkapi, akan kami beri dukungan," tambah Ipuk. Mewakili warga, Ipuk berterima kasih kepada Pemprov Jatim atas pembangunan hunian relokasi itu. Ia juga mengajak warga untuk merawat dan menjaga lingkungan agar bencana banjir bandang tidak kembali terulang. "Mudah-mudahan pembangunan hunian ini jadi penyemangat bagi warga Kalibaru untuk menjaga apa yang telah diberikan," sambung Ipuk. Diketahui, banjir bandang yang terjadi 3 November 2022 di Kalibaru menyebabkan puluhan rumah warga rusak. Sungai Sumberbaru dataran tinggi yang berada di sekitar sungai yang dihuni ratusan warga meluap. Selama lebih dari setahun Pemkab Banyuwangi telah memberikan biaya kontrak dan perbaikan rumah warga yang huniannya rusak berat. Dengan pembangunan hunian relokasi warga akan mendapat tempat tinggal permanen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187616/hunian-tetap-untuk-66-korban-banjir-kalibaru-banyuwangi-mulai-dibangun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pesan Kapolda Jatim Saat Berangkatkan 1.013 Personel Amankan Pemilu 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polda Jatim menggelar apel terakhir pergeseran pasukan dalam rangka BKO ke wilayah-wilayah rawan untuk mengamankan Pemilu 2024. Ada 1.013 personel Polda Jatim yang BKO ke sejumlah polres yang membutuhkan penebalan pengamanan. Apel yang digelar di Lapangan Polda Jatim itu dipimpin Kapolda Jawa Timur Irjen Pol Imam Sugianto didampingi pejabat utama (PJU) Polda Jatim. Kapolda Jatim dalam arahannya mengatakan, Polda Jatim menyelenggarakan operasi kepolisian terpusat mantap Brata Semeru 2023-2024 dalam rangka pengamanan tahapan penyelenggaraan Pemilu 2024 di wilayah hukum Polda Jatim. "Beberapa hari ke depan kita akan memasuki tahapan penting dari tahapan Pemilu Serentak 2024, yaitu tahap pungut dan hitung suara tanggal 14 Februari 2024," kata Imam, Minggu (11/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Nanti personel-personel ini akan ditempatkan di TPS-TPS yang membutuhkan penebalan. Mudah-mudahan tiga hari ke depan semua terkonsolidasi dengan baik dan pengamanan TPS bekerja sama dengan TNI dan Linmas yang ditugaskan sudah siap, tanggal 14 Februari berjalan lancar," sambungnya. Imam melanjutkan, beberapa Polres sudah membuat inovasi-inovasi untuk menggugah para pemilih, terutama generasi millenial agar tertarik mendatangi TPS yang sudah ditentukan untuk menggunakan hak pilihnya. "Setelah mencoblos mereka bisa makan gratis di outlet-outlet di Surabaya, kurang lebih ada 100 ribu pemilih pertama yang menyalurkan suara," ungkap Imam. "Saya mengimbau kepada generasi muda, ayo sukseskan pemilu dengan mendatangi TPS. Mudah-mudahan partisipasi pemilih dalam Pemilu 2024 melebihi tahun 2019," lanjut dia. Sementara wilayah yang perlu mendapatkan penebalan pasukan, jelas Imam, Polresta Banyuwangi dan empat polres di Madura, terutama di Sumenep. Kemudian Polres Blitar Kota. "Kita belajar dari tahun 2019. Dulu di Madura, ada kotak suara hilang, diadakan PSU lagi, kemudian bentrokan pendukung yang fanatik antara pendukung paslon capres maupun cawapres, sampai berdampak pembakaran polsek di Sampang," jelas Imam. Ia juga mengungkapkan, ada 137 TPS rawan, di mana mayoritasnya ada di Madura. Polda Jatim juga akan menerapkan pola pengamanan TPS yang sangat rawan, yaitu dua TPS diamankan dua polisi. Polda Jatim pun sudah menyiapkan pasukan siaga untuk mengantisipasi kontigensi tiga SSK, baik Brimob maupun samapta setiap saat siap digerakkan. Berikut beberapa poin yang ditekankan Kapolda Jatim kepada pasukan dalam rangka Pam TPS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187542/pesan-kapolda-jatim-saat-berangkatkan-1-013-personel-amankan-pemilu-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khofifah Pamit dan Mohon Doa untuk Maju di Pilgub 2024 Bareng Emil Dardak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gubernur Jawa Timur Kofifah Indar Parawansa berpamitan ke warga Banyuwangi, sekaligus meminta doa restu kembali maju di Pilgub Jatim. Ia menyatakan akan kembali maju bersama wakilnya saat ini Emil Elestianto Dardak. Gemuruh tepuk tangan dan ucapan syukur keluar dari mulut sekitar 100 warga yang hadir pada acara launching ground breaking pembangunan tempat relokasi warga pascabencana banjir bandang di Desa Kalibaru Wetan, Kecamatan Kalibaru, Kabupaten Banyuwangi, Minggu (11/2/2024). "Sekaligus menyampaikan mohon pangestu panjenengan semua, saya dan Pak Emil insyaallah akan maju kembali dalam pilgub tahun ini. Mohon doanya," ungkap Khofifah dengan senyum simpul. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Mohon doa dan dukungan dari semuanya, mudah-mudahan semua berjalan lancar dan teriring dengan rida barakallah, mudah-mudahan Banyuwangi barokah, mudah-mudahan Jawa Timur barokah, mudah-mudahan Indonesia barokah, Al-Fatihah," tambah Khofifah disambut bacaan Al-Fatihah warga Bumi Blambangan. Khofifah berpamitan kepada seluruh warga Banyuwangi yang hadir lantaran hari ini merupakan masa kerja terakhirnya sebagai Gubernur Jawa Timur periode 2019-2024. "Besok itu masa akhir jabatan saya untuk periode ini. Akan ada, saya tidak tahu atau sertijab atau dalam bentuk pelantikan di Jakarta, pj atau plh tanggal 13 Februari," ucap Khofifah dalam sambutannya di hadapan Bupati Banyuwangi Ipuk Fiestiandani dan warga.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187518/khofifah-pamit-dan-mohon-doa-untuk-maju-di-pilgub-2024-bareng-emil-dardak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perkosa Turis di Bali, Pemandu Wisata Ini Ditangkap Polisi!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Seorang pemandu wisata bernama Faisal Akbar Ramadhan (29), asal Surabaya, Jawa Timur (Jatim) ditangkap polisi. Dia diciduk diduga karena memperkosa turis asal China inisial HJT di Bali. Kasi Humas Polresta Denpasar AKP I Ketut Sukadi mengatakan pelaku diringkus di sebuah hotel di kawasan Nusa Dua, Kuta Selatan, Badung, Bali. Dia diamankan oleh sekuriti hotel dan teman korban usai melancarkan aksi bejatnya itu.  "Saat ini pelaku sudah diamankan di Sat Reskrim Polresta Denpasar, sedang menjalani pemeriksaan dan penyidikan secara intensif," kata Sukadi dalam keterangannya, Sabtu (10/2/2024), melansir detikBali. 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
- Saat diinterogasi, Faisal mengaku awalnya menawarkan diri sebagai pemandu sekaligus sopir pribadi HJT selama berwisata di Bali. HJT dan temannya lalu menggunakan jasa Faisal untuk mengantar dan menemani mereka ke tempat hiburan malam pada Rabu (7/2/2024). "Mereka sempat menikmati hiburan dan minum alkohol hingga pukul 01.00 Wita. Setelah itu, korban dan temannya meminta tersangka untuk mengantar mereka kembali ke hotel di kawasan Nusa Dua," ungkap Sukadi. Bukannya mengantarkan turis China itu ke hotel tempat mereka menginap, pelaku malah membawa mereka ke hotel lain di kawasan Benoa. Pelaku lantas mengajak HJT masuk ke kamar hotel tersebut dengan alasan mengambil hadiah untuk diberikan kepada temannya. Saat itulah Faisal melancarkan aksi bejatnya dan memerkosa perempuan China berusia 26 tahun tersebut. Sukadi menyebut HJT yang dalam kondisi mabuk sempat berusaha menyelamatkan diri. Tapi, upaya tersebut gagal. "Korban berusaha melakukan perlawanan dengan pelaku, tetapi pelaku menutup wajah korban dengan bantal dan menyetubuhi korban," imbuh Sukadi. Akibat perbuatannya, Faisal dijerat Pasal 285 KUHP tentang pemerkosaan. Ia terancam hukuman penjara maksimal 12 tahun. </t>
+ Saat diinterogasi, Faisal mengaku awalnya menawarkan diri sebagai pemandu sekaligus sopir pribadi HJT selama berwisata di Bali. HJT dan temannya lalu menggunakan jasa Faisal untuk mengantar dan menemani mereka ke tempat hiburan malam pada Rabu (7/2/2024). "Mereka sempat menikmati hiburan dan minum alkohol hingga pukul 01.00 Wita. Setelah itu, korban dan temannya meminta tersangka untuk mengantar mereka kembali ke hotel di kawasan Nusa Dua," ungkap Sukadi. Bukannya mengantarkan turis China itu ke hotel tempat mereka menginap, pelaku malah membawa mereka ke hotel lain di kawasan Benoa. Pelaku lantas mengajak HJT masuk ke kamar hotel tersebut dengan alasan mengambil hadiah untuk diberikan kepada temannya. Saat itulah Faisal melancarkan aksi bejatnya dan memerkosa perempuan China berusia 26 tahun tersebut. Sukadi menyebut HJT yang dalam kondisi mabuk sempat berusaha menyelamatkan diri. Tapi, upaya tersebut gagal. "Korban berusaha melakukan perlawanan dengan pelaku, tetapi pelaku menutup wajah korban dengan bantal dan menyetubuhi korban," imbuh Sukadi. Akibat perbuatannya, Faisal dijerat Pasal 285 KUHP tentang pemerkosaan. Ia terancam hukuman penjara maksimal 12 tahun.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/sumut/hukum-dan-kriminal/d-7187081/perkosa-turis-di-bali-pemandu-wisata-ini-ditangkap-polisi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masa Tenang Pemilu, Polda Jatim Sebar 1.013 Personel di Daerah Rawan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapolda Jatim Irjen Imam Sugianto mengungkapkan pihaknya menerjunkan ribuan personel saat memasuki masa tenang Pemilu 2024. Ribuan personel itu akan disebar di sejumlah titik rawan. "Kami upayakan mitigasi dan sudah tambah daerah rawan di mitigasi Sumenep dan 5 hari lalu sudah berangkat ke kepulauan di Kabupaten Sumenep," kata Imam saat ditemui awak media di Halaman Gedung Mahameru Polda Jatim, Sabtu (10/2/2024). Imam mengimbau masyarakat tetap beraktivitas seperti biasa saat masa tenang pemilu. Masa tenang Pemilu sendiri akan berlaku Minggu (11/2) hingga 13 Februari mendatang. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Minggu tenang besok dan para paslon tidak ada agenda, untuk minggu tenang ini kami imbau pada masyarakat beraktivitas seperti biasa dan (diharapkan) tidak terjadi kasus-kasus yang terhubung dengan pelaksanaan hari puncak (Pemilu 2024)," ujarnya. Sementara itu, Karo Ops Polda Jatim Kombes Puji Santosa mengatakan ribuan personel telah dipersiapkan pada apel terakhir pagi ini. Seluruhnya, akan diberangkatkan pada Minggu (11/2) nanti ke sejumlah titik. "Hari ini apel dan pengecekan terakhir, total 1.013 personel, besok akan laksanakan pemberangkatan ke lokasi masing-masing," tutur Puji. Ia menyebut ribuan personel itu bakal dikirim ke 6 titik. Diantaranya Banyuwangi Kota, Bangkalan, Sampang, Pamekasan, dan Sumenep. "Untuk Madura, seluruh kabupaten kita BKO sesuai permintaan dari kapolres masing-masing. Untuk pulau Madura kita berikan penambahan sekitar 750 personel terbagi menjadi 4 kabupaten," jelasnya. "Kita bekali mereka dengan anggaran atau uang saku dan uang makan, obat-obatan atau kesehatan, mereka wajib bawa jas hujan, senter, dan lain sebagainya, kami juga berikan buku panduan untuk melaksanakan tugas pam (pengamanan) di sana," imbuh dia. Ia memastikan seluruh personel yang diberangkatkan harus netral. Terutama saat pelaksanaan pemilu di hari H nanti atau Rabu, 14 Februari 2024 mendatang. "Polri harus netral dan tidak ikut menghitung hasil pungut (pemungutan suara) pada saat pencoblosan itu, jadi mereka tidak diperbolehkan, yang penting hanya mengamankan bagaimana pelaksanaan pencoblosan aman damai sesuai aturan yang berlaku," tandas Puji.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187054/masa-tenang-pemilu-polda-jatim-sebar-1-013-personel-di-daerah-rawan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eceng Gondok Sungai Buntung Penyebab Banjir Sidoarjo Ternyata Masih Banyak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guna mengantisipasi terjadinya banjir kembali di Waru, Sidoarjo, Pemprov Jatim melalui Dinas PU Sumber Daya Air (SDA) dan BPBD melakukan pengecekan sungai-sungai di sekitaran Waru. Kadis PU SDA Jatim Baju Trihaksoro mengatakan pihaknya telah mengecek langsung sungai-sungai di wilayah Waru yang menjadi daerah aliran sungai (DAS) Sungai Brantas. Sungai yang dicek di antaranya di Sungai Buntung, Desa Tambak Oso, Kecamatan Waru, Sidoarjo. "Pagi sampai siang ini kami telah melakukan pengecekan sungai yang jadi aliran Brantas di wilayah Waru," kata Baju, dalam keterangannya, Sabtu (10/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Kami ingin pastikan keadaan sungai bersih dan tidak ada penumpukan enceng gondok, yang bisa menyebabkan penyumbatan air sehingga tidak lancar menuju muara," tambahnya Baju. Menurut Baju, salah satu sungai yang terhambat alirannya karena enceng gondok yakni Sungai Buntung. Dirinya bersama personel PU SDA Jatim, BPBD Jatim, serta Perum Jasa Tirta 1, dqn BBWS Brantas mengecek langsung kondisi terkini sungai tersebut. "Hasilnya masih terdapat koloni enceng gondok yang menyumbat aliran air Sungai Buntung dan ditengarai sebagai penyebab banjir di Kecamatan Waru beberapa hari kemarin," ujar Baju. Baju memastikan enceng gondok di Sungai Buntung akan segera dibersihkan agar aliran sungai lancar kembali dan tidak menyebabkan banjir. "Perum Jasa Tirta 1 rencananya akan membantu mengirimkan 1 unit excavator amphibi. Untuk mempercepat penanganan diperlukan koordinasi lebih lanjut terkait untuk penambahan alat guna mempercepat pekerjaan," ujarnya. "Kita juga akan mencari tempat pembuangan enceng gondok, serta memikirkan akses untuk excavator amphibi masuk. Secepatnya akan segera dibersihkan, dan akan dilakukan rapat koordinasi dengan mengundang instansi terkait untuk percepatan pelaksanaan kegiatan," tandas Mantan Kepala Dinas PU Cipta Karya ini.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187052/eceng-gondok-sungai-buntung-penyebab-banjir-sidoarjo-ternyata-masih-banyak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puluhan Ribu Buruh SKT Titip Pesan ke Ketua Projo Jatim: Matur Nuwun Jokowi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ketua DPD Pro Joko Widodo (Projo) Jawa Timur Bayu Airlangga bertemu dengan puluhan ribu buruh sigaret kretek tangan (SKT) di 4 wilayah berbeda yakni Mojokerto, Jombang, Nganjuk, dan Madiun. Dalam perjumpaannya dengan buruh SKT ini, Bayu mengaku mendapat banyak titipan aspirasi agar program-program Presiden Jokowi terus dilanjutkan. "Saya bertemu di 4 kabupaten berbeda, dan mereka semua ingin agar program Presiden Jokowi bisa diteruskan ke depan. Dan harapan buruh penerus Pak Jokowi ya Prabowo-Gibran," kata Bayu dalam keterangannya, Sabtu (10/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Bayu menyebut para buruh SKT juga menyampaikan terima kasihnya kepada Presiden Jokowi yang sudah menurunkan cukai rokok SKT hingga di angka 4,7%. "Keberpihakan Pak Jokowi kepada rakyat, kepada buruh SKT diharapkan bisa diteruskan oleh penerus beliau yang akan memimpin 5 tahun ke depan," kata Bayu. Mantan Gubernur Jatim 2009-2019 yang turut hadir yakni Soekarwo (Pakde Karwo) menceritakan saat cukai SKT melambung tinggi 5 tahun silam. Kala itu cukai rokok SKT naik 16,44% berdasar Peraturan Menteri Keuangan (PMK) 152/2019 tentang Perubahan Kedua atas PMK 146/2017 tentang Tarif Cukai Hasil Tembakau. "Saya menerima masukan dari pabrik dan owner rokok SKT karena banyak PHK ketika cukai di angka 16 persen sekitar 4-5 tahun lalu. Kala itu, Hampir setengah pekerja buruh SKT di pabrik-pabrik di-PHK," ujar Pakde Karwo. "Kala itu masukan dari buruh yang saya tampung kemudian saya sampaikan langsung dan diterima Presiden Jokowi. Saat itu, Presiden yang langsung turun mengecek lapangan akhirnya ambil keputusan tidak ada kenaikan cukai untuk tahun 2021 sebagai komitmen pemerintah juga dalam recovery ekonomi saat pandemi COVID-19," tambah Pakde Karwo. Sukmini, salah satu buruh SKT asal Madiun menyampaikan terima kasihnya ke Presiden Jokowi karena telah menurunkan cukai rokok SKT dari awalnya hampir 16%, kini menjadi 4,7%. "Terima kasih Pak Jokowi yang peduli kepada buruh SKT. Ketika cukai itu di angka 16 persen, banyak PHK massal. Sekarang cukai sudah 4,7 persen, pabrik baru pakai pekerja lagi. Kami bisa bekerja lagi, saya harap penerus Pak Jokowi bisa melanjutkan program-program pro rakyat cilik," ujar Sukmini.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187078/puluhan-ribu-buruh-skt-titip-pesan-ke-ketua-projo-jatim-matur-nuwun-jokowi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Nyalla-Keponakan Khofifah Diprediksi Lolos Jadi Anggota DPD RI Versi ARCI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accurate Research and Consulting Indonesia (ARCI) merilis hasil terbaru elektabilitas calon Anggota DPD RI dari Jawa Timur. "Hasilnya, La Nyalla masih menjadi calon anggota DPD RI dengan elektabilitas tertinggi di Jawa Timur," kata Direktur ARCI Baihaki Sirajt saat paparan di Surabaya, Sabtu (10/2/2024). Baihaki kemudian menyebut peluang Keponakan Gubernur Jatim Khofifah Indar Parawansa, Lia Istifhama untuk lolos ke DPD RI sangat besar. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Elektabililtas Lia Istifhama menempel La Nyalla. Ini cukup mengejutkan mengingat Lia adalah pendatang baru," jelasnya. Dari jawaban responden, Baihaki menyebut gambar-gambar keponakan Khofifah ini cukup masif di daerah-daerah. Sehingga, banyak responden yang mengetahuinya. "Dan responden juga tertarik, karena Lia menjadi representasi wakil DPD RI perempuan. Jika pada Pileg 2019 lalu representasi perempuan itu ada di Eva Zainal Abidin, yang sekarang nyaleg di Gerindra, di Pileg 2024 ini beralih ke Lia," bebernya. Selain itu, Baihaki menyebut nama DPD RI inkumben seperti Ahmad Nawardi berpeluang lolos kembali ke Senayan untuk periode 2024-2029. "Sementara Mantan Ketua KPK Agus Raharjo elektabilitasnya masih rendah. Namun, undecided voters masih tinggi di angka 28 persen," tandas Baihaki. Survei ARCI dilakukan pada 27 Januari-5 Februari 2024. Survei menggunakan metode multistage random sampling dengan jumlah sampel sebanyak 1.800 responden yang tersebar proporsional di 38 kabupaten/kota Jatim. Survei ARCI memiliki margin of error sebesar 2,8% dan tingkat kepercayaan sebesar 95%. Berikut elektabilitas Calon DPD RI dari Jatim Periode 2024-2029: 1. La Nyalla Mattalitti 20,7%2. Lia Istifhama 15,6%3. Ahmad Nawardi 7,9%4. Abdul Qodir Amir 6,9%5. Adilla Azis 6,5%6. Ayub Khan 3,9%7. Agus Raharjo 3,6%8. Kuncung Wahyudi 2,8%9. Kondang Kusumaning Ayu 1,7%10. Bambang Haryanto 0,7%11. Catur Budi Utomo 0,5%12. Doddy Dwi Nugroho 0,2%13. Muhammad Tianto 0,1%Tidak tahu/tidak menjawab 28,8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187050/la-nyalla-keponakan-khofifah-diprediksi-lolos-jadi-anggota-dpd-ri-versi-arci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hitung-hitungan TKD Jatim dengan Gabungnya Kiai Khos ke Prabowo-Gibran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tim Kampanye Daerah (TKD) melakukan kalkulasi dukungan masyarakat Jatim terhadap Prabowo-Gibran. Dukungan ini diketahui dari hasil data survei yang ada. Ketua TKD Jatim Prabowo Gibran, Boedi Prijo Suprayitno menyebut dukungan didominasi dua masyarakat dari organisasi NU dan Muhammadiyah. Hal ini didasarkan pada survei Poltracking. "Taruhlah warga NU Jatim dari 41 juta total penduduk Jatim, 60 persennya adalah warga NU atau sekitar 24 jutaan. Sementara itu, warga Muhammadiyah adalah 10 jutaan, atau 24 persen dari total penduduk Jatim dalam survei Poltracking arah dukungan warga Muhammadiyah ke Paslon 02 adalah 42 persen, sedangkan warga NU sekitar sesuai riset Poltracking per Februari adalah 60,9 persen mendukung Prabowo Gibran," papar Boedi, Sabtu (10/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Maka suara dukungan Muhammadiyah ke Prabowo Gibran, berdasar total hak pilih Jatim 31 juta, maka pemilih Muhammadiyah yang mendukung paslon 02 adalah 4,3 juta. Ditambah warga NU Jatim 60,9 persen atau berjumlah sekitar 14,616 juta maka potensi dukungan Prabowo Gibran dari NU dan Muhammadiyah di Jatim sebanyak 18,916 juta total perolehan suaranya," tambah Boedi. Boedi tidak memungkiri bahwa survei yang pernah dilakukan lembaga di Jatim turut mengaitkan kepuasan kepemimpinan Khofifah sebagai Gubernur Jatim dengan elektabilitas paslon 02. "Tercatat beberapa kiai dan pondok pesantren yang selama ini mendukung Khofifah Indar Parawansa, dipastikan mendukung Prabowo Gibran. Khofifah Effect tentu tidak hanya kiai dan pondok pesantren saja. Swing vote, pemilih milenial, hingga profesi warga Jatim juga tinggi mendukung Prabowo Gibran sebagai impact dari Khofifah Effect tersebut," jelasnya. "Taruhlah, para pelaku usaha, petani, pedagang, dan jutaan UMKM di Jatim yang telah menikmati kinerja Khofifah memimpin Jatim 5 tahun terakhir," tandas Boedi. Sementara itu, dukungan terhadap Prabowo-Gibran juga terus mengalir. Sejumlah kiai khos dan nyai di Jawa Timur. Mereka tampak turut hadir dalam acara Sholawatan Bersama Prabowo-Gibran Menang Sekali Putaran' yang digelar TKD Jatim 02 di Jatim Expo Surabaya. Dianantaranya hadir KH M Anwar Manshur, yang merupakan cucu pendiri Ponpes Lirboyo KH Abd Karim. Deretan kiai khos dan alim lainnya juga muncul di barisan paslon 02 antara lain, KH Fuad Noerhasan, Pengasuh Ponpes Sidogiri, Pasuruan. Mereka berdua secara bergiliran memanjatkan doa diamini puluhan ribu massa jemaah solawatan yang hadur. Kiai Anwar Manshur, kemudian KH Fuad Noerhasan, dan KH Anwar Iskandar, Rois Syuriah PBNU, yang juga pendiri Ponpes As Saidiyaj, Kota Kediri ini, membacakan doa khusus. "Kabulkan Prabowo Gibran menjadi Presiden dan Wakil Presiden RI, di Pemilu 2024, dan Bu Khofifah Indar Parawansa, jadi Gubernur dua periode," ujarnya. Dengan kehadiran tokoh kiai khos dan alim di Jawa Timur, ini tentu akan diikuti oleh masyarakat NU yang berprinsip nderek kiai (ikut kiai,red). Sedikitnya 31 juta lebih pemilih yang masuk di daftar pemilih tetap (DPT) akan menggunakan suaranya di Pemilu dan Pilpres 2024, besok. Berikut daftar Kiai yang mendukung Prabowo Gibran di Jatim: KH. Anwar Mansur Pp Lirboyo KediriKH. Fuad Nur Hasan Pp SidogiriKH. Anwar Iskandar Pp Al Amin KediriKH. Abdul Ghofur Pp. Sunan Drajat LamonganKH Agus Ubaidillah Faqih Langitan Tuban Kh. M. Hasan Mutawakkil Alallah Pp Genggong ProbolinggoKH. Asep Saifuddin Chalim Pp Ammanatul Ummah MojokertoKH. Muchlis Alawy Pp Attaroqqi Tsani SampangKH. Syafiuddin Wahid SampangKH. Abdul Hamid Mannan Pamekasan Ibu Nyai Mahfudhoh Wahab Hasbullah Pp Tambakberas Ibu Nyai MasrurohKH. Hasib Wahab Hasbullah Pp TambakberasKH. Fahrur Rozi Pp An-nur I MalangKH. Abdul Qodir Pp Al Qodariyah Sumenep Kh. Nurullah Pp Al IstifadahKH. Ghozali Pp Lanbulan Sampang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187010/hitung-hitungan-tkd-jatim-dengan-gabungnya-kiai-khos-ke-prabowo-gibran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Amalan Bulan Syaban yang Disunnahkan, Yuk Amalkan!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulan Syaban 1445 H jatuh pada tanggal 11 Februari 2024 dalam penanggalan Masehi. Terdapat sejumlah amalan yang dianjurkan untuk dikerjakan umat Islam. Lantas, apa saja amalan bulan Syaban yang dapat dikerjakan? Melansir NU Online Jatim, Syaban menjadi salah satu bulan yang biasa dilupakan karena diapit dua bulan mulia yaitu Rajab dan Ramadhan. Padahal, Syaban merupakan bulan diangkatnya amal-amal manusia sebagaimana sabda Rasulullah SAW berikut: 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ ذاكَ شهر تغفل الناس فِيه عنه ، بين رجب ورمضان ، وهو شهر ترفع فيه الأعمال إلى رب العالمين، وأحب أن يرفع عملي وأنا صائم -- حديث صحيح رواه أبو داود النسائي Artinya: Bulan Syaban adalah bulan yang biasa dilupakan orang, karena letaknya berada di antara Rajab dengan Ramadan. Bulan Syaban adalah bulan diangkatnya amal-amal. Karenanya, aku menginginkan pada saat diangkatnya amalku, aku dalam keadaan sedang berpuasa. (HR Abu Dawud dan Nasa'i) Untuk itu, umat muslim dianjurkan memperbanyak amalan di bulan Syaban. Nah, berikut 8 amalan bulan Syaban lengkap dengan keistimewaannya yang dilansir dari buku Kalender Ibadah Sepanjang Tahun oleh Ustaz Abdullah Faqih Ahmad Abdul Wahid. Yuk, disimak! 1. Berdoa di Bulan Syaban Memasuki bulan Syaban, terdapat doa yang dibaca Rasulullah SAW. Berikut bacaan doanya lengkap Arab, Latin, dan artinya: اللَّهُمَّ بَارِكْ لَنَا فِي رَجَبَ وَشَعْبَانَ وَبَلِّغْنَا رَمَضَانَ Arab Latin: Allaahumma baarik lanaa fii rajaba wa sya'baana wa ballighnaa ramadhaana Artinya: "Ya Allah, berkahilah kami di bulan Rajab dan Syaban, dan sampaikanlah kami kepada bulan Ramadhan." Doa tersebut dianjurkan untuk dibaca berulang kali ketika memasuki bulan Syaban. Pasalnya, semakin sering dibaca maka semakin besar pahalanya. Selain itu, ada pula doa lainnya yang biasa dibaca oleh para sahabat Nabi SAW di bulan Rajab dan Syaban. Bacaan doanya sebagai berikut: اللَّهُمَّ سَلَّمْنِي لِرَمَضَانَ وَسَلَّمْ لِي رَمَضَانَ وَتَسَلَّمْهُ مِنِّي مُتَقَبَّلا Arab Latin: Allaahumma sallimnii liramadhaana wasallim lii ramadhaana wa tasallam-hu minni mutaqabbalan Artinya: "Ya Allah, antarkanlah aku hingga sampai Ramadhan, dan antarkanlah Ramadhan kepadaku, dan terimalah amal-amalku di bulan Ramadhan." 2. Berdoa di Malam Nifsu Syaban Malam Nifsu Syaban menjadi salah satu waktu istimewa dalam ajaran Islam. Di waktu ini, umat muslim juga dianjurkan memanjatkan doa kepada Allah. Doa yang dilafalkan dikutip oleh para ulama dari doa Nabi Adam ketika turun ke Bumi, thawaf tujuh kali di Ka'bah, dan salat dua rakaat di belakang maqam. Berikut bacaan doanya: اللَّهُمَّ إِنَّكَ تَعْلَمُ سِرِّي وَعَلَانِيَتِي فَاقْبَلْ مَعْذِرَتِي، وَتَعْلَمُ حَاجَتِي فَأَعْطِنِي سُؤَلِي، وَتَعْلَمُ مَا فِي نَفْسِي فَاغْفِرْ لِي ذَنْبِي اللَّهُمَّ إِنِّي أَسْأَلُكَ إِيْمَانًا يُبَاشِرُ قَلْبِيْ وَيَقِيْنَا صَادِقًا حَتَّى أَعْلَمَ أَنَّهُ لَا يُصِيبُنِي إِلَّا مَا كَتَبْتَ لِي وَرَضِنِي بِقَضَائِكَ Arab Latin: Allaahumma innaka ta'lamu sirrii wa 'alaaniyati faqbal ma'dzirati, wata'lamu haajatii fa'thinii suaa-li, wata'lamu maa fii nafsii faghfir lii dzambii. Allaahumma innii as-aluka imaanan yubasyiru qalbii wa yaqiinan shaadiqan hattaa a'lamu annahu laa yushiibunii illaa maa katabta lii waraddani biqadhaa-ik. Artinya: "Ya Allah, sungguh Engkau tahu apa yang tersembunyi dan tampak dariku, karena itu terimalah penyesalanku. Engkau tahu kebutuhanku, maka kabulkanlah permintaanku. Engkau tahu apa yang ada dalam diriku, maka ampunilah dosaku. Ya Allah sungguh aku memohon kepada-Mu iman yang menyentuh kalbuku dan keyakinan yang benar sehingga aku tahu bahwa tidak akan menimpaku kecuali telah Engkau tetapkan atasku. Ya Allah berikanlah rasa rela terhadap apa yang Engkau bagi untuk diriku." 3. Berpuasa di Bulan Syaban Amalan sunah selanjutnya yaitu dengan melaksanakan puasa. Umat muslim yang mengerjakannya tidak terikat pada ketentuan khusus sehingga tidak ada tanggal atau hari tertentu untuk mengerjakannya. Apabila dikerjakan, pahala yang didapatkan sangat besar karena bulan Syaban termasuk ke dalam bulan mulia. Untuk itu, berikut beberapa puasa yang bisa dikerjakan selama bulan Syaban. Sebagian ulama berpendapat bahwa puasa di pertengahan bulan Syaban hukumnya sunnah. Sebagaimana sabda Rasulullah SAW berikut ini: "Jika tiba waktu malam nisfu Syaban, maka beribadahlah di malamnya dan puasalah di siangnya, karena sesungguhnya Allah Ta'ala menurunkan rahmat-Nya mulai tenggelamnya matahari (Maghrib) di langit dunia dan berfirman, 'Siapa yang meminta ampun akan Aku ampuni. Siapa yang minta rezeki akan Aku beri rezeki. Siapa yang terkena musibah akan Aku sembuhkan. Siapa yang minta ini dan itu seterusnya, sampai waktu terbitnya fajar (matahari)." (HR. Ibnu Majah). Rasulullah SAW memperbanyak puasa sebagai salah satu amalan pada bulan Syaban. Bahkan, dalam sebuah hadis disebutkan bahwa Rasulullah SAW berpuasa sunah di bulan ini hampir satu bulan penuh. Sebagaimana pernah dikatakan Aisyah RA dalam hadis riwayat Bukhari dan Muslim berikut: "Saya tidak pernah melihat Rasulullah SWT melakukan puasa satu bulan penuh kecuali pada bulan Ramadhan. Dan, saya juga tidak pernah melihatnya sangat banyak melakukan puasa selain pada bulan Syaban." (HR. Bukhari dan Muslim). Dalam hadis riwayat Tirmidzi dan Nasa'i juga disebutkan bahwa Ummu Salamah sebagai berikut: "Saya tidak pernah melihat Rasulullah SAW berpuasa dua bulan berturut-turut, kecuali pada bulan Syaban dan bulan Ramadhan." Beberapa hadits meriwayatkan bahwa hari Kamis dan Senin di bulan Syaban memiliki keistimewaan yang luar biasa apabila diisi dengan berpuasa. Berpuasa pada hari Kamis di bulan Syaban sendiri termasuk salah satu amalan yang memiliki keutamaan. Dalam sebuah hadis dijelaskan bahwa pada hari Kamis bulan Syaban para malaikat sibuk menghiasi langit. Kemudian mereka berseru, "Wahai Tuhan kami, ampunilah orang- orang yang berpuasa pada hari ini dan kabulkanlah doa mereka." Selain itu, Rasulullah SAW bersabda sebagai berikut: "Barang siapa berpuasa pada hari Senin dan Kamis di bulan Syaban, maka Allah SWT akan mengabulkan kepentingan dunia dan akhiratnya masing-masing dua puluh kepentingan." 4. Membaca Surah Yasin di Malam Nifsu Syaban Amalan berikutnya yang bisa dikerjakan adalah membaca surah Yasin di malam Nifsu Syaban. Waktu pengerjaannya yaitu setelah salat magrib dan lebih utama jika dikerjakan bersama-sama. Adapun amalan yang sangat dianjurkan ini dikerjakan secara berturut-turut sebanyak tiga kali. Bacaan pertama diniatkan untuk meminta umur panjang yang diisi dengan ketaatan kepada Allah SWT. Bacaan Yasin kedua diniatkan agar dijaga dari semua bahaya dan diberi keluasan rezeki yang baik serta halal. Bacaan yang ketiga diniatkan agar hati merasa cukup dan dianugerahi husnul khatimah. Apabila telah selesai membaca surah Yasin, umat muslim disunahkan membaca doa berikut: بِسْمِ اللهِ الرَّحْمَنِ الرَّحِيمِ. اللَّهُمَّ يَا ذَا الْمَنِّ وَلَا يُمَنُ عَلَيْهِ، يَا ذَا الْجَلَالِ وَالْإِكْرَامِ، يَا ذَا الطَّوْلِ وَالْإِنْعَامِ، لَا إِلَهَ إِلَّا أَنْتَ ظَهْرَ اللَّاجِيْنَ، وَجَارَ الْمُسْتَجِيْرِينَ، وَمَأْمَنَ الْخَائِفِينَ اللَّهُمَّ إِنْ كُنْتَ كَتَبْتَنِيْ عِنْدَكَ فِي أُمَ الْكِتَابِ شَقِيًّا أَوْ مَحْرُوْمًا أَوْ مَطْرُوْدًا أَوْ مُقَتَّرًا عَلَيَّ فِي الرِّزْقِ فَامْحُ مِنْ أُمَ الْكِتَابِ شَقَاوَتِي وَحِرْمَانِي وَتَقْتِيرَ رِزْقِي، وَأَثْبِتْنِي عِنْدَكَ سَعِيدًا مَرْزُوْقًا مُوَفَقًا لِلْخَيْرَاتِ، فَإِنَّكَ قُلْتَ وَقَوْلُكَ الْحَقُّ فِي كِتَابِكَ الْمُنْزَلِ عَلَى لِسَانِ نَبِيِّكَ الْمُرْسَلِ يَمْحُو اللَّهُ مَا يَشَاءُ وَيُثْبِتُ وَعِنْدَهُ أُمُّ الْكِتَابِ). إِلهِي بِالتَّجَلِي الْأَعْظَمِ فِي لَيْلَةِ النِصْفِ مِنْ شَعْبَانَ الْمُكَرَمِ الَّتِي يُفْرَقُ فِيْهَا كُلُّ أَمْرٍ حَكِيمٍ وَيُبْرَمُ، إِكْشِفْ عَنِّي مِنَ الْبَلَاءِ مَا أَعْلَمُ وَمَا لَا أَعْلَمُ وَاغْفِرْ لِي مَا أَنْتَ بِهِ أَعْلَمُ إِنَّكَ أَنْتَ الْأَعَزُ الْأَكْرَمُ. وَصَلَّى اللَّهُ تَعَالَى عَلَىسَيِّدِنَا مُحَمَّدٍ وَعَلَى آلِهِ وَصَحْبِهِ وَسَلَّمَ Arab Latin: Bismillaahir rahmaanir rahim. Allaahumma yaa dzal manni wa laa yumannu 'alaika yaa dzal jalaali wal ikraam, yaa dzath thauli wal in'aam. Laa ilaaha illaa anta zhahral laajiina wajaaral mustajiiriina wa ma' manal khaa-ifiin. Allaahumma in kunta katabtanaa indaka fii ummil kitaabi asyiqiyaa'a au mahruumiina au muqtarran 'alaina fir rizqi fahumllaahumma bifadhlika syaqaawatanaa wa hirmaananaa wa iqtaara arzaaqinaa wa atsbitnaa 'indaka fii ummil kitaabi su'adaa'a marzuuqina muwaffaqiin lil khairaat. Fa- innaka qulta waqaulukal haqqu fii kitaabikal munzali 'alaa lisaani nabiyyikal mursal, yamhullaahu maa yasyaa-u wa yutsbitu wa 'indahu ummul kitaab. Ilaahii bit tajallil a'zhami fii lailatin nishfi min syahri sya'baanal mukarram allatii yufraqu fiiha kullu amrin hakiimin wa yubram nas-aluka an taksyifa 'annaa minal balaa-i maa na'lamu wa maa laa na'lam, wa maa anta bihi a'larna. Innaka antal a'azzul akram. Wa shallallaahu 'alaa sayyidinaa muhammadin wa 'alaa aalihi wa shahbihi wa sallam. Artinya: "Dengan menyebut nama Allah yang Maha pemurah lagi Maha Penyayang. Ya Allah, wahai Dzat yang mempunyai anugerah, dan Engkau tidak diberi anugerah, wahai Dzat yang mempunyai kebesaran dan kemuliaan, wahai Dzat yang mempunyai kekuasaan dan memberikan kenikmatan, tiada Tuhan melainkan Engkau. Engkau- lah Penolong orang-orang yang memohon pertolongan, Pelindung orang-orang yang mencari perlindungan, dan Pemberi Keamanan kepada orang-orang yang ketakutan. Ya Allah, jika Engkau mencatat kami di sisi-Mu dalam induk catatan sebagai orang-orang yang celaka, terhalang dari rahmat-Mu dijauhkan dari-Mu, atau disempitkan dalam mendapat rezeki, dengan karunia-Mu, ya Allah, hapuskanlah kecelakaan kami, keterhalangan kami, kejauhan kami dari rahmat-Mu, dan kesempitan rezeki kami. Dan tetapkanlah kami di sisi-Mu dalam catatan sebagai orang-orang yang berbahagia, diberi rezeki yang luas, serta diberi petunjuk menuju kebajikan. Karena sesungguhnya Engkau telah berfirman dalam kitab-Mu yang telah diturunkan kepada rasul-Mu, sedangkan firman-Mu itu benar, Allah menghapus dan menetapkan apa yang dikehendaki-Nya dan di sisi-Nya terdapat induk kitab. Tuhan kami, dengan tajalli-Mu (penampakan sifat-Mu) Yang Maha Besar pada malam Nishfu Sya'ban yang mulia ini, saat setiap urusan dibedakan dan ditetapkan di dalamnya, kami memohon kepada-Mu agar Engkau palingkan kami dari segala bencana, baik yang kami ketahui maupun yang tidak kami ketahui. Sesungguhnya, Engkau Dzat Yang Paling Mulia dan Paling Pemurah. Dan, semoga Allah senantiasa memberi rahmat serta kesejahteraan kepada junjungan kami Nabi Muhammad, keluarganya, dan sahabatnya." Doa lainnya yang bisa dibaca setelah membaca surah Yasin diambil dari Syekh Abdul Qadir Jailani. Berikut rincian bacaan doa dan terjemahannya: اللَّهُمَّ إِذْ أَطْلَعْتَ لَيْلَةَ النِّصْفِ مِنْ شَعْبَانَ عَلَى خَلْقِكَ، فَعُدْ عَلَيْنَا بِمَنِكَ وَعِتْقِكَ، وَقَدِرْ لَنَا مِنْ فَضْلِكَ، وَوَسِعْ رِزْقَكَ، وَاجْعَلْنَا مِمَّنْ يَقُوْمُ لَكَ فِيْهَا بِبَعْضِ حَقِكَ. اللَّهُمَّ مَنْ قَضَيْتَ فِيْهَا بِوَفَاتِهِ فَاقْضِ مَعَ ذَلِكَ رَحْمَتَكَ، وَمَنْ قَدَّرْتَ طُولَ حَيَاتِهِ فَاجْعَلْ مَعَ ذَلِكَ نِعْمَتَكَ، وَبَلَغْنَا مَا لَا تَبْلُغُ الْآمَالُ إِلَيْهِ يَا خَيْرَ مَنْ وَقَفَتِ الْأَقْدَامُ بَيْنَ يَدَيْهِ يَارَبَّ الْعَالَمِينَ، بِرَحْمَتِكَ يَا أَرْحَمَ الرَّاحِمِينَ. وَصَلَّى اللهُ تَعَالَى عَلَى سَيِّدِنَا مُحَمَّدٍ خَيْرِ خَلْقِهِ وَعَلَى آلِهِوَصَحْبِهِ أَجْمَعِينَ Arab Latin: Allahumma idz ath-la'ta lailatan nishfi min sya'baana 'alaa khalqika, fa'ud 'alainaa bimannika wa 'itqika, wa qaddir lanaa min fadhlika, wa wassi' rizqaka, waj'alnaa mimman yaquumu laka fiihaa biba'dhi haqqika. Allahumma man qadhaita fiihaa biwafaatihi faqdhi ma'a dzaalika rahmataka, wa man qaddarta thuula hayaatihi faj'al ma'a dzaalika ni'mataka, wa ballighnaa maa laa tablughul aamaalu ilaihi yaa khaira man waqafatil aqdaamu baina yadaihi yaa rabbal 'aalamiina, birahmatika yaa arhamar raahimiina. Wa shallallahu ta'aalaa 'alaa sayyidinaa muhammadin khairi khalqihi wa 'alaa aalihi wa shahbihi ajma'iina. Artinya: "Ya Allah, jika Engkau telah memunculkan malam Nisfu Sya'ban pada makhluk-Mu maka curahkan atas kami anugerah dan pembebasan-Mu (dari neraka), takdirkanlah untuk kami kebaikan dari keutamaan-Mu, perluaslah curahan rezeki-Mu untuk kami, jadikanlah kami di malam itu termasuk orang yang bangkit melaksanakan hak-Mu. Ya Allah, orang yang Engkau tentukan takdirnya di malam itu dengan kematiannya, maka bersamakanlah dengan rahmat-Mu, dan orang yang Engkau takdirkan berumur panjang maka jadikanlah rahmat-Mu bersamanya, dan sampaikanlah kami pada tujuan mulia yang tidak tercapai oleh angan-angan, wahai sebaik-baik Dzat yang bersimpuh di hadapan-Nya semua telapak kaki, wahai Tuhan sekalian alam, dengan rahmat-Mu, wahai Dzat Yang Paling Pengasih. Semoga shalawat Allah tercurah pada junjungan kami Nabi Muhammad, sebaik-baik makhluk, dan atas keluarga serta sahabat kesemuanya." 5. Berdzikir Pada bulan Syaban ini, umat muslim juga dianjurkan untuk memperbanyak dzikir sebagai bentuk penghambaan kepada Allah SWT. Bentuk dzikir yang biasa dilakukan oleh para ulama yaitu sebagai berikut: Dzikir yang pertama yaitu dengan membaca istighfar. Bacaan istighfar ini dibaca sebanyak 70 kali setiap harinya. Berikut bacaan dan terjemahannya: أَسْتَغْفِرُ اللهَ وَأَسْأَلُهُ التَّوْبَةَ Arab Latin: Astaghfirullaaha wa as-aluhut taubah Artinya: "Aku memohon ampun kepada Allah dan aku meminta kepada-Nya agar diterima tobatku." Selain itu, bacaan istighfar berikut ini juga bisa dibaca sepanjang bulan Syaban: أَسْتَغْفِرُ اللهَ الَّذِي لَا إِلَهَ إِلَّا هُوَ الرَّحْمَنُ الرَّحِيمُ الْحَيُّ الْقَيُّومُ وَأَتُوْبُ إِلَيْهِ Arab Latin: Astaghfirullaahaladzii laa ilaaha illaa huwar rahmaanur rahiimul hayyul qayyuumu wa atuubu ilaih Artinya: "Aku memohon ampun kepada Allah, tiada Tuhan selain Dia, Yang Maha Pengasih, Maha Penyayang, Yang Maha Hidup, Yang Maha Berdiri Sendiri, dan aku bertobat kepada-Nya." Selanjutnya yaitu membaca bacaan dzikir sebanyak 70 kali setiap harinya. Berikut rincian bacaannya: لَا إِلَهَ إِلَّا اللهُ وَلَا نَعْبُدُ إِلَّا إِيَّاهُ مُخْلِصِينَ لَهُ الدِّينَ وَلَوْ كَرِهَ الْمُشْرِكُونَ Arab Latin: Laa ilaaha illallaahu wa laa na'budu illaa iyyahu mukhlishiina lahud diina wa lau karihal musyrikuuna Artinya: "Tiada Tuhan selain Allah dan kami tidak menyembah selain kepada-Nya dengan memurnikan ketaatan kepada-Nya meskipun orang-orang musyrik membencinya." 6. Bersedekah Amalan yang dianjurkan pada bulan Syaban selanjutnya yaitu bersedekah. Sebagaimana diriwayatkan Imam Shadiq ketika ditanya tentang amalan terbaik di bulan Syaban. Imam Shadiq mengatakan bersedekah dan beristighfar merupakan amalan terbaik. Sebagaimana yang dijelaskannya sebagai berikut: "Bershadaqah dan membaca istighfar. Barang siapa bershadaqah di bulan Sya'ban, maka Allah Swt. akan memelihara shadaqah tersebut sebagaimana salah seorang dari kalian memelihara anak untanya, sehingga pada hari kiamat, shadaqah tersebut sampai di tangan pemiliknya sebesar Gunung Uhud." 7. Melakukan Salat Sunah Salat sunnah dianjurkan untuk dilakukan setiap hari Kamis pada bulan Syaban. Salat sunah bulan Syaban ini dikerjakan sebanyak dua rakaat. Pada masing-masing rakaat membaca al-Fatihah kemudian diikuti surah pendek al-Ikhlas yang dibaca sebanyak 100 kali. Kemudian, setelah salam dianjurkan untuk membaca shalawat sebanyak 100 kali. 8. Berpuasa Ayyamul Bidh Amalan terakhir yang dianjurkan untuk dilakukan pada bulan Syaban yaitu berpuasa Ayyamul Bidh. Puasa Ayyamul Bidh merupakan puasa pertengahan bulan pada tanggal 13, 14, dan 15 dalam penanggalan Hijriah. Dinukil dari laman NU Online, puasa Ayyamul Bidh dimulai dengan membaca niat puasa mutlak, seperti "Saya niat puasa". Namun, lebih baik membaca niat khususnya sebagai berikut: نَوَيْتُ صَوْمَ أَيَّامِ الْبِيْضِ لِلّٰهِ تَعَالَى Arab Latin: Nawaitu shauma ayyâmil bîdl lilâhi ta'âlâ Artinya: "Saya niat puasa Ayyamul Bidl (hari-hari yang malamnya cerah), karena Allah ta'âlâ." Keistimewaan Bulan Syaban Keistimewaan bulan Syaban ditafsirkan oleh beberapa ulama sebagai yang penuh dengan kemuliaan. Masih melansir buku Kalender Ibadah Sepanjang Tahun, berikut daftar keistimewaan bulan Syaban: Demikianlah amalan yang dapat dikerjakan pada bulan Syaban lengkap dengan keistimewaannya. Diamalkan ya, detikers!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/sulsel/berita/d-7187007/8-amalan-bulan-syaban-yang-disunnahkan-yuk-amalkan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahok Sindir Kinerja Jokowi dan Gibran, Emil Dardak Pasang Badan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emil Dardak, juru Bicara Gibran Rakabuming Raka buka suara terkait kritikan Ahok yang bertanya kinerja Presiden Jokowi dan Wali Kota Solo Gibran Rakabuming Raka. Pernyataan Ahok viral di media sosial dan belakangan Ahok sendiri merasa bahwa kalimatnya itu dipotong di video viral. Emil menyebut kritik dari Ahok senantiasa diterima sebagai masukan oleh Gibran. Emil menyebut Gibran lapang dada mendapat kritik dari Ahok. "Semua kritik diterima oleh Gibran dengan lapang dada," kata Emil di Surabaya, Sabtu (10/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Menurut Emil, Gibran justru mengapresiasi kinerja Ahok selama ini mulai memimpin DKI Jakarta hingga memimpin dewan komisaris di Pertamina. "Gibran mengatakan Bang Ahok relatif baik kinerjanya dan menjadi rujukan," tambahnya. Meski begitu, Wagub Jatim ini menegaskan Gibran sosok pekerja keras dan bisa bekerja. Hal itu dibuktikan dengan capaian di Kota Surakarta. "Saya berpendapat Gibran bisa kerja. Saya sudah melakukan penelaahan empiris apa yang dilakukan Gibran dalam memimpin Solo," ujarnya. "Jadi saya rasa semua pandangan-pandangan itu kita hormati bahwa ada pihak-pihak yang punya pandangan lain itu jadi sarana untuk introspeksi diri semakin berbenah ke depannya. Kita ikuti keteladanan Gibran yang senantiasa lapang dada menerima masukan dan saran," tandasnya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186998/ahok-sindir-kinerja-jokowi-dan-gibran-emil-dardak-pasang-badan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUI Jatim Sebut Golput Haram Jika Bawa Mudarat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUI Jatim meminta agar semua warga menggunakan hak pilihnya pada 14 Februari 2024 mendatang. MUI lalu mengimbau masyarakat agar tak golput. Ketua Umum MUI Jatim KH Mutawakkil Alallah mengatakan tidak ada capres-cawapres yang sempurna. Sebab menurutnya setiap calon pasti punya kelebihan dan kekurangan. "Yang jelas semua capres dan cawapres ada tiga ini adalah kader-kader dan tokoh-tokoh terbaik bangsa. Dan tentu kita tidak akan menemukan manusia yang sempurna, pasti di samping kelebihan ada kekurangan. Oleh karena itu pilih salah satu dari tiga ini yang diyakini untuk menjadi pemimpin nasional untuk memberi kesejahteraan ke rakyat," kata Mutawakkil di Surabaya, Sabtu (10/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Jangan sia-siakan hak pilih, kalau sampai golput dan mengakibatkan kegagalan pemilu itu dosa hukumnya haram karena itu membawa mudarat kepada umat bangsa dan negara. Akan menjadikan tatanan pemerintahan Indonesia semrawut," tambahnya. Menurut Mutawakkil, menggunakan hak pilih dalam demokrasi sesuai dengan ajaran Islam. Sebab, hal itu merupakan bagian dari menjaga kedaulatan negara. "Pemilu ini pemenuhan negara terhadap kedaulatan rakyat. Seluruh masyarakat, seluruh umat yang memiliki hak pilih gunakan hak pilihnya pada 14 Februari nanti, pilih pilpres sampai DPR, karena ini untuk keberlanjutan estafet nasional ini bagian menjaga kedaulatan negara," ujarnya. "Menjaga kedaulatan negara sama wajibnya menjaga martabat dan nilai agama. Golput bukan pilihan, tapi menyia-nyiakan hak yang diberi Allah itu lebih tidak baik," tambahnya. Pengasuh Ponpes Genggong Probolinggo ini berharap Pemilu 2024 bisa berjalan dengan baik, lancar, jujur, adil, dan bisa melahirkan pemimpin terbaik. "Kita berharap pemilu berjalan dengan damai, jurdil, dan Allah menganugerahkan bangsa kita pemimpin yang bisa membawa negara ini menjadi negara maju, adil, makmur, adil, sejahtera, gemah ripah, menjadi bangsa bermartabat dan dihagai oleh bangsa-bangsa lain di dunia," ujarnya. "Ingat golput kalau sampai mengakibatkan gagalnya pemilu sehingga rusaknya tatanan pemerintah, tentu itu haram, karena membawa mudarat," tandasnya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186956/mui-jatim-sebut-golput-haram-jika-bawa-mudarat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisah Cordo Tuban, Nama Lahirnya Panjang 19 Kata hingga Sulit Bikin Akta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pada 6 Januari 2019, lahir seorang anak bernama Rangga Madhipa Sutra Jiwa Cordosega Akre Askhala Mughal Ilkhanat Akbar Sahara Pi-Thariq Ziyad Syaifudin Quthuz Khoshala Sura Talenta. Namanya panjang hingga 19 kata. Ia akrab dipanggil Cordo. Ia merupakan buah hati atau putra kedua dari pasangan Arif Akbar (29) dan Suci Nur Aisyiah (26), yang tinggal di Desa Ngujuran, Kecamatan Bancar, Tuban. Karena namanya terlalu panjang, Cordo kesulitan mendapatkan akta lahir. Itu seperti yang disampaikan sang ayah. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Iya sudah beberapa kali ke kantor Dukcapil Tuban. Informasi yang kita dapat katanya di SIAK namanya melebihi 50 karakter. Ini lho sudah tiga tahun," jelas Arif saat dihubungi detikJatim, Senin ( 4/10/2021). Nama untuk Data Dukcapil Maksimal 55 Karakter Nama Cordo lebih dari 55 karakter bahkan mencapai 132 karakter. Sehingga tidak bisa masuk data Dukcapil. Itu seperti yang disampaikan Kepala Dinas Kependudukan dan Catatan Sipil (Dukcapil) Tuban, Ubait Rohman. Menurutnya, semua dokumen kependudukan itu terintegrasi dengan pusat, yang terkoneksi dengan Sistem Informasi Administrasi Kependudukan (SIAK). "Dukcapil itu sistemnya sudah diatur oleh pusat dan nasional. Melalui SIAK yang ada di Dirjen Dukcapil. Terkait aturan juga sudah digariskan di sana. Mulai dari sistemnya, aplikasinya juga," kata Ubait. "Jadi di dalam pengisian database itu ada aplikasinya. Dalam penulisan nama warga atau penduduk, baik itu yang baru lahir maupun yang belum terdata, itu semua sudah ada aplikasinya yang telah ditetapkan oleh Direktorat Jenderal itu sebanyak 55 karakter (nama). Jadi kalau melebihi 55 karakter ya tidak bisa dimasukkan," imbuhnya. Nama Cordo yang Capai 19 Kata Pemberian Paman Sang Ayah Arif menuturkan, nama yang terdiri dari 19 kata atau 115 huruf itu merupakan hasil diskusi bersama pamannya Mujoko Zahid. Yang merupakan budayawan asal Bumi Ronggolawe Tuban. Menurutnya, nama tersebut mempunyai makna yang sangat luas. "Harapan kami semoga anak itu kelak berpenalaran landung selandung namanya. Dan Menjadi inspirasi peradaban umat manusia," kata Arif kepada detikcom, Selasa (12/2/2019). Sang ayah menambahkan, nama putra keduanya itu memiliki hubungan dengan sejarah nama Kota Teladan Islam. Dengan harapan, kelak anak tersebut bisa menjadi tokoh yang mendunia. "Maknanya anak itu kelak menjadi tokoh dunia yang mendunia. Menjadi diri yang tidak berpikir lokal, sempit atau primordial. Tetapi mempunyai wawasan global sekaligus memiliki karsa dan power untuk merealisasikan wawasan besarnya. Kuat namun berjiwa lembut yang welas asih," terang Arif. Nama Cordo yang Capai 19 Kata Disarankan Diganti Dukcapil Tuban menyarankan agar nama Cordo diganti. Menanggapi hal itu, Arif pada dasarnya menyayangkan jika harus sampai mengganti nama anak. Sebab nama itu berisi doa dan harapan. "Saya disuruh mengubah nama anak, padahal nama tersemat doa untuk kebaikannya. Kalau harapan tentu bisa diproses aktanya, karena saat masuk TK akta dibutuhkan," kata Arif. Arif akan bersedia mengubah nama Cordo jika ada surat keterangan resmi dari Dukcapil Tuban. Namun selama ada celah untuk memperjuangkan nama anak sepanjang 19 kata itu, ia akan terus memperjuangkannya. "Kalau untuk mengganti nama kami siap kok. Asalkan saya minta satu lembar kertas surat dari Dinas Catatan Sipil Tuban bahwa nama tersebut dilarang, atau tidak boleh. Itu saja. (Jika) surat ditandatangani dan distempel pihak terkait dan sudah kami terima, insyaallah kami ganti namanya. Saya taat hukum," tutur Arif. Nama Cordo Diganti dan Dapat Akta Lahir Nama Cordo jadi lebih pendek yakni R - Akbar Zudan Cordosega Sura Talenta. Pergantian nama bocah tersebut terjadi setelah adanya komunikasi yang intens dari Dirjen Dukcapil Kemendagri, Zudan Arif Fakrulloh dengan Arif dan tokoh adat Desa Ngujuran, Mujoko Sahid. Mujoko yang juga merupakan paman dari Arif menceritakan alasan mengapa pihaknya mau mengganti nama Cordo. Menurutnya, pihaknya luluh dengan sikap humanis yang ditunjukkan Zudan. Yang santun, terbuka, informatif dan berorientasi pada solusi. "Itulah mengapa kami bersedia mengganti nama lengkap Cordosega karena terkena apa yang kami sebut istilahnya sebagai 'pasal sungkan'. Saya sungkan dengan Pak Prof Zudan yang memberikan nasihat dan saran yang bisa membuat kami legowo," ungkap Mujoko, Rabu (10/11/2021). "Melalui kejadian ini, kami menjadi percaya bahwa cara-cara seperti yang dilakukan Prof Zudan ini, bahwa dengan ketulusan silaturahmi, itu kunci solusi untuk segala problem di NKRI," imbuhnya. Zudan mendatangi rumah Arif untuk memberikan secara langsung dokumen kependudukan milik Cordo. Seperti Akta Kelahiran, KK dan Kartu Identitas Anak (KIA). "Meski demikian, nama Cordosega yang sebelumnya (19 kata), silahkan tetap menjadi nama adat baginya sehingga ketentuan adat tetap berlaku," terang Zudan, Rabu (10/11/2021). Ia juga menjelaskan, nama R - Akbar Zudan Cordosega Sura Talenta dapat diakomodir dalam Sistem Informasi Administrasi Kependudukan (SIAK). Sehingga proses pengurusan berbagai dokumen kependudukan dapat dilakukan. "Yang penting untuk kepentingan negara, nama lengkap terbaru dari ananda Cordosega kami resmikan di dokumen kependudukan, agar mendapatkan berbagai pelayanan publik dengan mudah ke depannya," imbuh Zudan.  Jatim Flashback adalah rubrik spesial detikJatim yang mengulas peristiwa-peristiwa di Jawa Timur serta menjadi perhatian besar pada masa lalu. Jatim Flashback diharapkan bisa memutar kembali memori pembaca setia detikJatim. Jatim Flashback tayang setiap hari Sabtu. Ingin mencari artikel-artikel lain di rubrik Jatim Flashback? Klik di sini.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186817/kisah-cordo-tuban-nama-lahirnya-panjang-19-kata-hingga-sulit-bikin-akta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kejayaan PDIP dan PKB di Jatim Terancam Dua Partai Ini Versi ARCI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominasi PKB dan PDIP di Jawa Timur terancam diusik oleh dua partai ini. Hal itu tergambar dalam survei Accurate Research and Consulting Indonesia (ARCI). Direktur ARCI Baihaki Sirajt menyebut Gerindra dan Golkar berpotensi menyalip PDIP bahkan PKB di Jawa Timur jika lengah di menit akhir. "Selisih antara 4 partai teratas di Jatim ini sangat tipis. Dan jika lengah di hari-hari akhir Pemilu, bisa jadi ada kejutan besar dua kekuatan partai tradisional di Jatim bisa dikalahkan oleh Gerindra atau bahkan Golkar," kata Baihaki saat paparan survei di Surabaya, Sabtu (10/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Dalam survei ARCI di Jatim, elektabilitas PKB di angka 17,7% dan berada di peringkat teratas. Menguntit di peringkat kedua ada PDI Perjuangan (PDIP) di angka 16,1%. Sementara Gerindra di posisi ketiga di angka 15,8%, dan Golkar 14,7% melengkapi 4 besar. Baihaki membeberkan tren PKB di Jatim cenderung naik namun angkanya sangat kecil. Sementara PDIP trennya justru terus menurun. "PKB stagnan agak naik sedikit. Berbanding terbalik dengan PDIP yang justru perlahan turun sedikit demi sedikit," ungkapnya. Baihaki juga membeberkan Gerindra meraih coattail effect dari majunya Prabowo Subianto. Sementara, kerja keras kader Golkar Jatim dan efek elektoral Gibran berpengaruh ke elektabilitas Partai Berlambang Beringin. "Gerindra mengalami kenaikan perlahan berkat coattail effect Prabowo. Sementara Golkar trennya cukup mengejutkan, dan temuan kami ada limpahan suara PDIP ke Golkar di Jawa Timur karena faktor Gibran Rakabuming Raka yang notabene putra Jokowi," jelas Baihaki. "Beberapa responden memilih Golkar, karena mereka menilai Gibran sudah menjadi kader Golkar. Kita ingat kala itu Gibran diusulkan Golkar jadi cawapres Prabowo. Jadi Golkar dapat limpahan elektoral Gibran dari pemilih Jokowi dulu yang ada di PDIP," tambahnya. Namun, Baihaki menyebut apapun masih bisa terjadi di Pileg 2024 ini mengingat 3 hari jelang coblosan sangat krusial. "Karena Pileg ini, 3 hari menjelang coblosan menjadi penentu, terutama untuk menjaga suara," tandasnya. Survei ARCI dilakukan pada 27 Januari-5 Februari 2024. Survei menggunakan metode multistage random sampling dengan jumlah sampel sebanyak 1.800 responden yang tersebar proporsional di 38 kabupaten/kota Jatim. Survei ARCI memiliki margin of error sebesar 2,8% dan tingkat kepercayaan sebesar 95%. Berikut elektabilitas partai politik di Jawa Timur versi ARCI: 1. PKB 17,7%2. PDIP 16,1%3. Gerindra 15,8%4. Golkar 14,7%5. Demokrat 8,2%6. NasDem 6,7%7. PKS 5,8%8. PAN 5,1%9. PPP 4,1%10. PSI 1,5%11. Perindo 1,2%12. PBB 1,2%13. Gelora 0,5%14. Hanura 0,1%15. PKN 0,1%16. Ummat 0%17. Garuda 0%18. Buruh 0%Tidak tahu/tidak menjawab 1,2%.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186779/kejayaan-pdip-dan-pkb-di-jatim-terancam-dua-partai-ini-versi-arci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMNI Jatim Gelar Aksi Serukan Pemilu Damai Tanpa Provokasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massa yang terdiri dari mahasiswa sejumlah kampus di Jatim menggelar aksi menyerukan pemilu damai. Mereka menyampaikan seruan damai di Taman Makam Pahlawan (TMP) Mayjend Sungkono Surabaya. Ketua DPD GMNI Jatim Hendra Prayogi mengatakan seruan damai kebangsaan bertajuk 'Pemilu Damai Tanpa Provokasi' itu merupakan bukti dan tekad untuk menjunjung tinggi nilai-nilai demokrasi. Begitu juga dengan kedamaian dan keadilan dalam pelaksanaan Pemilu 2024 pada 14 Februari 2024. "Aksi kami hari ini mencerminkan semangat persatuan, hingga menyoroti peran vital pemuda dan mahasiswa sebagai garda terdepan dalam mewujudkan pemilu yang damai, jujur, dan adil," kata Hendra saat ditemui di TMP Mayjend Sungkono Surabaya, Sabtu (10/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Hendra meyakini masa depan negara Indonesia ada pada partisipasi para pemuda secara aktif. Begitu juga dari seluruh elemen masyarakat. Hendra mengajak masyarakat untuk bersama-sama menggunakan hak pilih pada Pemilu 2024. Karena mencoblos secara bermartabat akan memberikan harapan baru bagi tanah air. "Secara esensi, pemilu adalah momentum dan ujian bagi seluruh elemen bangsa, seberapa jauh nilai nilai demokrasi telah menjadi bagian dari jati diri bangsa Indonesia, sekaligus menjadi proses pembelajaran dalam rangka pendewasaan bangsa," ujarnya. Nilai demokrasi, sambung dia, yang dimaksud yakni merampungkan perselisihan secara damai dan sukarela. Lalu, menjamin terjadinya perubahan secara damai, pergantian penguasa dengan teratur, hingga adanya pengakuan terhadap nilai keberagaman, pengakuan, dan jaminan atas tegaknya keadilan. Berikut beberapa poin yang diserukan dalam aksi tersebut: 1. Pemilu damai tanpa provokasi, ini menjadi penting untuk diketahui oleh seluruh anak bangsa, seluruh elemen masyarakat agar tidak menjadikan pemilu sebagai sebab atau pun menjadikan pemilu pemecah bela bangsa. 2. Kami sadar bahwa bangsa kita ini didirikan tidak mudah, banyak pengorbanan pahlawan kita hari ini. Kami mendesak dan menyerukan generasi bangsa, mahasiswa dan elemen seluruh masyarakat untuk mengutamakan persatuan dan kesatuan. 3. Mendesak pada seluruh pejabat negara untuk berpedoman selalu berada di jalur jalur Pancasila dan UU dasar 1945.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186612/gmni-jatim-gelar-aksi-serukan-pemilu-damai-tanpa-provokasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puncak Arus Balik Libur Panjang Imlek di Jatim Diprediksi Terjadi Besok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puncak arus balik masyarakat usai libur panjang Isra Miraj dan tahun baru Imlek diprediksi terjadi besok (11/2/2024). Diprediksi, kepadatan kendaraan akan terjadi, baik di jalan raya maupun di jalan tol. Kakorlantas Polri Irjen Aan Suhanan memastikan pihaknya telah melakukan sejumlah antisipasi. Baik di kawasan kabupaten atau kota, terutama di jalanan yang dinilai bakal menjadi penumpukan arus lalin saat arus balik nanti. "Kita siapkan untuk antisipasi dan lakukan survei dan rapat-rapat arus balik diperkirakan besok tanggal 11 Februari dari timur ke barat, maupun sebaliknya dan seterusnya, mungkin dari kabupaten ke kota, sudah kami antisipasi," kata Aan saat sesi doorstop di Halaman Gedung Mahameru Polda Jatim, Sabtu (10/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Ia memastikan, telah menyebar sejumlah personel lalu lintas di jalan raya. Terutama, di 3 titik rawan kemacetan atau kepadatan volume lalin. Aan juga menegaskan, sudah ada cara yang kerap dilakukan pihaknya saat libur panjang serupa. Diantaranya melakukan contra flow maupun oneway. "Kalau kita kluster ada 3 ruas jalan ya kalau bicara kemacetan, ada tol, arteri, wisata, dan pelabuhan penyeberangan, sudah diantisipasi semua, sudah kita siapkan rekayasa contra flow dan one way, termasuk yang ke pelabuhan, Insyaallah bisa kita kelola dengan baik," ujarnya. Selain itu, Aan mengimbau para pengendara yang akan melakukan arus balik tetap ekstra hati-hati dan waspada. Kurangi kecepatan kendaraan dan saling menjunjung toleransi di jalan. "Meredam emosi di jalan, harus toleransi sesama pengguna jalan yang lain," tuturnya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186534/puncak-arus-balik-libur-panjang-imlek-di-jatim-diprediksi-terjadi-besok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMKN Maritim di Brondong Lamongan Diresmikan Gubernur Khofifah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gubernur Jatim Khofifah Indar Parawansa meresmikan Sekolah Menengah Kejuruan (SMK) Negeri Maritim Jawa Timur di Brondong Lamongan. Hadirnya sekolah ini menjadi bentuk ketanggapan pemerintah daerah dalam menghadirkan pendidikan terbaik di bidang vokasi atau keahlian berbasis maritim. "Vokasi-vokasi yang memang dibutuhkan oleh berbagai sektor itu akan terus kita siapkan. Karena pada dasarnya technical skill yang dibutuhkan oleh berbagai sektor kita harus difasilitasi bersama," ujar Khofifah saat meresmikan SMKN Maritim Jawa Timur di Brondong, Sabtu (10/2/2024). Khofifah berharap dengan berdirinya SMKN Maritim, Disdik Jatim mampu bersinergi dengan Koarmada II (Komando Armada II) atau Mabes AL. Khofifah menyebut mentoring dari TNI angkatan laut akan menjadi bagian dari penguatan. Tidak sekadar di sektor maritim, sektor perikanan, tapi juga membangun penguatan ke-Nusantara-an. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Tidak sekedar di sektor maritim, sektor perikanan, tapi kalau bersama TNI AL ini adalah bagian dari penguatan Nusantara seluruh hal-hal yang membangun penguatan ke nusantaraan kita akan mensinergikan," ujarnya. Hadirnya SMKN Maritim di Lamongan disambut baik oleh Bupati Lamongan Yuhronur Efendi. Menurut, Bupati Yes, SMKN maritim dapat mendorong kualitas generasi masa depan, khususnya dalam rangka peningkatan kualitas sumber daya manusia. "Terlebih Lamongan dengan potensi pantai sepanjang 47 km, produksi perikanan hampir 87.000 ton di tahun 2023, dan tercatat sekitar 60.000 warga bekerja di sektor perikanan, dengan jumlah perahu sekitar 3.423, menjadi penguat keterampilan dan keahlian," jelasnya. Kepala Dinas Pendidikan Provinsi Jawa Timur Aries Agung Paewai mengatakan secara historis SMKN Maritim telah diajukan izin pendirian dan operasional sejak 30 April 2019. SMKN Maritim Dibangun secara bertahap selama 4 tahun di lahan seluas 38.950 meter persegi. SMKN Maritim ini juga telah dilengkapi 2 ruang praktik siswa, 4 ruang kelas, asrama dua lantai dengan kapasitas 32 ruang dengan fasilitas kamar mandi dan pendukung lainnya, gedung kantor, fasilitas-fasilitas alat praktek, hingga lainnya. Usai diresmikan, SMKN Maritim akan mulai membuka Penerima Peserta Didik Baru (PPDB) pada Februari - Maret 2024 untuk gelombang 1 dan April - Mei 2024 untuk gelombang 2. Kuota untuk sekolah maritim tingkat atas ini sebanyak 108 siswa untuk konsentrasi keahlian yakni nautikal kapal penangkapan ikan, technica kapal penangkapan ikan, dan agrobisnis pengelolaan hasil perikanan. Saat peresmian, Khofifah didampingi Bupati Lamongan Yuhronur Efendi, Kepala Dinas Pendidikan Provinsi Jawa Timur Aries Agung Paewai, Wakil Bupati Lamongan Abdul Rouf. Selain itu, hadir pula Asops Koarmada II Kolonel Laut (P) Heri Prihartono.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187051/smkn-maritim-di-brondong-lamongan-diresmikan-gubernur-khofifah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Said Abdullah Harap Pemilu 2024 Tak Dikotori dan Dinodai Teror: Biarlah Alami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kampanye hari terakhir dimanfaatkan para relawan Ganjar Pranowo-Mahfud Md di Sumenep untuk mengoptimalkan dukungan pada paslon nomor urut 03. Salah satunya dengan menggelar kegiatan jalan-jalan sehat hingga pasar rakyat. Ketua DPD PDI Perjuangan Jatim Said Abdullah mengaku yakin Ganjar-Mahfud akan menang Pilpres 2024. Said optimistis Ganjar-Mahfud akan meraup suara 37 sampai 39 persen saat Pemilu nanti.Dalam kesempatan ini, Said Abdullah ditemani Bupati Sumenep Achmad Fauzi yang juga Ketua DPC PDI Perjuangan Sumenep. Keduanya berbaur dengan ribuan relawan dalam acara yang digelar di depan Museum Keraton Sumenep. Said Abdullah berharap, Pemilu berjalan tanpa ada paksaan kepada rakyat untuk memilih calon tertentu. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Nanti hasilnya akan ditentukan oleh rakyat dan semoga pemilihan ini tidak kotor, tidak dinodai oleh yang aneh-aneh, pemaksaan dan sebagainya apalagi teror, biarlah alami, kalau ada kata-kata klise yang selalu diteriakkan jujur adil terbuka dan sebagainya," kata Said Abdullah, Sabtu (10/02/2024). Said yang juga Ketua Banggar DPR RI itu yakin rakyat bisa datang ke TPS untuk menggunakan hak pilihnya tanpa ada paksaan apalagi teror dari siapapun. "Ketika rakyat-rakyat sudah menentukan pilihannya dengan cara yang legal, yang disediakan oleh undang-undang, saya haqqul yakin Ganjar Pranowo akan menang, insyaallah Ganjar Pranowo sekitar 37 sampai 39 persen," kata Said yang juga putra Sumenep asli itu. Sementara itu, Said berharap, masyarakat Sumenep akan menyambut dengan riang gembira kegiatan penutup kampanye tersebut. "Terima kasih kepada seluruh masyarakat Sumenep dan saya berharap sampai acara nanti malam akan penuh kedamaian, riang gembira kita bersatu padu layaknya masyarakat Sumenep," kata Said. Menurut Said, berbeda pilihan itu soal lumrah. Namun yang terpenting, para pemilih tetap bersama-sama menjaga situasi kondusif dan tidak boleh ada pemaksaan kepada siapapun untuk memilih paslon sesuai keinginannya. "Pilihan itu adalah pilihan hati nurani, tidak bisa siapapun memaksa-maksa dan kondisi ini saya berharap sampai tanggal 14 Februari dan seterusnya," harap Said.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186417/said-abdullah-harap-pemilu-2024-tak-dikotori-dan-dinodai-teror-biarlah-alami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Warga RI! Fotokopi KTP Tak Lagi Berlaku Mulai Tahun Ini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pemerintah tengah berupaya untuk menggantikan penggunaan identitas kependudukan masyarakat, dari semula Kartu Tanda Penduduk (KTP) dengan Identitas Kependudukan Digital (IKD). Ditargetkan pada tahun 2024 ini proses peralihan tersebut akan rampung. Itu tandanya, era fotokopi KTP sudah tidak lagi berlaku ke depannya. Sebab, di masa mendatang, penggunannya berubah yang dilakukan secara digital. Di awal 2024, Presiden Joko Widodo (Jokowi) telah menginstruksikan untuk mempercepat transformasi digital dan keterpaduan melalui Digital ID atau IKD, pembayaran digital, dan pertukaran data untuk interoperabilitas layanan publik yang berorientasi kepada pengguna. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+   Terkait instruksi tersebut, Kementerian Dalam Negeri (Kemendagri) pun gencar melakukan percepatan pengembangan Sistem Pemerintahan Berbasis Elektronik (SPBE). "Secara spesifik, Ditjen Dukcapil memiliki peran penting dalam penyediaan IKD dan menjadi basis dalam proses pertukaran data (data exchange), terutama dalam memastikan keamanan dan keandalan data kependudukan," ujar Kemendagri beberapa waktu lalu. Sebagai informasi, IKD adalah identitas digital nasional, yaitu berupa alat untuk membuktikan identitas pengguna secara online ketika mengakses layanan pemerintah dan swasta. Kemendagri juga telah merilis aplikasi IKD yang bisa diakses lewat HP, baik pengguna smartphone berbasis Android dan iOS. Hal yang mencolok dari perubahan e-KTP menjadi IKD ini nantinya pelayanan publik tak lagi memerlukan fotokopi KTP. Persoalan tersebut yang sering dihadapi masyarakat ketika mengurus suatu dokumen. "IKD diharapkan dapat meningkatkan aksesibilitas dan efisiensi masyarakat terhadap layanan pemerintah maupun swasta. Pertama, IKD dapat memvisualisasikan KTP secara digital (menjadi KTP Digital) agar tidak diperlukan lagi fotokopi KTP," kata Kemendagri. Kemendagri menyebutkan sejak IKD diluncurkan pada tahun 2022 hingga saat ini (10 Januari 2024), lebih dari 7.316.449 jiwa telah memiliki Identitas Digital. Saat ini bank, seperti BNI, Bank Jatim, BPR Urban Bali dan BPR Danagung Ramulti sudah menggunakan IKD untuk proses pembukaan rekening secara lebih cepat dan aman.   Selain itu, di dalam aplikasi IKD, masyarakat dapat melakukan pelayanan adminduk seperti melaporkan kelahiran anak, melaporkan kematian, permohonan surat keterangan pindah, pisah atau pecah Kartu Keluarga, dan lainnya. "Ke depan, pengayaan fitur akan terus dilakukan untuk meningkatkan user experience dan kemudahan pengguna dalam melakukan aktivasi IKD tanpa harus datang ke kantor Dinas Dukcapil," pungkas Kemendagri.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://inet.detik.com/law-and-policy/d-7186066/dear-warga-ri-fotokopi-ktp-tak-lagi-berlaku-mulai-tahun-ini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kakorlantas Polri Sebut Jatim Sumbang Laka Lantas Tertinggi Setelah Jakarta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indeks keselamatan berlalu lintas di Indonesia dinilai masih jauh dari harapan. Bahkan, diklaim masih di bawah beberapa negara lain di Asia Tenggara. Kakorlantas Polri Irjen Aan Suhanan mengatakan, pihaknya menargetkan indeks keselamatan di 1,37 persen atau jumlah korban fatalitas sampai tahun 2025, diharapkan hanya berkisar pada 27 ribu. Menurutnya, jumlah fatalitas laka lantas di Indonesia, termasuk Jatim setiap tahun selalu naik. "Nanti kita lihat sudah sampai mana korban laka lantas ini, sudah tercapai atau tidak, lalu kita bandingkan dengan negara Asia Tenggara, kita ingin indeks keselamatan teratas di Asia Tenggara, tapi faktanya keselamatan berlalu lintas di Indonesia hanya di rangking 4 terburuk, bukan di atas, bisa kita lihat negara-negara lain di Singapura, Filipina, dan lain-lain jauh lebih baik," kata Aan saat pemaparan materi Gebyar Keselamatan 2024 di Gedung Mahameru Polda Jatim, Sabtu (10/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Artinya, kita perlu effort yang lebih keras lagi, komunitas lalin menjadi duta kita, duta Polri, duta pemerintah untuk menjaga keselamatan berlalu lintas. Jatim sendiri memang menyumbang angka laka lantas cukup tinggi, ada di rangking kedua setelah Jakarta, tahun lalu 2023 tertinggi, alhamdulillah tahun ini ada di rangking kedua," imbuhnya. Aan mengaku prihatin lantaran data kecelakaan lalu lintas di Indonesia dari tahun ke tahun terus meningkat. Menurutnya, ada kenaikan 10 persen pada tingkat fatalitas korban atau sekitar 27.596 orang. Apabila dibandingkan jumlah penduduk atau kendaraan bermotor di Indonesia, Aan memprediksi masih jauh dari target keselamatan di tahun 2025. Ia menyebut, target yang sudah ditentukan di tahun 2025 masih cukup jauh, yakni di 9,9 persen. "Artinya, perlu kerja keras untuk realisasikan target, masih 9,9 indeks keselamatan Indonesia. Di tahun 2024 ini jumlah laka lantas harus turun, itu perintah Pak Kapolda Jatim (Irjen Imam Sugianto) juga, bukan angkanya yang diturunkan tapi diubah," bebernya. "Sekarang yang dinilai adalah upayanya dari para Kasat Lantas bagaimana mengajak teman-teman untuk bersama-sama memberikan edukasi dan sosialisasi bersama para stakeholder untuk menurunkan angka laka lantas, mulai dari pendataan, blackspot, sampai penanganan laka lantas," imbuh Aan. Aan menyatakan, ada data yang sangat memprihatinkan. Sebab, dari data dan hasil rekapitulasi korban laka lantas, angka terbesar adalah usia-usia produktif. Mulai usia 15 sampai 59 tahun, yakni para pelajar, mahasiswa, hingga karyawan. "Angkanya tetap, 3 tahun berturut-turut dan menjadi korban laka lantas," sambungnya. Untuk jenis kelamin para korban, Aan memastikan adalah tulang punggung keluarga. Mulai dari suami, orangtua, atau bapak. "Artinya, kalau ortu yang jadi korban laka lantas bisa dipastikan akan ada 1 orang janda, kalau punya anak akan ada anak yatim, akibatnya luar biasa terhadap perekonomian keluarga, negara, dan seterusnya," papar Aan. "Karena 84 persen korban meninggal dunia akibat laka lantas adalah pria sebagai tulang punggung keluarga, ini menjadi referensi kita untuk sosialisasi dan edukasi betapa laka lantas ini mengakibatkan kemiskinan, terutama untuk keluarga," tambahnya. Lalu, untuk jenis kendaraan yang terlibat laka lantas di tahun 2021 sampai 2023, masih didominasi roda 2. Bahkan, masih menjadi rangking pertama selama 3 tahun berturut-turut. "Untuk faktor penyebab laka lantas angka secara nasional ini perilaku jaga jarak sering jadi penyebab laka lantas, bisa over speed, lalu tidak bisa mengerem, lalu terjadi tabrakan, dan seterusnya," jelasnya. Dari data ini, ia ingin masyarakat dan komunitas serta para produsen kendaraan untuk bersama-sama meningkatkan keselamatan berlalu lintas. Menurutnya, Jatim menjadi sasaran penekanan dan pencegahan laka lantas karena dinilai masih cukup tinggi setelah Jakarta. Berdasarkan data yang dihimpun Mabes Polri, Aan mengaku tengah berupaya dan mengkoordinasikan serta mengembangkan TI untuk mengelola keselamatan berlalu lintas. Supaya, bisa sejajar dengan negara-negara lain di Asia Tenggara. "Kita lihat sudah mulai banyak pengembangan melalui riset, dan lain-lain terhadap keselamatan berlalu lintas terutama pada roda 2 karena sangat rentan laka lantas. Data dari PBB memang roda 2 ini adalah yang paling fatal, karena tidak ada rumah luar, begitu jatuh langsung ke aspal," ungkap Aan. "Ini tanggung jawab kita, mulai dari Bapenda, Dishub, PUPR, Binamarga, polisi, sehingga bisa menekan jumlah fatalitas laka lantas, untuk para Kasatlantas di Jatim manfaatkan informasi dari kita untuk mengelola keselamatan berlalu lintas, tidak hanya patroli, tidak hanya jalan-jalan, tapi tentukan pada data yang ada, sehingga tepat sasaran," tutupnya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7186225/kakorlantas-polri-sebut-jatim-sumbang-laka-lantas-tertinggi-setelah-jakarta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peringati HPN 2024, TKD Jatim Prabowo-Gibran Perhatikan Kesehatan Wartawan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKD Jatim 02 Prabowo Subianto-Gibran Rakabuming Raka memberi perhatian khusus kepada para jurnalis di Hari Pers Nasional (HPN) yang jatuh pada Jumat (9/2/2024). Pemeriksaan kesehatan hingga suplemen diberikan pada para jurnalis. Selain itu, TKD Jatim Prabowo-Gibran juga mengucapkan selamat Hari Pers Nasional. TKD Jatim berharap, di HPN 2024 kali ini, pers dapat tumbuh bersama dan berkembang baik, khususnya di Jawa Timur dan Indonesia. Ketua TKD Jatim Prabowo-Gibran, Boedi Prijo Soeprajitno menghargai kinerja semua jurnalis yang bekerja di Jawa Timur dan Indonesia, karena di masa Pemilu, kerja para jurnalis tentu sangat berat. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Kami mengulik sedikit, kami apresiasi kinerja jurnalis. Selamat Hari Pers Nasional ya, semoga pers tumbuh sehat dan baik di bumi tercinta," ujar Boedi di Jatim Expo Surabaya, Jumat (9/2/2024). Boedi Prijo juga mengirimkan tim untuk mengecek kesehatan dan memberikan vitamin gratis bagi para rekan media di HPN 2024 ini. "Di hari yang spesial, Hari Pers Nasional ini kita melakukan tes kesehatan dan pemberian vitamin untuk teman-teman media, sesuai tema Hari Pers Nasional 2024 ini yakni Mengawal Transisi Kepemimpinan Nasional dan Menjaga Keutuhan Bangsa, maka rekan media harus tetap sehat untuk mengawal tugas besar itu dengan baik," ujar Boedi. "Saya harapkan pemeriksaan kesehatan dan pemberian vitamin ini bisa dilakukan secara rutin ke depan, sehingga seluruh teman-teman terjaga kesehatannya. Sehat lahirnya, sehat batinnya dan sehat dompetnya," ungkap mantan Kepala Bapenda Jatim ini berkelakar. Tim kesehatan di lokasi, Dr Makhyan Jibril Al Farabi berpesan agar jurnalis tidak melupakan kesehatannya. Terlebih selama Pemilu. "Terutama kinerja awak media di lapangan, yang setiap hari tak kenal waktu, siang malam, panas dan hujan bertugas di lapangan selama Pemilu ini. Yang paling penting dari cek kesehatan dan berbagi vitamin gratis ini, teman-teman media bisa memastikan bahwa mereka sehat selalu dalam menjalankan pekerjaannya," pesan dr Jibril. Menurut Jibril, vitamin yang diberikan juga akan membantu menjaga daya tahan dan mencegah terjadinya penyakit. Apalagi ketika jurnalis harus kerja maraton ke sana ke mari dalam minggu-minggu krusial menjelang Pemilu. "Jika memang ada gejala atau apa, lanjut Jibril, bisa nantinya dilanjutkan ke pemeriksaan selanjutnya. Harapannya teman-teman di sini semuanya tetap fit, ketika bertugas di lapangan," pungkas Jibril.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7185907/peringati-hpn-2024-tkd-jatim-prabowo-gibran-perhatikan-kesehatan-wartawan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upaya Wagub Emil Dardak Cegah Banjir Susulan di Waru Sidoarjo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wagub Jatim Emil Elestianto Dardak memaparkan sejumlah upaya untuk mencegah banjir susulan di kawasan Waru, Sidoarjo. Salah satunya dengan mempercepat pembersihan enceng gondok di sungai. Sebelumnya, Emil telah meninjau langsung posko bencana banjir di Kantor BPBD Jatim. Kunjungan ini untuk memastikan kesiapsiagaan Pemprov Jatim dalam penanganan bencana banjir. Sebagaimana diketahui sebelumnya, hujan lebat mengakibatkan banjir menggenangi jalan desa di Kecamatan Waru, Sidoarjo. Ditambah hujan lebat pada keesokan harinya, Selasa (6/2) sore, menambah tingginya genangan yang ada di jalan desa hingga memasuki rumah warga. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Emil menjelaskan, pihaknya telah melakukan pemetaan melalui drone guna memantau titik-titik penyebab banjir. Pemetaan tersebut menggunakan drone di sepanjang aliran Kali Buntung Waru hingga arah Juanda sebagai area hilir. Harapannya, melalui pemetaan ini bisa menentukan langkah guna mengurangi risiko atau intensitas banjir di wilayah tersebut. "Kita tadi menggunakan drone untuk meninjau titik-titik tersebut. Ditemukan titik yang bisa dibersihkan yaitu karena ada banyak hambatan seperti enceng gondok sepanjang 7 kilometer," ungkap Emil, Sabtu (10/2/2024). Emil menuturkan, bencana banjir di Waru, Sidoarjo ini merupakan yang pertama kalinya terjadi. Curah hujan yang tinggi dan pasangnya air laut menjadi penyebab utama. Walaupun banjir sudah semakin surut, namun di beberapa wilayah masih terpantau genangan hingga betis orang dewasa. Oleh sebab itu, Wagub Emil menegaskan, tetap perlu ada upaya percepatan, seperti pembersihan enceng gondok guna mencegah banjir kembali terjadi. "Identifikasi bottle neck atau sumbatan botolnya ada di situ. Kalau air laut pasang kita tidak bisa mengantisipasi, tapi kalau sungainya kita bisa mengurangi potensi luapan atau tinggi muka air," tuturnya. Tidak hanya di kawasan Sidoarjo, kesiapsiagaan bencana juga harus ada di seluruh penjuru Jawa Timur, utamanya daerah rawan bencana. BPBD Jatim telah melakukan pemetaan di seluruh Jawa Timur, khususnya tempat-tempat yang di tahun sebelumnya titik rawan banjir. "Ada langkah antisipasi, jika banjir menyebabkan tanggul jebol, kita pastikan bahwa bronjong tersedia. Bahkan sand bag, karena saat ini adalah musim bencana hidrometeorologi," tegasnya. Tidak hanya itu, kesiapan posko pengungsian hingga dapur umum juga menjadi perhatian Wagub Emil. Ia memuji kesiapan seluruh elemen terkait seperti BPBD, Dinas Sosial hingga Dinas Kesehatan yang gercep dalam menangani para korban. "Hari ini kita juga pastikan bahwa tempat ini stand by untuk bisa men-support kebutuhan masyarakat. Ada tempat bermain, ada dapur umum bahkan ada tempat istirahat," pungkasnya. Pernyataan Emil Elestianto Dardak, Wakil Gubernur Jawa Timur bila penyebab banjir yang merendam ratusan rumah 5 desa di Kecamatan Waru Sidoarjo akibat enceng gondok di Sungai Buntung ternyata benar. Tumpukan enceng gondok terlihat memenuhi Sungai Buntung di depan Terminal Purabaya Bungurasih, tepatnya di samping depan Ramayana, Jumat (9/2/2024) pagi. Tidak hanya enceng gondok, sampah juga memenuhi Sungai yang membentang mulai dari Terminal Purabaya hingga Pasar Waru ini. Kepala Dinas PU SDA Jatim, Baju Trihaksoro mengatakan, sungai di depan Terminal Purabaya merupakan wilayah Balai Besar Wilayah Sungai Brantas. "Sungai di depan Terminal Purabaya merupakan wilayah Balai Besar Wilayah Sungai Brantas. Tapi kita tetap tanggung jawab untuk melakukan pembersihan," ujarnya Saat ini, lanjut Baju Trihaksono, pihaknya melakukan pembersihan enceng gondok di Sungai Desa Waru belakang Hotel Neo. "Dinas PU SDA Prov Jatim bergerak cepat dengan mengerahkan 1 unit excavator, 2 unit dump truk, 1 unit crane, 2 perahu pencacah enceng gondok dan puluhan tenaga untuk membersihkan sungai," tandasnya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7185830/upaya-wagub-emil-dardak-cegah-banjir-susulan-di-waru-sidoarjo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hasto Sebut Bupati Sidoarjo Tersandera hingga Terpaksa Dukung 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekjen PDIP Hasto Kristianto menyebut Bupati Sidoarjo tersandera hingga dipaksa menjadi pendukung pasangan calon (Paslon) 02 di Pemilu 2024. Hasto juga menyebut sejumlah oknum aparat, kepala dinas, hingga perangkat desa juga menurutnya diduga diminta untuk memenangkan partai tertentu. "Ya, tadi saya juga bertemu dan mendengarkan laporan dari seluruh pimpinan dari PDIP di Jatim. Mereka mengatakan justru di Jatim masif. Itu kan (ada) suatu operasi khusus yang kemudian menyandera Bupati Sidoarjo dan kemudian dipaksa mendukung paslon 02," kata Hasto mendampingi Megawati di Blitar, Jumat (9/2/2024), melansir detikJatim. Hasto menilai, aksi penyanderaan atau pemaksaan seperti itu juga dilakukan terhadap sejumlah oknum aparat TNI dan Polri. Bahkah terjadi di lingkup PDI Perjuangan. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Bagaimana oknum-oknum TNI/Polri, kemudian para kepala dinas, ditekan, dicari kelemahannya, kemudian Bupatinya juga dicari kelemahannya. Bahkan ada opsus-opsus juga untuk memenangkan partai tertentu," terangnya. Namun, Hasto mengaku pihaknya tetap akan percaya pada pengalaman tentang suara rakyat. Hasto mengatakan, kekuasaan dan kekuatan rakyat tidak bisa dibungkam. Sehingga hal itu dapat menjadi kekuatan arus balik. "Kami yakin kekuatan rakyat tidak bisa dibungkam. Kekuatan kebenaran yang mulai menyuarakan," jelasnya. Lanjut Hasto, termasuk kekuatan kebenaran dari aparat TNI/Polri yang harus menempatkan sebagai lembaga netral. Nantinya akan ada kekuatan kebenaran bagi para anggota TNI/Polri yang tidak setuju dengan perintah untuk berpihak ke pasangan 02. "Seiring dengan keberanian dari perguruan tinggi untuk bersuara, maka ini juga memunculkan keberanian dari para prajurit TNI/Polri yang sebelumnya ada perintah-perintah khusus. Kemudian mereka berani menegakkan bahwa mereka harus netral," pungkasnya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/sumut/berita/d-7185570/hasto-sebut-bupati-sidoarjo-tersandera-hingga-terpaksa-dukung-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caleg PDIP Asal Banyuwangi Ini Copot APK-nya Sendiri Jelang Masa Tenang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jelang masa tenang Pemilu 2024, sejumlah alat peraga kampanye (APK) mulai dicopoti. Hal ini sesuai dengan Pasal 1 angka 36 Undang-Undang Pemilu. Karena hal ini, Chandra Astan Caleg PDI Perjuangan Dapil 3 Jatim Banyuwangi, Situbondo dan Bondowoso satu ini langsung menginstruksikan pada pendukungnya membereskan APK lebih awal. Meski masa tenang masih dua hari lagi, tepatnya dimulai pada tanggal 11 hingga 13 Februari 2024 mendatang, caleg nomor urut 7 ini mengaku sengaja berinisiatif membersihkan APK dirinya sendiri secara mandiri. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ "Kami hari ini mulai membersihkan alat peraga kampanye berupa baliho yang sudah terpasang, supaya bisa membantu para teman kita Satpol PP supaya tidak terlalu banyak yang dibersihkan ya pak," ungkap Chandra, Jumat (9/2/2024). Chandra mengaku ingin memberikan contoh perilaku berpolitik yang edukatif dan sportif. Menurutnya, menghormati aturan masa tenang adalah wujud dari implementasi Pemilu bermartabat. "Kita taat aturan, bahwa setelah ini adalah masa tenang. Jadi, kita betul-betul masuk ke pemilu yang sesuai dengan aturan. Dan semoga ini bisa jadi gerakan supaya tidak banyak sampah Baliho di mana mana nantinya," jelas Chandra. Bersih-bersih pencopotan APK Chandra ini dimulai dari sekitar jalan utama menuju Bangsring, Chandra beserta pendukungnya mencopot semua APK. Yang kemudian akan serempak diikuti dengan gerakan pembersihan APK yang dipasang oleh pendukungnya di seluruh wilayah pencalonannya Dapil 3 Jatim.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7185576/caleg-pdip-asal-banyuwangi-ini-copot-apk-nya-sendiri-jelang-masa-tenang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fans Rhoma Irama Jatim Deklarasi Dukung AMIN, Ajak Penggemar Coblos 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kampanye akbar pasangan calon presiden dan calon wakil presiden nomor 01 Anies Baswedan dan Muhaimin Iskandar (AMIN) di Stadion Untung Suropati Kota Pasuruan dimeriahkan penampilan Raja Dangdut Rhoma Irama dan Soneta Grup. Bukan hanya itu, kelompok penggemarnya, Rhomais, juga deklarasi mendukung AMIN. Deklarasi dilakukan di atas panggung utama. Deklarasi disaksikan Anies Baswedan, Muhaimin Iskandar, Rhoma Irama dan ribuan pendukung. Deklarasi dibacakan Suryanto Aka yang terdiri 4 poin. "Kami fans Raja Dangdut Rhoma Irama Jawa Timur, rakyat lndonesia yang ingin melihat Indonesia adil makmur untuk semua," kata Ketua Umum Rhomais Jawa Timur, Suryanto Aka, Jumat (9/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Dalam kesempatan itu, Rhoma Irama juga melakukan simulasi pencoblosan Anies-Muhaimin saat di panggung. Simulasi dilakukan usai Anies dan Cak Imin menyampaikan pidato. Rhoma Irama mengenakan baju berwana putih dan memakai kaca mata hitam. Rhoma melakukan pencoblosan menggunakan sebuah tongkat. Dia mencoblos gambar Anies dan Muhaimin. Anies dan Muhaimin menemani Rhoma Irama dalam simulasi pencoblosan tersebut. Pendukung bersorak saat gambar Anies dan Muhaimin dicoblos sang Raja Dangdut. Setelah itu, Rhoma kemudian bernyanyi menghibur pendukung Anies-Muhaimin. Berikut 4 poin deklarasi Rhomais: 1. Mendukung penuh perjuangan Anies-Muhaimin dalam mewujudkan kesejahteraan dan persatuan bangsa 2. Mendukung penuh perjuangan Anies-Muhaimin untuk memenangkan Pilpres 2024 3. Mengajak para penggemar Rhoma lrama dan Soneta yang berada di bawah organisasi-organisasi yang dipimpin Raja Dangdut Rhoma Irama, yang sejalan dengan sikap Rhoma Irama, mari bergabung dan bersatu padu didalam wadah RHOMAIS untuk memperjuangkan perubahan. 4. Mengajak seluruh rakyat untuk mencoblos di TPS dan ikut mengawasi penghitungan suara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7185563/fans-rhoma-irama-jatim-deklarasi-dukung-amin-ajak-penggemar-coblos-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sejumlah partai politik dan caleg ikut menurunkan Alat Peraga Kampanye (APK) di wilayah masing-masing selama masa tenang Pemilu 2024. Salah satunya PDI Perjuangan (PDIP) yang dengan tegas menginstruksikan kepada seluruh kader maupun simpatisannya untuk membereskan APK secara mandiri. Ketua DPD PDIP Jatim Said Abdullah menegaskan, seluruh caleg PDIP di Jatim ikut membantu Satpol PP dan Bawaslu menurunkan berbagai APK di beberapa lokasi. Said mengatakan, partisipasi aktif dari para caleg maupun anggota partai dalam menjaga kebersihan dan keteraturan APK sangat penting untuk menciptakan suasana kondusif jelang pencoblosan. "Kita tunjukkan kepedulian kita terhadap lingkungan setempat dengan partisipasi turun ke jalan keliling. Kader PDI Perjuangan ikut membantu untuk membenahi dan membereskan seluruh Alat Peraga Kampanye yang telah terpasang di daerah masing-masing," jelas Said, Senin (12/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Selain imbauan tersebut, Said juga mengajak seluruh masyarakat Jatim turut aktif dalam pesta demokrasi 5 tahunan ini dengan menyalurkan hak pilihnya ke TPS masing-masing."Tanggal 14 Februari saya mengajak seluruh masyarakat Jawa Timur untuk hadir ke Tempat Pemungutan Suara (TPS) masing-masing, memberikan hak pilih dan hak suaranya, serta menjadi Warga Negara Indonesia yang baik dengan memenuhi kewajibannya dalam proses demokrasi," kata pria yang juga menjabat sebagai Ketua Banggar DPR RI tersebut.. Diketahui, menjelang pelaksanaan Pemilu 14 Februari 2024, Indonesia memasuki masa tenang sesuai dengan ketentuan yang diatur dalam Peraturan KPU Nomor 15 Tahun 2023 tentang Kampanye Pemilihan Umum. Masa tenang ini berlangsung selama 3 hari. Mulai 11 Februari 2024 hingga H-1 Pemilu atau 13 Februari 2024. Selama masa tenang ini, seluruh peserta pemilu, termasuk calon dan pendukungnya, dilarang untuk kampanye maupun melakukan berbagai aktivitas politik yang bisa memengaruhi opini publik. Hal ini bertujuan untuk menciptakan situasi yang kondusif dan adil menjelang hari pemungutan suara, sehingga masyarakat dapat memilih secara tenang dan rasional sesuai dengan hak suara masing-masing. Simak Video 'Momen APK di Sejumlah Daerah Mulai Dibersihkan di Masa Tenang':   [Gambas:Video 20detik]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asyiknya Belajar soal Capung Beraneka Warna di Wisata Jopuro Banyuwangi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penggemar fotografi fauna atau pecinta capung tak perlu risau. Musim hujan saat ini tepat untuk berkunjung ke destinasi wisata Jopuro Banyuwangi. Di Jopuro, wisatawan bisa dimanjakan dengan aneka penampakan capung yang berterbangan di sejumlah titik wisata dengan aliran air jernih dan bersih. Sejumlah bahasa daerah kerap disebut kinjeng, papatong, coblang dan tjapung. Wisata Jopuro adalah kawasan pemandian alami di Dusun Rejopuro, Desa Kampung Anyar, Kecamatan Glagah, cukup ikonik karena memadukan lanskap alami dan buatan. Aliran mata air yang dibendung membentuk kolam-kolam dengan arus yang tenang menjadi sebuah habitat para capung. 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Capung di Wisata Jopuro dengan mudah dapat ditemui. Hal ini menandakan bahwa capung merupakan salah satu hewan yang berperan sebagai bioindikator untuk kualitas lingkungan, utamanya air. Ketua Kelompok Sadar Wisata (Pokdarwis) Jopuro Samian mengungkapkan rasa syukur dengan sering ditemukan capung di berbagai sudut area Wisata Jopuro. "Seperti yang kita ketahui, capung itu hanya bisa berkembang biak di habitat air yang bersih dan juga bergantung pada ekosistem perairan yang sehat dan rantai makanan yang sehat." kata Samian, Senin (12/2/2024). Beberapa kali, Samian mengaku mengamati betina capung meletakkan telur-telurnya di permukaan air, dan ada juga yang menaruh dalam tanaman atau lumut air. "Capung betina meletakkan telur di permukaan air yang tenang dan ada yang di lumut air. Setelah menetas, larva capung menghabiskan waktunya memburu invertebrata atau hewan tanpa tulang belakang alias hewan lunak di dalam air." ungkap Samian. Tak hanya itu, selain sebagai bioindikator, capung juga sangat berjasa bagi manusia karena telah membantu membasmi serangga seperti jentik-jentik yang berasal dari nyamuk, lalat atau serangga lainnya merupakan mangsa bagi capung. Salah satu wisatawan dari Jakarta Mardhita mengaku tidak rugi datang ke wisata pemandian alami tersebut, ia pun mengaku kerap menemukan Capung aneka warna. "Iya, bagus ada yang biru, merah itu ada macem-macem terus hitam dan hijau juga ada kuning keemasan. Baru tahu saya capung warna warni," katanya kepada detik Jatim. Salah satu wisatawan, Akbar asal Jakarta mengaku sempat mengabadikan sejumlah foto Capung di ponsel pintarnya. "Saya ambil foto tadi, gak tahu ya, ada capung kok rasanya makin percaya ini tempat wisata airnya pasti bersih. Seger lagi disini," terang Akbar. Berbagai jenis capung yang dapat dijumpai di tempat ini. Di antaranya Dragon fly si pemilik warna kuning keemasan, Neurothemis si wara kehitaman dengan semburat sayap keunguan, terminata, damselfly, Chalocholetes viridis dan atrocalopcalopteryx atrata. Jika ingin berkunjung ke tempat ini, pastikan membawa pakaian yang nyaman untuk berendam dan berburu capung dialam terbuka dan berair. Wisata Jopuro ini dibuka mulai pukul 7 pagi hingga 5 sore.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.detik.com/jatim/wisata/d-7188379/asyiknya-belajar-soal-capung-beraneka-warna-di-wisata-jopuro-banyuwangi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasus pemerkosaan terhadap turis wanita di Bali terjadi lagi. Kali ini, pelakunya pemandu wisata dan korbannya turis China. Ini adalah kasus kedua yang terjadi di Bali. Masih segar dalam ingatan, beberapa bulan lalu, tepatnya pada bulan Agustus 2023, seorang turis Brasil diperkosa oleh driver ojol di Bali. Peristiwa pemerkosaan itu terjadi di sepetak tanah kosong Jalan Nyang-nyang, Kelurahan Jimbaran, Kecamatan Kuta Selatan, Kabupaten Badung. Peristiwa memilukan itu terjadi pada rentang waktu pukul 04.00 hingga 05.00 Wita, Senin (7/8/2023). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Pelaku adalah laki-laki berinisial WD asal Kecamatan Bangsalsari, Kabupaten Jember, Jawa Timur (Jatim). Adapun korban pemerkosaan itu yakni turis perempuan asal Brasil berinisial GWL (26). "Korban merupakan wisatawan asal Brasil yang berlibur ke Bali dan menginap di salah satu vila di daerah Jimbaran," ungkap Kepala Bidang Hubungan Masyarakat (Kabid Humas) Polda Bali, Kombes Jansen Avitus Panjaitan. Jansen menjelaskan, GWL memesan ojol dari Puri Kelapa Quest By Bukit Villa dengan tujuan Villa Asri Jimbaran. Pesanan tersebut diambil oleh WD. "Selama dalam perjalanan korban (GWL) terus diajak mengobrol oleh pelaku sampai tidak memperhatikan map (peta) perjalanan," tutur Jansen. Sesampainya di sebuah tanah kosong, WD membelokkan motornya dan menyuruh GWL turun. Pria itu kemudian berupaya memerkosa GWL dan sempat membanting turis asing itu. Bahkan, WD sempat mencekik leher dan menutup mulut GWL. Perempuan berusia 26 tahun itu berupaya melawan dengan cara memukul WD menggunakan botol air mineral. GWL sempat kabur, tapi WD menangkapnya dan kembali membanting tubuh turis Brasil itu. Seusai diperkosa, pria pendatang dari luar Bali itu mengantar GWL pulang ke Villa Asri Jimbaran. 5 Bulan berselang, tepatnya di bulan Februari ini, turis asing kembali diperkosa di Bali. Kali ini, korbannya adalah seorang turis China berinisial HJT. Pelakunya, bukan driver ojol lagi, melainkan seorang pemandu wisata bernama Faisal Akbar Ramadhan, pria pendatang berusia 29 tahun dari Surabaya. Faisal ditangkap di sebuah hotel di kawasan Nusa Dua, Kuta Selatan, Badung, Bali. Fajar diamankan oleh sekuriti hotel dan teman korban setelah ketahuan memperkosa turis perempuan asal China itu. Kasus tersebut kemudian dilaporkan ke polisi. Kepala Seksi Hubungan Masyarakat (Kasi Humas) Polresta Denpasar, AKP I Ketut Sukadi mengatakan, pelaku saat ini sudah diamankan di Sat Reskrim Polresta Denpasar. Saat diinterogasi polisi, pria pendatang itu mengaku menawarkan diri sebagai pemandu wisata, sekaligus sopir pribadi HJT selama liburan di Pulau Dewata. HJT dan temannya pun sepakat menggunakan jasa Faisal untuk mengantarkan dan menemani mereka menuju ke sebuah tempat hiburan malam pada Rabu (7/2/2024). "Mereka sempat menikmati hiburan dan minum alkohol hingga pukul 01.00 Wita. Setelah itu, korban dan temannya meminta tersangka untuk mengantar mereka kembali ke hotel di kawasan Nusa Dua," ungkap Sukadi. Bukannya mengantarkan turis China itu kembali ke hotel tempatnya menginap, Faisal justru membawa mereka ke hotel lain di kawasan Benoa. Faisal lantas mengajak HJT masuk ke kamar hotel tersebut dengan alasan mengambil hadiah untuk temannya. Setelah itu, Faisal kemudian memuaskan nafsu bejatnya dan memerkosa turis China berusia 26 tahun tersebut.  Simak Video 'Ojol Pemerkosa Turis Brasil di Bali Ditangkap di Pasuruan':  [Gambas:Video 20detik]  Saksikan juga SOSOK pilihan minggu ini: Menilik Dapur Musik Vandra  [Gambas:Video 20detik]</t>
   </si>
 </sst>
 </file>
@@ -974,105 +989,105 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -1086,7 +1101,7 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
         <v>40</v>
@@ -1100,7 +1115,7 @@
         <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
         <v>43</v>
@@ -1114,7 +1129,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
         <v>46</v>
@@ -1128,7 +1143,7 @@
         <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>49</v>
@@ -1142,7 +1157,7 @@
         <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>52</v>
@@ -1156,7 +1171,7 @@
         <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
         <v>55</v>
@@ -1170,7 +1185,7 @@
         <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
         <v>58</v>
@@ -1184,133 +1199,133 @@
         <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
         <v>89</v>
@@ -1324,265 +1339,475 @@
         <v>91</v>
       </c>
       <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
         <v>92</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>93</v>
-      </c>
-      <c r="D30" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
         <v>95</v>
       </c>
-      <c r="B31" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>96</v>
-      </c>
-      <c r="D31" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
         <v>98</v>
       </c>
-      <c r="B32" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>99</v>
-      </c>
-      <c r="D32" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" t="s">
         <v>101</v>
       </c>
-      <c r="B33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>102</v>
-      </c>
-      <c r="D33" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
         <v>104</v>
       </c>
-      <c r="B34" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>105</v>
-      </c>
-      <c r="D34" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
         <v>107</v>
       </c>
-      <c r="B35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>108</v>
-      </c>
-      <c r="D35" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" t="s">
         <v>110</v>
       </c>
-      <c r="B36" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>111</v>
-      </c>
-      <c r="D36" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" t="s">
         <v>113</v>
       </c>
-      <c r="B37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>114</v>
-      </c>
-      <c r="D37" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D39" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D41" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D42" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D44" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D45" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C46" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D46" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C47" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" t="s">
         <v>141</v>
-      </c>
-      <c r="D47" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" t="s">
         <v>20</v>
       </c>
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" t="s">
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" t="s">
         <v>142</v>
       </c>
-      <c r="D48" t="s">
-        <v>22</v>
+      <c r="D55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>143</v>
+      </c>
+      <c r="B56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" t="s">
+        <v>144</v>
+      </c>
+      <c r="D56" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" t="s">
+        <v>146</v>
+      </c>
+      <c r="D58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/beritadetikjatim.xlsx
+++ b/beritadetikjatim.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve">judul</t>
   </si>
@@ -131,7 +131,7 @@
     <t xml:space="preserve">Sejumlah partai politik dan caleg ikut menurunkan Alat Peraga Kampanye (APK) di wilayah masing-masing selama masa tenang Pemilu 2024. Salah satunya PDI Perjuangan (PDIP) yang dengan tegas menginstruksikan kepada seluruh kader maupun simpatisannya untuk membereskan APK secara mandiri. Ketua DPD PDIP Jatim Said Abdullah menegaskan, seluruh caleg PDIP di Jatim ikut membantu Satpol PP dan Bawaslu menurunkan berbagai APK di beberapa lokasi. Said mengatakan, partisipasi aktif dari para caleg maupun anggota partai dalam menjaga kebersihan dan keteraturan APK sangat penting untuk menciptakan suasana kondusif jelang pencoblosan. "Kita tunjukkan kepedulian kita terhadap lingkungan setempat dengan partisipasi turun ke jalan keliling. Kader PDI Perjuangan ikut membantu untuk membenahi dan membereskan seluruh Alat Peraga Kampanye yang telah terpasang di daerah masing-masing," jelas Said, Senin (12/2/2024). 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
- Selain imbauan tersebut, Said juga mengajak seluruh masyarakat Jatim turut aktif dalam pesta demokrasi 5 tahunan ini dengan menyalurkan hak pilihnya ke TPS masing-masing."Tanggal 14 Februari saya mengajak seluruh masyarakat Jawa Timur untuk hadir ke Tempat Pemungutan Suara (TPS) masing-masing, memberikan hak pilih dan hak suaranya, serta menjadi Warga Negara Indonesia yang baik dengan memenuhi kewajibannya dalam proses demokrasi," kata pria yang juga menjabat sebagai Ketua Banggar DPR RI tersebut.. Diketahui, menjelang pelaksanaan Pemilu 14 Februari 2024, Indonesia memasuki masa tenang sesuai dengan ketentuan yang diatur dalam Peraturan KPU Nomor 15 Tahun 2023 tentang Kampanye Pemilihan Umum. Masa tenang ini berlangsung selama 3 hari. Mulai 11 Februari 2024 hingga H-1 Pemilu atau 13 Februari 2024. Selama masa tenang ini, seluruh peserta pemilu, termasuk calon dan pendukungnya, dilarang untuk kampanye maupun melakukan berbagai aktivitas politik yang bisa memengaruhi opini publik. Hal ini bertujuan untuk menciptakan situasi yang kondusif dan adil menjelang hari pemungutan suara, sehingga masyarakat dapat memilih secara tenang dan rasional sesuai dengan hak suara masing-masing. Simak Video 'Momen APK di Sejumlah Daerah Mulai Dibersihkan di Masa Tenang':   [Gambas:Video 20detik] </t>
+ Selain imbauan tersebut, Said juga mengajak seluruh masyarakat Jatim turut aktif dalam pesta demokrasi 5 tahunan ini dengan menyalurkan hak pilihnya ke TPS masing-masing."Tanggal 14 Februari saya mengajak seluruh masyarakat Jawa Timur untuk hadir ke Tempat Pemungutan Suara (TPS) masing-masing, memberikan hak pilih dan hak suaranya, serta menjadi Warga Negara Indonesia yang baik dengan memenuhi kewajibannya dalam proses demokrasi," kata pria yang juga menjabat sebagai Ketua Banggar DPR RI tersebut.. Diketahui, menjelang pelaksanaan Pemilu 14 Februari 2024, Indonesia memasuki masa tenang sesuai dengan ketentuan yang diatur dalam Peraturan KPU Nomor 15 Tahun 2023 tentang Kampanye Pemilihan Umum. Masa tenang ini berlangsung selama 3 hari. Mulai 11 Februari 2024 hingga H-1 Pemilu atau 13 Februari 2024. Selama masa tenang ini, seluruh peserta pemilu, termasuk calon dan pendukungnya, dilarang untuk kampanye maupun melakukan berbagai aktivitas politik yang bisa memengaruhi opini publik. Hal ini bertujuan untuk menciptakan situasi yang kondusif dan adil menjelang hari pemungutan suara, sehingga masyarakat dapat memilih secara tenang dan rasional sesuai dengan hak suara masing-masing. Simak Video 'Momen APK di Sejumlah Daerah Mulai Dibersihkan di Masa Tenang':   [Gambas:Video 20detik]</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7188691/masa-tenang-pdip-jatim-instruksikan-kader-hingga-caleg-turunkan-apk</t>
@@ -167,7 +167,7 @@
     <t xml:space="preserve">Kasus pemerkosaan terhadap turis wanita di Bali terjadi lagi. Kali ini, pelakunya pemandu wisata dan korbannya turis China. Ini adalah kasus kedua yang terjadi di Bali. Masih segar dalam ingatan, beberapa bulan lalu, tepatnya pada bulan Agustus 2023, seorang turis Brasil diperkosa oleh driver ojol di Bali. Peristiwa pemerkosaan itu terjadi di sepetak tanah kosong Jalan Nyang-nyang, Kelurahan Jimbaran, Kecamatan Kuta Selatan, Kabupaten Badung. Peristiwa memilukan itu terjadi pada rentang waktu pukul 04.00 hingga 05.00 Wita, Senin (7/8/2023). 
 ADVERTISEMENT
 SCROLL TO CONTINUE WITH CONTENT
- Pelaku adalah laki-laki berinisial WD asal Kecamatan Bangsalsari, Kabupaten Jember, Jawa Timur (Jatim). Adapun korban pemerkosaan itu yakni turis perempuan asal Brasil berinisial GWL (26). "Korban merupakan wisatawan asal Brasil yang berlibur ke Bali dan menginap di salah satu vila di daerah Jimbaran," ungkap Kepala Bidang Hubungan Masyarakat (Kabid Humas) Polda Bali, Kombes Jansen Avitus Panjaitan. Jansen menjelaskan, GWL memesan ojol dari Puri Kelapa Quest By Bukit Villa dengan tujuan Villa Asri Jimbaran. Pesanan tersebut diambil oleh WD. "Selama dalam perjalanan korban (GWL) terus diajak mengobrol oleh pelaku sampai tidak memperhatikan map (peta) perjalanan," tutur Jansen. Sesampainya di sebuah tanah kosong, WD membelokkan motornya dan menyuruh GWL turun. Pria itu kemudian berupaya memerkosa GWL dan sempat membanting turis asing itu. Bahkan, WD sempat mencekik leher dan menutup mulut GWL. Perempuan berusia 26 tahun itu berupaya melawan dengan cara memukul WD menggunakan botol air mineral. GWL sempat kabur, tapi WD menangkapnya dan kembali membanting tubuh turis Brasil itu. Seusai diperkosa, pria pendatang dari luar Bali itu mengantar GWL pulang ke Villa Asri Jimbaran. 5 Bulan berselang, tepatnya di bulan Februari ini, turis asing kembali diperkosa di Bali. Kali ini, korbannya adalah seorang turis China berinisial HJT. Pelakunya, bukan driver ojol lagi, melainkan seorang pemandu wisata bernama Faisal Akbar Ramadhan, pria pendatang berusia 29 tahun dari Surabaya. Faisal ditangkap di sebuah hotel di kawasan Nusa Dua, Kuta Selatan, Badung, Bali. Fajar diamankan oleh sekuriti hotel dan teman korban setelah ketahuan memperkosa turis perempuan asal China itu. Kasus tersebut kemudian dilaporkan ke polisi. Kepala Seksi Hubungan Masyarakat (Kasi Humas) Polresta Denpasar, AKP I Ketut Sukadi mengatakan, pelaku saat ini sudah diamankan di Sat Reskrim Polresta Denpasar. Saat diinterogasi polisi, pria pendatang itu mengaku menawarkan diri sebagai pemandu wisata, sekaligus sopir pribadi HJT selama liburan di Pulau Dewata. HJT dan temannya pun sepakat menggunakan jasa Faisal untuk mengantarkan dan menemani mereka menuju ke sebuah tempat hiburan malam pada Rabu (7/2/2024). "Mereka sempat menikmati hiburan dan minum alkohol hingga pukul 01.00 Wita. Setelah itu, korban dan temannya meminta tersangka untuk mengantar mereka kembali ke hotel di kawasan Nusa Dua," ungkap Sukadi. Bukannya mengantarkan turis China itu kembali ke hotel tempatnya menginap, Faisal justru membawa mereka ke hotel lain di kawasan Benoa. Faisal lantas mengajak HJT masuk ke kamar hotel tersebut dengan alasan mengambil hadiah untuk temannya. Setelah itu, Faisal kemudian memuaskan nafsu bejatnya dan memerkosa turis China berusia 26 tahun tersebut.  Simak Video 'Ojol Pemerkosa Turis Brasil di Bali Ditangkap di Pasuruan':  [Gambas:Video 20detik]  Saksikan juga SOSOK pilihan minggu ini: Menilik Dapur Musik Vandra  [Gambas:Video 20detik]  </t>
+ Pelaku adalah laki-laki berinisial WD asal Kecamatan Bangsalsari, Kabupaten Jember, Jawa Timur (Jatim). Adapun korban pemerkosaan itu yakni turis perempuan asal Brasil berinisial GWL (26). "Korban merupakan wisatawan asal Brasil yang berlibur ke Bali dan menginap di salah satu vila di daerah Jimbaran," ungkap Kepala Bidang Hubungan Masyarakat (Kabid Humas) Polda Bali, Kombes Jansen Avitus Panjaitan. Jansen menjelaskan, GWL memesan ojol dari Puri Kelapa Quest By Bukit Villa dengan tujuan Villa Asri Jimbaran. Pesanan tersebut diambil oleh WD. "Selama dalam perjalanan korban (GWL) terus diajak mengobrol oleh pelaku sampai tidak memperhatikan map (peta) perjalanan," tutur Jansen. Sesampainya di sebuah tanah kosong, WD membelokkan motornya dan menyuruh GWL turun. Pria itu kemudian berupaya memerkosa GWL dan sempat membanting turis asing itu. Bahkan, WD sempat mencekik leher dan menutup mulut GWL. Perempuan berusia 26 tahun itu berupaya melawan dengan cara memukul WD menggunakan botol air mineral. GWL sempat kabur, tapi WD menangkapnya dan kembali membanting tubuh turis Brasil itu. Seusai diperkosa, pria pendatang dari luar Bali itu mengantar GWL pulang ke Villa Asri Jimbaran. 5 Bulan berselang, tepatnya di bulan Februari ini, turis asing kembali diperkosa di Bali. Kali ini, korbannya adalah seorang turis China berinisial HJT. Pelakunya, bukan driver ojol lagi, melainkan seorang pemandu wisata bernama Faisal Akbar Ramadhan, pria pendatang berusia 29 tahun dari Surabaya. Faisal ditangkap di sebuah hotel di kawasan Nusa Dua, Kuta Selatan, Badung, Bali. Fajar diamankan oleh sekuriti hotel dan teman korban setelah ketahuan memperkosa turis perempuan asal China itu. Kasus tersebut kemudian dilaporkan ke polisi. Kepala Seksi Hubungan Masyarakat (Kasi Humas) Polresta Denpasar, AKP I Ketut Sukadi mengatakan, pelaku saat ini sudah diamankan di Sat Reskrim Polresta Denpasar. Saat diinterogasi polisi, pria pendatang itu mengaku menawarkan diri sebagai pemandu wisata, sekaligus sopir pribadi HJT selama liburan di Pulau Dewata. HJT dan temannya pun sepakat menggunakan jasa Faisal untuk mengantarkan dan menemani mereka menuju ke sebuah tempat hiburan malam pada Rabu (7/2/2024). "Mereka sempat menikmati hiburan dan minum alkohol hingga pukul 01.00 Wita. Setelah itu, korban dan temannya meminta tersangka untuk mengantar mereka kembali ke hotel di kawasan Nusa Dua," ungkap Sukadi. Bukannya mengantarkan turis China itu kembali ke hotel tempatnya menginap, Faisal justru membawa mereka ke hotel lain di kawasan Benoa. Faisal lantas mengajak HJT masuk ke kamar hotel tersebut dengan alasan mengambil hadiah untuk temannya. Setelah itu, Faisal kemudian memuaskan nafsu bejatnya dan memerkosa turis China berusia 26 tahun tersebut.  Simak Video 'Ojol Pemerkosa Turis Brasil di Bali Ditangkap di Pasuruan':  [Gambas:Video 20detik]  Saksikan juga SOSOK pilihan minggu ini: Menilik Dapur Musik Vandra  [Gambas:Video 20detik]</t>
   </si>
   <si>
     <t xml:space="preserve">https://travel.detik.com/travel-news/d-7188122/kasus-pemerkosaan-turis-wanita-di-bali-terjadi-lagi-dan-lagi</t>
@@ -246,6 +246,24 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.detik.com/jatim/berita/d-7187947/bubaran-haul-akbar-di-surabaya-sempat-macetkan-suramadu-hingga-2-km</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seorang ibu rumah tangga (IRT) di Malang, Jawa Timur, Dayang Santi (40) tewas dibunuh suaminya, Ditya Mukhsan Muhammad (40). Dayang Santi dan suaminya kerap cekcok gegara tudingan selingkuh. Dilansir detikJatim, Senin (12/2/2024), Kasat Reskrim Polres Malang AKP Gandha Syah Hidayat menyebut kedua suami istri ini sering cekcok. Keduanya saling menuduh selingkuh. "Ini sama-sama mencurigai masing-masing memiliki pria idaman lain maupun wanita idaman lain karena memang riwayat dari diari korban ini melambangkan bahwa kurang akur ya," kata Gandha kepada wartawan, Senin (12/2). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Gandha menyebut korban sempat menulis di diarinya jika suaminya hanya bermain handphone saat di rumah. Ditya juga disebut tak pernah mengajak istrinya ngobrol hingga kerap ketahuan membonceng perempuan lain. "Cekcok-cekcok ini karena sering berantem karena cemburu," imbuhnya. Atas perbuatannya, Ditya kini telah ditetapkan sebagai tersangka usai pemeriksaan 12 saksi. Tiga di antaranya merupakan saksi ahli. "Kami memeriksa total sejumlah 12 orang saksi, yang mana dari 12 orang saksi tersebut 3 diantaranya merupakan saksi ahli. Untuk barang bukti yang kita amankan diantaranya video milik korban serta buku diary, berisi curahan isi hati korban," sambungnya. Selain itu, penyidik juga telah memiliki alat bukti yang cukup untuk menetapkan Ditya sebagai tersangka. Alat bukti itu antara lain hasil rekam medis, sejumlah temuan di TKP, dan dilengkapi dengan hasil gelar perkara. "Ada surat lebih dari satu, ahli pun kita pakai lebih dari 2, kemudian keterangan saksi kita ada 9 kemudian petunjuk pola TKP juga sudah dilakukan. Petunjuk itu bersesuaian antara keterangan saksi, keterangan ahli, barang bukti dan surat itu sendiri yaitu sesuai. Makanya kami tetapkan yang bersangkutan inisial DMM sebagai tersangka pelaku KDRT yang menyebabkan korban meninggal dunia," jelas dia. Atas perbuatannya, tersangka dijerat Pasal 44 ayat 1 dan ayat 3 Undang-Undang Nomor 23 Tahun 2004 tentang penghapusan dalam lingkup rumah tangga, dengan ancaman hukuman paling lama 12 tahun penjara. Diberitakan detikJatim sebelumnya, jasad Dayang Santi ditemukan di rumahnya di Perumahan Bumi Mondoroko Raya (BMR) Blok G01, Kecamatan Singosari, Kabupaten Malang, pada Rabu (24/) sekitar pukul 09.00 WIB. Jasad Dayang Santi ditemukan terkapar dengan mulut mengeluarkan busa di lantai kamar. Keterangan tetangga menyebutkan sempat mendengar cekcok. Anak korban Y (6) juga memberikan pengakuan kedua orang tuanya bertengkar dan sempat melihat ayahnya menuangkan cairan pembersih lantai ke dalam gelas. "Saksi melihat ayahnya meminumkan cairan tersebut kepada korban dengan cara memegang pipi korban," ujar Gandha beberapa waktu lalu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sejumlah partai politik dan caleg ikut menurunkan Alat Peraga Kampanye (APK) di wilayah masing-masing selama masa tenang Pemilu 2024. Salah satunya PDI Perjuangan (PDIP) yang dengan tegas menginstruksikan kepada seluruh kader maupun simpatisannya untuk membereskan APK secara mandiri. Ketua DPD PDIP Jatim Said Abdullah menegaskan, seluruh caleg PDIP di Jatim ikut membantu Satpol PP dan Bawaslu menurunkan berbagai APK di beberapa lokasi. Said mengatakan, partisipasi aktif dari para caleg maupun anggota partai dalam menjaga kebersihan dan keteraturan APK sangat penting untuk menciptakan suasana kondusif jelang pencoblosan. "Kita tunjukkan kepedulian kita terhadap lingkungan setempat dengan partisipasi turun ke jalan keliling. Kader PDI Perjuangan ikut membantu untuk membenahi dan membereskan seluruh Alat Peraga Kampanye yang telah terpasang di daerah masing-masing," jelas Said, Senin (12/2/2024). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Selain imbauan tersebut, Said juga mengajak seluruh masyarakat Jatim turut aktif dalam pesta demokrasi 5 tahunan ini dengan menyalurkan hak pilihnya ke TPS masing-masing."Tanggal 14 Februari saya mengajak seluruh masyarakat Jawa Timur untuk hadir ke Tempat Pemungutan Suara (TPS) masing-masing, memberikan hak pilih dan hak suaranya, serta menjadi Warga Negara Indonesia yang baik dengan memenuhi kewajibannya dalam proses demokrasi," kata pria yang juga menjabat sebagai Ketua Banggar DPR RI tersebut.. Diketahui, menjelang pelaksanaan Pemilu 14 Februari 2024, Indonesia memasuki masa tenang sesuai dengan ketentuan yang diatur dalam Peraturan KPU Nomor 15 Tahun 2023 tentang Kampanye Pemilihan Umum. Masa tenang ini berlangsung selama 3 hari. Mulai 11 Februari 2024 hingga H-1 Pemilu atau 13 Februari 2024. Selama masa tenang ini, seluruh peserta pemilu, termasuk calon dan pendukungnya, dilarang untuk kampanye maupun melakukan berbagai aktivitas politik yang bisa memengaruhi opini publik. Hal ini bertujuan untuk menciptakan situasi yang kondusif dan adil menjelang hari pemungutan suara, sehingga masyarakat dapat memilih secara tenang dan rasional sesuai dengan hak suara masing-masing. Simak Video 'Momen APK di Sejumlah Daerah Mulai Dibersihkan di Masa Tenang':   [Gambas:Video 20detik] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasus pemerkosaan terhadap turis wanita di Bali terjadi lagi. Kali ini, pelakunya pemandu wisata dan korbannya turis China. Ini adalah kasus kedua yang terjadi di Bali. Masih segar dalam ingatan, beberapa bulan lalu, tepatnya pada bulan Agustus 2023, seorang turis Brasil diperkosa oleh driver ojol di Bali. Peristiwa pemerkosaan itu terjadi di sepetak tanah kosong Jalan Nyang-nyang, Kelurahan Jimbaran, Kecamatan Kuta Selatan, Kabupaten Badung. Peristiwa memilukan itu terjadi pada rentang waktu pukul 04.00 hingga 05.00 Wita, Senin (7/8/2023). 
+ADVERTISEMENT
+SCROLL TO CONTINUE WITH CONTENT
+ Pelaku adalah laki-laki berinisial WD asal Kecamatan Bangsalsari, Kabupaten Jember, Jawa Timur (Jatim). Adapun korban pemerkosaan itu yakni turis perempuan asal Brasil berinisial GWL (26). "Korban merupakan wisatawan asal Brasil yang berlibur ke Bali dan menginap di salah satu vila di daerah Jimbaran," ungkap Kepala Bidang Hubungan Masyarakat (Kabid Humas) Polda Bali, Kombes Jansen Avitus Panjaitan. Jansen menjelaskan, GWL memesan ojol dari Puri Kelapa Quest By Bukit Villa dengan tujuan Villa Asri Jimbaran. Pesanan tersebut diambil oleh WD. "Selama dalam perjalanan korban (GWL) terus diajak mengobrol oleh pelaku sampai tidak memperhatikan map (peta) perjalanan," tutur Jansen. Sesampainya di sebuah tanah kosong, WD membelokkan motornya dan menyuruh GWL turun. Pria itu kemudian berupaya memerkosa GWL dan sempat membanting turis asing itu. Bahkan, WD sempat mencekik leher dan menutup mulut GWL. Perempuan berusia 26 tahun itu berupaya melawan dengan cara memukul WD menggunakan botol air mineral. GWL sempat kabur, tapi WD menangkapnya dan kembali membanting tubuh turis Brasil itu. Seusai diperkosa, pria pendatang dari luar Bali itu mengantar GWL pulang ke Villa Asri Jimbaran. 5 Bulan berselang, tepatnya di bulan Februari ini, turis asing kembali diperkosa di Bali. Kali ini, korbannya adalah seorang turis China berinisial HJT. Pelakunya, bukan driver ojol lagi, melainkan seorang pemandu wisata bernama Faisal Akbar Ramadhan, pria pendatang berusia 29 tahun dari Surabaya. Faisal ditangkap di sebuah hotel di kawasan Nusa Dua, Kuta Selatan, Badung, Bali. Fajar diamankan oleh sekuriti hotel dan teman korban setelah ketahuan memperkosa turis perempuan asal China itu. Kasus tersebut kemudian dilaporkan ke polisi. Kepala Seksi Hubungan Masyarakat (Kasi Humas) Polresta Denpasar, AKP I Ketut Sukadi mengatakan, pelaku saat ini sudah diamankan di Sat Reskrim Polresta Denpasar. Saat diinterogasi polisi, pria pendatang itu mengaku menawarkan diri sebagai pemandu wisata, sekaligus sopir pribadi HJT selama liburan di Pulau Dewata. HJT dan temannya pun sepakat menggunakan jasa Faisal untuk mengantarkan dan menemani mereka menuju ke sebuah tempat hiburan malam pada Rabu (7/2/2024). "Mereka sempat menikmati hiburan dan minum alkohol hingga pukul 01.00 Wita. Setelah itu, korban dan temannya meminta tersangka untuk mengantar mereka kembali ke hotel di kawasan Nusa Dua," ungkap Sukadi. Bukannya mengantarkan turis China itu kembali ke hotel tempatnya menginap, Faisal justru membawa mereka ke hotel lain di kawasan Benoa. Faisal lantas mengajak HJT masuk ke kamar hotel tersebut dengan alasan mengambil hadiah untuk temannya. Setelah itu, Faisal kemudian memuaskan nafsu bejatnya dan memerkosa turis China berusia 26 tahun tersebut.  Simak Video 'Ojol Pemerkosa Turis Brasil di Bali Ditangkap di Pasuruan':  [Gambas:Video 20detik]  Saksikan juga SOSOK pilihan minggu ini: Menilik Dapur Musik Vandra  [Gambas:Video 20detik]  </t>
   </si>
 </sst>
 </file>
@@ -843,6 +861,48 @@
         <v>59</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
